--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -2030,12 +2030,12 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>25</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2133,12 +2133,12 @@
       <sheetData sheetId="9">
         <row r="6">
           <cell r="D6" t="str">
-            <v>M5</v>
+            <v>N5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>N5</v>
+            <v>Q5</v>
           </cell>
         </row>
       </sheetData>
@@ -2150,19 +2150,19 @@
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>M5</v>
+            <v>N5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="6">
           <cell r="D6" t="str">
-            <v>M5</v>
+            <v>N5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>N5</v>
+            <v>Q5</v>
           </cell>
         </row>
       </sheetData>
@@ -2200,12 +2200,12 @@
       <sheetData sheetId="15">
         <row r="6">
           <cell r="D6" t="str">
-            <v>Z5</v>
+            <v>H6</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>H6</v>
+            <v>M6</v>
           </cell>
         </row>
       </sheetData>
@@ -2345,36 +2345,36 @@
       <sheetData sheetId="28">
         <row r="6">
           <cell r="D6">
-            <v>42158</v>
+            <v>42184</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42157</v>
+            <v>42181</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="29">
         <row r="6">
           <cell r="D6">
-            <v>42158</v>
+            <v>42184</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42157</v>
+            <v>42181</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="30">
         <row r="6">
           <cell r="D6">
-            <v>42159</v>
+            <v>42185</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42158</v>
+            <v>42184</v>
           </cell>
         </row>
       </sheetData>
@@ -2692,7 +2692,7 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="44" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun  1 2015 10:45:27</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2015 17:04:19</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="212"/>
       <c r="G12" s="219"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="D17" s="8">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,EvaluationDate,"f",Trigger),"2D","f")</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="E17" s="212"/>
       <c r="G17" s="225"/>
@@ -2978,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42159.757060185184</v>
+        <v>42185.729953703703</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I18" s="33">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42159</v>
+        <v>42185</v>
       </c>
       <c r="J18" s="111"/>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_005dd#0024</v>
+        <v>obj_005d9#0000</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="I20" s="35">
         <f>[1]!LastFixingsTrigger</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="111"/>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D28" s="36" t="str">
         <f>_xll.qlEuribor(,"1M",D34,,Trigger)</f>
-        <v>obj_005dc#0000</v>
+        <v>obj_005d8#0000</v>
       </c>
       <c r="E28" s="212"/>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D34" s="52" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,2,Calendar,_xll.ohPack('1MSynthDepo'!G13:G21),"actual/365",,,,D31,D32,,Trigger)</f>
-        <v>obj_005db#0000</v>
+        <v>obj_005d7#0000</v>
       </c>
       <c r="E34" s="212"/>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="B37" s="211"/>
       <c r="C37" s="26">
         <f>_xll.qlTermStructureReferenceDate(D34)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="D37" s="37">
         <f>_xll.qlYieldTSDiscount(D34,C37,,Trigger)</f>
@@ -3193,11 +3193,11 @@
       <c r="B38" s="211"/>
       <c r="C38" s="27">
         <f>_xll.qlTermStructureMaxDate(D34)</f>
-        <v>42377</v>
+        <v>42402</v>
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0003746867120111</v>
+        <v>1.0003704731969099</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="E1" s="167"/>
       <c r="K1" s="167" t="str">
         <f>_xll.qlEuribor(,S1,,,Trigger)</f>
-        <v>obj_00596#0000</v>
+        <v>obj_00592#0000</v>
       </c>
       <c r="L1" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(K1)</f>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="K3" s="310" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_005b9#0000</v>
       </c>
       <c r="L3" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3421,21 +3421,21 @@
       </c>
       <c r="R3" s="331">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="S3" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="T3" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.2000000000139721E-4</v>
+        <v>-6.3999999999994617E-4</v>
       </c>
       <c r="U3" s="239"/>
       <c r="V3" s="239"/>
       <c r="W3" s="190">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>5.709701278677759E-4</v>
       </c>
       <c r="X3" s="239"/>
       <c r="Y3" s="239"/>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="AA3" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000061111391205</v>
       </c>
       <c r="AB3" s="257"/>
       <c r="AD3" s="277" t="s">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="AE3" s="190" t="str">
         <f>_xll.qlIborIndex(,,S1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00592#0000</v>
+        <v>obj_0058e#0000</v>
       </c>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_00593#0000</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3514,35 +3514,35 @@
       </c>
       <c r="R4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="S4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="T4" s="190">
         <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>-6.2E-4</v>
+        <v>-6.4000000000000005E-4</v>
       </c>
       <c r="U4" s="190">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.1945108966147089E-3</v>
+        <v>-1.2109701278677221E-3</v>
       </c>
       <c r="V4" s="258">
         <f>T4-U4</f>
-        <v>5.7451089661470888E-4</v>
+        <v>5.7097012786772202E-4</v>
       </c>
       <c r="W4" s="186">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>5.709701278677759E-4</v>
       </c>
       <c r="X4" s="187">
         <f>Y4*10000</f>
-        <v>1.3972113396820696E-11</v>
+        <v>-5.388484797252957E-13</v>
       </c>
       <c r="Y4" s="278">
         <f>V4-W4</f>
-        <v>1.3972113396820696E-15</v>
+        <v>-5.388484797252957E-17</v>
       </c>
       <c r="Z4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="AA4" s="336">
         <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000061111391205</v>
       </c>
       <c r="AB4" s="241" t="b">
         <v>0</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_00597#0000</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3617,27 +3617,27 @@
       </c>
       <c r="R5" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N5&amp;"M","mf",,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="S5" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="T5" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.2000000000139721E-4</v>
+        <v>-6.3999999999994617E-4</v>
       </c>
       <c r="U5" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.1945108966147089E-3</v>
+        <v>-1.2109701278677221E-3</v>
       </c>
       <c r="V5" s="265">
         <f>T5-U5</f>
-        <v>5.7451089661331167E-4</v>
+        <v>5.709701278677759E-4</v>
       </c>
       <c r="W5" s="67">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>5.709701278677759E-4</v>
       </c>
       <c r="X5" s="240">
         <f>Y5*10000</f>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="AA5" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000061111391205</v>
       </c>
       <c r="AB5" s="241" t="b">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3722,27 +3722,27 @@
       </c>
       <c r="R6" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N6&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="S6" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
-        <v>42226</v>
+        <v>42250</v>
       </c>
       <c r="T6" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.1551957077854353E-4</v>
+        <v>-6.3808993886113521E-4</v>
       </c>
       <c r="U6" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.2585546559221426E-3</v>
+        <v>-1.1768705847486724E-3</v>
       </c>
       <c r="V6" s="265">
         <f>T6-U6</f>
-        <v>5.4303508514359907E-4</v>
+        <v>5.3878064588753724E-4</v>
       </c>
       <c r="W6" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>5.4303508514359918E-4</v>
+        <v>5.3878064588753724E-4</v>
       </c>
       <c r="X6" s="188">
         <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.7671232876712329E-2</v>
       </c>
       <c r="AA6" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001137651741512</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="AE6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_005de#0024</v>
+        <v>obj_005db#0000</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K7" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_00595#0000</v>
       </c>
       <c r="L7" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3830,27 +3830,27 @@
       </c>
       <c r="R7" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N7&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="S7" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
-        <v>42257</v>
+        <v>42279</v>
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.6112488975690624E-4</v>
+        <v>-5.7879900278745566E-4</v>
       </c>
       <c r="U7" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-1.3125535425984763E-3</v>
+        <v>-1.2006478193100634E-3</v>
       </c>
       <c r="V7" s="265">
         <f>T7-U7</f>
-        <v>5.5142865284157005E-4</v>
+        <v>6.2184881652260771E-4</v>
       </c>
       <c r="W7" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>5.5142865284157016E-4</v>
+        <v>6.2184881652260738E-4</v>
       </c>
       <c r="X7" s="188">
         <f t="shared" si="1"/>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="Z7" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R7,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="AA7" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002117586394066</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="K8" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_00596#0000</v>
       </c>
       <c r="L8" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3938,27 +3938,27 @@
       </c>
       <c r="R8" s="332">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N8&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="S8" s="332">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
-        <v>42285</v>
+        <v>42310</v>
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.002275399488056E-4</v>
+        <v>-5.408058357910555E-4</v>
       </c>
       <c r="U8" s="65">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-1.2719624587398393E-3</v>
+        <v>-1.0140487778804862E-3</v>
       </c>
       <c r="V8" s="260">
         <f>T8-U8</f>
-        <v>5.7173491879103366E-4</v>
+        <v>4.7324294208943068E-4</v>
       </c>
       <c r="W8" s="65">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>5.7173491879103366E-4</v>
+        <v>4.7324294208943036E-4</v>
       </c>
       <c r="X8" s="189">
         <f t="shared" si="1"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="AA8" s="60">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003118438255665</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_00598#0000</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="AE9" s="190">
         <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>5.0555231468282793E-5</v>
+        <v>1.0103812145713598E-4</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AE10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>6.4126947188822346E-5</v>
+        <v>1.5268413966103517E-4</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -4084,15 +4084,15 @@
       </c>
       <c r="T11" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="U11" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42188</v>
       </c>
       <c r="V11" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-5.9043666484015489E-4</v>
+        <v>-4.9809020803870396E-4</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4127,15 +4127,15 @@
       </c>
       <c r="T12" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="U12" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42194</v>
       </c>
       <c r="V12" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-5.9885151029488118E-4</v>
+        <v>-5.4115096447355474E-4</v>
       </c>
       <c r="AD12" s="261" t="s">
         <v>111</v>
@@ -4151,7 +4151,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="309" t="str">
         <f t="array" ref="G13:G21">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_005b9#0000</v>
       </c>
       <c r="H13" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="I13" s="194">
         <f>_xll.qlRateHelperRate(G13,Trigger)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-6.4000000000000005E-4</v>
       </c>
       <c r="J13" s="195" t="str">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G13),"--")</f>
@@ -4167,36 +4167,36 @@
       </c>
       <c r="K13" s="329">
         <f>_xll.qlRateHelperEarliestDate(G13,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="L13" s="329">
         <f>_xll.qlRateHelperLatestDate(G13,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="M13" s="196">
-        <v>1.0000516693362491</v>
+        <v>1.0000568921254187</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="U13" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42201</v>
       </c>
       <c r="V13" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-5.8752678013267764E-4</v>
+        <v>-5.8180166924159948E-4</v>
       </c>
       <c r="AD13" s="277" t="s">
         <v>113</v>
       </c>
       <c r="AE13" s="190">
         <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>5.709701278677759E-4</v>
       </c>
       <c r="AF13" s="190" t="b">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_00598#0000</v>
+        <v>obj_00593#0000</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I14" s="194">
         <f>_xll.qlRateHelperRate(G14,Trigger)</f>
-        <v>-5.5000000000000003E-4</v>
+        <v>-6.4000000000000005E-4</v>
       </c>
       <c r="J14" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G14),"--")</f>
@@ -4223,35 +4223,35 @@
       </c>
       <c r="K14" s="329">
         <f>_xll.qlRateHelperEarliestDate(G14,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="L14" s="329">
         <f>_xll.qlRateHelperLatestDate(G14,Trigger)</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="M14" s="196">
-        <v>1.0001172663216524</v>
+        <v>1.0001102369122277</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="U14" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42208</v>
       </c>
       <c r="V14" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-6.0502935140022932E-4</v>
+        <v>-6.1310894435300564E-4</v>
       </c>
       <c r="AD14" s="277" t="s">
         <v>114</v>
       </c>
       <c r="AE14" s="190">
-        <v>-7.1075059440715903E-4</v>
+        <v>-2.5706376835462675E-3</v>
       </c>
       <c r="AF14" s="190" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_0059c#0000</v>
+        <v>obj_00597#0000</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="I15" s="194">
         <f>_xll.qlRateHelperRate(G15,Trigger)</f>
-        <v>-5.8E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="J15" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G15),"--")</f>
@@ -4278,35 +4278,35 @@
       </c>
       <c r="K15" s="329">
         <f>_xll.qlRateHelperEarliestDate(G15,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="L15" s="329">
         <f>_xll.qlRateHelperLatestDate(G15,Trigger)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="M15" s="196">
-        <v>1.0001789286436884</v>
+        <v>1.0001584778063597</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="276">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="U15" s="337">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="V15" s="338">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-6.2758270029439345E-4</v>
+        <v>-6.4691462326391114E-4</v>
       </c>
       <c r="AD15" s="277" t="s">
         <v>115</v>
       </c>
       <c r="AE15" s="190">
-        <v>4.5746420303168422E-3</v>
+        <v>3.3918961135257525E-2</v>
       </c>
       <c r="AF15" s="190" t="b">
         <v>1</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_00599#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="I16" s="194">
         <f>_xll.qlRateHelperRate(G16,Trigger)</f>
-        <v>-5.8999999999999992E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="J16" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G16),"--")</f>
@@ -4333,20 +4333,20 @@
       </c>
       <c r="K16" s="329">
         <f>_xll.qlRateHelperEarliestDate(G16,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="L16" s="329">
         <f>_xll.qlRateHelperLatestDate(G16,Trigger)</f>
-        <v>42285</v>
+        <v>42310</v>
       </c>
       <c r="M16" s="196">
-        <v>1.0002372947853795</v>
+        <v>1.000205056747143</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
       </c>
       <c r="AE16" s="190">
-        <v>-7.1353958361635916E-3</v>
+        <v>-0.10021027543205942</v>
       </c>
       <c r="AF16" s="190" t="b">
         <v>1</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="202" t="str">
-        <v>obj_0059a#0000</v>
+        <v>obj_00595#0000</v>
       </c>
       <c r="H17" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="I17" s="194">
         <f>_xll.qlRateHelperRate(G17,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="J17" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G17),"--")</f>
@@ -4373,14 +4373,14 @@
       </c>
       <c r="K17" s="329">
         <f>_xll.qlRateHelperEarliestDate(G17,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="L17" s="329">
         <f>_xll.qlRateHelperLatestDate(G17,Trigger)</f>
-        <v>42317</v>
+        <v>42340</v>
       </c>
       <c r="M17" s="196">
-        <v>1.000299563311839</v>
+        <v>1.000263596979053</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="202" t="str">
-        <v>obj_0059b#0000</v>
+        <v>obj_00596#0000</v>
       </c>
       <c r="H18" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="I18" s="194">
         <f>_xll.qlRateHelperRate(G18,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-5.8E-4</v>
       </c>
       <c r="J18" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G18),"--")</f>
@@ -4413,28 +4413,28 @@
       </c>
       <c r="K18" s="329">
         <f>_xll.qlRateHelperEarliestDate(G18,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="L18" s="329">
         <f>_xll.qlRateHelperLatestDate(G18,Trigger)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="M18" s="196">
-        <v>1.000361089009117</v>
+        <v>1.00029980595149</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
       </c>
       <c r="AE18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_005e3#0023</v>
+        <v>obj_005df#0000</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_00597#0000</v>
+        <v>obj_00598#0000</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="I19" s="194">
         <f>_xll.qlRateHelperRate(G19,Trigger)</f>
-        <v>-6.3000000000000003E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="J19" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G19),"--")</f>
@@ -4450,14 +4450,14 @@
       </c>
       <c r="K19" s="329">
         <f>_xll.qlRateHelperEarliestDate(G19,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="L19" s="329">
         <f>_xll.qlRateHelperLatestDate(G19,Trigger)</f>
-        <v>42377</v>
+        <v>42402</v>
       </c>
       <c r="M19" s="196">
-        <v>1.000410394120663</v>
+        <v>1.0003704731969099</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4680,21 +4680,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>-1.1736446947011449E-4</v>
+        <v>-1.2301909660850682E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0729532415909369E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00595#0000</v>
+        <v>obj_0058f#0000</v>
       </c>
       <c r="X3" s="57"/>
     </row>
@@ -4730,31 +4730,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>-1.3000000000000002E-4</v>
+        <v>-1.3999999999999999E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.2547156710852941E-3</v>
+        <v>-1.1959723381994437E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.1247156710852942E-3</v>
+        <v>1.0559723381994438E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0729532415909369E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.12635530529885422</v>
+        <v>-0.16980903391493113</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -4762,14 +4762,14 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-1.2635530529885421E-5</v>
+        <v>-1.6980903391493113E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000061111391205</v>
       </c>
       <c r="O4" s="236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="57"/>
     </row>
@@ -4790,46 +4790,46 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42377</v>
+        <v>42403</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-6.0000000000000002E-5</v>
+        <v>2.0000000000000019E-5</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-1.2799660304352312E-3</v>
+        <v>-1.1353149141997241E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.2199660304352312E-3</v>
+        <v>1.1553149141997241E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.1853752726288034E-3</v>
+        <v>1.2440459935401077E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>0.34590757806427774</v>
+        <v>-0.88731079340383534</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.7671232876712329E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>3.4590757806427777E-5</v>
+        <v>-8.8731079340383535E-5</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001137651741512</v>
       </c>
       <c r="O5" s="241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="261" t="s">
         <v>125</v>
@@ -4855,53 +4855,53 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42410</v>
+        <v>42431</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>-1.0000000000000009E-5</v>
+        <v>9.9999999999999991E-5</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-1.2992983497784256E-3</v>
+        <v>-1.2198229043860452E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.2892983497784255E-3</v>
+        <v>1.3198229043860452E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.230172166130715E-3</v>
+        <v>1.3534930842944587E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.59126183647710595</v>
+        <v>-0.33670179908413439</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>5.9126183647710594E-5</v>
+        <v>-3.3670179908413438E-5</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002117586394066</v>
       </c>
       <c r="O6" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="277" t="s">
         <v>126</v>
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00844#0022</v>
+        <v>obj_005dc#0016</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4924,31 +4924,31 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42437</v>
+        <v>42464</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>0</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-1.2934759462484332E-3</v>
+        <v>-1.2548439559266931E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.2934759462484332E-3</v>
+        <v>1.4248439559266931E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.2630991130362958E-3</v>
+        <v>1.4237549226995326E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.3037683321213745</v>
+        <v>1.089033227160514E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -4956,14 +4956,14 @@
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>3.0376833212137451E-5</v>
+        <v>1.089033227160514E-6</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003118438255665</v>
       </c>
       <c r="O7" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="277" t="s">
         <v>127</v>
@@ -4993,53 +4993,53 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42310</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42468</v>
+        <v>42492</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>3.9999999999999983E-5</v>
+        <v>1.7999999999999998E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-1.2428793081029428E-3</v>
+        <v>-1.3316863052989876E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.2828793081029427E-3</v>
+        <v>1.5116863052989876E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.2913181650166697E-3</v>
+        <v>1.4648015246813734E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>-8.4388569137269775E-2</v>
+        <v>0.46884780617614241</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33424657534246577</v>
+        <v>0.33698630136986302</v>
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>-8.4388569137269775E-6</v>
+        <v>4.6884780617614244E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.0003991995510015</v>
       </c>
       <c r="O8" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="277" t="s">
         <v>128</v>
       </c>
       <c r="R8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>None</v>
+        <v>StationaryFunctionValue</v>
       </c>
       <c r="T8" s="55"/>
       <c r="X8" s="57"/>
@@ -5062,53 +5062,53 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42340</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42499</v>
+        <v>42523</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>7.9999999999999979E-5</v>
+        <v>1.9000000000000004E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-1.2433280090124142E-3</v>
+        <v>-1.2794243132238129E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>1.3233280090124142E-3</v>
+        <v>1.469424313223813E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.3154190963221551E-3</v>
+        <v>1.4824167517323865E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>7.9089126902591372E-2</v>
+        <v>-0.12992438508573501</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>7.9089126902591369E-6</v>
+        <v>-1.2992438508573501E-5</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.0005202631825545</v>
       </c>
       <c r="O9" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="277" t="s">
         <v>89</v>
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>9.0835833190229179E-5</v>
+        <v>4.0641110761151559E-5</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5131,53 +5131,53 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>1.1999999999999999E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-1.2012494672821216E-3</v>
+        <v>-1.2676626940928708E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>1.3212494672821215E-3</v>
+        <v>1.4676626940928709E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.332402060481094E-3</v>
+        <v>1.4855306555718588E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11152593198972532</v>
+        <v>-0.17867961478987976</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50958904109589043</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1152593198972532E-5</v>
+        <v>-1.7867961478987976E-5</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.0006397071275765</v>
       </c>
       <c r="O10" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="277" t="s">
         <v>124</v>
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.1840412657839979E-4</v>
+        <v>8.8731079340383535E-5</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -5189,51 +5189,51 @@
       <c r="B11" s="292"/>
       <c r="C11" s="252" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate,A12)</f>
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="D11" s="248" t="str">
         <f t="shared" ref="D11:D22" si="6">Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;QuoteSuffix</f>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MN5_Quote</v>
       </c>
       <c r="E11" s="295">
         <f>_xll.qlIMMdate(C11,SettlementDate,Trigger)</f>
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42355</v>
+        <v>42384</v>
       </c>
       <c r="G11" s="67">
         <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>-1.2499999999993072E-4</v>
+        <v>2.4999999999941735E-5</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-1.2660080829982408E-3</v>
+        <v>-1.210934356753988E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>1.14100808299831E-3</v>
+        <v>1.2359343567539297E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.1525194985213846E-3</v>
+        <v>1.1500069487851065E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>-0.11511415523074572</v>
+        <v>0.85927407968823188</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>2.4657534246575342E-2</v>
+        <v>3.5616438356164383E-2</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>-1.1511415523074572E-5</v>
+        <v>8.5927407968823186E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0000406402405491</v>
+        <v>1.0000498077937994</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -5248,51 +5248,51 @@
       <c r="B12" s="56"/>
       <c r="C12" s="251" t="str">
         <f>_xll.qlIMMNextCode(C11,A12)</f>
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="D12" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MQ5_Quote</v>
       </c>
       <c r="E12" s="296">
         <f>_xll.qlIMMdate(C12,SettlementDate,Trigger)</f>
-        <v>42200</v>
+        <v>42235</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42384</v>
+        <v>42419</v>
       </c>
       <c r="G12" s="62">
         <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>-7.4999999999825206E-5</v>
+        <v>7.4999999999936229E-5</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-1.2794790482033001E-3</v>
+        <v>-1.2259256617205235E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>1.2044790482034749E-3</v>
+        <v>1.3009256617204598E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>1.1955600417313363E-3</v>
+        <v>1.3078763255581769E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>8.9190064721386075E-2</v>
+        <v>-6.9506638377171429E-2</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.10136986301369863</v>
+        <v>0.13150684931506848</v>
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>8.9190064721386079E-6</v>
+        <v>-6.9506638377171432E-6</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0001359548980997</v>
+        <v>1.0001676807725706</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5332,35 +5332,35 @@
       </c>
       <c r="G13" s="62">
         <f>1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
-        <v>-2.4999999999941735E-5</v>
+        <v>1.7500000000003624E-4</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-1.3014906239984724E-3</v>
+        <v>-1.2606622968968828E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>1.2764906239985307E-3</v>
+        <v>1.435662296896919E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>1.2711853708794602E-3</v>
+        <v>1.3905880397978181E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>5.3052531190705618E-2</v>
+        <v>0.4507425709910089</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.27397260273972601</v>
+        <v>0.20821917808219179</v>
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>5.3052531190705618E-6</v>
+        <v>4.5074257099100888E-5</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0003606975574753</v>
+        <v>1.0002609428362952</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0729532415909369E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -5403,35 +5403,35 @@
       </c>
       <c r="G14" s="62">
         <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>1.4999999999998348E-4</v>
+        <v>2.2500000000003073E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-1.2009812777807455E-3</v>
+        <v>-1.2550714154177859E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>1.350981277780729E-3</v>
+        <v>1.4800714154178166E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>1.3363363244019988E-3</v>
+        <v>1.4853261661531897E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>0.14644953378730199</v>
+        <v>-5.2547507353730649E-2</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.52328767123287667</v>
+        <v>0.45753424657534247</v>
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>1.46449533787302E-5</v>
+        <v>-5.2547507353730653E-6</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0006899124380577</v>
+        <v>1.0005797950120101</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>6.2868735994365502E-4</v>
+        <v>2.3186216500831565E-3</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -5472,35 +5472,35 @@
       </c>
       <c r="G15" s="62">
         <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>2.7500000000002522E-4</v>
+        <v>2.2500000000003073E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-1.0530182213731925E-3</v>
+        <v>-1.2489106755923013E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>1.3280182213732178E-3</v>
+        <v>1.473910675592332E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>1.3617560917457393E-3</v>
+        <v>1.4721290218885315E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>-0.337378703725215</v>
+        <v>1.7816537038004704E-2</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.77260273972602744</v>
+        <v>0.70684931506849313</v>
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>-3.3737870372521498E-5</v>
+        <v>1.7816537038004704E-6</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0009937955144201</v>
+        <v>1.0008973338582543</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-5.5231727265848745E-4</v>
+        <v>-4.4760437436986555E-3</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -5541,35 +5541,35 @@
       </c>
       <c r="G16" s="62">
         <f>1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
-        <v>4.750000000000032E-4</v>
+        <v>3.2500000000001972E-4</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-9.028799615529643E-4</v>
+        <v>-1.1749363001501351E-3</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>1.3778799615529675E-3</v>
+        <v>1.4999363001501548E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>1.3612284055674203E-3</v>
+        <v>1.4982257821428168E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>0.1665155598554722</v>
+        <v>1.710518007338015E-2</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.021917808219178</v>
+        <v>0.95616438356164379</v>
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>1.665155598554722E-5</v>
+        <v>1.710518007338015E-6</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012603889303364</v>
+        <v>1.0012134752117698</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>1.4824157043946009E-4</v>
+        <v>3.3618413246584173E-3</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -5610,35 +5610,35 @@
       </c>
       <c r="G17" s="62">
         <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
-        <v>7.7499999999997016E-4</v>
+        <v>5.2500000000010871E-4</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-6.3984893502863106E-4</v>
+        <v>-1.2699280292009403E-3</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>1.4148489350286012E-3</v>
+        <v>1.794928029201049E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>1.3474521686504316E-3</v>
+        <v>1.656362812204412E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>0.67396766378169637</v>
+        <v>1.3856521699663702</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.2904109589041095</v>
+        <v>1.2246575342465753</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>6.7396766378169642E-5</v>
+        <v>1.3856521699663702E-4</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0015040607956092</v>
+        <v>1.0015346042406399</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5646,11 +5646,11 @@
       <c r="Q17" s="277" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="190" t="e">
-        <v>#N/A</v>
+      <c r="R17" s="190">
+        <v>-7.6367360093661718E-4</v>
       </c>
       <c r="S17" s="190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="190">
         <v>0</v>
@@ -5679,35 +5679,35 @@
       </c>
       <c r="G18" s="62">
         <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>1.2000000000000899E-3</v>
+        <v>9.2500000000006466E-4</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-2.2373818386567379E-4</v>
+        <v>-5.9643000563580628E-4</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>1.4237381838657637E-3</v>
+        <v>1.5214300056358709E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>1.3370763135277092E-3</v>
+        <v>1.9270160868198345E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>0.86661870338054481</v>
+        <v>-4.0558608118396355</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.5397260273972602</v>
+        <v>1.473972602739726</v>
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>8.6661870338054477E-5</v>
+        <v>-4.0558608118396351E-4</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0016660698569779</v>
+        <v>1.0018562096869006</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00845#0022</v>
+        <v>obj_005e1#0013</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -5744,35 +5744,35 @@
       </c>
       <c r="G19" s="62">
         <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>1.7249999999999766E-3</v>
+        <v>1.3750000000000151E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>1.9609339663789993E-4</v>
+        <v>-3.2301812868463646E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>1.5289066033620767E-3</v>
+        <v>1.6980181286846516E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>1.3417979524674895E-3</v>
+        <v>2.2223759053334197E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>1.8710865089458721</v>
+        <v>-5.2435777664876815</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.7698630136986302</v>
+        <v>1.704109589041096</v>
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>1.8710865089458721E-4</v>
+        <v>-5.2435777664876812E-4</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0017206050325747</v>
+        <v>1.0019978284371764</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5802,35 +5802,35 @@
       </c>
       <c r="G20" s="62">
         <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>2.2999999999998577E-3</v>
+        <v>1.9249999999999545E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>7.4066595276283027E-4</v>
+        <v>2.0263703397162814E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>1.5593340472370276E-3</v>
+        <v>1.7223629660283264E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>1.3795004306657948E-3</v>
+        <v>2.4713147645789649E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>1.7983361657123278</v>
+        <v>-7.4895179855063843</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>2.0383561643835617</v>
+        <v>1.9726027397260273</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>1.7983361657123277E-4</v>
+        <v>-7.4895179855063846E-4</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0016625220341084</v>
+        <v>1.0020822242068517</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5860,35 +5860,35 @@
       </c>
       <c r="G21" s="62">
         <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>2.9250000000000664E-3</v>
+        <v>2.5249999999999995E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>1.3218346333841527E-3</v>
+        <v>8.0302396316599546E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>1.6031653666159138E-3</v>
+        <v>1.721976036834004E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>1.4598678682400791E-3</v>
+        <v>2.3912070052159971E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>1.4329749837583465</v>
+        <v>-6.6923096838199312</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>2.2876712328767121</v>
+        <v>2.2219178082191782</v>
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>1.4329749837583465E-4</v>
+        <v>-6.6923096838199313E-4</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0014757769563836</v>
+        <v>1.0020316928351947</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5918,35 +5918,35 @@
       </c>
       <c r="G22" s="65">
         <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>3.6249999999999893E-3</v>
+        <v>3.2249999999999224E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>2.027220858942691E-3</v>
+        <v>1.5026146464620638E-3</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>1.5977791410572983E-3</v>
+        <v>1.7223853535378586E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>1.5980505353601774E-3</v>
+        <v>1.7224040346784895E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-2.7139430287901473E-3</v>
+        <v>-1.8681140630943949E-4</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>2.536986301369863</v>
+        <v>2.4712328767123286</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-2.7139430287901473E-7</v>
+        <v>-1.8681140630943949E-8</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0011412652037437</v>
+        <v>1.001828335094735</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5990,15 +5990,15 @@
       </c>
       <c r="G25" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H25" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42188</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>-1.5235886164699508E-4</v>
+        <v>-4.8710257107842381E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,15 +6008,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42194</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>-1.4615060688529167E-4</v>
+        <v>-4.5882414142336562E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,15 +6026,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42201</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>-1.1905590967087321E-4</v>
+        <v>-4.2711533191384731E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,15 +6044,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42208</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>-1.2210649579267953E-4</v>
+        <v>-3.9673590162246441E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6062,15 +6062,15 @@
       </c>
       <c r="G29" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H29" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>-1.2789266630397478E-4</v>
+        <v>-3.4456966942583711E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6080,15 +6080,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H30" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>-1.3135129780675724E-4</v>
+        <v>-2.2997948693555126E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6098,15 +6098,15 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H31" s="275">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="I31" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-1.3414978244339639E-4</v>
+        <v>-1.5703831490622495E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6264,7 +6264,7 @@
       <c r="I53" s="57"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O22 S13:S17">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -6279,7 +6279,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6374,21 +6374,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>5.0796159643381458E-4</v>
+        <v>4.7926264344616814E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7047934790020772E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00594#0000</v>
+        <v>obj_00591#0000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,31 +6422,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>4.8999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-1.2737836632325174E-3</v>
+        <v>-1.225530835555909E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.7637836632325174E-3</v>
+        <v>1.725530835555909E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7047934790020772E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.17961596433814594</v>
+        <v>0.2073735655383187</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6454,11 +6454,11 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-1.7961596433814595E-5</v>
+        <v>2.0737356553831871E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000061111391205</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -6481,43 +6481,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42377</v>
+        <v>42403</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>5.8E-4</v>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-1.2612193948480957E-3</v>
+        <v>-1.2313387364137895E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.8412193948480957E-3</v>
+        <v>1.9013387364137896E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.8476373915875027E-3</v>
+        <v>1.8960368512179057E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>-6.4179967394070378E-2</v>
+        <v>5.3018851958839139E-2</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.7671232876712329E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>-6.4179967394070378E-6</v>
+        <v>5.3018851958839142E-6</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001137651741512</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6544,43 +6544,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42410</v>
+        <v>42431</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>6.4999999999999997E-4</v>
+        <v>7.6000000000000015E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-1.2713463090453128E-3</v>
+        <v>-1.2494263573209913E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.9213463090453128E-3</v>
+        <v>2.0094263573209913E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.9100868542743217E-3</v>
+        <v>2.0212511726054078E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.11259454770991056</v>
+        <v>-0.1182481528441649</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>1.1259454770991056E-5</v>
+        <v>-1.1824815284416489E-5</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002117586394066</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005e0#0024</v>
+        <v>obj_005dd#0002</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6611,31 +6611,31 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42437</v>
+        <v>42464</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>7.1000000000000013E-4</v>
+        <v>8.4000000000000014E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-1.2471663253159333E-3</v>
+        <v>-1.260945079847291E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.9571663253159337E-3</v>
+        <v>2.100945079847291E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.9570716758657287E-3</v>
+        <v>2.1073209943203533E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>9.4649450204948443E-4</v>
+        <v>-6.3759144730622497E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>9.4649450204948443E-8</v>
+        <v>-6.375914473062249E-6</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003118438255665</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6678,43 +6678,43 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42310</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42468</v>
+        <v>42492</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>7.8000000000000009E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-1.2188863600502994E-3</v>
+        <v>-1.3009224663834513E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.9988863600502995E-3</v>
+        <v>2.1909224663834515E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.9986733932196312E-3</v>
+        <v>2.1671199280410883E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>2.1296683066834507E-3</v>
+        <v>0.23802538342363161</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33424657534246577</v>
+        <v>0.33698630136986302</v>
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>2.1296683066834507E-7</v>
+        <v>2.380253834236316E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.0003991995510015</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6745,43 +6745,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42340</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42499</v>
+        <v>42523</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>9.2999999999999995E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-1.1758696454302951E-3</v>
+        <v>-1.2726738150700735E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>2.0258696454302952E-3</v>
+        <v>2.2026738150700735E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.0360509388013428E-3</v>
+        <v>2.2067495848118943E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-0.10181293371047673</v>
+        <v>-4.0757697418207159E-2</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>-1.0181293371047673E-5</v>
+        <v>-4.0757697418207159E-6</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.0005202631825545</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>5.6448440012852806E-5</v>
+        <v>1.6697404799277443E-4</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,43 +6812,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>9.2000000000000003E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-1.1419431047384435E-3</v>
+        <v>-1.2590155686833136E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>2.0619431047384437E-3</v>
+        <v>2.2390155686833136E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>2.064445035325034E-3</v>
+        <v>2.2393386564915157E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-2.5019305865902307E-2</v>
+        <v>-3.2308780820210561E-3</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50958904109589043</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-2.5019305865902307E-6</v>
+        <v>-3.2308780820210561E-7</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.0006397071275765</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>7.4152523860773626E-5</v>
+        <v>2.380253834236316E-5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6879,43 +6879,43 @@
       </c>
       <c r="E11" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42377</v>
+        <v>42402</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42559</v>
+        <v>42584</v>
       </c>
       <c r="G11" s="67">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-1.1230104452715755E-3</v>
+        <v>-1.246293034108014E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>2.1030104452715755E-3</v>
+        <v>2.2662930341080141E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>2.0898440596130085E-3</v>
+        <v>2.2650340884437267E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>0.13166385658566931</v>
+        <v>1.2589456642874038E-2</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58630136986301373</v>
+        <v>0.58904109589041098</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>1.3166385658566933E-5</v>
+        <v>1.2589456642874038E-6</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007557752387322</v>
+        <v>1.0007397711433703</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6939,11 +6939,11 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42408</v>
+        <v>42431</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42590</v>
+        <v>42615</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
@@ -6951,31 +6951,31 @@
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-1.0578451458745394E-3</v>
+        <v>-1.2248343064241718E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>2.1078451458745396E-3</v>
+        <v>2.2748343064241719E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.1109504259014056E-3</v>
+        <v>2.2925529402296196E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-3.105280026866053E-2</v>
+        <v>-0.17718633805447695</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.67123287671232879</v>
+        <v>0.66849315068493154</v>
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>-3.105280026866053E-6</v>
+        <v>-1.7718633805447696E-5</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000868725609952</v>
+        <v>1.0008439461579424</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -7009,43 +7009,43 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42437</v>
+        <v>42464</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42621</v>
+        <v>42647</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>1.1200000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-1.0029806753152977E-3</v>
+        <v>-1.2168654332196092E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>2.1229806753152976E-3</v>
+        <v>2.316865433219609E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.1275564636728762E-3</v>
+        <v>2.3297769137166652E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-4.575788357578589E-2</v>
+        <v>-0.12911480497056205</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.75068493150684934</v>
+        <v>0.75890410958904109</v>
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>-4.575788357578589E-6</v>
+        <v>-1.2911480497056205E-5</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009629862237717</v>
+        <v>1.0009604518506312</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7047934790020772E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -7082,31 +7082,31 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42468</v>
+        <v>42492</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42653</v>
+        <v>42676</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1.16E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-9.4007823058665828E-4</v>
+        <v>-1.2275315051609196E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>2.1400782305866584E-3</v>
+        <v>2.3875315051609196E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.1427517615240925E-3</v>
+        <v>2.3678553040500736E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-2.6735309374341203E-2</v>
+        <v>0.19676201110846014</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -7114,11 +7114,11 @@
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>-2.6735309374341203E-6</v>
+        <v>1.9676201110846014E-5</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010581666808025</v>
+        <v>1.0010575836919455</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>8.5778196137636063E-4</v>
+        <v>2.5840276703188478E-3</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -7154,31 +7154,31 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42499</v>
+        <v>42523</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42683</v>
+        <v>42706</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-8.734289927631758E-4</v>
+        <v>-1.2293711930767906E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>2.1634289927631757E-3</v>
+        <v>2.4393711930767907E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.1561316133231322E-3</v>
+        <v>2.4170225021336008E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>7.2973794400434805E-2</v>
+        <v>0.22348690943189975</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -7186,11 +7186,11 @@
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>7.2973794400434805E-6</v>
+        <v>2.2348690943189975E-5</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011497106221909</v>
+        <v>1.0011679613090507</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-7.0135056285013033E-4</v>
+        <v>-4.9856646865169742E-3</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -7226,43 +7226,43 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42712</v>
+        <v>42739</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.3700000000000001E-3</v>
+        <v>1.31E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-7.9569614773001825E-4</v>
+        <v>-1.144141815965541E-3</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>2.1656961477300183E-3</v>
+        <v>2.4541418159655408E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.1681461621500457E-3</v>
+        <v>2.4737121651205339E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>-2.4500144200274333E-2</v>
+        <v>-0.19570349154993116</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0027397260273974</v>
+        <v>1.0082191780821919</v>
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>-2.4500144200274333E-6</v>
+        <v>-1.9570349154993116E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012402523390991</v>
+        <v>1.0012770222704872</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>2.2957560046531553E-4</v>
+        <v>4.6073626903643007E-3</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -7298,43 +7298,43 @@
       </c>
       <c r="E17" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42559</v>
+        <v>42584</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42744</v>
+        <v>42768</v>
       </c>
       <c r="G17" s="62">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>1.5E-3</v>
+        <v>1.4199999999999998E-3</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-6.5255104623203298E-4</v>
+        <v>-1.0937610203970922E-3</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>2.1525510462320329E-3</v>
+        <v>2.5137610203970918E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.1800156457889002E-3</v>
+        <v>2.5271220568845684E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>-0.27464599556867308</v>
+        <v>-0.13361036487476596</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.0849315068493151</v>
+        <v>1.0876712328767124</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>-2.7464599556867308E-5</v>
+        <v>-1.3361036487476597E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0013242712555703</v>
+        <v>1.0013707051513119</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7342,11 +7342,11 @@
       <c r="Q17" s="277" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="190" t="e">
-        <v>#N/A</v>
+      <c r="R17" s="190">
+        <v>-1.4422895927512054E-3</v>
       </c>
       <c r="S17" s="190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="190">
         <v>0</v>
@@ -7370,43 +7370,43 @@
       </c>
       <c r="E18" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A18&amp;"M","mf",,Trigger)</f>
-        <v>42590</v>
+        <v>42615</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42774</v>
+        <v>42796</v>
       </c>
       <c r="G18" s="62">
         <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>1.6099999999999997E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-5.7142293852804774E-4</v>
+        <v>-1.0095065052251574E-3</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>2.1814229385280475E-3</v>
+        <v>2.5295065052251572E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.1929407988151473E-3</v>
+        <v>2.581307096401446E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11517860287099754</v>
+        <v>-0.51800591176288757</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.1698630136986301</v>
+        <v>1.1726027397260275</v>
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1517860287099755E-5</v>
+        <v>-5.1800591176288761E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0014042761065125</v>
+        <v>1.0014708933993597</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e1#0025</v>
+        <v>obj_005de#0002</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7438,43 +7438,43 @@
       </c>
       <c r="E19" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A19&amp;"M","mf",,Trigger)</f>
-        <v>42621</v>
+        <v>42646</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42802</v>
+        <v>42828</v>
       </c>
       <c r="G19" s="62">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>1.7299999999999998E-3</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-4.7950303744178778E-4</v>
+        <v>-8.7814943594930991E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>2.2095030374417873E-3</v>
+        <v>2.5481494359493096E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.2073716031252933E-3</v>
+        <v>2.625579320722154E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>2.1314343164940616E-2</v>
+        <v>-0.77429884772844348</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.2547945205479452</v>
+        <v>1.2575342465753425</v>
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>2.1314343164940616E-6</v>
+        <v>-7.7429884772844352E-5</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0014763776333644</v>
+        <v>1.0015764469486579</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7499,43 +7499,43 @@
       </c>
       <c r="E20" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A20&amp;"M","mf",,Trigger)</f>
-        <v>42653</v>
+        <v>42676</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>42835</v>
+        <v>42857</v>
       </c>
       <c r="G20" s="62">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.89E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-3.5488975786727859E-4</v>
+        <v>-7.2591780291129742E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>2.2448897578672784E-3</v>
+        <v>2.5459178029112973E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.2247418814503182E-3</v>
+        <v>2.6506804701143241E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>0.20147876416960145</v>
+        <v>-1.0476266720302676</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>1.3424657534246576</v>
+        <v>1.3397260273972602</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>2.0147876416960146E-5</v>
+        <v>-1.0476266720302677E-4</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0015420073754082</v>
+        <v>1.0016860465174733</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7560,31 +7560,31 @@
       </c>
       <c r="E21" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A21&amp;"M","mf",,Trigger)</f>
-        <v>42682</v>
+        <v>42706</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>42863</v>
+        <v>42888</v>
       </c>
       <c r="G21" s="62">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>2.0400000000000001E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-2.252396820272476E-4</v>
+        <v>-5.5438792978159171E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>2.2652396820272477E-3</v>
+        <v>2.5443879297815915E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.2434229072262591E-3</v>
+        <v>2.6486259764918179E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>0.21816774800988581</v>
+        <v>-1.0423804671022638</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -7592,11 +7592,11 @@
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>2.1816774800988582E-5</v>
+        <v>-1.0423804671022639E-4</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0015950999006336</v>
+        <v>1.0017940127985892</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7621,43 +7621,43 @@
       </c>
       <c r="E22" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A22&amp;"M","mf",,Trigger)</f>
-        <v>42712</v>
+        <v>42737</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>42894</v>
+        <v>42919</v>
       </c>
       <c r="G22" s="65">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>2.1600000000000005E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-6.6324583335551803E-5</v>
+        <v>-4.4648660845031325E-4</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>2.2663245833355519E-3</v>
+        <v>2.6064866084503139E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.2664494133273877E-3</v>
+        <v>2.606074367104169E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-1.2482999183589458E-3</v>
+        <v>4.1224134614487387E-3</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>1.5041095890410958</v>
+        <v>1.5068493150684932</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-1.2482999183589458E-7</v>
+        <v>4.1224134614487387E-7</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0016453967424186</v>
+        <v>1.0018574106716911</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7698,15 +7698,15 @@
       </c>
       <c r="G25" s="298">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H25" s="295">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42188</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>3.241783158713929E-4</v>
+        <v>-3.9458792169710932E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7715,15 +7715,15 @@
       </c>
       <c r="G26" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H26" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42194</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>3.3416013810873475E-4</v>
+        <v>-3.4882074422640637E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7732,15 +7732,15 @@
       </c>
       <c r="G27" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H27" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42201</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>3.6559869292534283E-4</v>
+        <v>-2.9738708666198529E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7749,15 +7749,15 @@
       </c>
       <c r="G28" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H28" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42208</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>3.6682874906799966E-4</v>
+        <v>-2.4799094100532874E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7766,15 +7766,15 @@
       </c>
       <c r="G29" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H29" s="301">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>3.6645507358468166E-4</v>
+        <v>-1.6731560503580045E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="G30" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H30" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>3.81994436043444E-4</v>
+        <v>1.7135171395336655E-5</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,15 +7800,15 @@
       </c>
       <c r="G31" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H31" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>3.9484329466596776E-4</v>
+        <v>1.4970942120604377E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,15 +7817,15 @@
       </c>
       <c r="G32" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H32" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42285</v>
+        <v>42310</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>4.2839036714768179E-4</v>
+        <v>2.6137895483839443E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7834,15 +7834,15 @@
       </c>
       <c r="G33" s="302">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H33" s="297">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42317</v>
+        <v>42340</v>
       </c>
       <c r="I33" s="290">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>4.5430778824257596E-4</v>
+        <v>3.5794344177292E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7851,15 +7851,15 @@
       </c>
       <c r="G34" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="I34" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>4.8065290598658667E-4</v>
+        <v>4.4048941423735494E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8054,21 +8054,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>1.6784772997037419E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.978823155624497E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="239"/>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00593#0000</v>
+        <v>obj_00590#0000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8103,35 +8103,35 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>1.6200000000000001E-3</v>
+        <v>1.64E-3</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-1.2074936760823908E-3</v>
+        <v>-1.2416969538475708E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>2.827493676082391E-3</v>
+        <v>2.8816969538475708E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.978823155624497E-3</v>
       </c>
       <c r="K4" s="187">
         <f>L4*10000</f>
-        <v>-0.58477299703741781</v>
+        <v>-0.97126201776926224</v>
       </c>
       <c r="L4" s="278">
         <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>-5.847729970374178E-5</v>
+        <v>-9.7126201776926227E-5</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000061111391205</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>1</v>
@@ -8162,43 +8162,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
-        <v>42559</v>
+        <v>42585</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-1.1921325587408748E-3</v>
+        <v>-1.2377850736445799E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>2.9421325587408748E-3</v>
+        <v>3.07778507364458E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>2.9021147022755562E-3</v>
+        <v>3.0294746083728615E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>0.40017856465318635</v>
+        <v>0.48310465271718483</v>
       </c>
       <c r="L5" s="279">
         <f t="shared" si="1"/>
-        <v>4.0017856465318635E-5</v>
+        <v>4.8310465271718481E-5</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.7671232876712329E-2</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001137651741512</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -8226,43 +8226,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
-        <v>42592</v>
+        <v>42615</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-1.1620855295020765E-3</v>
+        <v>-1.236674190607109E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="3"/>
-        <v>2.9620855295020765E-3</v>
+        <v>3.136674190607109E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>2.9233449638555054E-3</v>
+        <v>3.0803062840578763E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.38740565646571029</v>
+        <v>0.56367906549232694</v>
       </c>
       <c r="L6" s="234">
         <f t="shared" si="1"/>
-        <v>3.874056564657103E-5</v>
+        <v>5.6367906549232693E-5</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002117586394066</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005df#0024</v>
+        <v>obj_005da#0000</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8294,35 +8294,35 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
-        <v>42621</v>
+        <v>42646</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.8400000000000001E-3</v>
+        <v>1.9400000000000001E-3</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-1.1240884029558094E-3</v>
+        <v>-1.2385301504790145E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="3"/>
-        <v>2.9640884029558095E-3</v>
+        <v>3.1785301504790144E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>2.9447108336345439E-3</v>
+        <v>3.1338071757530564E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.19377569321265586</v>
+        <v>0.44722974725958009</v>
       </c>
       <c r="L7" s="234">
         <f t="shared" si="1"/>
-        <v>1.9377569321265588E-5</v>
+        <v>4.4722974725958011E-5</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003118438255665</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8362,43 +8362,43 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42310</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E8)</f>
-        <v>42653</v>
+        <v>42676</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>1.9E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-1.0784318452227667E-3</v>
+        <v>-1.2636205914647561E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="3"/>
-        <v>2.9784318452227669E-3</v>
+        <v>3.2436205914647561E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>2.9691909332129509E-3</v>
+        <v>3.1913045405934449E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>9.2409120098159603E-2</v>
+        <v>0.52316050871311237</v>
       </c>
       <c r="L8" s="234">
         <f t="shared" si="1"/>
-        <v>9.240912009815961E-6</v>
+        <v>5.2316050871311238E-5</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33424657534246577</v>
+        <v>0.33698630136986302</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.0003991995510015</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8430,43 +8430,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42340</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
-        <v>42683</v>
+        <v>42706</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>1.97E-3</v>
+        <v>2.0099999999999996E-3</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-1.0235619473227329E-3</v>
+        <v>-1.2506248378229021E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="3"/>
-        <v>2.9935619473227329E-3</v>
+        <v>3.2606248378229015E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.9976471962306589E-3</v>
+        <v>3.2485168876669962E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-4.0852489079259806E-2</v>
+        <v>0.1210795015590526</v>
       </c>
       <c r="L9" s="234">
         <f t="shared" si="1"/>
-        <v>-4.0852489079259806E-6</v>
+        <v>1.210795015590526E-5</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.0005202631825545</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.2836471234633424E-4</v>
+        <v>5.0969513149513502E-5</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8498,43 +8498,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
-        <v>42712</v>
+        <v>42739</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>2.0299999999999997E-3</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-9.6858868030299953E-4</v>
+        <v>-1.2008987154035165E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="3"/>
-        <v>2.9985886803029992E-3</v>
+        <v>3.2608987154035167E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.0252398075518937E-3</v>
+        <v>3.3125625593071503E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-0.26651127248894513</v>
+        <v>-0.51663843903633577</v>
       </c>
       <c r="L10" s="234">
         <f t="shared" si="1"/>
-        <v>-2.6651127248894513E-5</v>
+        <v>-5.1663843903633575E-5</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50958904109589043</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.0006397071275765</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.7883636286524906E-4</v>
+        <v>9.7126201776926227E-5</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8566,11 +8566,11 @@
       </c>
       <c r="E11" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42377</v>
+        <v>42402</v>
       </c>
       <c r="F11" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
-        <v>42744</v>
+        <v>42768</v>
       </c>
       <c r="G11" s="62">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
@@ -8578,31 +8578,31 @@
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-8.8567113191482573E-4</v>
+        <v>-1.1692638169991656E-3</v>
       </c>
       <c r="I11" s="265">
         <f t="shared" si="3"/>
-        <v>3.025671131914826E-3</v>
+        <v>3.309263816999166E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.0563282654769283E-3</v>
+        <v>3.3692387405371083E-3</v>
       </c>
       <c r="K11" s="188">
         <f t="shared" si="4"/>
-        <v>-0.30657133562102257</v>
+        <v>-0.59974923537942271</v>
       </c>
       <c r="L11" s="234">
         <f t="shared" si="1"/>
-        <v>-3.0657133562102257E-5</v>
+        <v>-5.9974923537942267E-5</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58630136986301373</v>
+        <v>0.58904109589041098</v>
       </c>
       <c r="N11" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007557752387322</v>
+        <v>1.0007397711433703</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8627,11 +8627,11 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42408</v>
+        <v>42431</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
-        <v>42774</v>
+        <v>42796</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
@@ -8639,31 +8639,31 @@
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-8.1315138646498493E-4</v>
+        <v>-1.1177419228922377E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="3"/>
-        <v>3.0731513864649847E-3</v>
+        <v>3.3777419228922375E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.0887519870532588E-3</v>
+        <v>3.4257574234201203E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-0.15600600588274155</v>
+        <v>-0.48015500527882804</v>
       </c>
       <c r="L12" s="234">
         <f t="shared" si="1"/>
-        <v>-1.5600600588274154E-5</v>
+        <v>-4.8015500527882806E-5</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.67123287671232879</v>
+        <v>0.66849315068493154</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000868725609952</v>
+        <v>1.0008439461579424</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8697,43 +8697,43 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42437</v>
+        <v>42464</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
-        <v>42802</v>
+        <v>42829</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.3700000000000001E-3</v>
+        <v>2.4100000000000002E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-7.432712396037201E-4</v>
+        <v>-1.0453340774028122E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="3"/>
-        <v>3.1132712396037205E-3</v>
+        <v>3.4553340774028125E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.1200113629694672E-3</v>
+        <v>3.4892407079783749E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-6.7401233657467419E-2</v>
+        <v>-0.33906630575562469</v>
       </c>
       <c r="L13" s="234">
         <f t="shared" si="1"/>
-        <v>-6.7401233657467426E-6</v>
+        <v>-3.3906630575562466E-5</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.75068493150684934</v>
+        <v>0.75890410958904109</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009629862237717</v>
+        <v>1.0009604518506312</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.978823155624497E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -8770,35 +8770,35 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42468</v>
+        <v>42492</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
-        <v>42835</v>
+        <v>42857</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.5100000000000001E-3</v>
+        <v>2.5600000000000002E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-6.4979075058956915E-4</v>
+        <v>-9.7856022967288928E-4</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>3.1597907505895692E-3</v>
+        <v>3.5385602296728897E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.154117314021257E-3</v>
+        <v>3.5418835440936022E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>5.6734365683121929E-2</v>
+        <v>-3.3233144207125108E-2</v>
       </c>
       <c r="L14" s="234">
         <f t="shared" si="1"/>
-        <v>5.6734365683121929E-6</v>
+        <v>-3.3233144207125108E-6</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010581666808025</v>
+        <v>1.0010575836919455</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8815,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>1.7690198664969817E-4</v>
+        <v>5.5424479176371239E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -8842,35 +8842,35 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42499</v>
+        <v>42523</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
-        <v>42864</v>
+        <v>42888</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>2.66E-3</v>
+        <v>2.7300000000000002E-3</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-5.4952239367591098E-4</v>
+        <v>-8.9263144370740032E-4</v>
       </c>
       <c r="I15" s="265">
         <f>G15-H15</f>
-        <v>3.2095223936759111E-3</v>
+        <v>3.6226314437074005E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.1886263052130592E-3</v>
+        <v>3.5982804081814914E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>0.20896088462851908</v>
+        <v>0.24351035525909184</v>
       </c>
       <c r="L15" s="234">
         <f t="shared" si="1"/>
-        <v>2.089608846285191E-5</v>
+        <v>2.4351035525909184E-5</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011497106221909</v>
+        <v>1.0011679613090507</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8887,7 +8887,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>2.4451331394233434E-4</v>
+        <v>2.8267084129910243E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -8914,43 +8914,43 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
-        <v>42894</v>
+        <v>42920</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>2.8000000000000004E-3</v>
+        <v>2.9200000000000003E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-4.3199612796486318E-4</v>
+        <v>-7.9387155398455466E-4</v>
       </c>
       <c r="I16" s="265">
         <f>G16-H16</f>
-        <v>3.2319961279648635E-3</v>
+        <v>3.7138715539845549E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.2221067327678449E-3</v>
+        <v>3.6537872745387558E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>9.8893951970186772E-2</v>
+        <v>0.60084279445799149</v>
       </c>
       <c r="L16" s="234">
         <f t="shared" si="1"/>
-        <v>9.8893951970186779E-6</v>
+        <v>6.0084279445799145E-5</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0027397260273974</v>
+        <v>1.0082191780821919</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012402523390991</v>
+        <v>1.0012770222704872</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8959,7 +8959,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>-8.6393807601144336E-5</v>
+        <v>-1.6702043654469469E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -8984,43 +8984,43 @@
       </c>
       <c r="E17" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42894</v>
+        <v>42919</v>
       </c>
       <c r="F17" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E17)</f>
-        <v>43259</v>
+        <v>43284</v>
       </c>
       <c r="G17" s="65">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>5.1700000000000001E-3</v>
+        <v>5.1800000000000006E-3</v>
       </c>
       <c r="H17" s="65">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>1.6446242247501973E-3</v>
+        <v>1.3041892097092939E-3</v>
       </c>
       <c r="I17" s="260">
         <f>G17-H17</f>
-        <v>3.5253757752498026E-3</v>
+        <v>3.8758107902907065E-3</v>
       </c>
       <c r="J17" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>3.526999603306082E-3</v>
+        <v>3.8800613007700241E-3</v>
       </c>
       <c r="K17" s="189">
         <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>-1.6238280562794367E-2</v>
+        <v>-4.2505104793175846E-2</v>
       </c>
       <c r="L17" s="235">
         <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>-1.6238280562794367E-6</v>
+        <v>-4.2505104793175846E-6</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>2.0027397260273974</v>
+        <v>2.0054794520547947</v>
       </c>
       <c r="N17" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0016789838015994</v>
+        <v>1.0020836047762316</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e2#0024</v>
+        <v>obj_005e0#0000</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9087,15 +9087,15 @@
       </c>
       <c r="G20" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H20" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42188</v>
       </c>
       <c r="I20" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>1.609122302923538E-3</v>
+        <v>1.4974025447589412E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9105,15 +9105,15 @@
       </c>
       <c r="G21" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H21" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42194</v>
       </c>
       <c r="I21" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>1.6082451892161587E-3</v>
+        <v>1.4989280131162883E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9122,15 +9122,15 @@
       </c>
       <c r="G22" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H22" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42201</v>
       </c>
       <c r="I22" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>1.6272938688897754E-3</v>
+        <v>1.500812891021473E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9139,15 +9139,15 @@
       </c>
       <c r="G23" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H23" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42208</v>
       </c>
       <c r="I23" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>1.6164289598753964E-3</v>
+        <v>1.5028246946651486E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,15 +9156,15 @@
       </c>
       <c r="G24" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H24" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="I24" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>1.6009335986062467E-3</v>
+        <v>1.5052680233473836E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9173,15 +9173,15 @@
       </c>
       <c r="G25" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H25" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="I25" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>1.5650524683749217E-3</v>
+        <v>1.5332441280138038E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9190,15 +9190,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.5377312623009118E-3</v>
+        <v>1.5440442796775956E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9207,15 +9207,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
-        <v>42285</v>
+        <v>42310</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.5344112658990528E-3</v>
+        <v>1.6054669927649161E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,15 +9224,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
-        <v>42317</v>
+        <v>42340</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.5259618386373067E-3</v>
+        <v>1.563131601399824E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9241,15 +9241,15 @@
       </c>
       <c r="G29" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H29" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="I29" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.5253302475532371E-3</v>
+        <v>1.5671738365460426E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9258,15 +9258,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42377</v>
+        <v>42402</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,15 +9275,15 @@
       </c>
       <c r="G31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42408</v>
+        <v>42431</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9292,15 +9292,15 @@
       </c>
       <c r="G32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42437</v>
+        <v>42464</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9309,15 +9309,15 @@
       </c>
       <c r="G33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42468</v>
+        <v>42492</v>
       </c>
       <c r="I33" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9326,15 +9326,15 @@
       </c>
       <c r="G34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42499</v>
+        <v>42523</v>
       </c>
       <c r="I34" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9343,15 +9343,15 @@
       </c>
       <c r="G35" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="H35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="I35" s="291">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9504,27 +9504,27 @@
       </c>
       <c r="B3" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C3)</f>
-        <v>42159</v>
+        <v>42185</v>
       </c>
       <c r="C3" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A3&amp;"M","mf")</f>
-        <v>42163</v>
+        <v>42187</v>
       </c>
       <c r="D3" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="E3" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-1.2074936760823908E-3</v>
+        <v>-1.2416969538475708E-3</v>
       </c>
       <c r="F3" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>2.9249878924715112E-3</v>
+        <v>3.015968085248311E-3</v>
       </c>
       <c r="G3" s="75">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.7174942163891203E-3</v>
+        <v>1.7742711314007401E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9536,27 +9536,27 @@
       </c>
       <c r="B4" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C4)</f>
-        <v>42191</v>
+        <v>42215</v>
       </c>
       <c r="C4" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A4&amp;"M","mf")</f>
-        <v>42193</v>
+        <v>42219</v>
       </c>
       <c r="D4" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
-        <v>42559</v>
+        <v>42585</v>
       </c>
       <c r="E4" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-1.1921325587408748E-3</v>
+        <v>-1.2377850736445799E-3</v>
       </c>
       <c r="F4" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>2.9421325587408748E-3</v>
+        <v>3.07778507364458E-3</v>
       </c>
       <c r="G4" s="79">
         <f t="shared" si="0"/>
-        <v>1.75E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9568,27 +9568,27 @@
       </c>
       <c r="B5" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C5)</f>
-        <v>42222</v>
+        <v>42247</v>
       </c>
       <c r="C5" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A5&amp;"M","mf")</f>
-        <v>42226</v>
+        <v>42249</v>
       </c>
       <c r="D5" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
-        <v>42592</v>
+        <v>42615</v>
       </c>
       <c r="E5" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-1.1620855295020765E-3</v>
+        <v>-1.236674190607109E-3</v>
       </c>
       <c r="F5" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>2.9620855295020765E-3</v>
+        <v>3.136674190607109E-3</v>
       </c>
       <c r="G5" s="79">
         <f t="shared" si="0"/>
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9600,27 +9600,27 @@
       </c>
       <c r="B6" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C6)</f>
-        <v>42251</v>
+        <v>42277</v>
       </c>
       <c r="C6" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A6&amp;"M","mf")</f>
-        <v>42255</v>
+        <v>42279</v>
       </c>
       <c r="D6" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
-        <v>42621</v>
+        <v>42646</v>
       </c>
       <c r="E6" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-1.1240884029558094E-3</v>
+        <v>-1.2385301504790145E-3</v>
       </c>
       <c r="F6" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>2.9640884029558095E-3</v>
+        <v>3.1785301504790144E-3</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="0"/>
-        <v>1.8400000000000001E-3</v>
+        <v>1.9399999999999999E-3</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9632,27 +9632,27 @@
       </c>
       <c r="B7" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C7)</f>
-        <v>42283</v>
+        <v>42306</v>
       </c>
       <c r="C7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A7&amp;"M","mf")</f>
-        <v>42285</v>
+        <v>42310</v>
       </c>
       <c r="D7" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C7)</f>
-        <v>42653</v>
+        <v>42676</v>
       </c>
       <c r="E7" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-1.0784318452227667E-3</v>
+        <v>-1.2636205914647561E-3</v>
       </c>
       <c r="F7" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>2.9784318452227669E-3</v>
+        <v>3.2436205914647561E-3</v>
       </c>
       <c r="G7" s="79">
         <f t="shared" si="0"/>
-        <v>1.9000000000000002E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9664,27 +9664,27 @@
       </c>
       <c r="B8" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C8)</f>
-        <v>42313</v>
+        <v>42338</v>
       </c>
       <c r="C8" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A8&amp;"M","mf")</f>
-        <v>42317</v>
+        <v>42340</v>
       </c>
       <c r="D8" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
-        <v>42683</v>
+        <v>42706</v>
       </c>
       <c r="E8" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-1.0235619473227329E-3</v>
+        <v>-1.2506248378229021E-3</v>
       </c>
       <c r="F8" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>2.9935619473227329E-3</v>
+        <v>3.2606248378229015E-3</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
-        <v>1.97E-3</v>
+        <v>2.0099999999999996E-3</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9696,27 +9696,27 @@
       </c>
       <c r="B9" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C9)</f>
-        <v>42342</v>
+        <v>42368</v>
       </c>
       <c r="C9" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A9&amp;"M","mf")</f>
-        <v>42346</v>
+        <v>42373</v>
       </c>
       <c r="D9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
-        <v>42712</v>
+        <v>42739</v>
       </c>
       <c r="E9" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-9.6858868030299953E-4</v>
+        <v>-1.2008987154035165E-3</v>
       </c>
       <c r="F9" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>2.9985886803029992E-3</v>
+        <v>3.2608987154035167E-3</v>
       </c>
       <c r="G9" s="79">
         <f t="shared" si="0"/>
-        <v>2.0299999999999997E-3</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9728,23 +9728,23 @@
       </c>
       <c r="B10" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C10)</f>
-        <v>42375</v>
+        <v>42398</v>
       </c>
       <c r="C10" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A10&amp;"M","mf")</f>
-        <v>42377</v>
+        <v>42402</v>
       </c>
       <c r="D10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
-        <v>42744</v>
+        <v>42768</v>
       </c>
       <c r="E10" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-8.8567113191482573E-4</v>
+        <v>-1.1692638169991656E-3</v>
       </c>
       <c r="F10" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.025671131914826E-3</v>
+        <v>3.309263816999166E-3</v>
       </c>
       <c r="G10" s="79">
         <f t="shared" si="0"/>
@@ -9761,23 +9761,23 @@
       </c>
       <c r="B11" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C11)</f>
-        <v>42404</v>
+        <v>42429</v>
       </c>
       <c r="C11" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A11&amp;"M","mf")</f>
-        <v>42408</v>
+        <v>42431</v>
       </c>
       <c r="D11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
-        <v>42774</v>
+        <v>42796</v>
       </c>
       <c r="E11" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-8.1315138646498493E-4</v>
+        <v>-1.1177419228922377E-3</v>
       </c>
       <c r="F11" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.0731513864649847E-3</v>
+        <v>3.3777419228922375E-3</v>
       </c>
       <c r="G11" s="79">
         <f t="shared" si="0"/>
@@ -9794,27 +9794,27 @@
       </c>
       <c r="B12" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C12)</f>
-        <v>42433</v>
+        <v>42460</v>
       </c>
       <c r="C12" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>42437</v>
+        <v>42464</v>
       </c>
       <c r="D12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
-        <v>42802</v>
+        <v>42829</v>
       </c>
       <c r="E12" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-7.432712396037201E-4</v>
+        <v>-1.0453340774028122E-3</v>
       </c>
       <c r="F12" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.1132712396037205E-3</v>
+        <v>3.4553340774028125E-3</v>
       </c>
       <c r="G12" s="79">
         <f t="shared" si="0"/>
-        <v>2.3700000000000006E-3</v>
+        <v>2.4100000000000002E-3</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9827,27 +9827,27 @@
       </c>
       <c r="B13" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C13)</f>
-        <v>42466</v>
+        <v>42488</v>
       </c>
       <c r="C13" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>42468</v>
+        <v>42492</v>
       </c>
       <c r="D13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
-        <v>42835</v>
+        <v>42857</v>
       </c>
       <c r="E13" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-6.4979075058956915E-4</v>
+        <v>-9.7856022967288928E-4</v>
       </c>
       <c r="F13" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.1597907505895692E-3</v>
+        <v>3.5385602296728897E-3</v>
       </c>
       <c r="G13" s="79">
         <f t="shared" si="0"/>
-        <v>2.5100000000000001E-3</v>
+        <v>2.5600000000000006E-3</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9860,27 +9860,27 @@
       </c>
       <c r="B14" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C14)</f>
-        <v>42495</v>
+        <v>42521</v>
       </c>
       <c r="C14" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>42499</v>
+        <v>42523</v>
       </c>
       <c r="D14" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
-        <v>42864</v>
+        <v>42888</v>
       </c>
       <c r="E14" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-5.4952239367591098E-4</v>
+        <v>-8.9263144370740032E-4</v>
       </c>
       <c r="F14" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.2095223936759111E-3</v>
+        <v>3.6226314437074005E-3</v>
       </c>
       <c r="G14" s="83">
         <f t="shared" si="0"/>
-        <v>2.66E-3</v>
+        <v>2.7300000000000002E-3</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9893,27 +9893,27 @@
       </c>
       <c r="B15" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C15)</f>
-        <v>42527</v>
+        <v>42551</v>
       </c>
       <c r="C15" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A15&amp;"M","mf")</f>
-        <v>42529</v>
+        <v>42555</v>
       </c>
       <c r="D15" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
-        <v>42894</v>
+        <v>42920</v>
       </c>
       <c r="E15" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-4.3199612796486318E-4</v>
+        <v>-7.9387155398455466E-4</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.2319961279648635E-3</v>
+        <v>3.7138715539845549E-3</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="0"/>
-        <v>2.8000000000000004E-3</v>
+        <v>2.9200000000000003E-3</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9926,27 +9926,27 @@
       </c>
       <c r="B16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C16)</f>
-        <v>42557</v>
+        <v>42580</v>
       </c>
       <c r="C16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A16&amp;"M","mf")</f>
-        <v>42559</v>
+        <v>42584</v>
       </c>
       <c r="D16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
-        <v>42926</v>
+        <v>42949</v>
       </c>
       <c r="E16" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-3.034970565257806E-4</v>
+        <v>-6.9455458950847806E-4</v>
       </c>
       <c r="F16" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.2491099821507236E-3</v>
+        <v>3.7495750425114789E-3</v>
       </c>
       <c r="G16" s="79">
         <f t="shared" si="0"/>
-        <v>2.9456129256249432E-3</v>
+        <v>3.0550204530030009E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9959,27 +9959,27 @@
       </c>
       <c r="B17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C17)</f>
-        <v>42586</v>
+        <v>42613</v>
       </c>
       <c r="C17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A17&amp;"M","mf")</f>
-        <v>42590</v>
+        <v>42615</v>
       </c>
       <c r="D17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
-        <v>42955</v>
+        <v>42982</v>
       </c>
       <c r="E17" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-1.7353360523490223E-4</v>
+        <v>-5.678290078259112E-4</v>
       </c>
       <c r="F17" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.2686832928084629E-3</v>
+        <v>3.7814766954320546E-3</v>
       </c>
       <c r="G17" s="79">
         <f t="shared" si="0"/>
-        <v>3.0951496875735608E-3</v>
+        <v>3.2136476876061435E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -9992,27 +9992,27 @@
       </c>
       <c r="B18" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C18)</f>
-        <v>42619</v>
+        <v>42642</v>
       </c>
       <c r="C18" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A18&amp;"M","mf")</f>
-        <v>42621</v>
+        <v>42646</v>
       </c>
       <c r="D18" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C18)</f>
-        <v>42986</v>
+        <v>43011</v>
       </c>
       <c r="E18" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-3.1316881745381079E-5</v>
+        <v>-4.292937383808644E-4</v>
       </c>
       <c r="F18" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.2900006325037633E-3</v>
+        <v>3.8074926749740489E-3</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>3.2586837507583822E-3</v>
+        <v>3.3781989365931843E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -10025,27 +10025,27 @@
       </c>
       <c r="B19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C19)</f>
-        <v>42649</v>
+        <v>42674</v>
       </c>
       <c r="C19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>42653</v>
+        <v>42676</v>
       </c>
       <c r="D19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
-        <v>43018</v>
+        <v>43041</v>
       </c>
       <c r="E19" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>1.2407591610514126E-4</v>
+        <v>-2.6591085293111854E-4</v>
       </c>
       <c r="F19" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.3136464044181205E-3</v>
+        <v>3.8276307946141213E-3</v>
       </c>
       <c r="G19" s="79">
         <f t="shared" si="0"/>
-        <v>3.4377223205232618E-3</v>
+        <v>3.5617199416830029E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -10058,27 +10058,27 @@
       </c>
       <c r="B20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C20)</f>
-        <v>42678</v>
+        <v>42704</v>
       </c>
       <c r="C20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>42682</v>
+        <v>42706</v>
       </c>
       <c r="D20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
-        <v>43047</v>
+        <v>43073</v>
       </c>
       <c r="E20" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>2.7488306561570971E-4</v>
+        <v>-8.0537703956348066E-5</v>
       </c>
       <c r="F20" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.336353205986979E-3</v>
+        <v>3.8433628789842733E-3</v>
       </c>
       <c r="G20" s="79">
         <f t="shared" si="0"/>
-        <v>3.6112362716026886E-3</v>
+        <v>3.7628251750279253E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10091,27 +10091,27 @@
       </c>
       <c r="B21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C21)</f>
-        <v>42710</v>
+        <v>42733</v>
       </c>
       <c r="C21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>42712</v>
+        <v>42737</v>
       </c>
       <c r="D21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C21)</f>
-        <v>43077</v>
+        <v>43102</v>
       </c>
       <c r="E21" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>4.4373441001084954E-4</v>
+        <v>7.0956961254424111E-5</v>
       </c>
       <c r="F21" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.3609612856669046E-3</v>
+        <v>3.8555683857524376E-3</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" si="0"/>
-        <v>3.804695695677754E-3</v>
+        <v>3.9265253470068618E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10124,27 +10124,27 @@
       </c>
       <c r="B22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C22)</f>
-        <v>42740</v>
+        <v>42766</v>
       </c>
       <c r="C22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>42744</v>
+        <v>42768</v>
       </c>
       <c r="D22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
-        <v>43109</v>
+        <v>43133</v>
       </c>
       <c r="E22" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>6.0629936131333356E-4</v>
+        <v>2.590749990711667E-4</v>
       </c>
       <c r="F22" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>3.3882837600152861E-3</v>
+        <v>3.8642502328005302E-3</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="0"/>
-        <v>3.9945831213286194E-3</v>
+        <v>4.1233252318716969E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10157,27 +10157,27 @@
       </c>
       <c r="B23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C23)</f>
-        <v>42772</v>
+        <v>42794</v>
       </c>
       <c r="C23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>42774</v>
+        <v>42796</v>
       </c>
       <c r="D23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
-        <v>43139</v>
+        <v>43161</v>
       </c>
       <c r="E23" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>8.018408858130869E-4</v>
+        <v>4.3031273448644169E-4</v>
       </c>
       <c r="F23" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>3.4147350622349094E-3</v>
+        <v>3.8695624701911547E-3</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="0"/>
-        <v>4.2165759480479962E-3</v>
+        <v>4.2998752046775959E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10190,27 +10190,27 @@
       </c>
       <c r="B24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C24)</f>
-        <v>42800</v>
+        <v>42824</v>
       </c>
       <c r="C24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42802</v>
+        <v>42828</v>
       </c>
       <c r="D24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
-        <v>43167</v>
+        <v>43193</v>
       </c>
       <c r="E24" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>9.9041708585097775E-4</v>
+        <v>6.3521790903374778E-4</v>
       </c>
       <c r="F24" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>3.4400078691739938E-3</v>
+        <v>3.8732804897234231E-3</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="0"/>
-        <v>4.4304249550249711E-3</v>
+        <v>4.5084983987571711E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10223,27 +10223,27 @@
       </c>
       <c r="B25" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C25)</f>
-        <v>42831</v>
+        <v>42852</v>
       </c>
       <c r="C25" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A25&amp;"M","mf")</f>
-        <v>42835</v>
+        <v>42857</v>
       </c>
       <c r="D25" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
-        <v>43200</v>
+        <v>43222</v>
       </c>
       <c r="E25" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>1.216924080933587E-3</v>
+        <v>8.354185619303435E-4</v>
       </c>
       <c r="F25" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>3.4703364507519953E-3</v>
+        <v>3.8750105452260747E-3</v>
       </c>
       <c r="G25" s="79">
         <f t="shared" si="0"/>
-        <v>4.6872605316855822E-3</v>
+        <v>4.7104291071564178E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10256,27 +10256,27 @@
       </c>
       <c r="B26" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C26)</f>
-        <v>42859</v>
+        <v>42886</v>
       </c>
       <c r="C26" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A26&amp;"M","mf")</f>
-        <v>42863</v>
+        <v>42888</v>
       </c>
       <c r="D26" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
-        <v>43228</v>
+        <v>43255</v>
       </c>
       <c r="E26" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>1.4150636088540642E-3</v>
+        <v>1.0722974285038605E-3</v>
       </c>
       <c r="F26" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>3.4963790818891114E-3</v>
+        <v>3.8757107596576277E-3</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="0"/>
-        <v>4.9114426907431756E-3</v>
+        <v>4.9480081881614884E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10289,27 +10289,27 @@
       </c>
       <c r="B27" s="340">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C27)</f>
-        <v>42892</v>
+        <v>42915</v>
       </c>
       <c r="C27" s="340">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A27&amp;"M","mf")</f>
-        <v>42894</v>
+        <v>42919</v>
       </c>
       <c r="D27" s="340">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C27)</f>
-        <v>43259</v>
+        <v>43284</v>
       </c>
       <c r="E27" s="341">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>1.6446242247501973E-3</v>
+        <v>1.3041892097092939E-3</v>
       </c>
       <c r="F27" s="342">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>3.5253757752498026E-3</v>
+        <v>3.8758107902907065E-3</v>
       </c>
       <c r="G27" s="341">
         <f t="shared" si="0"/>
-        <v>5.1700000000000001E-3</v>
+        <v>5.1800000000000006E-3</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="N2" s="102">
         <f>_xll.ohTrigger(M3:M7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10448,18 +10448,18 @@
       </c>
       <c r="H3" s="139">
         <f>'1MSynthDepo'!V11</f>
-        <v>-5.9043666484015489E-4</v>
+        <v>-4.9809020803870396E-4</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="132">
-        <v>-5.3379496031347173E-4</v>
+        <v>-4.9809020803870396E-4</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="120">
-        <f t="array" ref="L3:L63">QuoteLive</f>
-        <v>-5.9043666484015489E-4</v>
+        <f>QuoteLive</f>
+        <v>-4.9809020803870396E-4</v>
       </c>
       <c r="M3" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
@@ -10493,17 +10493,18 @@
       </c>
       <c r="H4" s="139">
         <f>'1MSynthDepo'!V12</f>
-        <v>-5.9885151029488118E-4</v>
+        <v>-5.4115096447355474E-4</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="132">
-        <v>-3.9059723107914834E-4</v>
+        <v>-5.4115096447355474E-4</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="120">
-        <v>-5.9885151029488118E-4</v>
+        <f>QuoteLive</f>
+        <v>-5.4115096447355474E-4</v>
       </c>
       <c r="M4" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
@@ -10534,17 +10535,18 @@
       </c>
       <c r="H5" s="139">
         <f>'1MSynthDepo'!V13</f>
-        <v>-5.8752678013267764E-4</v>
+        <v>-5.8180166924159948E-4</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="132">
-        <v>-2.022527404326497E-4</v>
+        <v>-5.8180166924159948E-4</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="120">
-        <v>-5.8752678013267764E-4</v>
+        <f>QuoteLive</f>
+        <v>-5.8180166924159948E-4</v>
       </c>
       <c r="M5" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
@@ -10575,17 +10577,18 @@
       </c>
       <c r="H6" s="139">
         <f>'1MSynthDepo'!V14</f>
-        <v>-6.0502935140022932E-4</v>
+        <v>-6.1310894435300564E-4</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="133">
-        <v>-2.8647777488328377E-4</v>
+        <v>-6.1310894435300564E-4</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="122">
-        <v>-6.0502935140022932E-4</v>
+        <f>QuoteLive</f>
+        <v>-6.1310894435300564E-4</v>
       </c>
       <c r="M6" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
@@ -10616,17 +10619,18 @@
       </c>
       <c r="H7" s="142">
         <f>'1MSynthDepo'!V15</f>
-        <v>-6.2758270029439345E-4</v>
+        <v>-6.4691462326391114E-4</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="134">
-        <v>-3.3999999999956287E-4</v>
+        <v>-6.4691462326391114E-4</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="124">
-        <v>-6.2758270029439345E-4</v>
+        <f>QuoteLive</f>
+        <v>-6.4691462326391114E-4</v>
       </c>
       <c r="M7" s="125">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
@@ -10656,23 +10660,24 @@
       </c>
       <c r="H8" s="144">
         <f>'3MSynthDepo'!I25</f>
-        <v>-1.5235886164699508E-4</v>
+        <v>-4.8710257107842381E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
-        <v>-6.5904013166750985E-5</v>
+        <v>-4.3219610182720913E-4</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="120">
-        <v>-1.5235886164699508E-4</v>
+        <f>QuoteLive</f>
+        <v>-4.8710257107842381E-4</v>
       </c>
       <c r="M8" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>6.9999999999999804E-6</v>
+        <v>0</v>
       </c>
       <c r="N8" s="108">
         <f>_xll.ohTrigger(M8:M14)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10698,19 +10703,20 @@
       </c>
       <c r="H9" s="139">
         <f>'3MSynthDepo'!I26</f>
-        <v>-1.4615060688529167E-4</v>
+        <v>-4.5882414142336562E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
-        <v>6.7527620855045711E-5</v>
+        <v>-4.068780702702414E-4</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="120">
-        <v>-1.4615060688529167E-4</v>
+        <f>QuoteLive</f>
+        <v>-4.5882414142336562E-4</v>
       </c>
       <c r="M9" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>6.0000000000000103E-6</v>
+        <v>0</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10734,19 +10740,20 @@
       </c>
       <c r="H10" s="139">
         <f>'3MSynthDepo'!I27</f>
-        <v>-1.1905590967087321E-4</v>
+        <v>-4.2711533191384731E-4</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
-        <v>2.4652230037336409E-4</v>
+        <v>-3.7845748183900393E-4</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="120">
-        <v>-1.1905590967087321E-4</v>
+        <f>QuoteLive</f>
+        <v>-4.2711533191384731E-4</v>
       </c>
       <c r="M10" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>5.9999999999999968E-6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10770,19 +10777,20 @@
       </c>
       <c r="H11" s="147">
         <f>'3MSynthDepo'!I28</f>
-        <v>-1.2210649579267953E-4</v>
+        <v>-3.9673590162246441E-4</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
-        <v>1.5514146245010352E-4</v>
+        <v>-3.5119344143083202E-4</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="122">
-        <v>-1.2210649579267953E-4</v>
+        <f>QuoteLive</f>
+        <v>-3.9673590162246441E-4</v>
       </c>
       <c r="M11" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>5.9999999999999968E-6</v>
+        <v>0</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10806,19 +10814,20 @@
       </c>
       <c r="H12" s="139">
         <f>'3MSynthDepo'!I29</f>
-        <v>-1.2789266630397478E-4</v>
+        <v>-3.4456966942583711E-4</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
-        <v>9.5648429845773819E-5</v>
+        <v>-3.0358723576665025E-4</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="120">
-        <v>-1.2789266630397478E-4</v>
+        <f>QuoteLive</f>
+        <v>-3.4456966942583711E-4</v>
       </c>
       <c r="M12" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>5.0000000000000131E-6</v>
+        <v>0</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10842,19 +10851,20 @@
       </c>
       <c r="H13" s="139">
         <f>'3MSynthDepo'!I30</f>
-        <v>-1.3135129780675724E-4</v>
+        <v>-2.2997948693555126E-4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
-        <v>5.4506305091701146E-5</v>
+        <v>-1.9950697095662319E-4</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="120">
-        <v>-1.3135129780675724E-4</v>
+        <f>QuoteLive</f>
+        <v>-2.2997948693555126E-4</v>
       </c>
       <c r="M13" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>3.9999999999999888E-6</v>
+        <v>0</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10878,19 +10888,20 @@
       </c>
       <c r="H14" s="147">
         <f>'3MSynthDepo'!I31</f>
-        <v>-1.3414978244339639E-4</v>
+        <v>-1.5703831490622495E-4</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
-        <v>2.1169088631484696E-5</v>
+        <v>-1.3458461421572457E-4</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="122">
-        <v>-1.3414978244339639E-4</v>
+        <f>QuoteLive</f>
+        <v>-1.5703831490622495E-4</v>
       </c>
       <c r="M14" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>2.9999999999999916E-6</v>
+        <v>0</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10919,23 +10930,24 @@
       </c>
       <c r="H15" s="144">
         <f>'6MSynthDepo'!I25</f>
-        <v>3.241783158713929E-4</v>
+        <v>-3.9458792169710932E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
-        <v>9.1273369742239652E-4</v>
+        <v>-3.9458792169710932E-4</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="120">
-        <v>3.241783158713929E-4</v>
+        <f>QuoteLive</f>
+        <v>-3.9458792169710932E-4</v>
       </c>
       <c r="M15" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>2.6000000000000036E-5</v>
+        <v>0</v>
       </c>
       <c r="N15" s="110">
         <f>_xll.ohTrigger(M15:M24)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10964,19 +10976,20 @@
       </c>
       <c r="H16" s="139">
         <f>'6MSynthDepo'!I26</f>
-        <v>3.3416013810873475E-4</v>
+        <v>-3.4882074422640637E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
-        <v>1.0323016171362046E-3</v>
+        <v>-3.4882074422640637E-4</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="120">
-        <v>3.3416013810873475E-4</v>
+        <f>QuoteLive</f>
+        <v>-3.4882074422640637E-4</v>
       </c>
       <c r="M16" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>0</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -11003,19 +11016,20 @@
       </c>
       <c r="H17" s="139">
         <f>'6MSynthDepo'!I27</f>
-        <v>3.6559869292534283E-4</v>
+        <v>-2.9738708666198529E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
-        <v>1.1954497369843459E-3</v>
+        <v>-2.9738708666198529E-4</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="120">
-        <v>3.6559869292534283E-4</v>
+        <f>QuoteLive</f>
+        <v>-2.9738708666198529E-4</v>
       </c>
       <c r="M17" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -11042,19 +11056,20 @@
       </c>
       <c r="H18" s="139">
         <f>'6MSynthDepo'!I28</f>
-        <v>3.6682874906799966E-4</v>
+        <v>-2.4799094100532874E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
-        <v>1.0885602616905743E-3</v>
+        <v>-2.4799094100532874E-4</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="120">
-        <v>3.6682874906799966E-4</v>
+        <f>QuoteLive</f>
+        <v>-2.4799094100532874E-4</v>
       </c>
       <c r="M18" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>2.2999999999999963E-5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -11081,19 +11096,20 @@
       </c>
       <c r="H19" s="144">
         <f>'6MSynthDepo'!I29</f>
-        <v>3.6645507358468166E-4</v>
+        <v>-1.6731560503580045E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
-        <v>1.0096362776810253E-3</v>
+        <v>-1.6731560503580045E-4</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="126">
-        <v>3.6645507358468166E-4</v>
+        <f>QuoteLive</f>
+        <v>-1.6731560503580045E-4</v>
       </c>
       <c r="M19" s="127">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>2.1000000000000023E-5</v>
+        <v>0</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -11120,19 +11136,20 @@
       </c>
       <c r="H20" s="139">
         <f>'6MSynthDepo'!I30</f>
-        <v>3.81994436043444E-4</v>
+        <v>1.7135171395336655E-5</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
-        <v>9.0595425058635152E-4</v>
+        <v>1.7135171395336655E-5</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="120">
-        <v>3.81994436043444E-4</v>
+        <f>QuoteLive</f>
+        <v>1.7135171395336655E-5</v>
       </c>
       <c r="M20" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>1.7000000000000034E-5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -11159,19 +11176,20 @@
       </c>
       <c r="H21" s="139">
         <f>'6MSynthDepo'!I31</f>
-        <v>3.9484329466596776E-4</v>
+        <v>1.4970942120604377E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
-        <v>8.1856251305365826E-4</v>
+        <v>1.4970942120604377E-4</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="120">
-        <v>3.9484329466596776E-4</v>
+        <f>QuoteLive</f>
+        <v>1.4970942120604377E-4</v>
       </c>
       <c r="M21" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>1.4000000000000015E-5</v>
+        <v>0</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -11198,19 +11216,20 @@
       </c>
       <c r="H22" s="139">
         <f>'6MSynthDepo'!I32</f>
-        <v>4.2839036714768179E-4</v>
+        <v>2.6137895483839443E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
-        <v>7.7358926811860727E-4</v>
+        <v>2.6137895483839443E-4</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="120">
-        <v>4.2839036714768179E-4</v>
+        <f>QuoteLive</f>
+        <v>2.6137895483839443E-4</v>
       </c>
       <c r="M22" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>1.0999999999999996E-5</v>
+        <v>0</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -11237,19 +11256,20 @@
       </c>
       <c r="H23" s="139">
         <f>'6MSynthDepo'!I33</f>
-        <v>4.5430778824257596E-4</v>
+        <v>3.5794344177292E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
-        <v>7.535141655863201E-4</v>
+        <v>3.5794344177292E-4</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="120">
-        <v>4.5430778824257596E-4</v>
+        <f>QuoteLive</f>
+        <v>3.5794344177292E-4</v>
       </c>
       <c r="M23" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>7.9999999999999776E-6</v>
+        <v>0</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11276,19 +11296,20 @@
       </c>
       <c r="H24" s="147">
         <f>'6MSynthDepo'!I34</f>
-        <v>4.8065290598658667E-4</v>
+        <v>4.4048941423735494E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
-        <v>7.1336998314508644E-4</v>
+        <v>4.4048941423735494E-4</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="122">
-        <v>4.8065290598658667E-4</v>
+        <f>QuoteLive</f>
+        <v>4.4048941423735494E-4</v>
       </c>
       <c r="M24" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>7.0000000000000075E-6</v>
+        <v>0</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11317,23 +11338,24 @@
       </c>
       <c r="H25" s="144">
         <f>'1YSynthDepo'!I20</f>
-        <v>1.609122302923538E-3</v>
+        <v>1.4974025447589412E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
-        <v>1.9786760234286049E-3</v>
+        <v>1.4974025447589412E-3</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="120">
-        <v>1.609122302923538E-3</v>
+        <f>QuoteLive</f>
+        <v>1.4974025447589412E-3</v>
       </c>
       <c r="M25" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>-3.6000000000000008E-5</v>
+        <v>0</v>
       </c>
       <c r="N25" s="110">
         <f>_xll.ohTrigger(M25:M40)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11362,19 +11384,20 @@
       </c>
       <c r="H26" s="139">
         <f>'1YSynthDepo'!I21</f>
-        <v>1.6082451892161587E-3</v>
+        <v>1.4989280131162883E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
-        <v>2.0973449061261512E-3</v>
+        <v>1.4989280131162883E-3</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="120">
-        <v>1.6082451892161587E-3</v>
+        <f>QuoteLive</f>
+        <v>1.4989280131162883E-3</v>
       </c>
       <c r="M26" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>-3.4999999999999875E-5</v>
+        <v>0</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11401,19 +11424,20 @@
       </c>
       <c r="H27" s="139">
         <f>'1YSynthDepo'!I22</f>
-        <v>1.6272938688897754E-3</v>
+        <v>1.500812891021473E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
-        <v>2.2594679994477774E-3</v>
+        <v>1.500812891021473E-3</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="120">
-        <v>1.6272938688897754E-3</v>
+        <f>QuoteLive</f>
+        <v>1.500812891021473E-3</v>
       </c>
       <c r="M27" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>-3.3999999999999959E-5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11440,19 +11464,20 @@
       </c>
       <c r="H28" s="139">
         <f>'1YSynthDepo'!I23</f>
-        <v>1.6164289598753964E-3</v>
+        <v>1.5028246946651486E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
-        <v>2.1515623467774753E-3</v>
+        <v>1.5028246946651486E-3</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="120">
-        <v>1.6164289598753964E-3</v>
+        <f>QuoteLive</f>
+        <v>1.5028246946651486E-3</v>
       </c>
       <c r="M28" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>-3.3000000000000043E-5</v>
+        <v>0</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11479,19 +11504,20 @@
       </c>
       <c r="H29" s="147">
         <f>'1YSynthDepo'!I24</f>
-        <v>1.6009335986062467E-3</v>
+        <v>1.5052680233473836E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
-        <v>2.0713582690561338E-3</v>
+        <v>1.5052680233473836E-3</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="122">
-        <v>1.6009335986062467E-3</v>
+        <f>QuoteLive</f>
+        <v>1.5052680233473836E-3</v>
       </c>
       <c r="M29" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>-3.0999999999999995E-5</v>
+        <v>0</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11518,19 +11544,20 @@
       </c>
       <c r="H30" s="139">
         <f>'1YSynthDepo'!I25</f>
-        <v>1.5650524683749217E-3</v>
+        <v>1.5332441280138038E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
-        <v>1.9635040805632822E-3</v>
+        <v>1.5332441280138038E-3</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="120">
-        <v>1.5650524683749217E-3</v>
+        <f>QuoteLive</f>
+        <v>1.5332441280138038E-3</v>
       </c>
       <c r="M30" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>-2.5999999999999981E-5</v>
+        <v>0</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11557,19 +11584,20 @@
       </c>
       <c r="H31" s="139">
         <f>'1YSynthDepo'!I26</f>
-        <v>1.5377312623009118E-3</v>
+        <v>1.5440442796775956E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
-        <v>1.8724129563418969E-3</v>
+        <v>1.5440442796775956E-3</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="120">
-        <v>1.5377312623009118E-3</v>
+        <f>QuoteLive</f>
+        <v>1.5440442796775956E-3</v>
       </c>
       <c r="M31" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>-2.1999999999999884E-5</v>
+        <v>0</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11596,19 +11624,20 @@
       </c>
       <c r="H32" s="139">
         <f>'1YSynthDepo'!I27</f>
-        <v>1.5344112658990528E-3</v>
+        <v>1.6054669927649161E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
-        <v>1.8237721684577848E-3</v>
+        <v>1.6054669927649161E-3</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="120">
-        <v>1.5344112658990528E-3</v>
+        <f>QuoteLive</f>
+        <v>1.6054669927649161E-3</v>
       </c>
       <c r="M32" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>-1.899999999999992E-5</v>
+        <v>0</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11635,19 +11664,20 @@
       </c>
       <c r="H33" s="139">
         <f>'1YSynthDepo'!I28</f>
-        <v>1.5259618386373067E-3</v>
+        <v>1.563131601399824E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
-        <v>1.8008225006785829E-3</v>
+        <v>1.563131601399824E-3</v>
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="120">
-        <v>1.5259618386373067E-3</v>
+        <f>QuoteLive</f>
+        <v>1.563131601399824E-3</v>
       </c>
       <c r="M33" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>-1.5000000000000039E-5</v>
+        <v>0</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11674,19 +11704,20 @@
       </c>
       <c r="H34" s="139">
         <f>'1YSynthDepo'!I29</f>
-        <v>1.5253302475532371E-3</v>
+        <v>1.5671738365460426E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
-        <v>1.7580324292638017E-3</v>
+        <v>1.5671738365460426E-3</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="120">
-        <v>1.5253302475532371E-3</v>
+        <f>QuoteLive</f>
+        <v>1.5671738365460426E-3</v>
       </c>
       <c r="M34" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>-1.1999999999999858E-5</v>
+        <v>0</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11713,19 +11744,20 @@
       </c>
       <c r="H35" s="139">
         <f>'1YSynthDepo'!I30</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
-        <v>1.7605253080593816E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="120">
-        <v>1.6784772998424289E-3</v>
+        <f>QuoteLive</f>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="M35" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11752,19 +11784,20 @@
       </c>
       <c r="H36" s="139">
         <f>'1YSynthDepo'!I31</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
-        <v>1.7377762759480189E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="120">
-        <v>1.6784772998424289E-3</v>
+        <f>QuoteLive</f>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="M36" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11791,19 +11824,20 @@
       </c>
       <c r="H37" s="139">
         <f>'1YSynthDepo'!I32</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
-        <v>1.7481493380464806E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="120">
-        <v>1.6784772998424289E-3</v>
+        <f>QuoteLive</f>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="M37" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11830,19 +11864,20 @@
       </c>
       <c r="H38" s="139">
         <f>'1YSynthDepo'!I33</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
-        <v>1.7372768337085925E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="120">
-        <v>1.6784772998424289E-3</v>
+        <f>QuoteLive</f>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="M38" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11869,19 +11904,20 @@
       </c>
       <c r="H39" s="139">
         <f>'1YSynthDepo'!I34</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
-        <v>1.7247550505565812E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="120">
-        <v>1.6784772998424289E-3</v>
+        <f>QuoteLive</f>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="M39" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11908,19 +11944,20 @@
       </c>
       <c r="H40" s="147">
         <f>'1YSynthDepo'!I35</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
-        <v>1.7100000000000858E-3</v>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="122">
-        <v>1.6784772998424289E-3</v>
+        <f>QuoteLive</f>
+        <v>1.7371262017769262E-3</v>
       </c>
       <c r="M40" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11953,23 +11990,24 @@
       </c>
       <c r="H41" s="152">
         <f>SynthFra!G4</f>
-        <v>1.75E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
-        <v>1.6605416176082449E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="128">
-        <v>1.75E-3</v>
+        <f>QuoteLive</f>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="M41" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N41" s="110">
         <f>_xll.ohTrigger(M41:M63)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -12001,15 +12039,16 @@
       </c>
       <c r="H42" s="154">
         <f>SynthFra!G5</f>
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
-        <v>1.6383825167237793E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="128">
-        <v>1.8E-3</v>
+        <f>QuoteLive</f>
+        <v>1.9E-3</v>
       </c>
       <c r="M42" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
@@ -12046,15 +12085,16 @@
       </c>
       <c r="H43" s="154">
         <f>SynthFra!G6</f>
-        <v>1.8400000000000001E-3</v>
+        <v>1.9399999999999999E-3</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="136">
-        <v>1.6315359165180374E-3</v>
+        <v>1.9399999999999999E-3</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="128">
-        <v>1.8400000000000001E-3</v>
+        <f>QuoteLive</f>
+        <v>1.9399999999999999E-3</v>
       </c>
       <c r="M43" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
@@ -12091,15 +12131,16 @@
       </c>
       <c r="H44" s="154">
         <f>SynthFra!G7</f>
-        <v>1.9000000000000002E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
-        <v>1.6217354128587164E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="128">
-        <v>1.9000000000000002E-3</v>
+        <f>QuoteLive</f>
+        <v>1.98E-3</v>
       </c>
       <c r="M44" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
@@ -12136,15 +12177,16 @@
       </c>
       <c r="H45" s="154">
         <f>SynthFra!G8</f>
-        <v>1.97E-3</v>
+        <v>2.0099999999999996E-3</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="136">
-        <v>1.611490590887736E-3</v>
+        <v>2.0099999999999996E-3</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="128">
-        <v>1.97E-3</v>
+        <f>QuoteLive</f>
+        <v>2.0099999999999996E-3</v>
       </c>
       <c r="M45" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
@@ -12181,15 +12223,16 @@
       </c>
       <c r="H46" s="154">
         <f>SynthFra!G9</f>
-        <v>2.0299999999999997E-3</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
-        <v>1.6152355880216236E-3</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="128">
-        <v>2.0299999999999997E-3</v>
+        <f>QuoteLive</f>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="M46" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
@@ -12230,10 +12273,11 @@
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="136">
-        <v>1.6027837766431675E-3</v>
+        <v>2.1400000000000004E-3</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="128">
+        <f>QuoteLive</f>
         <v>2.1400000000000004E-3</v>
       </c>
       <c r="M47" s="129">
@@ -12275,15 +12319,16 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="136">
-        <v>1.6116373612167782E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="128">
+        <f>QuoteLive</f>
         <v>2.2599999999999999E-3</v>
       </c>
       <c r="M48" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N48" s="111"/>
     </row>
@@ -12316,19 +12361,20 @@
       </c>
       <c r="H49" s="154">
         <f>SynthFra!G12</f>
-        <v>2.3700000000000006E-3</v>
+        <v>2.4100000000000002E-3</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="136">
-        <v>1.6110335582855382E-3</v>
+        <v>2.4100000000000002E-3</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="128">
-        <v>2.3700000000000006E-3</v>
+        <f>QuoteLive</f>
+        <v>2.4100000000000002E-3</v>
       </c>
       <c r="M49" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N49" s="111"/>
     </row>
@@ -12361,15 +12407,16 @@
       </c>
       <c r="H50" s="154">
         <f>SynthFra!G13</f>
-        <v>2.5100000000000001E-3</v>
+        <v>2.5600000000000006E-3</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="136">
-        <v>1.6260050614706461E-3</v>
+        <v>2.5600000000000006E-3</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="128">
-        <v>2.5100000000000001E-3</v>
+        <f>QuoteLive</f>
+        <v>2.5600000000000006E-3</v>
       </c>
       <c r="M50" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
@@ -12406,19 +12453,20 @@
       </c>
       <c r="H51" s="154">
         <f>SynthFra!G14</f>
-        <v>2.66E-3</v>
+        <v>2.7300000000000002E-3</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="136">
-        <v>1.6510956425379811E-3</v>
+        <v>2.7300000000000002E-3</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="128">
-        <v>2.66E-3</v>
+        <f>QuoteLive</f>
+        <v>2.7300000000000002E-3</v>
       </c>
       <c r="M51" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N51" s="111"/>
     </row>
@@ -12451,19 +12499,20 @@
       </c>
       <c r="H52" s="154">
         <f>SynthFra!G16</f>
-        <v>2.9456129256249432E-3</v>
+        <v>3.0550204530030009E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
-        <v>1.7293198715218703E-3</v>
+        <v>3.0550204530030009E-3</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="128">
-        <v>2.9456129256249432E-3</v>
+        <f>QuoteLive</f>
+        <v>3.0550204530030009E-3</v>
       </c>
       <c r="M52" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
-        <v>-1.2000000000000292E-5</v>
+        <v>0</v>
       </c>
       <c r="N52" s="111"/>
     </row>
@@ -12496,19 +12545,20 @@
       </c>
       <c r="H53" s="154">
         <f>SynthFra!G17</f>
-        <v>3.0951496875735608E-3</v>
+        <v>3.2136476876061435E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
-        <v>1.7685177753047356E-3</v>
+        <v>3.2136476876061435E-3</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="128">
-        <v>3.0951496875735608E-3</v>
+        <f>QuoteLive</f>
+        <v>3.2136476876061435E-3</v>
       </c>
       <c r="M53" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>-2.1999999999999884E-5</v>
+        <v>0</v>
       </c>
       <c r="N53" s="111"/>
     </row>
@@ -12541,19 +12591,20 @@
       </c>
       <c r="H54" s="154">
         <f>SynthFra!G18</f>
-        <v>3.2586837507583822E-3</v>
+        <v>3.3781989365931843E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
-        <v>1.8203716252033035E-3</v>
+        <v>3.3781989365931843E-3</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="128">
-        <v>3.2586837507583822E-3</v>
+        <f>QuoteLive</f>
+        <v>3.3781989365931843E-3</v>
       </c>
       <c r="M54" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>-2.6999999999999681E-5</v>
+        <v>0</v>
       </c>
       <c r="N54" s="111"/>
     </row>
@@ -12586,19 +12637,20 @@
       </c>
       <c r="H55" s="154">
         <f>SynthFra!G19</f>
-        <v>3.4377223205232618E-3</v>
+        <v>3.5617199416830029E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
-        <v>1.8842824044602055E-3</v>
+        <v>3.5617199416830029E-3</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="128">
-        <v>3.4377223205232618E-3</v>
+        <f>QuoteLive</f>
+        <v>3.5617199416830029E-3</v>
       </c>
       <c r="M55" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>-3.0999999999999778E-5</v>
+        <v>0</v>
       </c>
       <c r="N55" s="111"/>
     </row>
@@ -12631,19 +12683,20 @@
       </c>
       <c r="H56" s="154">
         <f>SynthFra!G20</f>
-        <v>3.6112362716026886E-3</v>
+        <v>3.7628251750279253E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
-        <v>1.9620591824041763E-3</v>
+        <v>3.7628251750279253E-3</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="128">
-        <v>3.6112362716026886E-3</v>
+        <f>QuoteLive</f>
+        <v>3.7628251750279253E-3</v>
       </c>
       <c r="M56" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>-3.199999999999991E-5</v>
+        <v>0</v>
       </c>
       <c r="N56" s="111"/>
     </row>
@@ -12676,19 +12729,20 @@
       </c>
       <c r="H57" s="154">
         <f>SynthFra!G21</f>
-        <v>3.804695695677754E-3</v>
+        <v>3.9265253470068618E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
-        <v>2.0525920677748541E-3</v>
+        <v>3.9265253470068618E-3</v>
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="128">
-        <v>3.804695695677754E-3</v>
+        <f>QuoteLive</f>
+        <v>3.9265253470068618E-3</v>
       </c>
       <c r="M57" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>-3.0000000000000079E-5</v>
+        <v>0</v>
       </c>
       <c r="N57" s="111"/>
     </row>
@@ -12721,19 +12775,20 @@
       </c>
       <c r="H58" s="154">
         <f>SynthFra!G22</f>
-        <v>3.9945831213286194E-3</v>
+        <v>4.1233252318716969E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
-        <v>2.1415420157302706E-3</v>
+        <v>4.1233252318716969E-3</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="128">
-        <v>3.9945831213286194E-3</v>
+        <f>QuoteLive</f>
+        <v>4.1233252318716969E-3</v>
       </c>
       <c r="M58" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>-2.3999999999999716E-5</v>
+        <v>0</v>
       </c>
       <c r="N58" s="111"/>
     </row>
@@ -12766,19 +12821,20 @@
       </c>
       <c r="H59" s="154">
         <f>SynthFra!G23</f>
-        <v>4.2165759480479962E-3</v>
+        <v>4.2998752046775959E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
-        <v>2.239062995801116E-3</v>
+        <v>4.2998752046775959E-3</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="128">
-        <v>4.2165759480479962E-3</v>
+        <f>QuoteLive</f>
+        <v>4.2998752046775959E-3</v>
       </c>
       <c r="M59" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>-1.7999999999999787E-5</v>
+        <v>0</v>
       </c>
       <c r="N59" s="111"/>
     </row>
@@ -12811,19 +12867,20 @@
       </c>
       <c r="H60" s="154">
         <f>SynthFra!G24</f>
-        <v>4.4304249550249711E-3</v>
+        <v>4.5084983987571711E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
-        <v>2.3413834432000026E-3</v>
+        <v>4.5084983987571711E-3</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="128">
-        <v>4.4304249550249711E-3</v>
+        <f>QuoteLive</f>
+        <v>4.5084983987571711E-3</v>
       </c>
       <c r="M60" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>-1.2999999999999991E-5</v>
+        <v>0</v>
       </c>
       <c r="N60" s="111"/>
     </row>
@@ -12856,19 +12913,20 @@
       </c>
       <c r="H61" s="154">
         <f>SynthFra!G25</f>
-        <v>4.6872605316855822E-3</v>
+        <v>4.7104291071564178E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
-        <v>2.4430084796921575E-3</v>
+        <v>4.7104291071564178E-3</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="128">
-        <v>4.6872605316855822E-3</v>
+        <f>QuoteLive</f>
+        <v>4.7104291071564178E-3</v>
       </c>
       <c r="M61" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>-8.0000000000001945E-6</v>
+        <v>0</v>
       </c>
       <c r="N61" s="111"/>
     </row>
@@ -12901,19 +12959,20 @@
       </c>
       <c r="H62" s="154">
         <f>SynthFra!G26</f>
-        <v>4.9114426907431756E-3</v>
+        <v>4.9480081881614884E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
-        <v>2.5460698839072883E-3</v>
+        <v>4.9480081881614884E-3</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="128">
-        <v>4.9114426907431756E-3</v>
+        <f>QuoteLive</f>
+        <v>4.9480081881614884E-3</v>
       </c>
       <c r="M62" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>-5.0000000000006636E-6</v>
+        <v>0</v>
       </c>
       <c r="N62" s="111"/>
     </row>
@@ -12946,15 +13005,16 @@
       </c>
       <c r="H63" s="156">
         <f>SynthFra!G27</f>
-        <v>5.1700000000000001E-3</v>
+        <v>5.1800000000000006E-3</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="137">
-        <v>2.5460698839072883E-3</v>
+        <v>5.1800000000000006E-3</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="130">
-        <v>5.1700000000000001E-3</v>
+        <f>QuoteLive</f>
+        <v>5.1800000000000006E-3</v>
       </c>
       <c r="M63" s="131">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -2030,12 +2030,12 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>25</v>
+            <v>270</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -2049,12 +2049,12 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0000</v>
+            <v>EUR6M#0001</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>EUR6M#0000</v>
+            <v>EUR6M#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -2109,12 +2109,12 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0000</v>
+            <v>EURTND_Quote#0001</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>EURSND_Quote#0000</v>
+            <v>EURSND_Quote#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -2133,12 +2133,12 @@
       <sheetData sheetId="9">
         <row r="6">
           <cell r="D6" t="str">
-            <v>M5</v>
+            <v>Q5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>N5</v>
+            <v>U5</v>
           </cell>
         </row>
       </sheetData>
@@ -2150,19 +2150,19 @@
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>M5</v>
+            <v>Q5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="6">
           <cell r="D6" t="str">
-            <v>M5</v>
+            <v>Q5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>N5</v>
+            <v>U5</v>
           </cell>
         </row>
       </sheetData>
@@ -2200,12 +2200,12 @@
       <sheetData sheetId="15">
         <row r="6">
           <cell r="D6" t="str">
-            <v>Z5</v>
+            <v>H6</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>H6</v>
+            <v>M6</v>
           </cell>
         </row>
       </sheetData>
@@ -2345,36 +2345,36 @@
       <sheetData sheetId="28">
         <row r="6">
           <cell r="D6">
-            <v>42158</v>
+            <v>42215</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42157</v>
+            <v>42214</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="29">
         <row r="6">
           <cell r="D6">
-            <v>42158</v>
+            <v>42215</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42157</v>
+            <v>42214</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="30">
         <row r="6">
           <cell r="D6">
-            <v>42159</v>
+            <v>42216</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42158</v>
+            <v>42215</v>
           </cell>
         </row>
       </sheetData>
@@ -2692,7 +2692,7 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="44" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun  1 2015 10:45:27</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jul 27 2015 17:29:31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="31">
-        <v>42121.73238425926</v>
+        <v>42216.718761574077</v>
       </c>
       <c r="E11" s="212"/>
       <c r="G11" s="219"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="D17" s="8">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,EvaluationDate,"f",Trigger),"2D","f")</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="E17" s="212"/>
       <c r="G17" s="225"/>
@@ -2978,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42159.757060185184</v>
+        <v>42216.713009259256</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I18" s="33">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42159</v>
+        <v>42216</v>
       </c>
       <c r="J18" s="111"/>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_005dd#0024</v>
+        <v>obj_005d5#0241</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="I20" s="35">
         <f>[1]!LastFixingsTrigger</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="111"/>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D28" s="36" t="str">
         <f>_xll.qlEuribor(,"1M",D34,,Trigger)</f>
-        <v>obj_005dc#0000</v>
+        <v>obj_005d4#0001</v>
       </c>
       <c r="E28" s="212"/>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D34" s="52" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,2,Calendar,_xll.ohPack('1MSynthDepo'!G13:G21),"actual/365",,,,D31,D32,,Trigger)</f>
-        <v>obj_005db#0000</v>
+        <v>obj_005d3#0001</v>
       </c>
       <c r="E34" s="212"/>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="B37" s="211"/>
       <c r="C37" s="26">
         <f>_xll.qlTermStructureReferenceDate(D34)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="D37" s="37">
         <f>_xll.qlYieldTSDiscount(D34,C37,,Trigger)</f>
@@ -3193,11 +3193,11 @@
       <c r="B38" s="211"/>
       <c r="C38" s="27">
         <f>_xll.qlTermStructureMaxDate(D34)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0003746867120111</v>
+        <v>1.0003670159613232</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="E1" s="167"/>
       <c r="K1" s="167" t="str">
         <f>_xll.qlEuribor(,S1,,,Trigger)</f>
-        <v>obj_00596#0000</v>
+        <v>obj_0058e#0001</v>
       </c>
       <c r="L1" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(K1)</f>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="K3" s="310" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_005c5#0001</v>
       </c>
       <c r="L3" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3421,21 +3421,21 @@
       </c>
       <c r="R3" s="331">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="S3" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="T3" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.2000000000139721E-4</v>
+        <v>-7.5000000000040085E-4</v>
       </c>
       <c r="U3" s="239"/>
       <c r="V3" s="239"/>
       <c r="W3" s="190">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="X3" s="239"/>
       <c r="Y3" s="239"/>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="AA3" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="AB3" s="257"/>
       <c r="AD3" s="277" t="s">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="AE3" s="190" t="str">
         <f>_xll.qlIborIndex(,,S1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00592#0000</v>
+        <v>obj_0058a#0001</v>
       </c>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_0058f#0001</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3514,35 +3514,35 @@
       </c>
       <c r="R4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="S4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="T4" s="190">
         <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>-6.2E-4</v>
+        <v>-7.5000000000000002E-4</v>
       </c>
       <c r="U4" s="190">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.1945108966147089E-3</v>
+        <v>-1.226128084904811E-3</v>
       </c>
       <c r="V4" s="258">
         <f>T4-U4</f>
-        <v>5.7451089661470888E-4</v>
+        <v>4.7612808490481097E-4</v>
       </c>
       <c r="W4" s="186">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="X4" s="187">
         <f>Y4*10000</f>
-        <v>1.3972113396820696E-11</v>
+        <v>4.0082954316789099E-12</v>
       </c>
       <c r="Y4" s="278">
         <f>V4-W4</f>
-        <v>1.3972113396820696E-15</v>
+        <v>4.0082954316789099E-16</v>
       </c>
       <c r="Z4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="AA4" s="336">
         <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="AB4" s="241" t="b">
         <v>0</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_00593#0001</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3617,27 +3617,27 @@
       </c>
       <c r="R5" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N5&amp;"M","mf",,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="S5" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="T5" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.2000000000139721E-4</v>
+        <v>-7.5000000000040085E-4</v>
       </c>
       <c r="U5" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.1945108966147089E-3</v>
+        <v>-1.226128084904811E-3</v>
       </c>
       <c r="V5" s="265">
         <f>T5-U5</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="W5" s="67">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="X5" s="240">
         <f>Y5*10000</f>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="AA5" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="AB5" s="241" t="b">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_00590#0001</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3722,27 +3722,27 @@
       </c>
       <c r="R6" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N6&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="S6" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="T6" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.1551957077854353E-4</v>
+        <v>-8.100813775638047E-4</v>
       </c>
       <c r="U6" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.2585546559221426E-3</v>
+        <v>-1.2600396931024853E-3</v>
       </c>
       <c r="V6" s="265">
         <f>T6-U6</f>
-        <v>5.4303508514359907E-4</v>
+        <v>4.4995831553868056E-4</v>
       </c>
       <c r="W6" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>5.4303508514359918E-4</v>
+        <v>4.4995831553868056E-4</v>
       </c>
       <c r="X6" s="188">
         <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="AA6" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001169845965037</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="AE6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_005de#0024</v>
+        <v>obj_005d9#0241</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K7" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_00591#0001</v>
       </c>
       <c r="L7" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3830,27 +3830,27 @@
       </c>
       <c r="R7" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N7&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="S7" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
-        <v>42257</v>
+        <v>42313</v>
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.6112488975690624E-4</v>
+        <v>-8.1411017662204007E-4</v>
       </c>
       <c r="U7" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-1.3125535425984763E-3</v>
+        <v>-1.2900432603525323E-3</v>
       </c>
       <c r="V7" s="265">
         <f>T7-U7</f>
-        <v>5.5142865284157005E-4</v>
+        <v>4.7593308373049226E-4</v>
       </c>
       <c r="W7" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>5.5142865284157016E-4</v>
+        <v>4.7593308373049216E-4</v>
       </c>
       <c r="X7" s="188">
         <f t="shared" si="1"/>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="Z7" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R7,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="AA7" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002255124833961</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="K8" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_00592#0001</v>
       </c>
       <c r="L8" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3938,27 +3938,27 @@
       </c>
       <c r="R8" s="332">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N8&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="S8" s="332">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.002275399488056E-4</v>
+        <v>-9.1225630137969915E-4</v>
       </c>
       <c r="U8" s="65">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-1.2719624587398393E-3</v>
+        <v>-1.2695170140024636E-3</v>
       </c>
       <c r="V8" s="260">
         <f>T8-U8</f>
-        <v>5.7173491879103366E-4</v>
+        <v>3.5726071262276449E-4</v>
       </c>
       <c r="W8" s="65">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>5.7173491879103366E-4</v>
+        <v>3.5726071262276438E-4</v>
       </c>
       <c r="X8" s="189">
         <f t="shared" si="1"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="AA8" s="60">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003328123674977</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_00594#0001</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="AE9" s="190">
         <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>5.0555231468282793E-5</v>
+        <v>8.8529493407729418E-20</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AE10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>6.4126947188822346E-5</v>
+        <v>1.0842021724855044E-19</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -4084,15 +4084,15 @@
       </c>
       <c r="T11" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U11" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42221</v>
       </c>
       <c r="V11" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-5.9043666484015489E-4</v>
+        <v>-6.5251058204651713E-4</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4127,15 +4127,15 @@
       </c>
       <c r="T12" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U12" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42227</v>
       </c>
       <c r="V12" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-5.9885151029488118E-4</v>
+        <v>-6.7529624861149633E-4</v>
       </c>
       <c r="AD12" s="261" t="s">
         <v>111</v>
@@ -4151,7 +4151,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="309" t="str">
         <f t="array" ref="G13:G21">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_005c5#0001</v>
       </c>
       <c r="H13" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="I13" s="194">
         <f>_xll.qlRateHelperRate(G13,Trigger)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-7.5000000000000002E-4</v>
       </c>
       <c r="J13" s="195" t="str">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G13),"--")</f>
@@ -4167,36 +4167,36 @@
       </c>
       <c r="K13" s="329">
         <f>_xll.qlRateHelperEarliestDate(G13,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L13" s="329">
         <f>_xll.qlRateHelperLatestDate(G13,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="M13" s="196">
-        <v>1.0000516693362491</v>
+        <v>1.0000645875046097</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U13" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42234</v>
       </c>
       <c r="V13" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-5.8752678013267764E-4</v>
+        <v>-7.068308441948723E-4</v>
       </c>
       <c r="AD13" s="277" t="s">
         <v>113</v>
       </c>
       <c r="AE13" s="190">
         <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="AF13" s="190" t="b">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_00598#0000</v>
+        <v>obj_0058f#0001</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I14" s="194">
         <f>_xll.qlRateHelperRate(G14,Trigger)</f>
-        <v>-5.5000000000000003E-4</v>
+        <v>-4.8999999999999998E-4</v>
       </c>
       <c r="J14" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G14),"--")</f>
@@ -4223,35 +4223,35 @@
       </c>
       <c r="K14" s="329">
         <f>_xll.qlRateHelperEarliestDate(G14,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L14" s="329">
         <f>_xll.qlRateHelperLatestDate(G14,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="M14" s="196">
-        <v>1.0001172663216524</v>
+        <v>1.0001343538842471</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U14" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42241</v>
       </c>
       <c r="V14" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-6.0502935140022932E-4</v>
+        <v>-7.2346852341301617E-4</v>
       </c>
       <c r="AD14" s="277" t="s">
         <v>114</v>
       </c>
       <c r="AE14" s="190">
-        <v>-7.1075059440715903E-4</v>
+        <v>-1.4212164601255109E-3</v>
       </c>
       <c r="AF14" s="190" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_0059c#0000</v>
+        <v>obj_00593#0001</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="I15" s="194">
         <f>_xll.qlRateHelperRate(G15,Trigger)</f>
-        <v>-5.8E-4</v>
+        <v>-5.2999999999999998E-4</v>
       </c>
       <c r="J15" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G15),"--")</f>
@@ -4278,35 +4278,35 @@
       </c>
       <c r="K15" s="329">
         <f>_xll.qlRateHelperEarliestDate(G15,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L15" s="329">
         <f>_xll.qlRateHelperLatestDate(G15,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="M15" s="196">
-        <v>1.0001789286436884</v>
+        <v>1.0002019374938675</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="276">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U15" s="337">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="V15" s="338">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-6.2758270029439345E-4</v>
+        <v>-7.5602720849914584E-4</v>
       </c>
       <c r="AD15" s="277" t="s">
         <v>115</v>
       </c>
       <c r="AE15" s="190">
-        <v>4.5746420303168422E-3</v>
+        <v>1.7851359084110716E-2</v>
       </c>
       <c r="AF15" s="190" t="b">
         <v>1</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_00599#0000</v>
+        <v>obj_00590#0001</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="I16" s="194">
         <f>_xll.qlRateHelperRate(G16,Trigger)</f>
-        <v>-5.8999999999999992E-4</v>
+        <v>-5.5000000000000003E-4</v>
       </c>
       <c r="J16" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G16),"--")</f>
@@ -4333,20 +4333,20 @@
       </c>
       <c r="K16" s="329">
         <f>_xll.qlRateHelperEarliestDate(G16,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L16" s="329">
         <f>_xll.qlRateHelperLatestDate(G16,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="M16" s="196">
-        <v>1.0002372947853795</v>
+        <v>1.0002779799847319</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
       </c>
       <c r="AE16" s="190">
-        <v>-7.1353958361635916E-3</v>
+        <v>-5.5876075506016594E-2</v>
       </c>
       <c r="AF16" s="190" t="b">
         <v>1</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="202" t="str">
-        <v>obj_0059a#0000</v>
+        <v>obj_00591#0001</v>
       </c>
       <c r="H17" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="I17" s="194">
         <f>_xll.qlRateHelperRate(G17,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-5.6999999999999998E-4</v>
       </c>
       <c r="J17" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G17),"--")</f>
@@ -4373,14 +4373,14 @@
       </c>
       <c r="K17" s="329">
         <f>_xll.qlRateHelperEarliestDate(G17,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L17" s="329">
         <f>_xll.qlRateHelperLatestDate(G17,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="M17" s="196">
-        <v>1.000299563311839</v>
+        <v>1.0003358923464658</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="202" t="str">
-        <v>obj_0059b#0000</v>
+        <v>obj_00592#0001</v>
       </c>
       <c r="H18" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="I18" s="194">
         <f>_xll.qlRateHelperRate(G18,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-5.8E-4</v>
       </c>
       <c r="J18" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G18),"--")</f>
@@ -4413,28 +4413,28 @@
       </c>
       <c r="K18" s="329">
         <f>_xll.qlRateHelperEarliestDate(G18,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L18" s="329">
         <f>_xll.qlRateHelperLatestDate(G18,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="M18" s="196">
-        <v>1.000361089009117</v>
+        <v>1.00042444072081</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
       </c>
       <c r="AE18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_005e3#0023</v>
+        <v>obj_005db#0239</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_00597#0000</v>
+        <v>obj_00594#0001</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="I19" s="194">
         <f>_xll.qlRateHelperRate(G19,Trigger)</f>
-        <v>-6.3000000000000003E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="J19" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G19),"--")</f>
@@ -4450,14 +4450,14 @@
       </c>
       <c r="K19" s="329">
         <f>_xll.qlRateHelperEarliestDate(G19,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L19" s="329">
         <f>_xll.qlRateHelperLatestDate(G19,Trigger)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="M19" s="196">
-        <v>1.000410394120663</v>
+        <v>1.0004973015338785</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4583,7 +4583,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4680,21 +4680,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>-1.1736446947011449E-4</v>
+        <v>-2.2960218178154617E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0277230036618247E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00595#0000</v>
+        <v>obj_0058d#0001</v>
       </c>
       <c r="X3" s="57"/>
     </row>
@@ -4730,31 +4730,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>-1.3000000000000002E-4</v>
+        <v>-2.3000000000000001E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.2547156710852941E-3</v>
+        <v>-1.2573251854433708E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.1247156710852942E-3</v>
+        <v>1.0273251854433709E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0277230036618247E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.12635530529885422</v>
+        <v>-3.9781821845378228E-3</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-1.2635530529885421E-5</v>
+        <v>-3.9781821845378228E-7</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -4790,43 +4790,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-6.0000000000000002E-5</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-1.2799660304352312E-3</v>
+        <v>-1.2719718741829897E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.2199660304352312E-3</v>
+        <v>1.0219718741829897E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.1853752726288034E-3</v>
+        <v>1.042969329789082E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>0.34590757806427774</v>
+        <v>-0.2099745560609238</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>3.4590757806427777E-5</v>
+        <v>-2.0997455606092379E-5</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001169845965037</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>0</v>
@@ -4855,43 +4855,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42410</v>
+        <v>42465</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>-1.0000000000000009E-5</v>
+        <v>-2.4000000000000001E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-1.2992983497784256E-3</v>
+        <v>-1.2957610981216259E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.2892983497784255E-3</v>
+        <v>1.055761098121626E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.230172166130715E-3</v>
+        <v>1.0601866414114952E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.59126183647710595</v>
+        <v>-4.4255432898692146E-2</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>5.9126183647710594E-5</v>
+        <v>-4.4255432898692142E-6</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002255124833961</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>0</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00844#0022</v>
+        <v>obj_005d8#0241</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4924,31 +4924,31 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>0</v>
+        <v>-2.3000000000000001E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-1.2934759462484332E-3</v>
+        <v>-1.3113693209792813E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.2934759462484332E-3</v>
+        <v>1.0813693209792813E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.2630991130362958E-3</v>
+        <v>1.0785749757806166E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.3037683321213745</v>
+        <v>2.7943451986647654E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -4956,11 +4956,11 @@
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>3.0376833212137451E-5</v>
+        <v>2.7943451986647654E-6</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003328123674977</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>0</v>
@@ -4993,31 +4993,31 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>3.9999999999999983E-5</v>
+        <v>-2.3000000000000001E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-1.2428793081029428E-3</v>
+        <v>-1.3438645858696854E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.2828793081029427E-3</v>
+        <v>1.1138645858696854E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.2913181650166697E-3</v>
+        <v>1.0985152759634901E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>-8.4388569137269775E-2</v>
+        <v>0.1534930990619533</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -5025,11 +5025,11 @@
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>-8.4388569137269775E-6</v>
+        <v>1.5349309906195329E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.000438651858331</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>0</v>
@@ -5062,43 +5062,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>7.9999999999999979E-5</v>
+        <v>-2.3000000000000001E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-1.2433280090124142E-3</v>
+        <v>-1.3598891248493945E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>1.3233280090124142E-3</v>
+        <v>1.1298891248493945E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.3154190963221551E-3</v>
+        <v>1.1205971382087861E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>7.9089126902591372E-2</v>
+        <v>9.2919866406084364E-2</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>7.9089126902591369E-6</v>
+        <v>9.2919866406084364E-6</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.000553166796166</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>0</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>9.0835833190229179E-5</v>
+        <v>3.3158870761789743E-5</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5131,43 +5131,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>1.1999999999999999E-4</v>
+        <v>-2.0999999999999998E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-1.2012494672821216E-3</v>
+        <v>-1.3761054609551238E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>1.3212494672821215E-3</v>
+        <v>1.1661054609551239E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.332402060481094E-3</v>
+        <v>1.1440223241745168E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11152593198972532</v>
+        <v>0.22083136780607021</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50410958904109593</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1152593198972532E-5</v>
+        <v>2.2083136780607021E-5</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.000668164003135</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>0</v>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.1840412657839979E-4</v>
+        <v>5.08878576993021E-5</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -5189,51 +5189,51 @@
       <c r="B11" s="292"/>
       <c r="C11" s="252" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate,A12)</f>
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="D11" s="248" t="str">
         <f t="shared" ref="D11:D22" si="6">Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;QuoteSuffix</f>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MQ5_Quote</v>
       </c>
       <c r="E11" s="295">
         <f>_xll.qlIMMdate(C11,SettlementDate,Trigger)</f>
-        <v>42172</v>
+        <v>42235</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42355</v>
+        <v>42419</v>
       </c>
       <c r="G11" s="67">
         <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>-1.2499999999993072E-4</v>
+        <v>-2.2500000000014175E-4</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-1.2660080829982408E-3</v>
+        <v>-1.284439201906723E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>1.14100808299831E-3</v>
+        <v>1.0594392019065812E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.1525194985213846E-3</v>
+        <v>1.0348440767364373E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>-0.11511415523074572</v>
+        <v>0.24595125170143867</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>2.4657534246575342E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>-1.1511415523074572E-5</v>
+        <v>2.4595125170143867E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0000406402405491</v>
+        <v>1.0000618088099358</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -5248,51 +5248,51 @@
       <c r="B12" s="56"/>
       <c r="C12" s="251" t="str">
         <f>_xll.qlIMMNextCode(C11,A12)</f>
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="D12" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="E12" s="296">
         <f>_xll.qlIMMdate(C12,SettlementDate,Trigger)</f>
-        <v>42200</v>
+        <v>42263</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42384</v>
+        <v>42445</v>
       </c>
       <c r="G12" s="62">
         <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>-7.4999999999825206E-5</v>
+        <v>-2.7500000000002522E-4</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-1.2794790482033001E-3</v>
+        <v>-1.2829731530936963E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>1.2044790482034749E-3</v>
+        <v>1.0079731530936711E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>1.1955600417313363E-3</v>
+        <v>1.049409032316716E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>8.9190064721386075E-2</v>
+        <v>-0.41435879223044886</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.10136986301369863</v>
+        <v>0.11780821917808219</v>
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>8.9190064721386079E-6</v>
+        <v>-4.1435879223044886E-5</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0001359548980997</v>
+        <v>1.0001589939944568</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5316,51 +5316,51 @@
       <c r="B13" s="56"/>
       <c r="C13" s="251" t="str">
         <f>_xll.qlIMMNextCode(C12,A13)</f>
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="D13" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="E13" s="296">
         <f>_xll.qlIMMdate(C13,SettlementDate,Trigger)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="G13" s="62">
         <f>1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
-        <v>-2.4999999999941735E-5</v>
+        <v>-2.2500000000014175E-4</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-1.3014906239984724E-3</v>
+        <v>-1.3473669969547959E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>1.2764906239985307E-3</v>
+        <v>1.1223669969546541E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>1.2711853708794602E-3</v>
+        <v>1.1068935681494366E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>5.3052531190705618E-2</v>
+        <v>0.15473428805217468</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.27397260273972601</v>
+        <v>0.36712328767123287</v>
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>5.3052531190705618E-6</v>
+        <v>1.5473428805217468E-5</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0003606975574753</v>
+        <v>1.0004834578858706</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0277230036618247E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -5387,51 +5387,51 @@
       <c r="B14" s="56"/>
       <c r="C14" s="251" t="str">
         <f>_xll.qlIMMNextCode(C13,A14)</f>
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="D14" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="E14" s="296">
         <f>_xll.qlIMMdate(C14,SettlementDate,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42537</v>
+        <v>42629</v>
       </c>
       <c r="G14" s="62">
         <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>1.4999999999998348E-4</v>
+        <v>-1.7500000000003624E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-1.2009812777807455E-3</v>
+        <v>-1.3838733803360423E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>1.350981277780729E-3</v>
+        <v>1.208873380336006E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>1.3363363244019988E-3</v>
+        <v>1.1767959359101441E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>0.14644953378730199</v>
+        <v>0.32077444425861928</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.52328767123287667</v>
+        <v>0.61643835616438358</v>
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>1.46449533787302E-5</v>
+        <v>3.2077444425861927E-5</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0006899124380577</v>
+        <v>1.0008243230728202</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>6.2868735994365502E-4</v>
+        <v>1.6728386552180522E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -5456,51 +5456,51 @@
       <c r="B15" s="56"/>
       <c r="C15" s="251" t="str">
         <f>_xll.qlIMMNextCode(C14,A15)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D15" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="E15" s="296">
         <f>_xll.qlIMMdate(C15,SettlementDate,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42629</v>
+        <v>42719</v>
       </c>
       <c r="G15" s="62">
         <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>2.7500000000002522E-4</v>
+        <v>-1.2499999999993072E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-1.0530182213731925E-3</v>
+        <v>-1.3291939923086523E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>1.3280182213732178E-3</v>
+        <v>1.2041939923087216E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>1.3617560917457393E-3</v>
+        <v>1.2550818500080237E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>-0.337378703725215</v>
+        <v>-0.50887857699302097</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.77260273972602744</v>
+        <v>0.86575342465753424</v>
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>-3.3737870372521498E-5</v>
+        <v>-5.08878576993021E-5</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0009937955144201</v>
+        <v>1.001174587602655</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-5.5231727265848745E-4</v>
+        <v>1.4767549868772864E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -5525,51 +5525,51 @@
       <c r="B16" s="56"/>
       <c r="C16" s="251" t="str">
         <f>_xll.qlIMMNextCode(C15,A16)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D16" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="E16" s="296">
         <f>_xll.qlIMMdate(C16,SettlementDate,Trigger)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42719</v>
+        <v>42815</v>
       </c>
       <c r="G16" s="62">
         <f>1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
-        <v>4.750000000000032E-4</v>
+        <v>7.4999999999936229E-5</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-9.028799615529643E-4</v>
+        <v>-1.2895930534578398E-3</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>1.3778799615529675E-3</v>
+        <v>1.3645930534577761E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>1.3612284055674203E-3</v>
+        <v>1.344138038636681E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>0.1665155598554722</v>
+        <v>0.20455014821095041</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.021917808219178</v>
+        <v>1.1342465753424658</v>
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>1.665155598554722E-5</v>
+        <v>2.0455014821095041E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012603889303364</v>
+        <v>1.0015364972690199</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>1.4824157043946009E-4</v>
+        <v>-4.3388017344586324E-5</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -5594,51 +5594,51 @@
       <c r="B17" s="56"/>
       <c r="C17" s="251" t="str">
         <f>_xll.qlIMMNextCode(C16,A17)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D17" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="E17" s="296">
         <f>_xll.qlIMMdate(C17,SettlementDate,Trigger)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42815</v>
+        <v>42907</v>
       </c>
       <c r="G17" s="62">
         <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
-        <v>7.7499999999997016E-4</v>
+        <v>3.2500000000001972E-4</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-6.3984893502863106E-4</v>
+        <v>-1.0720304471059094E-3</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>1.4148489350286012E-3</v>
+        <v>1.3970304471059292E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>1.3474521686504316E-3</v>
+        <v>1.426945316907976E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>0.67396766378169637</v>
+        <v>-0.29914869802046817</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.2904109589041095</v>
+        <v>1.3835616438356164</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>6.7396766378169642E-5</v>
+        <v>-2.991486980204682E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0015040607956092</v>
+        <v>1.0018630850646488</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5663,51 +5663,51 @@
       <c r="B18" s="56"/>
       <c r="C18" s="251" t="str">
         <f>_xll.qlIMMNextCode(C17,A18)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D18" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="E18" s="296">
         <f>_xll.qlIMMdate(C18,SettlementDate,Trigger)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42907</v>
+        <v>42993</v>
       </c>
       <c r="G18" s="62">
         <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>1.2000000000000899E-3</v>
+        <v>6.7499999999998117E-4</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-2.2373818386567379E-4</v>
+        <v>-7.9129317474272971E-4</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>1.4237381838657637E-3</v>
+        <v>1.4662931747427108E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>1.3370763135277092E-3</v>
+        <v>1.4998980144165426E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>0.86661870338054481</v>
+        <v>-0.33604839673831777</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.5397260273972602</v>
+        <v>1.6136986301369862</v>
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>8.6661870338054477E-5</v>
+        <v>-3.360483967383178E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0016660698569779</v>
+        <v>1.0021159066476037</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00845#0022</v>
+        <v>obj_005dd#0238</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -5728,51 +5728,51 @@
       <c r="B19" s="56"/>
       <c r="C19" s="251" t="str">
         <f>_xll.qlIMMNextCode(C18,A19)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D19" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="E19" s="296">
         <f>_xll.qlIMMdate(C19,SettlementDate,Trigger)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42993</v>
+        <v>43090</v>
       </c>
       <c r="G19" s="62">
         <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>1.7249999999999766E-3</v>
+        <v>1.0750000000000481E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>1.9609339663789993E-4</v>
+        <v>-4.3369062280070823E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>1.5289066033620767E-3</v>
+        <v>1.5086906228007563E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>1.3417979524674895E-3</v>
+        <v>1.5764366675714344E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>1.8710865089458721</v>
+        <v>-0.67746044770678093</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.7698630136986302</v>
+        <v>1.8821917808219177</v>
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>1.8710865089458721E-4</v>
+        <v>-6.7746044770678089E-5</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0017206050325747</v>
+        <v>1.0023289777862154</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5786,51 +5786,51 @@
       <c r="B20" s="56"/>
       <c r="C20" s="251" t="str">
         <f>_xll.qlIMMNextCode(C19,A20)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D20" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="E20" s="296">
         <f>_xll.qlIMMdate(C20,SettlementDate,Trigger)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>43090</v>
+        <v>43179</v>
       </c>
       <c r="G20" s="62">
         <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>2.2999999999998577E-3</v>
+        <v>1.5249999999999986E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>7.4066595276283027E-4</v>
+        <v>-3.4327361684172289E-5</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>1.5593340472370276E-3</v>
+        <v>1.5593273616841708E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>1.3795004306657948E-3</v>
+        <v>1.6350521687819681E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>1.7983361657123278</v>
+        <v>-0.75724807097797331</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>2.0383561643835617</v>
+        <v>2.1315068493150684</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>1.7983361657123277E-4</v>
+        <v>-7.5724807097797336E-5</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0016625220341084</v>
+        <v>1.0024393932927489</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5844,51 +5844,51 @@
       <c r="B21" s="56"/>
       <c r="C21" s="251" t="str">
         <f>_xll.qlIMMNextCode(C20,A21)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D21" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="E21" s="296">
         <f>_xll.qlIMMdate(C21,SettlementDate,Trigger)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>43179</v>
+        <v>43271</v>
       </c>
       <c r="G21" s="62">
         <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>2.9250000000000664E-3</v>
+        <v>2.074999999999938E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>1.3218346333841527E-3</v>
+        <v>4.4841629349878787E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>1.6031653666159138E-3</v>
+        <v>1.6265837065011501E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>1.4598678682400791E-3</v>
+        <v>1.6775351731239509E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>1.4329749837583465</v>
+        <v>-0.50951466622800767</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>2.2876712328767121</v>
+        <v>2.3808219178082193</v>
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>1.4329749837583465E-4</v>
+        <v>-5.0951466622800763E-5</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0014757769563836</v>
+        <v>1.0024480917295198</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5902,51 +5902,51 @@
       <c r="B22" s="246"/>
       <c r="C22" s="253" t="str">
         <f>_xll.qlIMMNextCode(C21,A22)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D22" s="250" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="E22" s="297">
         <f>_xll.qlIMMdate(C22,SettlementDate,Trigger)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>43271</v>
+        <v>43364</v>
       </c>
       <c r="G22" s="65">
         <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>3.6249999999999893E-3</v>
+        <v>2.7250000000000885E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>2.027220858942691E-3</v>
+        <v>1.0254257464131053E-3</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>1.5977791410572983E-3</v>
+        <v>1.6995742535869831E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>1.5980505353601774E-3</v>
+        <v>1.6998513950065683E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-2.7139430287901473E-3</v>
+        <v>-2.7714141958515986E-3</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>2.536986301369863</v>
+        <v>2.6301369863013697</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-2.7139430287901473E-7</v>
+        <v>-2.7714141958515986E-7</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0011412652037437</v>
+        <v>1.0023337229690221</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5990,15 +5990,15 @@
       </c>
       <c r="G25" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H25" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42221</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>-1.5235886164699508E-4</v>
+        <v>-2.0569278340598629E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,15 +6008,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42227</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>-1.4615060688529167E-4</v>
+        <v>-2.0463436884427769E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,15 +6026,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42234</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>-1.1905590967087321E-4</v>
+        <v>-2.1337748172082068E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,15 +6044,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42241</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>-1.2210649579267953E-4</v>
+        <v>-2.1208159080338921E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6062,15 +6062,15 @@
       </c>
       <c r="G29" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H29" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>-1.2789266630397478E-4</v>
+        <v>-2.2629335174491921E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6080,15 +6080,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H30" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>-1.3135129780675724E-4</v>
+        <v>-2.3675874757099076E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6098,15 +6098,15 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H31" s="275">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="I31" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-1.3414978244339639E-4</v>
+        <v>-2.4418495786295561E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6374,21 +6374,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>5.0796159643381458E-4</v>
+        <v>4.5185185716405487E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7359884281170027E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00594#0000</v>
+        <v>obj_0058c#0001</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,31 +6422,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>4.8999999999999998E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-1.2737836632325174E-3</v>
+        <v>-1.2841365709529479E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.7637836632325174E-3</v>
+        <v>1.7641365709529478E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7359884281170027E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.17961596433814594</v>
+        <v>0.28148142835945089</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6454,11 +6454,11 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-1.7961596433814595E-5</v>
+        <v>2.8148142835945087E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -6481,43 +6481,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>5.8E-4</v>
+        <v>4.4000000000000007E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-1.2612193948480957E-3</v>
+        <v>-1.3077021861736399E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.8412193948480957E-3</v>
+        <v>1.7477021861736399E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.8476373915875027E-3</v>
+        <v>1.7598628071480477E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>-6.4179967394070378E-2</v>
+        <v>-0.12160620974407738</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>-6.4179967394070378E-6</v>
+        <v>-1.2160620974407737E-5</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001169845965037</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6544,43 +6544,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42410</v>
+        <v>42465</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>6.4999999999999997E-4</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-1.2713463090453128E-3</v>
+        <v>-1.3277535924347222E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.9213463090453128E-3</v>
+        <v>1.7877535924347224E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.9100868542743217E-3</v>
+        <v>1.7890592228517134E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.11259454770991056</v>
+        <v>-1.3056304169910184E-2</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>1.1259454770991056E-5</v>
+        <v>-1.3056304169910184E-6</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002255124833961</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005e0#0024</v>
+        <v>obj_005d7#0245</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6611,31 +6611,31 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>7.1000000000000013E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-1.2471663253159333E-3</v>
+        <v>-1.3431536462578889E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.9571663253159337E-3</v>
+        <v>1.8331536462578889E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.9570716758657287E-3</v>
+        <v>1.8217004050827856E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>9.4649450204948443E-4</v>
+        <v>0.11453241175103353</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>9.4649450204948443E-8</v>
+        <v>1.1453241175103353E-5</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003328123674977</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6678,31 +6678,31 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>7.8000000000000009E-4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-1.2188863600502994E-3</v>
+        <v>-1.3634312808359483E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.9988863600502995E-3</v>
+        <v>1.8734312808359483E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.9986733932196312E-3</v>
+        <v>1.8579939977338179E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>2.1296683066834507E-3</v>
+        <v>0.1543728310213037</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -6710,11 +6710,11 @@
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>2.1296683066834507E-7</v>
+        <v>1.543728310213037E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.000438651858331</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="R8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>None</v>
+        <v>StationaryFunctionValue</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6745,43 +6745,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-1.1758696454302951E-3</v>
+        <v>-1.3695843508746994E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>2.0258696454302952E-3</v>
+        <v>1.9095843508746993E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.0360509388013428E-3</v>
+        <v>1.8986386909871594E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-0.10181293371047673</v>
+        <v>0.10945659887539845</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>-1.0181293371047673E-5</v>
+        <v>1.0945659887539845E-5</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.000553166796166</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>5.6448440012852806E-5</v>
+        <v>1.229543561118117E-5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,43 +6812,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>9.2000000000000003E-4</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-1.1419431047384435E-3</v>
+        <v>-1.3697681425458123E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>2.0619431047384437E-3</v>
+        <v>1.9397681425458123E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>2.064445035325034E-3</v>
+        <v>1.941761272931396E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-2.5019305865902307E-2</v>
+        <v>-1.9931303855836701E-2</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50410958904109593</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-2.5019305865902307E-6</v>
+        <v>-1.9931303855836701E-6</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.000668164003135</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>7.4152523860773626E-5</v>
+        <v>1.810552517643089E-4</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6879,43 +6879,43 @@
       </c>
       <c r="E11" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="G11" s="67">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-1.1230104452715755E-3</v>
+        <v>-1.3599747254323159E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>2.1030104452715755E-3</v>
+        <v>1.969974725432316E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>2.0898440596130085E-3</v>
+        <v>1.9837048134961574E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>0.13166385658566931</v>
+        <v>-0.13730088063841367</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58630136986301373</v>
+        <v>0.58356164383561648</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>1.3166385658566933E-5</v>
+        <v>-1.3730088063841368E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007557752387322</v>
+        <v>1.0007786154569542</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6939,43 +6939,43 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42408</v>
+        <v>42464</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42590</v>
+        <v>42647</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-1.0578451458745394E-3</v>
+        <v>-1.3478315399967447E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>2.1078451458745396E-3</v>
+        <v>2.0178315399967447E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.1109504259014056E-3</v>
+        <v>2.0295702884142799E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-3.105280026866053E-2</v>
+        <v>-0.11738748417535264</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.67123287671232879</v>
+        <v>0.66849315068493154</v>
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>-3.105280026866053E-6</v>
+        <v>-1.1738748417535264E-5</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000868725609952</v>
+        <v>1.000897224968029</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -7009,31 +7009,31 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>1.1200000000000001E-3</v>
+        <v>7.3000000000000007E-4</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-1.0029806753152977E-3</v>
+        <v>-1.333522798148738E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>2.1229806753152976E-3</v>
+        <v>2.063522798148738E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.1275564636728762E-3</v>
+        <v>2.0743030035011148E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-4.575788357578589E-2</v>
+        <v>-0.10780205352376761</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -7041,11 +7041,11 @@
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>-4.575788357578589E-6</v>
+        <v>-1.0780205352376761E-5</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009629862237717</v>
+        <v>1.0010125387083852</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7359884281170027E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -7082,43 +7082,43 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42653</v>
+        <v>42710</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000015E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-9.4007823058665828E-4</v>
+        <v>-1.3159442220908092E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>2.1400782305866584E-3</v>
+        <v>2.1159442220908091E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.1427517615240925E-3</v>
+        <v>2.1231128126431276E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-2.6735309374341203E-2</v>
+        <v>-7.1685905523185239E-2</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83561643835616439</v>
+        <v>0.84109589041095889</v>
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>-2.6735309374341203E-6</v>
+        <v>-7.1685905523185232E-6</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010581666808025</v>
+        <v>1.0011401028598772</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>8.5778196137636063E-4</v>
+        <v>2.4693383754595172E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -7154,43 +7154,43 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42683</v>
+        <v>42739</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>8.7999999999999992E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-8.734289927631758E-4</v>
+        <v>-1.2820204787723356E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>2.1634289927631757E-3</v>
+        <v>2.1620204787723358E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.1561316133231322E-3</v>
+        <v>2.1635733014064465E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>7.2973794400434805E-2</v>
+        <v>-1.5528226341107211E-2</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.92054794520547945</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>7.2973794400434805E-6</v>
+        <v>-1.5528226341107211E-6</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011497106221909</v>
+        <v>1.0012464308034592</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-7.0135056285013033E-4</v>
+        <v>4.1899539848107769E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -7226,31 +7226,31 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.3700000000000001E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-7.9569614773001825E-4</v>
+        <v>-1.2524485579362161E-3</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>2.1656961477300183E-3</v>
+        <v>2.232448557936216E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.1681461621500457E-3</v>
+        <v>2.2066670415111346E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>-2.4500144200274333E-2</v>
+        <v>0.25781516425081413</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -7258,11 +7258,11 @@
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>-2.4500144200274333E-6</v>
+        <v>2.5781516425081412E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012402523390991</v>
+        <v>1.0013616007976609</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>2.2957560046531553E-4</v>
+        <v>-1.9660579460416811E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -7298,43 +7298,43 @@
       </c>
       <c r="E17" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42744</v>
+        <v>42800</v>
       </c>
       <c r="G17" s="62">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>1.5E-3</v>
+        <v>1.06E-3</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-6.5255104623203298E-4</v>
+        <v>-1.2100434254863929E-3</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>2.1525510462320329E-3</v>
+        <v>2.2700434254863929E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.1800156457889002E-3</v>
+        <v>2.248533369790172E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>-0.27464599556867308</v>
+        <v>0.21510055696220831</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.0849315068493151</v>
+        <v>1.0904109589041096</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>-2.7464599556867308E-5</v>
+        <v>2.1510055696220831E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0013242712555703</v>
+        <v>1.0014785246627789</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7370,31 +7370,31 @@
       </c>
       <c r="E18" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A18&amp;"M","mf",,Trigger)</f>
-        <v>42590</v>
+        <v>42647</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42774</v>
+        <v>42829</v>
       </c>
       <c r="G18" s="62">
         <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>1.6099999999999997E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-5.7142293852804774E-4</v>
+        <v>-1.1517121209933992E-3</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>2.1814229385280475E-3</v>
+        <v>2.3017121209933994E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.1929407988151473E-3</v>
+        <v>2.2835198856384431E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11517860287099754</v>
+        <v>0.18192235354956218</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1517860287099755E-5</v>
+        <v>1.8192235354956218E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0014042761065125</v>
+        <v>1.0015834575698386</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e1#0025</v>
+        <v>obj_005da#0243</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7438,31 +7438,31 @@
       </c>
       <c r="E19" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A19&amp;"M","mf",,Trigger)</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42802</v>
+        <v>42859</v>
       </c>
       <c r="G19" s="62">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>1.7299999999999998E-3</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-4.7950303744178778E-4</v>
+        <v>-1.07327756665822E-3</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>2.2095030374417873E-3</v>
+        <v>2.3432775666582199E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.2073716031252933E-3</v>
+        <v>2.3171205584718393E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>2.1314343164940616E-2</v>
+        <v>0.2615700818638057</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
@@ -7470,11 +7470,11 @@
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>2.1314343164940616E-6</v>
+        <v>2.615700818638057E-5</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0014763776333644</v>
+        <v>1.0016952724884121</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7499,43 +7499,43 @@
       </c>
       <c r="E20" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A20&amp;"M","mf",,Trigger)</f>
-        <v>42653</v>
+        <v>42709</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>42835</v>
+        <v>42891</v>
       </c>
       <c r="G20" s="62">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.89E-3</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-3.5488975786727859E-4</v>
+        <v>-9.7450463231216048E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>2.2448897578672784E-3</v>
+        <v>2.3545046323121604E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.2247418814503182E-3</v>
+        <v>2.3460887500418161E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>0.20147876416960145</v>
+        <v>8.4158822703443548E-2</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>1.3424657534246576</v>
+        <v>1.3397260273972602</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>2.0147876416960146E-5</v>
+        <v>8.4158822703443541E-6</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0015420073754082</v>
+        <v>1.0018066950733473</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7560,31 +7560,31 @@
       </c>
       <c r="E21" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A21&amp;"M","mf",,Trigger)</f>
-        <v>42682</v>
+        <v>42739</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>42863</v>
+        <v>42920</v>
       </c>
       <c r="G21" s="62">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>2.0400000000000001E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-2.252396820272476E-4</v>
+        <v>-8.8755310528170915E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>2.2652396820272477E-3</v>
+        <v>2.3675531052817092E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.2434229072262591E-3</v>
+        <v>2.3690310432449907E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>0.21816774800988581</v>
+        <v>-1.4779379632814255E-2</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -7592,11 +7592,11 @@
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>2.1816774800988582E-5</v>
+        <v>-1.4779379632814255E-6</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0015950999006336</v>
+        <v>1.0019029326207776</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7621,43 +7621,43 @@
       </c>
       <c r="E22" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A22&amp;"M","mf",,Trigger)</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>42894</v>
+        <v>42954</v>
       </c>
       <c r="G22" s="65">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>1.6200000000000001E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-6.6324583335551803E-5</v>
+        <v>-7.6450531959301586E-4</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>2.2663245833355519E-3</v>
+        <v>2.384505319593016E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.2664494133273877E-3</v>
+        <v>2.3876932226608938E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-1.2482999183589458E-3</v>
+        <v>-3.1879030678778376E-2</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>1.5041095890410958</v>
+        <v>1.5123287671232877</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-1.2482999183589458E-7</v>
+        <v>-3.1879030678778376E-6</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0016453967424186</v>
+        <v>1.0020099998870156</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7698,15 +7698,15 @@
       </c>
       <c r="G25" s="298">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H25" s="295">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42221</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>3.241783158713929E-4</v>
+        <v>4.6795697852708429E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7715,15 +7715,15 @@
       </c>
       <c r="G26" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H26" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42227</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>3.3416013810873475E-4</v>
+        <v>4.6808350997526053E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7732,15 +7732,15 @@
       </c>
       <c r="G27" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H27" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42234</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>3.6559869292534283E-4</v>
+        <v>4.5834244062411704E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7749,15 +7749,15 @@
       </c>
       <c r="G28" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H28" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42241</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>3.6682874906799966E-4</v>
+        <v>4.587353737330245E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7766,15 +7766,15 @@
       </c>
       <c r="G29" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H29" s="301">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>3.6645507358468166E-4</v>
+        <v>4.4339414739544552E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="G30" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H30" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>3.81994436043444E-4</v>
+        <v>4.3058687499026286E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,15 +7800,15 @@
       </c>
       <c r="G31" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H31" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>3.9484329466596776E-4</v>
+        <v>4.2246150087927003E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,15 +7817,15 @@
       </c>
       <c r="G32" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H32" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>4.2839036714768179E-4</v>
+        <v>4.2778488565454174E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7834,15 +7834,15 @@
       </c>
       <c r="G33" s="302">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H33" s="297">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="I33" s="290">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>4.5430778824257596E-4</v>
+        <v>4.2439538667912887E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7851,15 +7851,15 @@
       </c>
       <c r="G34" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="I34" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>4.8065290598658667E-4</v>
+        <v>4.2660256212839515E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8054,21 +8054,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>1.6784772997037419E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.9852980550164926E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="239"/>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00593#0000</v>
+        <v>obj_0058b#0001</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8103,35 +8103,35 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>1.6200000000000001E-3</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-1.2074936760823908E-3</v>
+        <v>-1.3262713326761817E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>2.827493676082391E-3</v>
+        <v>2.9962713326761817E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.9852980550164926E-3</v>
       </c>
       <c r="K4" s="187">
         <f>L4*10000</f>
-        <v>-0.58477299703741781</v>
+        <v>0.10973277659689137</v>
       </c>
       <c r="L4" s="278">
         <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>-5.847729970374178E-5</v>
+        <v>1.0973277659689137E-5</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>1</v>
@@ -8162,43 +8162,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6499999999999998E-3</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-1.1921325587408748E-3</v>
+        <v>-1.3335988783862236E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>2.9421325587408748E-3</v>
+        <v>2.9835988783862236E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>2.9021147022755562E-3</v>
+        <v>3.0023072685016793E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>0.40017856465318635</v>
+        <v>-0.18708390115455659</v>
       </c>
       <c r="L5" s="279">
         <f t="shared" si="1"/>
-        <v>4.0017856465318635E-5</v>
+        <v>-1.8708390115455657E-5</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001169845965037</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -8226,43 +8226,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
-        <v>42592</v>
+        <v>42648</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-1.1620855295020765E-3</v>
+        <v>-1.3371112731759356E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="3"/>
-        <v>2.9620855295020765E-3</v>
+        <v>3.0271112731759357E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>2.9233449638555054E-3</v>
+        <v>3.0297515602609841E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.38740565646571029</v>
+        <v>-2.6402870850483762E-2</v>
       </c>
       <c r="L6" s="234">
         <f t="shared" si="1"/>
-        <v>3.874056564657103E-5</v>
+        <v>-2.6402870850483762E-6</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002255124833961</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005df#0024</v>
+        <v>obj_005d6#0241</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8294,35 +8294,35 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.8400000000000001E-3</v>
+        <v>1.7299999999999998E-3</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-1.1240884029558094E-3</v>
+        <v>-1.337856677477279E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="3"/>
-        <v>2.9640884029558095E-3</v>
+        <v>3.067856677477279E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>2.9447108336345439E-3</v>
+        <v>3.0652035523393868E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.19377569321265586</v>
+        <v>2.6531251378922663E-2</v>
       </c>
       <c r="L7" s="234">
         <f t="shared" si="1"/>
-        <v>1.9377569321265588E-5</v>
+        <v>2.6531251378922663E-6</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003328123674977</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8362,35 +8362,35 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E8)</f>
-        <v>42653</v>
+        <v>42709</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>1.9E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-1.0784318452227667E-3</v>
+        <v>-1.3395296261237159E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="3"/>
-        <v>2.9784318452227669E-3</v>
+        <v>3.1195296261237156E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>2.9691909332129509E-3</v>
+        <v>3.1083884114331745E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>9.2409120098159603E-2</v>
+        <v>0.11141214690541054</v>
       </c>
       <c r="L8" s="234">
         <f t="shared" si="1"/>
-        <v>9.240912009815961E-6</v>
+        <v>1.1141214690541055E-5</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.000438651858331</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8430,43 +8430,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
-        <v>42683</v>
+        <v>42739</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>1.97E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-1.0235619473227329E-3</v>
+        <v>-1.3251169078211276E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="3"/>
-        <v>2.9935619473227329E-3</v>
+        <v>3.1651169078211277E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.9976471962306589E-3</v>
+        <v>3.1600709452484794E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-4.0852489079259806E-2</v>
+        <v>5.0459625726482875E-2</v>
       </c>
       <c r="L9" s="234">
         <f t="shared" si="1"/>
-        <v>-4.0852489079259806E-6</v>
+        <v>5.0459625726482875E-6</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.000553166796166</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.2836471234633424E-4</v>
+        <v>1.7976538984471765E-4</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8498,43 +8498,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>2.0299999999999997E-3</v>
+        <v>1.91E-3</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-9.6858868030299953E-4</v>
+        <v>-1.31003237365578E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="3"/>
-        <v>2.9985886803029992E-3</v>
+        <v>3.2200323736557802E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.0252398075518937E-3</v>
+        <v>3.2178323679047422E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-0.26651127248894513</v>
+        <v>2.2000057510380457E-2</v>
       </c>
       <c r="L10" s="234">
         <f t="shared" si="1"/>
-        <v>-2.6651127248894513E-5</v>
+        <v>2.2000057510380457E-6</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50410958904109593</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.000668164003135</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.7883636286524906E-4</v>
+        <v>1.8708390115455657E-5</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8566,43 +8566,43 @@
       </c>
       <c r="E11" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="F11" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
-        <v>42744</v>
+        <v>42800</v>
       </c>
       <c r="G11" s="62">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>2.1400000000000004E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-8.8567113191482573E-4</v>
+        <v>-1.28520249501138E-3</v>
       </c>
       <c r="I11" s="265">
         <f t="shared" si="3"/>
-        <v>3.025671131914826E-3</v>
+        <v>3.26520249501138E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.0563282654769283E-3</v>
+        <v>3.2763899729996047E-3</v>
       </c>
       <c r="K11" s="188">
         <f t="shared" si="4"/>
-        <v>-0.30657133562102257</v>
+        <v>-0.11187477988224698</v>
       </c>
       <c r="L11" s="234">
         <f t="shared" si="1"/>
-        <v>-3.0657133562102257E-5</v>
+        <v>-1.1187477988224698E-5</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58630136986301373</v>
+        <v>0.58356164383561648</v>
       </c>
       <c r="N11" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007557752387322</v>
+        <v>1.0007786154569542</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8627,43 +8627,43 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42408</v>
+        <v>42464</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
-        <v>42774</v>
+        <v>42829</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>2.2599999999999999E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-8.1315138646498493E-4</v>
+        <v>-1.2496470217275573E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="3"/>
-        <v>3.0731513864649847E-3</v>
+        <v>3.3396470217275571E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.0887519870532588E-3</v>
+        <v>3.3427725138904757E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-0.15600600588274155</v>
+        <v>-3.125492162918582E-2</v>
       </c>
       <c r="L12" s="234">
         <f t="shared" si="1"/>
-        <v>-1.5600600588274154E-5</v>
+        <v>-3.125492162918582E-6</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.67123287671232879</v>
+        <v>0.66849315068493154</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000868725609952</v>
+        <v>1.000897224968029</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8697,35 +8697,35 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
-        <v>42802</v>
+        <v>42859</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.3700000000000001E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-7.432712396037201E-4</v>
+        <v>-1.2041069282526886E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="3"/>
-        <v>3.1132712396037205E-3</v>
+        <v>3.4141069282526888E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.1200113629694672E-3</v>
+        <v>3.4097191710220449E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-6.7401233657467419E-2</v>
+        <v>4.3877572306438677E-2</v>
       </c>
       <c r="L13" s="234">
         <f t="shared" si="1"/>
-        <v>-6.7401233657467426E-6</v>
+        <v>4.3877572306438677E-6</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009629862237717</v>
+        <v>1.0010125387083852</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.9852980550164926E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -8770,43 +8770,43 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
-        <v>42835</v>
+        <v>42892</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.5100000000000001E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-6.4979075058956915E-4</v>
+        <v>-1.1436917896961067E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>3.1597907505895692E-3</v>
+        <v>3.4836917896961068E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.154117314021257E-3</v>
+        <v>3.4852239132574119E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>5.6734365683121929E-2</v>
+        <v>-1.5321235613051203E-2</v>
       </c>
       <c r="L14" s="234">
         <f t="shared" si="1"/>
-        <v>5.6734365683121929E-6</v>
+        <v>-1.5321235613051203E-6</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83561643835616439</v>
+        <v>0.84109589041095889</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010581666808025</v>
+        <v>1.0011401028598772</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8815,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>1.7690198664969817E-4</v>
+        <v>1.34493168758163E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -8842,43 +8842,43 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
-        <v>42864</v>
+        <v>42920</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>2.66E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-5.4952239367591098E-4</v>
+        <v>-1.0861194940847939E-3</v>
       </c>
       <c r="I15" s="265">
         <f>G15-H15</f>
-        <v>3.2095223936759111E-3</v>
+        <v>3.5461194940847938E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.1886263052130592E-3</v>
+        <v>3.5498569312444102E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>0.20896088462851908</v>
+        <v>-3.737437159616417E-2</v>
       </c>
       <c r="L15" s="234">
         <f t="shared" si="1"/>
-        <v>2.089608846285191E-5</v>
+        <v>-3.737437159616417E-6</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.92054794520547945</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011497106221909</v>
+        <v>1.0012464308034592</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8887,7 +8887,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>2.4451331394233434E-4</v>
+        <v>8.0004169337219867E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -8914,35 +8914,35 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
-        <v>42894</v>
+        <v>42951</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>2.8000000000000004E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-4.3199612796486318E-4</v>
+        <v>-1.015590145173822E-3</v>
       </c>
       <c r="I16" s="265">
         <f>G16-H16</f>
-        <v>3.2319961279648635E-3</v>
+        <v>3.6255901451738219E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.2221067327678449E-3</v>
+        <v>3.6209815553923958E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>9.8893951970186772E-2</v>
+        <v>4.6085897814260833E-2</v>
       </c>
       <c r="L16" s="234">
         <f t="shared" si="1"/>
-        <v>9.8893951970186779E-6</v>
+        <v>4.6085897814260833E-6</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012402523390991</v>
+        <v>1.0013616007976609</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8959,7 +8959,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>-8.6393807601144336E-5</v>
+        <v>-3.0112782121588874E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -8984,35 +8984,35 @@
       </c>
       <c r="E17" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42894</v>
+        <v>42951</v>
       </c>
       <c r="F17" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E17)</f>
-        <v>43259</v>
+        <v>43318</v>
       </c>
       <c r="G17" s="65">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>5.1700000000000001E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="H17" s="65">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>1.6446242247501973E-3</v>
+        <v>5.0542171078834196E-4</v>
       </c>
       <c r="I17" s="260">
         <f>G17-H17</f>
-        <v>3.5253757752498026E-3</v>
+        <v>4.0445782892116573E-3</v>
       </c>
       <c r="J17" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>3.526999603306082E-3</v>
+        <v>4.0446569954069285E-3</v>
       </c>
       <c r="K17" s="189">
         <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>-1.6238280562794367E-2</v>
+        <v>-7.8706195271241453E-4</v>
       </c>
       <c r="L17" s="235">
         <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>-1.6238280562794367E-6</v>
+        <v>-7.8706195271241453E-8</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="N17" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0016789838015994</v>
+        <v>1.0023937612068132</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e2#0024</v>
+        <v>obj_005dc#0239</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9087,15 +9087,15 @@
       </c>
       <c r="G20" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H20" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42221</v>
       </c>
       <c r="I20" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>1.609122302923538E-3</v>
+        <v>1.8117729168931618E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9105,15 +9105,15 @@
       </c>
       <c r="G21" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H21" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42227</v>
       </c>
       <c r="I21" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>1.6082451892161587E-3</v>
+        <v>1.8051836752151574E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9122,15 +9122,15 @@
       </c>
       <c r="G22" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H22" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42234</v>
       </c>
       <c r="I22" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>1.6272938688897754E-3</v>
+        <v>1.7877603180238566E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9139,15 +9139,15 @@
       </c>
       <c r="G23" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H23" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42241</v>
       </c>
       <c r="I23" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>1.6164289598753964E-3</v>
+        <v>1.7806353066391572E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,15 +9156,15 @@
       </c>
       <c r="G24" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H24" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="I24" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>1.6009335986062467E-3</v>
+        <v>1.7548348688515901E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9173,15 +9173,15 @@
       </c>
       <c r="G25" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H25" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="I25" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>1.5650524683749217E-3</v>
+        <v>1.7116850531168966E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9190,15 +9190,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.5377312623009118E-3</v>
+        <v>1.6771221016362668E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9207,15 +9207,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.5344112658990528E-3</v>
+        <v>1.6588058446318351E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,15 +9224,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.5259618386373067E-3</v>
+        <v>1.633830423033967E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9241,15 +9241,15 @@
       </c>
       <c r="G29" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H29" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="I29" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.5253302475532371E-3</v>
+        <v>1.6172537696317712E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9258,15 +9258,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,15 +9275,15 @@
       </c>
       <c r="G31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42408</v>
+        <v>42464</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9292,15 +9292,15 @@
       </c>
       <c r="G32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9309,15 +9309,15 @@
       </c>
       <c r="G33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="I33" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9326,15 +9326,15 @@
       </c>
       <c r="G34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="I34" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9343,15 +9343,15 @@
       </c>
       <c r="G35" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="I35" s="291">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9504,27 +9504,27 @@
       </c>
       <c r="B3" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C3)</f>
-        <v>42159</v>
+        <v>42216</v>
       </c>
       <c r="C3" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A3&amp;"M","mf")</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="D3" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="E3" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-1.2074936760823908E-3</v>
+        <v>-1.3262713326761817E-3</v>
       </c>
       <c r="F3" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>2.9249878924715112E-3</v>
+        <v>2.9400864835965115E-3</v>
       </c>
       <c r="G3" s="75">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.7174942163891203E-3</v>
+        <v>1.6138151509203298E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9536,27 +9536,27 @@
       </c>
       <c r="B4" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C4)</f>
-        <v>42191</v>
+        <v>42249</v>
       </c>
       <c r="C4" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A4&amp;"M","mf")</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="D4" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="E4" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-1.1921325587408748E-3</v>
+        <v>-1.3335988783862236E-3</v>
       </c>
       <c r="F4" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>2.9421325587408748E-3</v>
+        <v>2.9835988783862236E-3</v>
       </c>
       <c r="G4" s="79">
         <f t="shared" si="0"/>
-        <v>1.75E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9568,27 +9568,27 @@
       </c>
       <c r="B5" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C5)</f>
-        <v>42222</v>
+        <v>42278</v>
       </c>
       <c r="C5" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A5&amp;"M","mf")</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="D5" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
-        <v>42592</v>
+        <v>42648</v>
       </c>
       <c r="E5" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-1.1620855295020765E-3</v>
+        <v>-1.3371112731759356E-3</v>
       </c>
       <c r="F5" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>2.9620855295020765E-3</v>
+        <v>3.0271112731759357E-3</v>
       </c>
       <c r="G5" s="79">
         <f t="shared" si="0"/>
-        <v>1.8E-3</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9600,27 +9600,27 @@
       </c>
       <c r="B6" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C6)</f>
-        <v>42251</v>
+        <v>42310</v>
       </c>
       <c r="C6" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A6&amp;"M","mf")</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="D6" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="E6" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-1.1240884029558094E-3</v>
+        <v>-1.337856677477279E-3</v>
       </c>
       <c r="F6" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>2.9640884029558095E-3</v>
+        <v>3.067856677477279E-3</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="0"/>
-        <v>1.8400000000000001E-3</v>
+        <v>1.73E-3</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9632,27 +9632,27 @@
       </c>
       <c r="B7" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C7)</f>
-        <v>42283</v>
+        <v>42340</v>
       </c>
       <c r="C7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A7&amp;"M","mf")</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="D7" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C7)</f>
-        <v>42653</v>
+        <v>42709</v>
       </c>
       <c r="E7" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-1.0784318452227667E-3</v>
+        <v>-1.3395296261237159E-3</v>
       </c>
       <c r="F7" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>2.9784318452227669E-3</v>
+        <v>3.1195296261237156E-3</v>
       </c>
       <c r="G7" s="79">
         <f t="shared" si="0"/>
-        <v>1.9000000000000002E-3</v>
+        <v>1.7799999999999997E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9664,27 +9664,27 @@
       </c>
       <c r="B8" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C8)</f>
-        <v>42313</v>
+        <v>42368</v>
       </c>
       <c r="C8" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A8&amp;"M","mf")</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="D8" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
-        <v>42683</v>
+        <v>42739</v>
       </c>
       <c r="E8" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-1.0235619473227329E-3</v>
+        <v>-1.3251169078211276E-3</v>
       </c>
       <c r="F8" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>2.9935619473227329E-3</v>
+        <v>3.1651169078211277E-3</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
-        <v>1.97E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9696,27 +9696,27 @@
       </c>
       <c r="B9" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C9)</f>
-        <v>42342</v>
+        <v>42402</v>
       </c>
       <c r="C9" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A9&amp;"M","mf")</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="D9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="E9" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-9.6858868030299953E-4</v>
+        <v>-1.31003237365578E-3</v>
       </c>
       <c r="F9" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>2.9985886803029992E-3</v>
+        <v>3.2200323736557802E-3</v>
       </c>
       <c r="G9" s="79">
         <f t="shared" si="0"/>
-        <v>2.0299999999999997E-3</v>
+        <v>1.9100000000000002E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9728,27 +9728,27 @@
       </c>
       <c r="B10" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C10)</f>
-        <v>42375</v>
+        <v>42431</v>
       </c>
       <c r="C10" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A10&amp;"M","mf")</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="D10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
-        <v>42744</v>
+        <v>42800</v>
       </c>
       <c r="E10" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-8.8567113191482573E-4</v>
+        <v>-1.28520249501138E-3</v>
       </c>
       <c r="F10" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.025671131914826E-3</v>
+        <v>3.26520249501138E-3</v>
       </c>
       <c r="G10" s="79">
         <f t="shared" si="0"/>
-        <v>2.1400000000000004E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="H10" s="72"/>
       <c r="Z10" s="71"/>
@@ -9761,27 +9761,27 @@
       </c>
       <c r="B11" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C11)</f>
-        <v>42404</v>
+        <v>42460</v>
       </c>
       <c r="C11" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A11&amp;"M","mf")</f>
-        <v>42408</v>
+        <v>42464</v>
       </c>
       <c r="D11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
-        <v>42774</v>
+        <v>42829</v>
       </c>
       <c r="E11" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-8.1315138646498493E-4</v>
+        <v>-1.2496470217275573E-3</v>
       </c>
       <c r="F11" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.0731513864649847E-3</v>
+        <v>3.3396470217275571E-3</v>
       </c>
       <c r="G11" s="79">
         <f t="shared" si="0"/>
-        <v>2.2599999999999999E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="H11" s="72"/>
       <c r="Z11" s="71"/>
@@ -9794,27 +9794,27 @@
       </c>
       <c r="B12" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C12)</f>
-        <v>42433</v>
+        <v>42492</v>
       </c>
       <c r="C12" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="D12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
-        <v>42802</v>
+        <v>42859</v>
       </c>
       <c r="E12" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-7.432712396037201E-4</v>
+        <v>-1.2041069282526886E-3</v>
       </c>
       <c r="F12" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.1132712396037205E-3</v>
+        <v>3.4141069282526888E-3</v>
       </c>
       <c r="G12" s="79">
         <f t="shared" si="0"/>
-        <v>2.3700000000000006E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9827,27 +9827,27 @@
       </c>
       <c r="B13" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C13)</f>
-        <v>42466</v>
+        <v>42523</v>
       </c>
       <c r="C13" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="D13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
-        <v>42835</v>
+        <v>42892</v>
       </c>
       <c r="E13" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-6.4979075058956915E-4</v>
+        <v>-1.1436917896961067E-3</v>
       </c>
       <c r="F13" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.1597907505895692E-3</v>
+        <v>3.4836917896961068E-3</v>
       </c>
       <c r="G13" s="79">
         <f t="shared" si="0"/>
-        <v>2.5100000000000001E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9860,27 +9860,27 @@
       </c>
       <c r="B14" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C14)</f>
-        <v>42495</v>
+        <v>42551</v>
       </c>
       <c r="C14" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="D14" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
-        <v>42864</v>
+        <v>42920</v>
       </c>
       <c r="E14" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-5.4952239367591098E-4</v>
+        <v>-1.0861194940847939E-3</v>
       </c>
       <c r="F14" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.2095223936759111E-3</v>
+        <v>3.5461194940847938E-3</v>
       </c>
       <c r="G14" s="83">
         <f t="shared" si="0"/>
-        <v>2.66E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9893,27 +9893,27 @@
       </c>
       <c r="B15" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C15)</f>
-        <v>42527</v>
+        <v>42584</v>
       </c>
       <c r="C15" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A15&amp;"M","mf")</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="D15" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
-        <v>42894</v>
+        <v>42951</v>
       </c>
       <c r="E15" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-4.3199612796486318E-4</v>
+        <v>-1.015590145173822E-3</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.2319961279648635E-3</v>
+        <v>3.6255901451738219E-3</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="0"/>
-        <v>2.8000000000000004E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9926,27 +9926,27 @@
       </c>
       <c r="B16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C16)</f>
-        <v>42557</v>
+        <v>42614</v>
       </c>
       <c r="C16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A16&amp;"M","mf")</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="D16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
-        <v>42926</v>
+        <v>42983</v>
       </c>
       <c r="E16" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-3.034970565257806E-4</v>
+        <v>-9.3383932175258909E-4</v>
       </c>
       <c r="F16" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.2491099821507236E-3</v>
+        <v>3.7011925811985587E-3</v>
       </c>
       <c r="G16" s="79">
         <f t="shared" si="0"/>
-        <v>2.9456129256249432E-3</v>
+        <v>2.7673532594459697E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9959,27 +9959,27 @@
       </c>
       <c r="B17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C17)</f>
-        <v>42586</v>
+        <v>42643</v>
       </c>
       <c r="C17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A17&amp;"M","mf")</f>
-        <v>42590</v>
+        <v>42647</v>
       </c>
       <c r="D17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
-        <v>42955</v>
+        <v>43012</v>
       </c>
       <c r="E17" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-1.7353360523490223E-4</v>
+        <v>-8.5050078794780663E-4</v>
       </c>
       <c r="F17" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.2686832928084629E-3</v>
+        <v>3.7604442849914163E-3</v>
       </c>
       <c r="G17" s="79">
         <f t="shared" si="0"/>
-        <v>3.0951496875735608E-3</v>
+        <v>2.9099434970436097E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -9992,27 +9992,27 @@
       </c>
       <c r="B18" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C18)</f>
-        <v>42619</v>
+        <v>42676</v>
       </c>
       <c r="C18" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A18&amp;"M","mf")</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="D18" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C18)</f>
-        <v>42986</v>
+        <v>43045</v>
       </c>
       <c r="E18" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-3.1316881745381079E-5</v>
+        <v>-7.4627362023661715E-4</v>
       </c>
       <c r="F18" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.2900006325037633E-3</v>
+        <v>3.8149370527017896E-3</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>3.2586837507583822E-3</v>
+        <v>3.0686634324651723E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -10025,27 +10025,27 @@
       </c>
       <c r="B19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C19)</f>
-        <v>42649</v>
+        <v>42705</v>
       </c>
       <c r="C19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>42653</v>
+        <v>42709</v>
       </c>
       <c r="D19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
-        <v>43018</v>
+        <v>43074</v>
       </c>
       <c r="E19" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>1.2407591610514126E-4</v>
+        <v>-6.3742077292022823E-4</v>
       </c>
       <c r="F19" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.3136464044181205E-3</v>
+        <v>3.8612037281639108E-3</v>
       </c>
       <c r="G19" s="79">
         <f t="shared" si="0"/>
-        <v>3.4377223205232618E-3</v>
+        <v>3.2237829552436825E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -10058,27 +10058,27 @@
       </c>
       <c r="B20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C20)</f>
-        <v>42678</v>
+        <v>42737</v>
       </c>
       <c r="C20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>42682</v>
+        <v>42739</v>
       </c>
       <c r="D20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
-        <v>43047</v>
+        <v>43104</v>
       </c>
       <c r="E20" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>2.7488306561570971E-4</v>
+        <v>-5.2673377644002256E-4</v>
       </c>
       <c r="F20" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.336353205986979E-3</v>
+        <v>3.8990254175229485E-3</v>
       </c>
       <c r="G20" s="79">
         <f t="shared" si="0"/>
-        <v>3.6112362716026886E-3</v>
+        <v>3.3722916410829258E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10091,27 +10091,27 @@
       </c>
       <c r="B21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C21)</f>
-        <v>42710</v>
+        <v>42768</v>
       </c>
       <c r="C21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="D21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C21)</f>
-        <v>43077</v>
+        <v>43137</v>
       </c>
       <c r="E21" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>4.4373441001084954E-4</v>
+        <v>-3.8812704056531282E-4</v>
       </c>
       <c r="F21" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.3609612856669046E-3</v>
+        <v>3.9337520309217985E-3</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" si="0"/>
-        <v>3.804695695677754E-3</v>
+        <v>3.5456249903564859E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10124,27 +10124,27 @@
       </c>
       <c r="B22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C22)</f>
-        <v>42740</v>
+        <v>42796</v>
       </c>
       <c r="C22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>42744</v>
+        <v>42800</v>
       </c>
       <c r="D22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
-        <v>43109</v>
+        <v>43165</v>
       </c>
       <c r="E22" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>6.0629936131333356E-4</v>
+        <v>-2.6606833129954623E-4</v>
       </c>
       <c r="F22" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>3.3882837600152861E-3</v>
+        <v>3.9583792859891262E-3</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="0"/>
-        <v>3.9945831213286194E-3</v>
+        <v>3.6923109546895799E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10157,27 +10157,27 @@
       </c>
       <c r="B23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C23)</f>
-        <v>42772</v>
+        <v>42825</v>
       </c>
       <c r="C23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>42774</v>
+        <v>42829</v>
       </c>
       <c r="D23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
-        <v>43139</v>
+        <v>43194</v>
       </c>
       <c r="E23" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>8.018408858130869E-4</v>
+        <v>-1.3467906664190032E-4</v>
       </c>
       <c r="F23" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>3.4147350622349094E-3</v>
+        <v>3.9799815665368613E-3</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="0"/>
-        <v>4.2165759480479962E-3</v>
+        <v>3.845302499894961E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10190,27 +10190,27 @@
       </c>
       <c r="B24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C24)</f>
-        <v>42800</v>
+        <v>42857</v>
       </c>
       <c r="C24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42802</v>
+        <v>42859</v>
       </c>
       <c r="D24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
-        <v>43167</v>
+        <v>43224</v>
       </c>
       <c r="E24" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>9.9041708585097775E-4</v>
+        <v>8.0500679282010491E-6</v>
       </c>
       <c r="F24" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>3.4400078691739938E-3</v>
+        <v>3.9989525979668905E-3</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="0"/>
-        <v>4.4304249550249711E-3</v>
+        <v>4.0070026658950916E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10223,27 +10223,27 @@
       </c>
       <c r="B25" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C25)</f>
-        <v>42831</v>
+        <v>42887</v>
       </c>
       <c r="C25" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A25&amp;"M","mf")</f>
-        <v>42835</v>
+        <v>42891</v>
       </c>
       <c r="D25" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
-        <v>43200</v>
+        <v>43256</v>
       </c>
       <c r="E25" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>1.216924080933587E-3</v>
+        <v>1.6940497338524389E-4</v>
       </c>
       <c r="F25" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>3.4703364507519953E-3</v>
+        <v>4.0163475134004558E-3</v>
       </c>
       <c r="G25" s="79">
         <f t="shared" si="0"/>
-        <v>4.6872605316855822E-3</v>
+        <v>4.1857524867856995E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10256,27 +10256,27 @@
       </c>
       <c r="B26" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C26)</f>
-        <v>42859</v>
+        <v>42916</v>
       </c>
       <c r="C26" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A26&amp;"M","mf")</f>
-        <v>42863</v>
+        <v>42920</v>
       </c>
       <c r="D26" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
-        <v>43228</v>
+        <v>43285</v>
       </c>
       <c r="E26" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>1.4150636088540642E-3</v>
+        <v>3.2421565527704252E-4</v>
       </c>
       <c r="F26" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>3.4963790818891114E-3</v>
+        <v>4.0304199092991667E-3</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="0"/>
-        <v>4.9114426907431756E-3</v>
+        <v>4.3546355645762095E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10289,27 +10289,27 @@
       </c>
       <c r="B27" s="340">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C27)</f>
-        <v>42892</v>
+        <v>42949</v>
       </c>
       <c r="C27" s="340">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A27&amp;"M","mf")</f>
-        <v>42894</v>
+        <v>42951</v>
       </c>
       <c r="D27" s="340">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C27)</f>
-        <v>43259</v>
+        <v>43318</v>
       </c>
       <c r="E27" s="341">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>1.6446242247501973E-3</v>
+        <v>5.0542171078834196E-4</v>
       </c>
       <c r="F27" s="342">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>3.5253757752498026E-3</v>
+        <v>4.0445782892116573E-3</v>
       </c>
       <c r="G27" s="341">
         <f t="shared" si="0"/>
-        <v>5.1700000000000001E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10350,7 +10350,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="N2" s="102">
         <f>_xll.ohTrigger(M3:M7)</f>
-        <v>1</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="D3" s="158" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1M_Quote#0000</v>
+        <v>EURSND_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E3" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -10448,18 +10448,18 @@
       </c>
       <c r="H3" s="139">
         <f>'1MSynthDepo'!V11</f>
-        <v>-5.9043666484015489E-4</v>
+        <v>-6.5251058204651713E-4</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="132">
-        <v>-5.3379496031347173E-4</v>
+        <v>-6.5251058204651713E-4</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="120">
         <f t="array" ref="L3:L63">QuoteLive</f>
-        <v>-5.9043666484015489E-4</v>
+        <v>-6.5251058204651713E-4</v>
       </c>
       <c r="M3" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="D4" s="160" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1M_Quote#0000</v>
+        <v>EURSWD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E4" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -10493,17 +10493,17 @@
       </c>
       <c r="H4" s="139">
         <f>'1MSynthDepo'!V12</f>
-        <v>-5.9885151029488118E-4</v>
+        <v>-6.7529624861149633E-4</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="132">
-        <v>-3.9059723107914834E-4</v>
+        <v>-6.7529624861149633E-4</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="120">
-        <v>-5.9885151029488118E-4</v>
+        <v>-6.7529624861149633E-4</v>
       </c>
       <c r="M4" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="D5" s="160" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1M_Quote#0000</v>
+        <v>EUR2WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E5" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -10534,17 +10534,17 @@
       </c>
       <c r="H5" s="139">
         <f>'1MSynthDepo'!V13</f>
-        <v>-5.8752678013267764E-4</v>
+        <v>-7.068308441948723E-4</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="132">
-        <v>-2.022527404326497E-4</v>
+        <v>-7.068308441948723E-4</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="120">
-        <v>-5.8752678013267764E-4</v>
+        <v>-7.068308441948723E-4</v>
       </c>
       <c r="M5" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="D6" s="160" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1M_Quote#0000</v>
+        <v>EUR3WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E6" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -10575,17 +10575,17 @@
       </c>
       <c r="H6" s="139">
         <f>'1MSynthDepo'!V14</f>
-        <v>-6.0502935140022932E-4</v>
+        <v>-7.2346852341301617E-4</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="133">
-        <v>-2.8647777488328377E-4</v>
+        <v>-7.2346852341301617E-4</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="122">
-        <v>-6.0502935140022932E-4</v>
+        <v>-7.2346852341301617E-4</v>
       </c>
       <c r="M6" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="D7" s="162" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1M_Quote#0000</v>
+        <v>EUR1MD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -10616,17 +10616,17 @@
       </c>
       <c r="H7" s="142">
         <f>'1MSynthDepo'!V15</f>
-        <v>-6.2758270029439345E-4</v>
+        <v>-7.5602720849914584E-4</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="134">
-        <v>-3.3999999999956287E-4</v>
+        <v>-7.5602720849914584E-4</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="124">
-        <v>-6.2758270029439345E-4</v>
+        <v>-7.5602720849914584E-4</v>
       </c>
       <c r="M7" s="125">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
@@ -10647,7 +10647,7 @@
       </c>
       <c r="D8" s="158" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH3M_Quote#0000</v>
+        <v>EURSND_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E8" s="163"/>
       <c r="F8" s="16"/>
@@ -10656,23 +10656,23 @@
       </c>
       <c r="H8" s="144">
         <f>'3MSynthDepo'!I25</f>
-        <v>-1.5235886164699508E-4</v>
+        <v>-2.0569278340598629E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
-        <v>-6.5904013166750985E-5</v>
+        <v>-2.0569278340598629E-4</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="120">
-        <v>-1.5235886164699508E-4</v>
+        <v>-2.0569278340598629E-4</v>
       </c>
       <c r="M8" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>6.9999999999999804E-6</v>
+        <v>0</v>
       </c>
       <c r="N8" s="108">
         <f>_xll.ohTrigger(M8:M14)</f>
-        <v>1</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="D9" s="160" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH3M_Quote#0000</v>
+        <v>EURSWD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E9" s="164"/>
       <c r="F9" s="16"/>
@@ -10698,19 +10698,19 @@
       </c>
       <c r="H9" s="139">
         <f>'3MSynthDepo'!I26</f>
-        <v>-1.4615060688529167E-4</v>
+        <v>-2.0463436884427769E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
-        <v>6.7527620855045711E-5</v>
+        <v>-2.0463436884427769E-4</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="120">
-        <v>-1.4615060688529167E-4</v>
+        <v>-2.0463436884427769E-4</v>
       </c>
       <c r="M9" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>6.0000000000000103E-6</v>
+        <v>0</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="D10" s="160" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH3M_Quote#0000</v>
+        <v>EUR2WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E10" s="164"/>
       <c r="F10" s="16"/>
@@ -10734,19 +10734,19 @@
       </c>
       <c r="H10" s="139">
         <f>'3MSynthDepo'!I27</f>
-        <v>-1.1905590967087321E-4</v>
+        <v>-2.1337748172082068E-4</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
-        <v>2.4652230037336409E-4</v>
+        <v>-2.1337748172082068E-4</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="120">
-        <v>-1.1905590967087321E-4</v>
+        <v>-2.1337748172082068E-4</v>
       </c>
       <c r="M10" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>5.9999999999999968E-6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="D11" s="160" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH3M_Quote#0000</v>
+        <v>EUR3WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E11" s="164"/>
       <c r="F11" s="16"/>
@@ -10770,19 +10770,19 @@
       </c>
       <c r="H11" s="147">
         <f>'3MSynthDepo'!I28</f>
-        <v>-1.2210649579267953E-4</v>
+        <v>-2.1208159080338921E-4</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
-        <v>1.5514146245010352E-4</v>
+        <v>-2.1208159080338921E-4</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="122">
-        <v>-1.2210649579267953E-4</v>
+        <v>-2.1208159080338921E-4</v>
       </c>
       <c r="M11" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>5.9999999999999968E-6</v>
+        <v>0</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="D12" s="160" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH3M_Quote#0000</v>
+        <v>EUR1MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E12" s="164"/>
       <c r="F12" s="16"/>
@@ -10806,19 +10806,19 @@
       </c>
       <c r="H12" s="139">
         <f>'3MSynthDepo'!I29</f>
-        <v>-1.2789266630397478E-4</v>
+        <v>-2.2629335174491921E-4</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
-        <v>9.5648429845773819E-5</v>
+        <v>-2.2629335174491921E-4</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="120">
-        <v>-1.2789266630397478E-4</v>
+        <v>-2.2629335174491921E-4</v>
       </c>
       <c r="M12" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>5.0000000000000131E-6</v>
+        <v>0</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="D13" s="160" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH3M_Quote#0000</v>
+        <v>EUR2MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E13" s="164"/>
       <c r="F13" s="16"/>
@@ -10842,19 +10842,19 @@
       </c>
       <c r="H13" s="139">
         <f>'3MSynthDepo'!I30</f>
-        <v>-1.3135129780675724E-4</v>
+        <v>-2.3675874757099076E-4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
-        <v>5.4506305091701146E-5</v>
+        <v>-2.3675874757099076E-4</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="120">
-        <v>-1.3135129780675724E-4</v>
+        <v>-2.3675874757099076E-4</v>
       </c>
       <c r="M13" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>3.9999999999999888E-6</v>
+        <v>0</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="D14" s="162" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH3M_Quote#0000</v>
+        <v>EUR3MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E14" s="165"/>
       <c r="F14" s="16"/>
@@ -10878,19 +10878,19 @@
       </c>
       <c r="H14" s="147">
         <f>'3MSynthDepo'!I31</f>
-        <v>-1.3414978244339639E-4</v>
+        <v>-2.4418495786295561E-4</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
-        <v>2.1169088631484696E-5</v>
+        <v>-2.4418495786295561E-4</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="122">
-        <v>-1.3414978244339639E-4</v>
+        <v>-2.4418495786295561E-4</v>
       </c>
       <c r="M14" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>2.9999999999999916E-6</v>
+        <v>0</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="D15" s="158" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH6M_Quote#0000</v>
+        <v>EURSND_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E15" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -10919,23 +10919,23 @@
       </c>
       <c r="H15" s="144">
         <f>'6MSynthDepo'!I25</f>
-        <v>3.241783158713929E-4</v>
+        <v>4.6795697852708429E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
-        <v>9.1273369742239652E-4</v>
+        <v>4.6795697852708429E-4</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="120">
-        <v>3.241783158713929E-4</v>
+        <v>4.6795697852708429E-4</v>
       </c>
       <c r="M15" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>2.6000000000000036E-5</v>
+        <v>0</v>
       </c>
       <c r="N15" s="110">
         <f>_xll.ohTrigger(M15:M24)</f>
-        <v>1</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="D16" s="160" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH6M_Quote#0000</v>
+        <v>EURSWD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E16" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -10964,19 +10964,19 @@
       </c>
       <c r="H16" s="139">
         <f>'6MSynthDepo'!I26</f>
-        <v>3.3416013810873475E-4</v>
+        <v>4.6808350997526053E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
-        <v>1.0323016171362046E-3</v>
+        <v>4.6808350997526053E-4</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="120">
-        <v>3.3416013810873475E-4</v>
+        <v>4.6808350997526053E-4</v>
       </c>
       <c r="M16" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>0</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="D17" s="160" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH6M_Quote#0000</v>
+        <v>EUR2WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E17" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -11003,19 +11003,19 @@
       </c>
       <c r="H17" s="139">
         <f>'6MSynthDepo'!I27</f>
-        <v>3.6559869292534283E-4</v>
+        <v>4.5834244062411704E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
-        <v>1.1954497369843459E-3</v>
+        <v>4.5834244062411704E-4</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="120">
-        <v>3.6559869292534283E-4</v>
+        <v>4.5834244062411704E-4</v>
       </c>
       <c r="M17" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="D18" s="160" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH6M_Quote#0000</v>
+        <v>EUR3WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E18" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -11042,19 +11042,19 @@
       </c>
       <c r="H18" s="139">
         <f>'6MSynthDepo'!I28</f>
-        <v>3.6682874906799966E-4</v>
+        <v>4.587353737330245E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
-        <v>1.0885602616905743E-3</v>
+        <v>4.587353737330245E-4</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="120">
-        <v>3.6682874906799966E-4</v>
+        <v>4.587353737330245E-4</v>
       </c>
       <c r="M18" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>2.2999999999999963E-5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -11069,7 +11069,7 @@
       </c>
       <c r="D19" s="160" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH6M_Quote#0000</v>
+        <v>EUR1MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E19" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -11081,19 +11081,19 @@
       </c>
       <c r="H19" s="144">
         <f>'6MSynthDepo'!I29</f>
-        <v>3.6645507358468166E-4</v>
+        <v>4.4339414739544552E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
-        <v>1.0096362776810253E-3</v>
+        <v>4.4339414739544552E-4</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="126">
-        <v>3.6645507358468166E-4</v>
+        <v>4.4339414739544552E-4</v>
       </c>
       <c r="M19" s="127">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>2.1000000000000023E-5</v>
+        <v>0</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="D20" s="160" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH6M_Quote#0000</v>
+        <v>EUR2MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E20" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -11120,19 +11120,19 @@
       </c>
       <c r="H20" s="139">
         <f>'6MSynthDepo'!I30</f>
-        <v>3.81994436043444E-4</v>
+        <v>4.3058687499026286E-4</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
-        <v>9.0595425058635152E-4</v>
+        <v>4.3058687499026286E-4</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="120">
-        <v>3.81994436043444E-4</v>
+        <v>4.3058687499026286E-4</v>
       </c>
       <c r="M20" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>1.7000000000000034E-5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="D21" s="160" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH6M_Quote#0000</v>
+        <v>EUR3MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E21" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -11159,19 +11159,19 @@
       </c>
       <c r="H21" s="139">
         <f>'6MSynthDepo'!I31</f>
-        <v>3.9484329466596776E-4</v>
+        <v>4.2246150087927003E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
-        <v>8.1856251305365826E-4</v>
+        <v>4.2246150087927003E-4</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="120">
-        <v>3.9484329466596776E-4</v>
+        <v>4.2246150087927003E-4</v>
       </c>
       <c r="M21" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>1.4000000000000015E-5</v>
+        <v>0</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="D22" s="160" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH6M_Quote#0000</v>
+        <v>EUR4MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E22" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -11198,19 +11198,19 @@
       </c>
       <c r="H22" s="139">
         <f>'6MSynthDepo'!I32</f>
-        <v>4.2839036714768179E-4</v>
+        <v>4.2778488565454174E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
-        <v>7.7358926811860727E-4</v>
+        <v>4.2778488565454174E-4</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="120">
-        <v>4.2839036714768179E-4</v>
+        <v>4.2778488565454174E-4</v>
       </c>
       <c r="M22" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>1.0999999999999996E-5</v>
+        <v>0</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="D23" s="160" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH6M_Quote#0000</v>
+        <v>EUR5MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E23" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -11237,19 +11237,19 @@
       </c>
       <c r="H23" s="139">
         <f>'6MSynthDepo'!I33</f>
-        <v>4.5430778824257596E-4</v>
+        <v>4.2439538667912887E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
-        <v>7.535141655863201E-4</v>
+        <v>4.2439538667912887E-4</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="120">
-        <v>4.5430778824257596E-4</v>
+        <v>4.2439538667912887E-4</v>
       </c>
       <c r="M23" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>7.9999999999999776E-6</v>
+        <v>0</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="D24" s="162" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH6M_Quote#0000</v>
+        <v>EUR6MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -11276,19 +11276,19 @@
       </c>
       <c r="H24" s="147">
         <f>'6MSynthDepo'!I34</f>
-        <v>4.8065290598658667E-4</v>
+        <v>4.2660256212839515E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
-        <v>7.1336998314508644E-4</v>
+        <v>4.2660256202847508E-4</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="122">
-        <v>4.8065290598658667E-4</v>
+        <v>4.2660256212839515E-4</v>
       </c>
       <c r="M24" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>7.0000000000000075E-6</v>
+        <v>0</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="D25" s="160" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1Y_Quote#0000</v>
+        <v>EURSND_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E25" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -11317,23 +11317,23 @@
       </c>
       <c r="H25" s="144">
         <f>'1YSynthDepo'!I20</f>
-        <v>1.609122302923538E-3</v>
+        <v>1.8117729168931618E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
-        <v>1.9786760234286049E-3</v>
+        <v>1.8117729168931618E-3</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="120">
-        <v>1.609122302923538E-3</v>
+        <v>1.8117729168931618E-3</v>
       </c>
       <c r="M25" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>-3.6000000000000008E-5</v>
+        <v>0</v>
       </c>
       <c r="N25" s="110">
         <f>_xll.ohTrigger(M25:M40)</f>
-        <v>1</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="D26" s="160" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1Y_Quote#0000</v>
+        <v>EURSWD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E26" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -11362,19 +11362,19 @@
       </c>
       <c r="H26" s="139">
         <f>'1YSynthDepo'!I21</f>
-        <v>1.6082451892161587E-3</v>
+        <v>1.8051836752151574E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
-        <v>2.0973449061261512E-3</v>
+        <v>1.8051836752151574E-3</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="120">
-        <v>1.6082451892161587E-3</v>
+        <v>1.8051836752151574E-3</v>
       </c>
       <c r="M26" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>-3.4999999999999875E-5</v>
+        <v>0</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="D27" s="160" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1Y_Quote#0000</v>
+        <v>EUR2WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E27" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -11401,19 +11401,19 @@
       </c>
       <c r="H27" s="139">
         <f>'1YSynthDepo'!I22</f>
-        <v>1.6272938688897754E-3</v>
+        <v>1.7877603180238566E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
-        <v>2.2594679994477774E-3</v>
+        <v>1.7877603180238566E-3</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="120">
-        <v>1.6272938688897754E-3</v>
+        <v>1.7877603180238566E-3</v>
       </c>
       <c r="M27" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>-3.3999999999999959E-5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="D28" s="160" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1Y_Quote#0000</v>
+        <v>EUR3WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E28" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -11440,19 +11440,19 @@
       </c>
       <c r="H28" s="139">
         <f>'1YSynthDepo'!I23</f>
-        <v>1.6164289598753964E-3</v>
+        <v>1.7806353066391572E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
-        <v>2.1515623467774753E-3</v>
+        <v>1.7806353066391572E-3</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="120">
-        <v>1.6164289598753964E-3</v>
+        <v>1.7806353066391572E-3</v>
       </c>
       <c r="M28" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>-3.3000000000000043E-5</v>
+        <v>0</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="D29" s="160" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR1MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E29" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -11479,19 +11479,19 @@
       </c>
       <c r="H29" s="147">
         <f>'1YSynthDepo'!I24</f>
-        <v>1.6009335986062467E-3</v>
+        <v>1.7548348688515901E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
-        <v>2.0713582690561338E-3</v>
+        <v>1.7548348688515901E-3</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="122">
-        <v>1.6009335986062467E-3</v>
+        <v>1.7548348688515901E-3</v>
       </c>
       <c r="M29" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>-3.0999999999999995E-5</v>
+        <v>0</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="D30" s="160" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR2MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E30" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -11518,19 +11518,19 @@
       </c>
       <c r="H30" s="139">
         <f>'1YSynthDepo'!I25</f>
-        <v>1.5650524683749217E-3</v>
+        <v>1.7116850531168966E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
-        <v>1.9635040805632822E-3</v>
+        <v>1.7116850531168966E-3</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="120">
-        <v>1.5650524683749217E-3</v>
+        <v>1.7116850531168966E-3</v>
       </c>
       <c r="M30" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>-2.5999999999999981E-5</v>
+        <v>0</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="D31" s="160" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR3MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E31" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -11557,19 +11557,19 @@
       </c>
       <c r="H31" s="139">
         <f>'1YSynthDepo'!I26</f>
-        <v>1.5377312623009118E-3</v>
+        <v>1.6771221016362668E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
-        <v>1.8724129563418969E-3</v>
+        <v>1.6771221016362668E-3</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="120">
-        <v>1.5377312623009118E-3</v>
+        <v>1.6771221016362668E-3</v>
       </c>
       <c r="M31" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>-2.1999999999999884E-5</v>
+        <v>0</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11584,7 +11584,7 @@
       </c>
       <c r="D32" s="160" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR4MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E32" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -11596,19 +11596,19 @@
       </c>
       <c r="H32" s="139">
         <f>'1YSynthDepo'!I27</f>
-        <v>1.5344112658990528E-3</v>
+        <v>1.6588058446318351E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
-        <v>1.8237721684577848E-3</v>
+        <v>1.6588058446318351E-3</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="120">
-        <v>1.5344112658990528E-3</v>
+        <v>1.6588058446318351E-3</v>
       </c>
       <c r="M32" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>-1.899999999999992E-5</v>
+        <v>0</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="D33" s="160" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR5MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E33" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -11635,19 +11635,19 @@
       </c>
       <c r="H33" s="139">
         <f>'1YSynthDepo'!I28</f>
-        <v>1.5259618386373067E-3</v>
+        <v>1.633830423033967E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
-        <v>1.8008225006785829E-3</v>
+        <v>1.633830423033967E-3</v>
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="120">
-        <v>1.5259618386373067E-3</v>
+        <v>1.633830423033967E-3</v>
       </c>
       <c r="M33" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>-1.5000000000000039E-5</v>
+        <v>0</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="D34" s="160" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR6MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E34" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -11674,19 +11674,19 @@
       </c>
       <c r="H34" s="139">
         <f>'1YSynthDepo'!I29</f>
-        <v>1.5253302475532371E-3</v>
+        <v>1.6172537696317712E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
-        <v>1.7580324292638017E-3</v>
+        <v>1.6172537696317712E-3</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="120">
-        <v>1.5253302475532371E-3</v>
+        <v>1.6172537696317712E-3</v>
       </c>
       <c r="M34" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>-1.1999999999999858E-5</v>
+        <v>0</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="D35" s="160" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR7MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR7MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E35" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -11713,19 +11713,19 @@
       </c>
       <c r="H35" s="139">
         <f>'1YSynthDepo'!I30</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
-        <v>1.7605253080593816E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="120">
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="M35" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="D36" s="160" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR8MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR8MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E36" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -11752,19 +11752,19 @@
       </c>
       <c r="H36" s="139">
         <f>'1YSynthDepo'!I31</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
-        <v>1.7377762759480189E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="120">
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="M36" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="D37" s="160" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR9MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR9MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E37" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -11791,19 +11791,19 @@
       </c>
       <c r="H37" s="139">
         <f>'1YSynthDepo'!I32</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
-        <v>1.7481493380464806E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="120">
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="M37" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="D38" s="160" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR10MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR10MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E38" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -11830,19 +11830,19 @@
       </c>
       <c r="H38" s="139">
         <f>'1YSynthDepo'!I33</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
-        <v>1.7372768337085925E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="120">
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="M38" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="D39" s="160" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR11MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR11MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E39" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -11869,19 +11869,19 @@
       </c>
       <c r="H39" s="139">
         <f>'1YSynthDepo'!I34</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
-        <v>1.7247550505565812E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="120">
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="M39" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="D40" s="160" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0000</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E40" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -11908,19 +11908,19 @@
       </c>
       <c r="H40" s="147">
         <f>'1YSynthDepo'!I35</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
-        <v>1.7100000000000858E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="122">
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="M40" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="D41" s="158" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR1x13F_SYNTH1Y_Quote#0000</v>
+        <v>EUR1x13F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E41" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(D41)</f>
@@ -11953,23 +11953,23 @@
       </c>
       <c r="H41" s="152">
         <f>SynthFra!G4</f>
-        <v>1.75E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
-        <v>1.6605416176082449E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="128">
-        <v>1.75E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="M41" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N41" s="110">
         <f>_xll.ohTrigger(M41:M63)</f>
-        <v>1</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="D42" s="160" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR2x14F_SYNTH1Y_Quote#0000</v>
+        <v>EUR2x14F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E42" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D42)</f>
@@ -12001,15 +12001,15 @@
       </c>
       <c r="H42" s="154">
         <f>SynthFra!G5</f>
-        <v>1.8E-3</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
-        <v>1.6383825167237793E-3</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="128">
-        <v>1.8E-3</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="M42" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D43" s="160" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR3x15F_SYNTH1Y_Quote#0000</v>
+        <v>EUR3x15F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E43" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D43)</f>
@@ -12046,15 +12046,15 @@
       </c>
       <c r="H43" s="154">
         <f>SynthFra!G6</f>
-        <v>1.8400000000000001E-3</v>
+        <v>1.73E-3</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="136">
-        <v>1.6315359165180374E-3</v>
+        <v>1.73E-3</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="128">
-        <v>1.8400000000000001E-3</v>
+        <v>1.73E-3</v>
       </c>
       <c r="M43" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="D44" s="160" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR4x16F_SYNTH1Y_Quote#0000</v>
+        <v>EUR4x16F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E44" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D44)</f>
@@ -12091,15 +12091,15 @@
       </c>
       <c r="H44" s="154">
         <f>SynthFra!G7</f>
-        <v>1.9000000000000002E-3</v>
+        <v>1.7799999999999997E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
-        <v>1.6217354128587164E-3</v>
+        <v>1.7799999999999997E-3</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="128">
-        <v>1.9000000000000002E-3</v>
+        <v>1.7799999999999997E-3</v>
       </c>
       <c r="M44" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="D45" s="160" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR5x17F_SYNTH1Y_Quote#0000</v>
+        <v>EUR5x17F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E45" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D45)</f>
@@ -12136,15 +12136,15 @@
       </c>
       <c r="H45" s="154">
         <f>SynthFra!G8</f>
-        <v>1.97E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="136">
-        <v>1.611490590887736E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="128">
-        <v>1.97E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="M45" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="D46" s="160" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR6x18F_SYNTH1Y_Quote#0000</v>
+        <v>EUR6x18F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E46" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D46)</f>
@@ -12181,15 +12181,15 @@
       </c>
       <c r="H46" s="154">
         <f>SynthFra!G9</f>
-        <v>2.0299999999999997E-3</v>
+        <v>1.9100000000000002E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
-        <v>1.6152355880216236E-3</v>
+        <v>1.9100000000000002E-3</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="128">
-        <v>2.0299999999999997E-3</v>
+        <v>1.9100000000000002E-3</v>
       </c>
       <c r="M46" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="D47" s="160" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR7x19F_SYNTH1Y_Quote#0000</v>
+        <v>EUR7x19F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E47" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D47)</f>
@@ -12226,15 +12226,15 @@
       </c>
       <c r="H47" s="154">
         <f>SynthFra!G10</f>
-        <v>2.1400000000000004E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="136">
-        <v>1.6027837766431675E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="128">
-        <v>2.1400000000000004E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="M47" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="D48" s="160" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR8x20F_SYNTH1Y_Quote#0000</v>
+        <v>EUR8x20F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E48" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D48)</f>
@@ -12271,19 +12271,19 @@
       </c>
       <c r="H48" s="154">
         <f>SynthFra!G11</f>
-        <v>2.2599999999999999E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="136">
-        <v>1.6116373612167782E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="128">
-        <v>2.2599999999999999E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="M48" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N48" s="111"/>
     </row>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="D49" s="160" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR9x21F_SYNTH1Y_Quote#0000</v>
+        <v>EUR9x21F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E49" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D49)</f>
@@ -12316,19 +12316,19 @@
       </c>
       <c r="H49" s="154">
         <f>SynthFra!G12</f>
-        <v>2.3700000000000006E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="136">
-        <v>1.6110335582855382E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="128">
-        <v>2.3700000000000006E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="M49" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N49" s="111"/>
     </row>
@@ -12346,7 +12346,7 @@
       </c>
       <c r="D50" s="160" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR10x22F_SYNTH1Y_Quote#0000</v>
+        <v>EUR10x22F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E50" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D50)</f>
@@ -12361,15 +12361,15 @@
       </c>
       <c r="H50" s="154">
         <f>SynthFra!G13</f>
-        <v>2.5100000000000001E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="136">
-        <v>1.6260050614706461E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="128">
-        <v>2.5100000000000001E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="M50" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="D51" s="160" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR11x23F_SYNTH1Y_Quote#0000</v>
+        <v>EUR11x23F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E51" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D51)</f>
@@ -12406,19 +12406,19 @@
       </c>
       <c r="H51" s="154">
         <f>SynthFra!G14</f>
-        <v>2.66E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="136">
-        <v>1.6510956425379811E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="128">
-        <v>2.66E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="M51" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N51" s="111"/>
     </row>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="D52" s="160" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR13x25F_SYNTH1Y_Quote#0000</v>
+        <v>EUR13x25F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E52" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D52)</f>
@@ -12451,19 +12451,19 @@
       </c>
       <c r="H52" s="154">
         <f>SynthFra!G16</f>
-        <v>2.9456129256249432E-3</v>
+        <v>2.7673532594459697E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
-        <v>1.7293198715218703E-3</v>
+        <v>2.7673532594459697E-3</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="128">
-        <v>2.9456129256249432E-3</v>
+        <v>2.7673532594459697E-3</v>
       </c>
       <c r="M52" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
-        <v>-1.2000000000000292E-5</v>
+        <v>0</v>
       </c>
       <c r="N52" s="111"/>
     </row>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="D53" s="160" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR14x26F_SYNTH1Y_Quote#0000</v>
+        <v>EUR14x26F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E53" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D53)</f>
@@ -12496,19 +12496,19 @@
       </c>
       <c r="H53" s="154">
         <f>SynthFra!G17</f>
-        <v>3.0951496875735608E-3</v>
+        <v>2.9099434970436097E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
-        <v>1.7685177753047356E-3</v>
+        <v>2.9099434970436097E-3</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="128">
-        <v>3.0951496875735608E-3</v>
+        <v>2.9099434970436097E-3</v>
       </c>
       <c r="M53" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>-2.1999999999999884E-5</v>
+        <v>0</v>
       </c>
       <c r="N53" s="111"/>
     </row>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="D54" s="160" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR15x27F_SYNTH1Y_Quote#0000</v>
+        <v>EUR15x27F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E54" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D54)</f>
@@ -12541,19 +12541,19 @@
       </c>
       <c r="H54" s="154">
         <f>SynthFra!G18</f>
-        <v>3.2586837507583822E-3</v>
+        <v>3.0686634324651723E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
-        <v>1.8203716252033035E-3</v>
+        <v>3.0686634324651723E-3</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="128">
-        <v>3.2586837507583822E-3</v>
+        <v>3.0686634324651723E-3</v>
       </c>
       <c r="M54" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>-2.6999999999999681E-5</v>
+        <v>0</v>
       </c>
       <c r="N54" s="111"/>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="D55" s="160" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR16x28F_SYNTH1Y_Quote#0000</v>
+        <v>EUR16x28F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E55" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D55)</f>
@@ -12586,19 +12586,19 @@
       </c>
       <c r="H55" s="154">
         <f>SynthFra!G19</f>
-        <v>3.4377223205232618E-3</v>
+        <v>3.2237829552436825E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
-        <v>1.8842824044602055E-3</v>
+        <v>3.2237829552436825E-3</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="128">
-        <v>3.4377223205232618E-3</v>
+        <v>3.2237829552436825E-3</v>
       </c>
       <c r="M55" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>-3.0999999999999778E-5</v>
+        <v>0</v>
       </c>
       <c r="N55" s="111"/>
     </row>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="D56" s="160" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR17x29F_SYNTH1Y_Quote#0000</v>
+        <v>EUR17x29F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E56" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D56)</f>
@@ -12631,19 +12631,19 @@
       </c>
       <c r="H56" s="154">
         <f>SynthFra!G20</f>
-        <v>3.6112362716026886E-3</v>
+        <v>3.3722916410829258E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
-        <v>1.9620591824041763E-3</v>
+        <v>3.3722916410829258E-3</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="128">
-        <v>3.6112362716026886E-3</v>
+        <v>3.3722916410829258E-3</v>
       </c>
       <c r="M56" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>-3.199999999999991E-5</v>
+        <v>0</v>
       </c>
       <c r="N56" s="111"/>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="D57" s="160" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR18x30F_SYNTH1Y_Quote#0000</v>
+        <v>EUR18x30F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E57" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D57)</f>
@@ -12676,19 +12676,19 @@
       </c>
       <c r="H57" s="154">
         <f>SynthFra!G21</f>
-        <v>3.804695695677754E-3</v>
+        <v>3.5456249903564859E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
-        <v>2.0525920677748541E-3</v>
+        <v>3.5456249903564859E-3</v>
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="128">
-        <v>3.804695695677754E-3</v>
+        <v>3.5456249903564859E-3</v>
       </c>
       <c r="M57" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>-3.0000000000000079E-5</v>
+        <v>0</v>
       </c>
       <c r="N57" s="111"/>
     </row>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="D58" s="160" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR19x31F_SYNTH1Y_Quote#0000</v>
+        <v>EUR19x31F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E58" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D58)</f>
@@ -12721,19 +12721,19 @@
       </c>
       <c r="H58" s="154">
         <f>SynthFra!G22</f>
-        <v>3.9945831213286194E-3</v>
+        <v>3.6923109546895799E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
-        <v>2.1415420157302706E-3</v>
+        <v>3.6923109546895799E-3</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="128">
-        <v>3.9945831213286194E-3</v>
+        <v>3.6923109546895799E-3</v>
       </c>
       <c r="M58" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>-2.3999999999999716E-5</v>
+        <v>0</v>
       </c>
       <c r="N58" s="111"/>
     </row>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="D59" s="160" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR20x32F_SYNTH1Y_Quote#0000</v>
+        <v>EUR20x32F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E59" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D59)</f>
@@ -12766,19 +12766,19 @@
       </c>
       <c r="H59" s="154">
         <f>SynthFra!G23</f>
-        <v>4.2165759480479962E-3</v>
+        <v>3.845302499894961E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
-        <v>2.239062995801116E-3</v>
+        <v>3.845302499894961E-3</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="128">
-        <v>4.2165759480479962E-3</v>
+        <v>3.845302499894961E-3</v>
       </c>
       <c r="M59" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>-1.7999999999999787E-5</v>
+        <v>0</v>
       </c>
       <c r="N59" s="111"/>
     </row>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="D60" s="160" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR21x33F_SYNTH1Y_Quote#0000</v>
+        <v>EUR21x33F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E60" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D60)</f>
@@ -12811,19 +12811,19 @@
       </c>
       <c r="H60" s="154">
         <f>SynthFra!G24</f>
-        <v>4.4304249550249711E-3</v>
+        <v>4.0070026658950916E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
-        <v>2.3413834432000026E-3</v>
+        <v>4.0070026658950916E-3</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="128">
-        <v>4.4304249550249711E-3</v>
+        <v>4.0070026658950916E-3</v>
       </c>
       <c r="M60" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>-1.2999999999999991E-5</v>
+        <v>0</v>
       </c>
       <c r="N60" s="111"/>
     </row>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="D61" s="160" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR22x34F_SYNTH1Y_Quote#0000</v>
+        <v>EUR22x34F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E61" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D61)</f>
@@ -12856,19 +12856,19 @@
       </c>
       <c r="H61" s="154">
         <f>SynthFra!G25</f>
-        <v>4.6872605316855822E-3</v>
+        <v>4.1857524867856995E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
-        <v>2.4430084796921575E-3</v>
+        <v>4.1857524867856995E-3</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="128">
-        <v>4.6872605316855822E-3</v>
+        <v>4.1857524867856995E-3</v>
       </c>
       <c r="M61" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>-8.0000000000001945E-6</v>
+        <v>0</v>
       </c>
       <c r="N61" s="111"/>
     </row>
@@ -12886,7 +12886,7 @@
       </c>
       <c r="D62" s="160" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR23x35F_SYNTH1Y_Quote#0000</v>
+        <v>EUR23x35F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E62" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(D62)</f>
@@ -12901,19 +12901,19 @@
       </c>
       <c r="H62" s="154">
         <f>SynthFra!G26</f>
-        <v>4.9114426907431756E-3</v>
+        <v>4.3546355645762095E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
-        <v>2.5460698839072883E-3</v>
+        <v>4.3546355645762095E-3</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="128">
-        <v>4.9114426907431756E-3</v>
+        <v>4.3546355645762095E-3</v>
       </c>
       <c r="M62" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>-5.0000000000006636E-6</v>
+        <v>0</v>
       </c>
       <c r="N62" s="111"/>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="D63" s="162" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR24x36F_SYNTH1Y_Quote#0000</v>
+        <v>EUR24x36F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E63" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D63)</f>
@@ -12946,15 +12946,15 @@
       </c>
       <c r="H63" s="156">
         <f>SynthFra!G27</f>
-        <v>5.1700000000000001E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="137">
-        <v>2.5460698839072883E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="130">
-        <v>5.1700000000000001E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="M63" s="131">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="18600" windowHeight="13635" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="18600" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="29" r:id="rId1"/>
@@ -2030,12 +2030,12 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>270</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2049,12 +2049,12 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0001</v>
+            <v>EUR6M#0000</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>EUR6M#0001</v>
+            <v>EUR6M#0000</v>
           </cell>
         </row>
       </sheetData>
@@ -2109,12 +2109,12 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0001</v>
+            <v>EURTND_Quote#0000</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>EURSND_Quote#0001</v>
+            <v>EURSND_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
@@ -2673,7 +2673,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2692,7 +2692,7 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="44" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jul 27 2015 17:29:31</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug  4 2015 10:20:51</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="212"/>
       <c r="G12" s="219"/>
@@ -2978,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42216.713009259256</v>
+        <v>42226.757465277777</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_005d5#0241</v>
+        <v>obj_005d5#0001</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="I20" s="35">
         <f>[1]!LastFixingsTrigger</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" s="111"/>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0003670159613232</v>
+        <v>1.0004973015228458</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="K3" s="310" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_005c5#0001</v>
+        <v>obj_005bd#0001</v>
       </c>
       <c r="L3" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3435,7 +3435,7 @@
       <c r="V3" s="239"/>
       <c r="W3" s="190">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>4.7612808490441014E-4</v>
+        <v>4.8347425703050442E-4</v>
       </c>
       <c r="X3" s="239"/>
       <c r="Y3" s="239"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058f#0001</v>
+        <v>obj_00594#0001</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3526,15 +3526,15 @@
       </c>
       <c r="U4" s="190">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.226128084904811E-3</v>
+        <v>-1.2334742570309053E-3</v>
       </c>
       <c r="V4" s="258">
         <f>T4-U4</f>
-        <v>4.7612808490481097E-4</v>
+        <v>4.8347425703090525E-4</v>
       </c>
       <c r="W4" s="186">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>4.7612808490441014E-4</v>
+        <v>4.8347425703050442E-4</v>
       </c>
       <c r="X4" s="187">
         <f>Y4*10000</f>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00593#0001</v>
+        <v>obj_00592#0001</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3629,15 +3629,15 @@
       </c>
       <c r="U5" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.226128084904811E-3</v>
+        <v>-1.2334742570309053E-3</v>
       </c>
       <c r="V5" s="265">
         <f>T5-U5</f>
-        <v>4.7612808490441014E-4</v>
+        <v>4.8347425703050442E-4</v>
       </c>
       <c r="W5" s="67">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>4.7612808490441014E-4</v>
+        <v>4.8347425703050442E-4</v>
       </c>
       <c r="X5" s="240">
         <f>Y5*10000</f>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00590#0001</v>
+        <v>obj_00593#0001</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3730,19 +3730,19 @@
       </c>
       <c r="T6" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-8.100813775638047E-4</v>
+        <v>-8.1008052357337793E-4</v>
       </c>
       <c r="U6" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.2600396931024853E-3</v>
+        <v>-1.2468166101861186E-3</v>
       </c>
       <c r="V6" s="265">
         <f>T6-U6</f>
-        <v>4.4995831553868056E-4</v>
+        <v>4.367360866127407E-4</v>
       </c>
       <c r="W6" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>4.4995831553868056E-4</v>
+        <v>4.367360866127407E-4</v>
       </c>
       <c r="X6" s="188">
         <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="AA6" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001169845965037</v>
+        <v>1.0001176173247566</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="AE6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_005d9#0241</v>
+        <v>obj_005d9#0001</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K7" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00591#0001</v>
+        <v>obj_0058f#0001</v>
       </c>
       <c r="L7" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3838,19 +3838,19 @@
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-8.1411017662204007E-4</v>
+        <v>-8.1410843376843666E-4</v>
       </c>
       <c r="U7" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-1.2900432603525323E-3</v>
+        <v>-1.2861498102456983E-3</v>
       </c>
       <c r="V7" s="265">
         <f>T7-U7</f>
-        <v>4.7593308373049226E-4</v>
+        <v>4.7204137647726167E-4</v>
       </c>
       <c r="W7" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>4.7593308373049216E-4</v>
+        <v>4.7204137647726167E-4</v>
       </c>
       <c r="X7" s="188">
         <f t="shared" si="1"/>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="AA7" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0002255124833961</v>
+        <v>1.000225006246154</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="K8" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00592#0001</v>
+        <v>obj_00591#0001</v>
       </c>
       <c r="L8" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3946,19 +3946,19 @@
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-9.1225630137969915E-4</v>
+        <v>-9.1225360184710169E-4</v>
       </c>
       <c r="U8" s="65">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-1.2695170140024636E-3</v>
+        <v>-1.2561456424671213E-3</v>
       </c>
       <c r="V8" s="260">
         <f>T8-U8</f>
-        <v>3.5726071262276449E-4</v>
+        <v>3.4389204062001966E-4</v>
       </c>
       <c r="W8" s="65">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>3.5726071262276438E-4</v>
+        <v>3.4389204062001966E-4</v>
       </c>
       <c r="X8" s="189">
         <f t="shared" si="1"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="AA8" s="60">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.0003328123674977</v>
+        <v>1.0003312442150001</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00594#0001</v>
+        <v>obj_00590#0001</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="AE9" s="190">
         <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>8.8529493407729418E-20</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AE10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>1.0842021724855044E-19</v>
+        <v>2.820350411304462E-4</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="V11" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-6.5251058204651713E-4</v>
+        <v>-6.1397711267119348E-4</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="V12" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-6.7529624861149633E-4</v>
+        <v>-6.4516860536846716E-4</v>
       </c>
       <c r="AD12" s="261" t="s">
         <v>111</v>
@@ -4151,7 +4151,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="309" t="str">
         <f t="array" ref="G13:G21">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_005c5#0001</v>
+        <v>obj_005bd#0001</v>
       </c>
       <c r="H13" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4189,14 +4189,14 @@
       </c>
       <c r="V13" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-7.068308441948723E-4</v>
+        <v>-6.8501230352069342E-4</v>
       </c>
       <c r="AD13" s="277" t="s">
         <v>113</v>
       </c>
       <c r="AE13" s="190">
         <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
-        <v>4.7612808490441014E-4</v>
+        <v>4.8347425703050442E-4</v>
       </c>
       <c r="AF13" s="190" t="b">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_0058f#0001</v>
+        <v>obj_00594#0001</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I14" s="194">
         <f>_xll.qlRateHelperRate(G14,Trigger)</f>
-        <v>-4.8999999999999998E-4</v>
+        <v>-7.8000000000000009E-4</v>
       </c>
       <c r="J14" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G14),"--")</f>
@@ -4230,7 +4230,7 @@
         <v>42282</v>
       </c>
       <c r="M14" s="196">
-        <v>1.0001343538842471</v>
+        <v>1.0001343538106939</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
@@ -4245,13 +4245,13 @@
       </c>
       <c r="V14" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-7.2346852341301617E-4</v>
+        <v>-7.0848103908513081E-4</v>
       </c>
       <c r="AD14" s="277" t="s">
         <v>114</v>
       </c>
       <c r="AE14" s="190">
-        <v>-1.4212164601255109E-3</v>
+        <v>-2.0351450946951731E-3</v>
       </c>
       <c r="AF14" s="190" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_00593#0001</v>
+        <v>obj_00592#0001</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="I15" s="194">
         <f>_xll.qlRateHelperRate(G15,Trigger)</f>
-        <v>-5.2999999999999998E-4</v>
+        <v>-7.9000000000000012E-4</v>
       </c>
       <c r="J15" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G15),"--")</f>
@@ -4285,7 +4285,7 @@
         <v>42312</v>
       </c>
       <c r="M15" s="196">
-        <v>1.0002019374938675</v>
+        <v>1.0002019372776902</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
@@ -4300,13 +4300,13 @@
       </c>
       <c r="V15" s="338">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-7.5602720849914584E-4</v>
+        <v>-7.5586168698523143E-4</v>
       </c>
       <c r="AD15" s="277" t="s">
         <v>115</v>
       </c>
       <c r="AE15" s="190">
-        <v>1.7851359084110716E-2</v>
+        <v>2.3380750249559958E-2</v>
       </c>
       <c r="AF15" s="190" t="b">
         <v>1</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_00590#0001</v>
+        <v>obj_00593#0001</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="I16" s="194">
         <f>_xll.qlRateHelperRate(G16,Trigger)</f>
-        <v>-5.5000000000000003E-4</v>
+        <v>-8.200000000000002E-4</v>
       </c>
       <c r="J16" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G16),"--")</f>
@@ -4340,13 +4340,13 @@
         <v>42342</v>
       </c>
       <c r="M16" s="196">
-        <v>1.0002779799847319</v>
+        <v>1.0002779795434975</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
       </c>
       <c r="AE16" s="190">
-        <v>-5.5876075506016594E-2</v>
+        <v>-6.9443568661646166E-2</v>
       </c>
       <c r="AF16" s="190" t="b">
         <v>1</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="202" t="str">
-        <v>obj_00591#0001</v>
+        <v>obj_0058f#0001</v>
       </c>
       <c r="H17" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="I17" s="194">
         <f>_xll.qlRateHelperRate(G17,Trigger)</f>
-        <v>-5.6999999999999998E-4</v>
+        <v>-7.9000000000000012E-4</v>
       </c>
       <c r="J17" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G17),"--")</f>
@@ -4380,7 +4380,7 @@
         <v>42373</v>
       </c>
       <c r="M17" s="196">
-        <v>1.0003358923464658</v>
+        <v>1.0003358899205321</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="202" t="str">
-        <v>obj_00592#0001</v>
+        <v>obj_00591#0001</v>
       </c>
       <c r="H18" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="I18" s="194">
         <f>_xll.qlRateHelperRate(G18,Trigger)</f>
-        <v>-5.8E-4</v>
+        <v>-8.3000000000000001E-4</v>
       </c>
       <c r="J18" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G18),"--")</f>
@@ -4420,21 +4420,21 @@
         <v>42404</v>
       </c>
       <c r="M18" s="196">
-        <v>1.00042444072081</v>
+        <v>1.0004244395961825</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
       </c>
       <c r="AE18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_005db#0239</v>
+        <v>obj_005db#0001</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_00594#0001</v>
+        <v>obj_00590#0001</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="I19" s="194">
         <f>_xll.qlRateHelperRate(G19,Trigger)</f>
-        <v>-6.2E-4</v>
+        <v>-8.4000000000000014E-4</v>
       </c>
       <c r="J19" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G19),"--")</f>
@@ -4457,7 +4457,7 @@
         <v>42433</v>
       </c>
       <c r="M19" s="196">
-        <v>1.0004973015338785</v>
+        <v>1.0004973015228458</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4688,13 +4688,13 @@
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>-2.2960218178154617E-4</v>
+        <v>-1.7639116576628863E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.0277230036618247E-3</v>
+        <v>1.0748017737217085E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -4742,19 +4742,19 @@
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.2573251854433708E-3</v>
+        <v>-1.2511929394879971E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.0273251854433709E-3</v>
+        <v>1.0211929394879971E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.0277230036618247E-3</v>
+        <v>1.0748017737217085E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-3.9781821845378228E-3</v>
+        <v>-0.53608834233711322</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-3.9781821845378228E-7</v>
+        <v>-5.3608834233711319E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
@@ -4802,19 +4802,19 @@
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-1.2719718741829897E-3</v>
+        <v>-1.2588630319405165E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.0219718741829897E-3</v>
+        <v>1.0088630319405165E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.042969329789082E-3</v>
+        <v>1.0669831841551381E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>-0.2099745560609238</v>
+        <v>-0.58120152214621601</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
@@ -4822,11 +4822,11 @@
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>-2.0997455606092379E-5</v>
+        <v>-5.8120152214621596E-5</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001169845965037</v>
+        <v>1.0001176173247566</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>0</v>
@@ -4867,19 +4867,19 @@
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-1.2957610981216259E-3</v>
+        <v>-1.2612348178785572E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.055761098121626E-3</v>
+        <v>1.0212348178785572E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.0601866414114952E-3</v>
+        <v>1.0665475719995228E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>-4.4255432898692146E-2</v>
+        <v>-0.45312754120965587</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -4887,11 +4887,11 @@
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>-4.4255432898692142E-6</v>
+        <v>-4.5312754120965587E-5</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002255124833961</v>
+        <v>1.000225006246154</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>0</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005d8#0241</v>
+        <v>obj_005d7#0001</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4936,19 +4936,19 @@
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-1.3113693209792813E-3</v>
+        <v>-1.2942381520336908E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.0813693209792813E-3</v>
+        <v>1.0642381520336909E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.0785749757806166E-3</v>
+        <v>1.0726172399178147E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>2.7943451986647654E-2</v>
+        <v>-8.3790878841237884E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -4956,11 +4956,11 @@
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>2.7943451986647654E-6</v>
+        <v>-8.3790878841237884E-6</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003328123674977</v>
+        <v>1.0003312442150001</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>0</v>
@@ -5005,19 +5005,19 @@
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-1.3438645858696854E-3</v>
+        <v>-1.341329589582515E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.1138645858696854E-3</v>
+        <v>1.1113295895825151E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.0985152759634901E-3</v>
+        <v>1.084547953637569E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>0.1534930990619533</v>
+        <v>0.26781635944946036</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -5025,11 +5025,11 @@
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>1.5349309906195329E-5</v>
+        <v>2.6781635944946036E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.000438651858331</v>
+        <v>1.0004359686552162</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>0</v>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="R8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>None</v>
+        <v>StationaryFunctionValue</v>
       </c>
       <c r="T8" s="55"/>
       <c r="X8" s="57"/>
@@ -5074,19 +5074,19 @@
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-1.3598891248493945E-3</v>
+        <v>-1.3886244920906829E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>1.1298891248493945E-3</v>
+        <v>1.1586244920906829E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.1205971382087861E-3</v>
+        <v>1.1024834639329821E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>9.2919866406084364E-2</v>
+        <v>0.56141028157700779</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -5094,11 +5094,11 @@
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>9.2919866406084364E-6</v>
+        <v>5.6141028157700784E-5</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.000553166796166</v>
+        <v>1.0005433394324059</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>0</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>3.3158870761789743E-5</v>
+        <v>4.4822723114327828E-5</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5143,19 +5143,19 @@
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-1.3761054609551238E-3</v>
+        <v>-1.3931503507862431E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>1.1661054609551239E-3</v>
+        <v>1.1831503507862432E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.1440223241745168E-3</v>
+        <v>1.1255525857401191E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>0.22083136780607021</v>
+        <v>0.5759776504612405</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
@@ -5163,11 +5163,11 @@
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>2.2083136780607021E-5</v>
+        <v>5.7597765046124051E-5</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.000668164003135</v>
+        <v>1.0006622129917457</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>0</v>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>5.08878576993021E-5</v>
+        <v>2.5690448646173707E-4</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -5209,19 +5209,19 @@
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-1.284439201906723E-3</v>
+        <v>-1.3209177569746364E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>1.0594392019065812E-3</v>
+        <v>1.0959177569744947E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.0348440767364373E-3</v>
+        <v>1.0700606043174126E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>0.24595125170143867</v>
+        <v>0.25857152657082078</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>2.4595125170143867E-5</v>
+        <v>2.5857152657082078E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
@@ -5268,19 +5268,19 @@
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-1.2829731530936963E-3</v>
+        <v>-1.2947751933249515E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>1.0079731530936711E-3</v>
+        <v>1.0197751933249263E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>1.049409032316716E-3</v>
+        <v>1.065970093214838E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-0.41435879223044886</v>
+        <v>-0.46194899889911772</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -5288,11 +5288,11 @@
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>-4.1435879223044886E-5</v>
+        <v>-4.6194899889911772E-5</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0001589939944568</v>
+        <v>1.0001603860556116</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5336,19 +5336,19 @@
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-1.3473669969547959E-3</v>
+        <v>-1.3338137385939114E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>1.1223669969546541E-3</v>
+        <v>1.1088137385937696E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>1.1068935681494366E-3</v>
+        <v>1.0908452970395362E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>0.15473428805217468</v>
+        <v>0.17968441554233433</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -5356,11 +5356,11 @@
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>1.5473428805217468E-5</v>
+        <v>1.7968441554233432E-5</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0004834578858706</v>
+        <v>1.0004878361157776</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.0277230036618247E-3</v>
+        <v>1.0748017737217085E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -5407,19 +5407,19 @@
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-1.3838733803360423E-3</v>
+        <v>-1.3853681831853682E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>1.208873380336006E-3</v>
+        <v>1.210368183185332E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>1.1767959359101441E-3</v>
+        <v>1.1629758213680334E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>0.32077444425861928</v>
+        <v>0.47392361817298612</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -5427,11 +5427,11 @@
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>3.2077444425861927E-5</v>
+        <v>4.7392361817298612E-5</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0008243230728202</v>
+        <v>1.0008252728363181</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>1.6728386552180522E-4</v>
+        <v>-1.3776510942293987E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -5476,19 +5476,19 @@
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-1.3291939923086523E-3</v>
+        <v>-1.3172776905824158E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>1.2041939923087216E-3</v>
+        <v>1.1922776905824851E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>1.2550818500080237E-3</v>
+        <v>1.2679039043909986E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>-0.50887857699302097</v>
+        <v>-0.75626213808513509</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -5496,11 +5496,11 @@
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>-5.08878576993021E-5</v>
+        <v>-7.5626213808513507E-5</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.001174587602655</v>
+        <v>1.0011758852254382</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>1.4767549868772864E-4</v>
+        <v>5.5137527136079668E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -5545,19 +5545,19 @@
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-1.2895930534578398E-3</v>
+        <v>-1.3570506723293353E-3</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>1.3645930534577761E-3</v>
+        <v>1.4320506723292715E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>1.344138038636681E-3</v>
+        <v>1.4009989823997046E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>0.20455014821095041</v>
+        <v>0.31051689929566856</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -5565,11 +5565,11 @@
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>2.0455014821095041E-5</v>
+        <v>3.1051689929566858E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0015364972690199</v>
+        <v>1.0015347230996803</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>-4.3388017344586324E-5</v>
+        <v>-1.5549063298229089E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -5614,19 +5614,19 @@
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-1.0720304471059094E-3</v>
+        <v>-1.0284758945213746E-3</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>1.3970304471059292E-3</v>
+        <v>1.3534758945213943E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>1.426945316907976E-3</v>
+        <v>1.5278486732612446E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>-0.29914869802046817</v>
+        <v>-1.7437277873985029</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -5634,11 +5634,11 @@
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>-2.991486980204682E-5</v>
+        <v>-1.7437277873985028E-4</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0018630850646488</v>
+        <v>1.0018783997046468</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5683,19 +5683,19 @@
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-7.9129317474272971E-4</v>
+        <v>-7.7890631892645241E-4</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>1.4662931747427108E-3</v>
+        <v>1.4539063189264335E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>1.4998980144165426E-3</v>
+        <v>1.6348958875333853E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>-0.33604839673831777</v>
+        <v>-1.8098956860695177</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>-3.360483967383178E-5</v>
+        <v>-1.8098956860695178E-4</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0021159066476037</v>
+        <v>1.0021204297274615</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005dd#0238</v>
+        <v>obj_005dc#0001</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -5748,19 +5748,19 @@
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>-4.3369062280070823E-4</v>
+        <v>-4.3937091721858306E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>1.5086906228007563E-3</v>
+        <v>1.5143709172186313E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>1.5764366675714344E-3</v>
+        <v>1.732026706403029E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>-0.67746044770678093</v>
+        <v>-2.1765578918439772</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
@@ -5768,11 +5768,11 @@
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>-6.7746044770678089E-5</v>
+        <v>-2.1765578918439771E-4</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0023289777862154</v>
+        <v>1.0023303648025959</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5806,19 +5806,19 @@
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>-3.4327361684172289E-5</v>
+        <v>-3.6224622721678704E-5</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>1.5593273616841708E-3</v>
+        <v>1.5612246227216773E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>1.6350521687819681E-3</v>
+        <v>1.7804395250646105E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>-0.75724807097797331</v>
+        <v>-2.1921490234293315</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
@@ -5826,11 +5826,11 @@
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>-7.5724807097797336E-5</v>
+        <v>-2.1921490234293314E-4</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0024393932927489</v>
+        <v>1.0024422245980396</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5864,19 +5864,19 @@
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>4.4841629349878787E-4</v>
+        <v>4.4958108931414387E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>1.6265837065011501E-3</v>
+        <v>1.6254189106857941E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>1.6775351731239509E-3</v>
+        <v>1.7737911960408761E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>-0.50951466622800767</v>
+        <v>-1.4837228535508193</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -5884,11 +5884,11 @@
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>-5.0951466622800763E-5</v>
+        <v>-1.4837228535508193E-4</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0024480917295198</v>
+        <v>1.0024514038246366</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5922,19 +5922,19 @@
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>1.0254257464131053E-3</v>
+        <v>1.0278243216958448E-3</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>1.6995742535869831E-3</v>
+        <v>1.6971756783042437E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>1.6998513950065683E-3</v>
+        <v>1.6976239575224946E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-2.7714141958515986E-3</v>
+        <v>-4.4827921825084903E-3</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
@@ -5942,11 +5942,11 @@
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-2.7714141958515986E-7</v>
+        <v>-4.4827921825084903E-7</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0023337229690221</v>
+        <v>1.0023367370265523</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>-2.0569278340598629E-4</v>
+        <v>-1.1703583778110982E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>-2.0463436884427769E-4</v>
+        <v>-1.1926385656771795E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>-2.1337748172082068E-4</v>
+        <v>-1.3174198394765618E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>-2.1208159080338921E-4</v>
+        <v>-1.3407538457370954E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>-2.2629335174491921E-4</v>
+        <v>-1.6063775199703565E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>-2.3675874757099076E-4</v>
+        <v>-1.7501026504576723E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="I31" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-2.4418495786295561E-4</v>
+        <v>-1.9115103165497386E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6382,13 +6382,13 @@
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>4.5185185716405487E-4</v>
+        <v>4.4276370713728372E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.7359884281170027E-3</v>
+        <v>1.7152723370223899E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -6434,19 +6434,19 @@
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-1.2841365709529479E-3</v>
+        <v>-1.2725086298851062E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.7641365709529478E-3</v>
+        <v>1.7525086298851062E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.7359884281170027E-3</v>
+        <v>1.7152723370223899E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>0.28148142835945089</v>
+        <v>0.37236292862716236</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>2.8148142835945087E-5</v>
+        <v>3.7236292862716236E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
@@ -6493,19 +6493,19 @@
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-1.3077021861736399E-3</v>
+        <v>-1.2998828967734956E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.7477021861736399E-3</v>
+        <v>1.7398828967734956E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.7598628071480477E-3</v>
+        <v>1.7500072636053314E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>-0.12160620974407738</v>
+        <v>-0.10124366831835768</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
@@ -6513,11 +6513,11 @@
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>-1.2160620974407737E-5</v>
+        <v>-1.0124366831835768E-5</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001169845965037</v>
+        <v>1.0001176173247566</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6556,19 +6556,19 @@
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-1.3277535924347222E-3</v>
+        <v>-1.3240237386903915E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.7877535924347224E-3</v>
+        <v>1.7840237386903914E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.7890592228517134E-3</v>
+        <v>1.7874494699467033E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>-1.3056304169910184E-2</v>
+        <v>-3.4257312563118397E-2</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -6576,11 +6576,11 @@
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>-1.3056304169910184E-6</v>
+        <v>-3.4257312563118394E-6</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002255124833961</v>
+        <v>1.000225006246154</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005d7#0245</v>
+        <v>obj_005d8#0001</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6623,19 +6623,19 @@
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-1.3431536462578889E-3</v>
+        <v>-1.3429229175063997E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.8331536462578889E-3</v>
+        <v>1.8329229175063997E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.8217004050827856E-3</v>
+        <v>1.8258422714941774E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.11453241175103353</v>
+        <v>7.0806460122222525E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>1.1453241175103353E-5</v>
+        <v>7.0806460122222522E-6</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003328123674977</v>
+        <v>1.0003312442150001</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6690,19 +6690,19 @@
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-1.3634312808359483E-3</v>
+        <v>-1.3700661125167679E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.8734312808359483E-3</v>
+        <v>1.8800661125167679E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.8579939977338179E-3</v>
+        <v>1.8659501711948549E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>0.1543728310213037</v>
+        <v>0.14115941321913086</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -6710,11 +6710,11 @@
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>1.543728310213037E-5</v>
+        <v>1.4115941321913086E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.000438651858331</v>
+        <v>1.0004359686552162</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="R8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>StationaryFunctionValue</v>
+        <v>None</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6757,19 +6757,19 @@
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-1.3695843508746994E-3</v>
+        <v>-1.3918355077205556E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>1.9095843508746993E-3</v>
+        <v>1.9318355077205555E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.8986386909871594E-3</v>
+        <v>1.9087682574142107E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>0.10945659887539845</v>
+        <v>0.23067250306344758</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -6777,11 +6777,11 @@
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>1.0945659887539845E-5</v>
+        <v>2.3067250306344758E-5</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.000553166796166</v>
+        <v>1.0005433394324059</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.229543561118117E-5</v>
+        <v>1.4437430404774237E-4</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6824,19 +6824,19 @@
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-1.3697681425458123E-3</v>
+        <v>-1.3817179551753414E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>1.9397681425458123E-3</v>
+        <v>1.9517179551753413E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.941761272931396E-3</v>
+        <v>1.9525417512645318E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-1.9931303855836701E-2</v>
+        <v>-8.2379608919050211E-3</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
@@ -6844,11 +6844,11 @@
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-1.9931303855836701E-6</v>
+        <v>-8.2379608919050211E-7</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.000668164003135</v>
+        <v>1.0006622129917457</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.810552517643089E-4</v>
+        <v>1.8478510550863983E-4</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6891,19 +6891,19 @@
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-1.3599747254323159E-3</v>
+        <v>-1.3634722515816632E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>1.969974725432316E-3</v>
+        <v>1.973472251581663E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.9837048134961574E-3</v>
+        <v>1.9939617570561628E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>-0.13730088063841367</v>
+        <v>-0.20489505474499767</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -6911,11 +6911,11 @@
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>-1.3730088063841368E-5</v>
+        <v>-2.0489505474499767E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007786154569542</v>
+        <v>1.0007752898366025</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6951,19 +6951,19 @@
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-1.3478315399967447E-3</v>
+        <v>-1.3500131959086269E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>2.0178315399967447E-3</v>
+        <v>2.0200131959086272E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.0295702884142799E-3</v>
+        <v>2.0383198550711283E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11738748417535264</v>
+        <v>-0.1830665916250111</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -6971,11 +6971,11 @@
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1738748417535264E-5</v>
+        <v>-1.8306659162501109E-5</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000897224968029</v>
+        <v>1.0008946668857617</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -7021,19 +7021,19 @@
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-1.333522798148738E-3</v>
+        <v>-1.3409606574083209E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>2.063522798148738E-3</v>
+        <v>2.0709606574083211E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.0743030035011148E-3</v>
+        <v>2.0809171038636103E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-0.10780205352376761</v>
+        <v>-9.9564464552891724E-2</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -7041,11 +7041,11 @@
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>-1.0780205352376761E-5</v>
+        <v>-9.9564464552891717E-6</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0010125387083852</v>
+        <v>1.0010108526468722</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.7359884281170027E-3</v>
+        <v>1.7152723370223899E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -7094,19 +7094,19 @@
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-1.3159442220908092E-3</v>
+        <v>-1.3352015883716555E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>2.1159442220908091E-3</v>
+        <v>2.1352015883716558E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.1231128126431276E-3</v>
+        <v>2.1269125532438608E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-7.1685905523185239E-2</v>
+        <v>8.2890351277950691E-2</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -7114,11 +7114,11 @@
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>-7.1685905523185232E-6</v>
+        <v>8.2890351277950698E-6</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0011401028598772</v>
+        <v>1.0011408336248027</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>2.4693383754595172E-4</v>
+        <v>3.9129064495227364E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -7166,19 +7166,19 @@
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-1.2820204787723356E-3</v>
+        <v>-1.267619209249999E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>2.1620204787723358E-3</v>
+        <v>2.1476192092499992E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.1635733014064465E-3</v>
+        <v>2.1648441340304868E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>-1.5528226341107211E-2</v>
+        <v>-0.17224924780487577</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -7186,11 +7186,11 @@
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>-1.5528226341107211E-6</v>
+        <v>-1.7224924780487576E-5</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0012464308034592</v>
+        <v>1.0012478676680545</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>4.1899539848107769E-4</v>
+        <v>2.1851309376883291E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -7238,19 +7238,19 @@
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-1.2524485579362161E-3</v>
+        <v>-1.2563517023481934E-3</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>2.232448557936216E-3</v>
+        <v>2.2363517023481936E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.2066670415111346E-3</v>
+        <v>2.2052483348060569E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>0.25781516425081413</v>
+        <v>0.3110336754213669</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -7258,11 +7258,11 @@
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>2.5781516425081412E-5</v>
+        <v>3.110336754213669E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0013616007976609</v>
+        <v>1.0013616993751251</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>-1.9660579460416811E-4</v>
+        <v>-1.2110066490147089E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -7310,19 +7310,19 @@
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-1.2100434254863929E-3</v>
+        <v>-1.221921126513079E-3</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>2.2700434254863929E-3</v>
+        <v>2.2819211265130788E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.248533369790172E-3</v>
+        <v>2.244744826005441E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>0.21510055696220831</v>
+        <v>0.3717630050763775</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -7330,11 +7330,11 @@
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>2.1510055696220831E-5</v>
+        <v>3.7176300507637747E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0014785246627789</v>
+        <v>1.0014769979699523</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7382,19 +7382,19 @@
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-1.1517121209933992E-3</v>
+        <v>-1.162102292209987E-3</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>2.3017121209933994E-3</v>
+        <v>2.312102292209987E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.2835198856384431E-3</v>
+        <v>2.2781930437939068E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>0.18192235354956218</v>
+        <v>0.33909248416080179</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>1.8192235354956218E-5</v>
+        <v>3.3909248416080177E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0015834575698386</v>
+        <v>1.0015820092581473</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005da#0243</v>
+        <v>obj_005da#0001</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7450,19 +7450,19 @@
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-1.07327756665822E-3</v>
+        <v>-1.0732738519602784E-3</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>2.3432775666582199E-3</v>
+        <v>2.3432738519602783E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.3171205584718393E-3</v>
+        <v>2.3110557469096355E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>0.2615700818638057</v>
+        <v>0.32218105050642754</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
@@ -7470,11 +7470,11 @@
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>2.615700818638057E-5</v>
+        <v>3.2218105050642754E-5</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0016952724884121</v>
+        <v>1.0016973958994539</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7511,19 +7511,19 @@
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-9.7450463231216048E-4</v>
+        <v>-9.5697850370794139E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>2.3545046323121604E-3</v>
+        <v>2.3369785037079412E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.3460887500418161E-3</v>
+        <v>2.3404941773376661E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>8.4158822703443548E-2</v>
+        <v>-3.5156736297248595E-2</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
@@ -7531,11 +7531,11 @@
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>8.4158822703443541E-6</v>
+        <v>-3.5156736297248595E-6</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0018066950733473</v>
+        <v>1.0018169298955846</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7572,19 +7572,19 @@
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-8.8755310528170915E-4</v>
+        <v>-9.0240447869917512E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>2.3675531052817092E-3</v>
+        <v>2.3824044786991752E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.3690310432449907E-3</v>
+        <v>2.3653033346732622E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>-1.4779379632814255E-2</v>
+        <v>0.17101144025912993</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -7592,11 +7592,11 @@
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>-1.4779379632814255E-6</v>
+        <v>1.7101144025912993E-5</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0019029326207776</v>
+        <v>1.0018969909801321</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7633,19 +7633,19 @@
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-7.6450531959301586E-4</v>
+        <v>-7.6462172680501748E-4</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>2.384505319593016E-3</v>
+        <v>2.3846217268050176E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.3876932226608938E-3</v>
+        <v>2.3879264006568669E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-3.1879030678778376E-2</v>
+        <v>-3.3046738518493005E-2</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-3.1879030678778376E-6</v>
+        <v>-3.3046738518493005E-6</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0020099998870156</v>
+        <v>1.002012120519042</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>4.6795697852708429E-4</v>
+        <v>4.0287569328611994E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>4.6808350997526053E-4</v>
+        <v>4.0505215684407043E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>4.5834244062411704E-4</v>
+        <v>3.9764547765410081E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>4.587353737330245E-4</v>
+        <v>4.0031191423420661E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>4.4339414739544552E-4</v>
+        <v>3.8076739418758986E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>4.3058687499026286E-4</v>
+        <v>3.8723780123774186E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>4.2246150087927003E-4</v>
+        <v>3.8997305248164463E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>4.2778488565454174E-4</v>
+        <v>4.0378445612225007E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="I33" s="290">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>4.2439538667912887E-4</v>
+        <v>4.2158585710700184E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="I34" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>4.2660256212839515E-4</v>
+        <v>4.1742054413159172E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8062,13 +8062,13 @@
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>2.9852980550164926E-3</v>
+        <v>2.982245601977733E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="239"/>
@@ -8115,23 +8115,23 @@
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-1.3262713326761817E-3</v>
+        <v>-1.3263680317009256E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>2.9962713326761817E-3</v>
+        <v>2.9963680317009254E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>2.9852980550164926E-3</v>
+        <v>2.982245601977733E-3</v>
       </c>
       <c r="K4" s="187">
         <f>L4*10000</f>
-        <v>0.10973277659689137</v>
+        <v>0.14122429723192453</v>
       </c>
       <c r="L4" s="278">
         <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>1.0973277659689137E-5</v>
+        <v>1.4122429723192453E-5</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -8174,23 +8174,23 @@
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-1.3335988783862236E-3</v>
+        <v>-1.3314858021797871E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>2.9835988783862236E-3</v>
+        <v>2.9814858021797869E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>3.0023072685016793E-3</v>
+        <v>3.0027540402908226E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>-0.18708390115455659</v>
+        <v>-0.21268238111035731</v>
       </c>
       <c r="L5" s="279">
         <f t="shared" si="1"/>
-        <v>-1.8708390115455657E-5</v>
+        <v>-2.1268238111035731E-5</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001169845965037</v>
+        <v>1.0001176173247566</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -8238,23 +8238,23 @@
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-1.3371112731759356E-3</v>
+        <v>-1.336236285901934E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="3"/>
-        <v>3.0271112731759357E-3</v>
+        <v>3.0262362859019339E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>3.0297515602609841E-3</v>
+        <v>3.0328441972222518E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>-2.6402870850483762E-2</v>
+        <v>-6.6079113203178746E-2</v>
       </c>
       <c r="L6" s="234">
         <f t="shared" si="1"/>
-        <v>-2.6402870850483762E-6</v>
+        <v>-6.607911320317874E-6</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002255124833961</v>
+        <v>1.000225006246154</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005d6#0241</v>
+        <v>obj_005d6#0001</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8306,23 +8306,23 @@
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-1.337856677477279E-3</v>
+        <v>-1.3414787346970071E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="3"/>
-        <v>3.067856677477279E-3</v>
+        <v>3.0714787346970071E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>3.0652035523393868E-3</v>
+        <v>3.0701168459203363E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>2.6531251378922663E-2</v>
+        <v>1.36188877667082E-2</v>
       </c>
       <c r="L7" s="234">
         <f t="shared" si="1"/>
-        <v>2.6531251378922663E-6</v>
+        <v>1.36188877667082E-6</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003328123674977</v>
+        <v>1.0003312442150001</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8374,23 +8374,23 @@
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-1.3395296261237159E-3</v>
+        <v>-1.3521645919270316E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="3"/>
-        <v>3.1195296261237156E-3</v>
+        <v>3.1321645919270315E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>3.1083884114331745E-3</v>
+        <v>3.1144653185634892E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>0.11141214690541054</v>
+        <v>0.17699273363542234</v>
       </c>
       <c r="L8" s="234">
         <f t="shared" si="1"/>
-        <v>1.1141214690541055E-5</v>
+        <v>1.7699273363542233E-5</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.000438651858331</v>
+        <v>1.0004359686552162</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8442,23 +8442,23 @@
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-1.3251169078211276E-3</v>
+        <v>-1.3289395524029857E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="3"/>
-        <v>3.1651169078211277E-3</v>
+        <v>3.1689395524029857E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>3.1600709452484794E-3</v>
+        <v>3.1667342525494046E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>5.0459625726482875E-2</v>
+        <v>2.2052998535811164E-2</v>
       </c>
       <c r="L9" s="234">
         <f t="shared" si="1"/>
-        <v>5.0459625726482875E-6</v>
+        <v>2.2052998535811164E-6</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.000553166796166</v>
+        <v>1.0005433394324059</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.7976538984471765E-4</v>
+        <v>1.8116226490148734E-4</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8510,23 +8510,23 @@
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-1.31003237365578E-3</v>
+        <v>-1.3179099178973728E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="3"/>
-        <v>3.2200323736557802E-3</v>
+        <v>3.2279099178973729E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.2178323679047422E-3</v>
+        <v>3.2245322830530038E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>2.2000057510380457E-2</v>
+        <v>3.3776348443690686E-2</v>
       </c>
       <c r="L10" s="234">
         <f t="shared" si="1"/>
-        <v>2.2000057510380457E-6</v>
+        <v>3.3776348443690686E-6</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.000668164003135</v>
+        <v>1.0006622129917457</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.8708390115455657E-5</v>
+        <v>4.2383968002825557E-4</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8578,23 +8578,23 @@
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-1.28520249501138E-3</v>
+        <v>-1.2928506514844238E-3</v>
       </c>
       <c r="I11" s="265">
         <f t="shared" si="3"/>
-        <v>3.26520249501138E-3</v>
+        <v>3.2728506514844236E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.2763899729996047E-3</v>
+        <v>3.2826947333415039E-3</v>
       </c>
       <c r="K11" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11187477988224698</v>
+        <v>-9.844081857080314E-2</v>
       </c>
       <c r="L11" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1187477988224698E-5</v>
+        <v>-9.844081857080314E-6</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="N11" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007786154569542</v>
+        <v>1.0007752898366025</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8639,23 +8639,23 @@
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-1.2496470217275573E-3</v>
+        <v>-1.2559174984759158E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="3"/>
-        <v>3.3396470217275571E-3</v>
+        <v>3.3459174984759154E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.3427725138904757E-3</v>
+        <v>3.348268895038824E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-3.125492162918582E-2</v>
+        <v>-2.351396562908642E-2</v>
       </c>
       <c r="L12" s="234">
         <f t="shared" si="1"/>
-        <v>-3.125492162918582E-6</v>
+        <v>-2.351396562908642E-6</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000897224968029</v>
+        <v>1.0008946668857617</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8709,23 +8709,23 @@
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-1.2041069282526886E-3</v>
+        <v>-1.2078525603033481E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="3"/>
-        <v>3.4141069282526888E-3</v>
+        <v>3.4178525603033483E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.4097191710220449E-3</v>
+        <v>3.4141245773111882E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>4.3877572306438677E-2</v>
+        <v>3.7279829921601365E-2</v>
       </c>
       <c r="L13" s="234">
         <f t="shared" si="1"/>
-        <v>4.3877572306438677E-6</v>
+        <v>3.7279829921601365E-6</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0010125387083852</v>
+        <v>1.0010108526468722</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>2.9852980550164926E-3</v>
+        <v>2.982245601977733E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -8782,23 +8782,23 @@
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-1.1436917896961067E-3</v>
+        <v>-1.1442997436924031E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>3.4836917896961068E-3</v>
+        <v>3.4842997436924034E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.4852239132574119E-3</v>
+        <v>3.4881629091390921E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-1.5321235613051203E-2</v>
+        <v>-3.8631654466886843E-2</v>
       </c>
       <c r="L14" s="234">
         <f t="shared" si="1"/>
-        <v>-1.5321235613051203E-6</v>
+        <v>-3.8631654466886843E-6</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0011401028598772</v>
+        <v>1.0011408336248027</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8815,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>1.34493168758163E-4</v>
+        <v>1.8102026794153609E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -8854,23 +8854,23 @@
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-1.0861194940847939E-3</v>
+        <v>-1.0862227978101486E-3</v>
       </c>
       <c r="I15" s="265">
         <f>G15-H15</f>
-        <v>3.5461194940847938E-3</v>
+        <v>3.5462227978101486E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.5498569312444102E-3</v>
+        <v>3.5513999637156574E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>-3.737437159616417E-2</v>
+        <v>-5.1771659055088216E-2</v>
       </c>
       <c r="L15" s="234">
         <f t="shared" si="1"/>
-        <v>-3.737437159616417E-6</v>
+        <v>-5.1771659055088216E-6</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0012464308034592</v>
+        <v>1.0012478676680545</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8887,7 +8887,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>8.0004169337219867E-4</v>
+        <v>7.3554362957564375E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -8926,23 +8926,23 @@
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-1.015590145173822E-3</v>
+        <v>-1.0175810394157259E-3</v>
       </c>
       <c r="I16" s="265">
         <f>G16-H16</f>
-        <v>3.6255901451738219E-3</v>
+        <v>3.6275810394157258E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.6209815553923958E-3</v>
+        <v>3.6208891853619389E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>4.6085897814260833E-2</v>
+        <v>6.6918540537869692E-2</v>
       </c>
       <c r="L16" s="234">
         <f t="shared" si="1"/>
-        <v>4.6085897814260833E-6</v>
+        <v>6.6918540537869685E-6</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0013616007976609</v>
+        <v>1.0013616993751251</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8959,7 +8959,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>-3.0112782121588874E-4</v>
+        <v>-2.801432954435802E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -8996,23 +8996,23 @@
       </c>
       <c r="H17" s="65">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>5.0542171078834196E-4</v>
+        <v>5.0542057992966551E-4</v>
       </c>
       <c r="I17" s="260">
         <f>G17-H17</f>
-        <v>4.0445782892116573E-3</v>
+        <v>4.044579420070334E-3</v>
       </c>
       <c r="J17" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>4.0446569954069285E-3</v>
+        <v>4.0446536987267835E-3</v>
       </c>
       <c r="K17" s="189">
         <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>-7.8706195271241453E-4</v>
+        <v>-7.4278656449558444E-4</v>
       </c>
       <c r="L17" s="235">
         <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>-7.8706195271241453E-8</v>
+        <v>-7.4278656449558444E-8</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="N17" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0023937612068132</v>
+        <v>1.0023958853532562</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005dc#0239</v>
+        <v>obj_005dd#0001</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="I20" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>1.8117729168931618E-3</v>
+        <v>1.7746419001518632E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="I21" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>1.8051836752151574E-3</v>
+        <v>1.7690368578587063E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="I22" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>1.7877603180238566E-3</v>
+        <v>1.7527403707560752E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I23" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>1.7806353066391572E-3</v>
+        <v>1.7467194064137357E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="I24" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>1.7548348688515901E-3</v>
+        <v>1.7151090341704207E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="I25" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>1.7116850531168966E-3</v>
+        <v>1.6867286557127827E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.6771221016362668E-3</v>
+        <v>1.6593014703074037E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.6588058446318351E-3</v>
+        <v>1.6463306427426131E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.633830423033967E-3</v>
+        <v>1.6398699522782658E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="I29" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.6172537696317712E-3</v>
+        <v>1.6147554144898741E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="I33" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="I34" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="I35" s="291">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9516,15 +9516,15 @@
       </c>
       <c r="E3" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-1.3262713326761817E-3</v>
+        <v>-1.3263680317009256E-3</v>
       </c>
       <c r="F3" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>2.9400864835965115E-3</v>
+        <v>2.9367353184576398E-3</v>
       </c>
       <c r="G3" s="75">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.6138151509203298E-3</v>
+        <v>1.6103672867567142E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9548,15 +9548,15 @@
       </c>
       <c r="E4" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-1.3335988783862236E-3</v>
+        <v>-1.3314858021797871E-3</v>
       </c>
       <c r="F4" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>2.9835988783862236E-3</v>
+        <v>2.9814858021797869E-3</v>
       </c>
       <c r="G4" s="79">
         <f t="shared" si="0"/>
-        <v>1.65E-3</v>
+        <v>1.6499999999999998E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9580,15 +9580,15 @@
       </c>
       <c r="E5" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-1.3371112731759356E-3</v>
+        <v>-1.336236285901934E-3</v>
       </c>
       <c r="F5" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>3.0271112731759357E-3</v>
+        <v>3.0262362859019339E-3</v>
       </c>
       <c r="G5" s="79">
         <f t="shared" si="0"/>
-        <v>1.6900000000000001E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9612,11 +9612,11 @@
       </c>
       <c r="E6" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-1.337856677477279E-3</v>
+        <v>-1.3414787346970071E-3</v>
       </c>
       <c r="F6" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>3.067856677477279E-3</v>
+        <v>3.0714787346970071E-3</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="0"/>
@@ -9644,15 +9644,15 @@
       </c>
       <c r="E7" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-1.3395296261237159E-3</v>
+        <v>-1.3521645919270316E-3</v>
       </c>
       <c r="F7" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>3.1195296261237156E-3</v>
+        <v>3.1321645919270315E-3</v>
       </c>
       <c r="G7" s="79">
         <f t="shared" si="0"/>
-        <v>1.7799999999999997E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9676,11 +9676,11 @@
       </c>
       <c r="E8" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-1.3251169078211276E-3</v>
+        <v>-1.3289395524029857E-3</v>
       </c>
       <c r="F8" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>3.1651169078211277E-3</v>
+        <v>3.1689395524029857E-3</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
@@ -9708,15 +9708,15 @@
       </c>
       <c r="E9" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-1.31003237365578E-3</v>
+        <v>-1.3179099178973728E-3</v>
       </c>
       <c r="F9" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>3.2200323736557802E-3</v>
+        <v>3.2279099178973729E-3</v>
       </c>
       <c r="G9" s="79">
         <f t="shared" si="0"/>
-        <v>1.9100000000000002E-3</v>
+        <v>1.91E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9740,11 +9740,11 @@
       </c>
       <c r="E10" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-1.28520249501138E-3</v>
+        <v>-1.2928506514844238E-3</v>
       </c>
       <c r="F10" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.26520249501138E-3</v>
+        <v>3.2728506514844236E-3</v>
       </c>
       <c r="G10" s="79">
         <f t="shared" si="0"/>
@@ -9773,11 +9773,11 @@
       </c>
       <c r="E11" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-1.2496470217275573E-3</v>
+        <v>-1.2559174984759158E-3</v>
       </c>
       <c r="F11" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.3396470217275571E-3</v>
+        <v>3.3459174984759154E-3</v>
       </c>
       <c r="G11" s="79">
         <f t="shared" si="0"/>
@@ -9806,11 +9806,11 @@
       </c>
       <c r="E12" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-1.2041069282526886E-3</v>
+        <v>-1.2078525603033481E-3</v>
       </c>
       <c r="F12" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.4141069282526888E-3</v>
+        <v>3.4178525603033483E-3</v>
       </c>
       <c r="G12" s="79">
         <f t="shared" si="0"/>
@@ -9839,11 +9839,11 @@
       </c>
       <c r="E13" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-1.1436917896961067E-3</v>
+        <v>-1.1442997436924031E-3</v>
       </c>
       <c r="F13" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.4836917896961068E-3</v>
+        <v>3.4842997436924034E-3</v>
       </c>
       <c r="G13" s="79">
         <f t="shared" si="0"/>
@@ -9872,11 +9872,11 @@
       </c>
       <c r="E14" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-1.0861194940847939E-3</v>
+        <v>-1.0862227978101486E-3</v>
       </c>
       <c r="F14" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.5461194940847938E-3</v>
+        <v>3.5462227978101486E-3</v>
       </c>
       <c r="G14" s="83">
         <f t="shared" si="0"/>
@@ -9905,11 +9905,11 @@
       </c>
       <c r="E15" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-1.015590145173822E-3</v>
+        <v>-1.0175810394157259E-3</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.6255901451738219E-3</v>
+        <v>3.6275810394157258E-3</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="0"/>
@@ -9938,15 +9938,15 @@
       </c>
       <c r="E16" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-9.3383932175258909E-4</v>
+        <v>-9.3794127022487673E-4</v>
       </c>
       <c r="F16" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.7011925811985587E-3</v>
+        <v>3.7051702120917702E-3</v>
       </c>
       <c r="G16" s="79">
         <f t="shared" si="0"/>
-        <v>2.7673532594459697E-3</v>
+        <v>2.7672289418668936E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9971,15 +9971,15 @@
       </c>
       <c r="E17" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-8.5050078794780663E-4</v>
+        <v>-8.5485004812392259E-4</v>
       </c>
       <c r="F17" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.7604442849914163E-3</v>
+        <v>3.7657073604409046E-3</v>
       </c>
       <c r="G17" s="79">
         <f t="shared" si="0"/>
-        <v>2.9099434970436097E-3</v>
+        <v>2.9108573123169819E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -10004,15 +10004,15 @@
       </c>
       <c r="E18" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-7.4627362023661715E-4</v>
+        <v>-7.473303690476898E-4</v>
       </c>
       <c r="F18" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.8149370527017896E-3</v>
+        <v>3.8210824156184198E-3</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>3.0686634324651723E-3</v>
+        <v>3.0737520465707298E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -10037,15 +10037,15 @@
       </c>
       <c r="E19" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>-6.3742077292022823E-4</v>
+        <v>-6.3059461072582869E-4</v>
       </c>
       <c r="F19" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.8612037281639108E-3</v>
+        <v>3.8677739967004883E-3</v>
       </c>
       <c r="G19" s="79">
         <f t="shared" si="0"/>
-        <v>3.2237829552436825E-3</v>
+        <v>3.2371793859746595E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -10070,15 +10070,15 @@
       </c>
       <c r="E20" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>-5.2673377644002256E-4</v>
+        <v>-5.3582887130750869E-4</v>
       </c>
       <c r="F20" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.8990254175229485E-3</v>
+        <v>3.9056203159435403E-3</v>
       </c>
       <c r="G20" s="79">
         <f t="shared" si="0"/>
-        <v>3.3722916410829258E-3</v>
+        <v>3.3697914446360316E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10103,15 +10103,15 @@
       </c>
       <c r="E21" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>-3.8812704056531282E-4</v>
+        <v>-3.8920967698637333E-4</v>
       </c>
       <c r="F21" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.9337520309217985E-3</v>
+        <v>3.9399916381034619E-3</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" si="0"/>
-        <v>3.5456249903564859E-3</v>
+        <v>3.5507819611170885E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10136,15 +10136,15 @@
       </c>
       <c r="E22" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>-2.6606833129954623E-4</v>
+        <v>-2.6469346986673534E-4</v>
       </c>
       <c r="F22" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>3.9583792859891262E-3</v>
+        <v>3.9640484484857828E-3</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="0"/>
-        <v>3.6923109546895799E-3</v>
+        <v>3.6993549786190475E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10169,15 +10169,15 @@
       </c>
       <c r="E23" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>-1.3467906664190032E-4</v>
+        <v>-1.3380369012246459E-4</v>
       </c>
       <c r="F23" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>3.9799815665368613E-3</v>
+        <v>3.9848428147712962E-3</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="0"/>
-        <v>3.845302499894961E-3</v>
+        <v>3.8510391246488317E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10202,15 +10202,15 @@
       </c>
       <c r="E24" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>8.0500679282010491E-6</v>
+        <v>7.4526138776943695E-6</v>
       </c>
       <c r="F24" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>3.9989525979668905E-3</v>
+        <v>4.0027903540263829E-3</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="0"/>
-        <v>4.0070026658950916E-3</v>
+        <v>4.010242967904077E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10235,15 +10235,15 @@
       </c>
       <c r="E25" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>1.6940497338524389E-4</v>
+        <v>1.6826970789989872E-4</v>
       </c>
       <c r="F25" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>4.0163475134004558E-3</v>
+        <v>4.0189355892944791E-3</v>
       </c>
       <c r="G25" s="79">
         <f t="shared" si="0"/>
-        <v>4.1857524867856995E-3</v>
+        <v>4.1872052971943779E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10268,15 +10268,15 @@
       </c>
       <c r="E26" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>3.2421565527704252E-4</v>
+        <v>3.2345593730412765E-4</v>
       </c>
       <c r="F26" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>4.0304199092991667E-3</v>
+        <v>4.0317813991672677E-3</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="0"/>
-        <v>4.3546355645762095E-3</v>
+        <v>4.3552373364713955E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10301,11 +10301,11 @@
       </c>
       <c r="E27" s="341">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>5.0542171078834196E-4</v>
+        <v>5.0542057992966551E-4</v>
       </c>
       <c r="F27" s="342">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>4.0445782892116573E-3</v>
+        <v>4.044579420070334E-3</v>
       </c>
       <c r="G27" s="341">
         <f t="shared" si="0"/>
@@ -10349,8 +10349,8 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="N2" s="102">
         <f>_xll.ohTrigger(M3:M7)</f>
-        <v>269</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="H3" s="139">
         <f>'1MSynthDepo'!V11</f>
-        <v>-6.5251058204651713E-4</v>
+        <v>-6.1397711267119348E-4</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
@@ -10458,12 +10458,12 @@
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="120">
-        <f t="array" ref="L3:L63">QuoteLive</f>
+        <f t="array" ref="L3:L63">QuoteStatic</f>
         <v>-6.5251058204651713E-4</v>
       </c>
-      <c r="M3" s="121">
+      <c r="M3" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N3" s="104"/>
     </row>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="H4" s="139">
         <f>'1MSynthDepo'!V12</f>
-        <v>-6.7529624861149633E-4</v>
+        <v>-6.4516860536846716E-4</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
@@ -10505,9 +10505,9 @@
       <c r="L4" s="120">
         <v>-6.7529624861149633E-4</v>
       </c>
-      <c r="M4" s="121">
+      <c r="M4" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N4" s="104"/>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="H5" s="139">
         <f>'1MSynthDepo'!V13</f>
-        <v>-7.068308441948723E-4</v>
+        <v>-6.8501230352069342E-4</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
@@ -10546,9 +10546,9 @@
       <c r="L5" s="120">
         <v>-7.068308441948723E-4</v>
       </c>
-      <c r="M5" s="121">
+      <c r="M5" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N5" s="104"/>
     </row>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="H6" s="139">
         <f>'1MSynthDepo'!V14</f>
-        <v>-7.2346852341301617E-4</v>
+        <v>-7.0848103908513081E-4</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
@@ -10587,9 +10587,9 @@
       <c r="L6" s="122">
         <v>-7.2346852341301617E-4</v>
       </c>
-      <c r="M6" s="123">
+      <c r="M6" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N6" s="104"/>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="H7" s="142">
         <f>'1MSynthDepo'!V15</f>
-        <v>-7.5602720849914584E-4</v>
+        <v>-7.5586168698523143E-4</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
@@ -10628,9 +10628,9 @@
       <c r="L7" s="124">
         <v>-7.5602720849914584E-4</v>
       </c>
-      <c r="M7" s="125">
+      <c r="M7" s="125" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N7" s="107"/>
     </row>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="H8" s="144">
         <f>'3MSynthDepo'!I25</f>
-        <v>-2.0569278340598629E-4</v>
+        <v>-1.1703583778110982E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
@@ -10666,13 +10666,13 @@
       <c r="L8" s="120">
         <v>-2.0569278340598629E-4</v>
       </c>
-      <c r="M8" s="121">
+      <c r="M8" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N8" s="108">
         <f>_xll.ohTrigger(M8:M14)</f>
-        <v>269</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="H9" s="139">
         <f>'3MSynthDepo'!I26</f>
-        <v>-2.0463436884427769E-4</v>
+        <v>-1.1926385656771795E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
@@ -10708,9 +10708,9 @@
       <c r="L9" s="120">
         <v>-2.0463436884427769E-4</v>
       </c>
-      <c r="M9" s="121">
+      <c r="M9" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="H10" s="139">
         <f>'3MSynthDepo'!I27</f>
-        <v>-2.1337748172082068E-4</v>
+        <v>-1.3174198394765618E-4</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
@@ -10744,9 +10744,9 @@
       <c r="L10" s="120">
         <v>-2.1337748172082068E-4</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="H11" s="147">
         <f>'3MSynthDepo'!I28</f>
-        <v>-2.1208159080338921E-4</v>
+        <v>-1.3407538457370954E-4</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
@@ -10780,9 +10780,9 @@
       <c r="L11" s="122">
         <v>-2.1208159080338921E-4</v>
       </c>
-      <c r="M11" s="123">
+      <c r="M11" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="H12" s="139">
         <f>'3MSynthDepo'!I29</f>
-        <v>-2.2629335174491921E-4</v>
+        <v>-1.6063775199703565E-4</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
@@ -10816,9 +10816,9 @@
       <c r="L12" s="120">
         <v>-2.2629335174491921E-4</v>
       </c>
-      <c r="M12" s="121">
+      <c r="M12" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="H13" s="139">
         <f>'3MSynthDepo'!I30</f>
-        <v>-2.3675874757099076E-4</v>
+        <v>-1.7501026504576723E-4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
@@ -10852,9 +10852,9 @@
       <c r="L13" s="120">
         <v>-2.3675874757099076E-4</v>
       </c>
-      <c r="M13" s="121">
+      <c r="M13" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="H14" s="147">
         <f>'3MSynthDepo'!I31</f>
-        <v>-2.4418495786295561E-4</v>
+        <v>-1.9115103165497386E-4</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
@@ -10888,9 +10888,9 @@
       <c r="L14" s="122">
         <v>-2.4418495786295561E-4</v>
       </c>
-      <c r="M14" s="123">
+      <c r="M14" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="H15" s="144">
         <f>'6MSynthDepo'!I25</f>
-        <v>4.6795697852708429E-4</v>
+        <v>4.0287569328611994E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
@@ -10929,13 +10929,13 @@
       <c r="L15" s="120">
         <v>4.6795697852708429E-4</v>
       </c>
-      <c r="M15" s="121">
+      <c r="M15" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N15" s="110">
         <f>_xll.ohTrigger(M15:M24)</f>
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="H16" s="139">
         <f>'6MSynthDepo'!I26</f>
-        <v>4.6808350997526053E-4</v>
+        <v>4.0505215684407043E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
@@ -10974,9 +10974,9 @@
       <c r="L16" s="120">
         <v>4.6808350997526053E-4</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="H17" s="139">
         <f>'6MSynthDepo'!I27</f>
-        <v>4.5834244062411704E-4</v>
+        <v>3.9764547765410081E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
@@ -11013,9 +11013,9 @@
       <c r="L17" s="120">
         <v>4.5834244062411704E-4</v>
       </c>
-      <c r="M17" s="121">
+      <c r="M17" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="H18" s="139">
         <f>'6MSynthDepo'!I28</f>
-        <v>4.587353737330245E-4</v>
+        <v>4.0031191423420661E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
@@ -11052,9 +11052,9 @@
       <c r="L18" s="120">
         <v>4.587353737330245E-4</v>
       </c>
-      <c r="M18" s="121">
+      <c r="M18" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="H19" s="144">
         <f>'6MSynthDepo'!I29</f>
-        <v>4.4339414739544552E-4</v>
+        <v>3.8076739418758986E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
@@ -11091,9 +11091,9 @@
       <c r="L19" s="126">
         <v>4.4339414739544552E-4</v>
       </c>
-      <c r="M19" s="127">
+      <c r="M19" s="127" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="H20" s="139">
         <f>'6MSynthDepo'!I30</f>
-        <v>4.3058687499026286E-4</v>
+        <v>3.8723780123774186E-4</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
@@ -11130,9 +11130,9 @@
       <c r="L20" s="120">
         <v>4.3058687499026286E-4</v>
       </c>
-      <c r="M20" s="121">
+      <c r="M20" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="H21" s="139">
         <f>'6MSynthDepo'!I31</f>
-        <v>4.2246150087927003E-4</v>
+        <v>3.8997305248164463E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
@@ -11169,9 +11169,9 @@
       <c r="L21" s="120">
         <v>4.2246150087927003E-4</v>
       </c>
-      <c r="M21" s="121">
+      <c r="M21" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="H22" s="139">
         <f>'6MSynthDepo'!I32</f>
-        <v>4.2778488565454174E-4</v>
+        <v>4.0378445612225007E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
@@ -11208,9 +11208,9 @@
       <c r="L22" s="120">
         <v>4.2778488565454174E-4</v>
       </c>
-      <c r="M22" s="121">
+      <c r="M22" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="H23" s="139">
         <f>'6MSynthDepo'!I33</f>
-        <v>4.2439538667912887E-4</v>
+        <v>4.2158585710700184E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
@@ -11247,9 +11247,9 @@
       <c r="L23" s="120">
         <v>4.2439538667912887E-4</v>
       </c>
-      <c r="M23" s="121">
+      <c r="M23" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11276,7 +11276,7 @@
       </c>
       <c r="H24" s="147">
         <f>'6MSynthDepo'!I34</f>
-        <v>4.2660256212839515E-4</v>
+        <v>4.1742054413159172E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
@@ -11284,11 +11284,11 @@
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="122">
-        <v>4.2660256212839515E-4</v>
-      </c>
-      <c r="M24" s="123">
+        <v>4.2660256202847508E-4</v>
+      </c>
+      <c r="M24" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="H25" s="144">
         <f>'1YSynthDepo'!I20</f>
-        <v>1.8117729168931618E-3</v>
+        <v>1.7746419001518632E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
@@ -11327,13 +11327,13 @@
       <c r="L25" s="120">
         <v>1.8117729168931618E-3</v>
       </c>
-      <c r="M25" s="121">
+      <c r="M25" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N25" s="110">
         <f>_xll.ohTrigger(M25:M40)</f>
-        <v>269</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="H26" s="139">
         <f>'1YSynthDepo'!I21</f>
-        <v>1.8051836752151574E-3</v>
+        <v>1.7690368578587063E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
@@ -11372,9 +11372,9 @@
       <c r="L26" s="120">
         <v>1.8051836752151574E-3</v>
       </c>
-      <c r="M26" s="121">
+      <c r="M26" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="H27" s="139">
         <f>'1YSynthDepo'!I22</f>
-        <v>1.7877603180238566E-3</v>
+        <v>1.7527403707560752E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
@@ -11411,9 +11411,9 @@
       <c r="L27" s="120">
         <v>1.7877603180238566E-3</v>
       </c>
-      <c r="M27" s="121">
+      <c r="M27" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="H28" s="139">
         <f>'1YSynthDepo'!I23</f>
-        <v>1.7806353066391572E-3</v>
+        <v>1.7467194064137357E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
@@ -11450,9 +11450,9 @@
       <c r="L28" s="120">
         <v>1.7806353066391572E-3</v>
       </c>
-      <c r="M28" s="121">
+      <c r="M28" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="H29" s="147">
         <f>'1YSynthDepo'!I24</f>
-        <v>1.7548348688515901E-3</v>
+        <v>1.7151090341704207E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
@@ -11489,9 +11489,9 @@
       <c r="L29" s="122">
         <v>1.7548348688515901E-3</v>
       </c>
-      <c r="M29" s="123">
+      <c r="M29" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="H30" s="139">
         <f>'1YSynthDepo'!I25</f>
-        <v>1.7116850531168966E-3</v>
+        <v>1.6867286557127827E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
@@ -11528,9 +11528,9 @@
       <c r="L30" s="120">
         <v>1.7116850531168966E-3</v>
       </c>
-      <c r="M30" s="121">
+      <c r="M30" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="H31" s="139">
         <f>'1YSynthDepo'!I26</f>
-        <v>1.6771221016362668E-3</v>
+        <v>1.6593014703074037E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
@@ -11567,9 +11567,9 @@
       <c r="L31" s="120">
         <v>1.6771221016362668E-3</v>
       </c>
-      <c r="M31" s="121">
+      <c r="M31" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="H32" s="139">
         <f>'1YSynthDepo'!I27</f>
-        <v>1.6588058446318351E-3</v>
+        <v>1.6463306427426131E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
@@ -11606,9 +11606,9 @@
       <c r="L32" s="120">
         <v>1.6588058446318351E-3</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="H33" s="139">
         <f>'1YSynthDepo'!I28</f>
-        <v>1.633830423033967E-3</v>
+        <v>1.6398699522782658E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
@@ -11645,9 +11645,9 @@
       <c r="L33" s="120">
         <v>1.633830423033967E-3</v>
       </c>
-      <c r="M33" s="121">
+      <c r="M33" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H34" s="139">
         <f>'1YSynthDepo'!I29</f>
-        <v>1.6172537696317712E-3</v>
+        <v>1.6147554144898741E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
@@ -11684,9 +11684,9 @@
       <c r="L34" s="120">
         <v>1.6172537696317712E-3</v>
       </c>
-      <c r="M34" s="121">
+      <c r="M34" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="H35" s="139">
         <f>'1YSynthDepo'!I30</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
@@ -11723,9 +11723,9 @@
       <c r="L35" s="120">
         <v>1.6590267223403109E-3</v>
       </c>
-      <c r="M35" s="121">
+      <c r="M35" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H36" s="139">
         <f>'1YSynthDepo'!I31</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
@@ -11762,9 +11762,9 @@
       <c r="L36" s="120">
         <v>1.6590267223403109E-3</v>
       </c>
-      <c r="M36" s="121">
+      <c r="M36" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H37" s="139">
         <f>'1YSynthDepo'!I32</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
@@ -11801,9 +11801,9 @@
       <c r="L37" s="120">
         <v>1.6590267223403109E-3</v>
       </c>
-      <c r="M37" s="121">
+      <c r="M37" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="H38" s="139">
         <f>'1YSynthDepo'!I33</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
@@ -11840,9 +11840,9 @@
       <c r="L38" s="120">
         <v>1.6590267223403109E-3</v>
       </c>
-      <c r="M38" s="121">
+      <c r="M38" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11869,7 +11869,7 @@
       </c>
       <c r="H39" s="139">
         <f>'1YSynthDepo'!I34</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
@@ -11879,9 +11879,9 @@
       <c r="L39" s="120">
         <v>1.6590267223403109E-3</v>
       </c>
-      <c r="M39" s="121">
+      <c r="M39" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="H40" s="147">
         <f>'1YSynthDepo'!I35</f>
-        <v>1.6590267223403109E-3</v>
+        <v>1.6558775702768074E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
@@ -11918,9 +11918,9 @@
       <c r="L40" s="122">
         <v>1.6590267223403109E-3</v>
       </c>
-      <c r="M40" s="123">
+      <c r="M40" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="H41" s="152">
         <f>SynthFra!G4</f>
-        <v>1.65E-3</v>
+        <v>1.6499999999999998E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
@@ -11963,13 +11963,13 @@
       <c r="L41" s="128">
         <v>1.65E-3</v>
       </c>
-      <c r="M41" s="129">
+      <c r="M41" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N41" s="110">
         <f>_xll.ohTrigger(M41:M63)</f>
-        <v>269</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="H42" s="154">
         <f>SynthFra!G5</f>
-        <v>1.6900000000000001E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
@@ -12011,9 +12011,9 @@
       <c r="L42" s="128">
         <v>1.6900000000000001E-3</v>
       </c>
-      <c r="M42" s="129">
+      <c r="M42" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N42" s="111"/>
     </row>
@@ -12056,9 +12056,9 @@
       <c r="L43" s="128">
         <v>1.73E-3</v>
       </c>
-      <c r="M43" s="129">
+      <c r="M43" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N43" s="111"/>
     </row>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="H44" s="154">
         <f>SynthFra!G7</f>
-        <v>1.7799999999999997E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
@@ -12101,9 +12101,9 @@
       <c r="L44" s="128">
         <v>1.7799999999999997E-3</v>
       </c>
-      <c r="M44" s="129">
+      <c r="M44" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N44" s="111"/>
     </row>
@@ -12146,9 +12146,9 @@
       <c r="L45" s="128">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="M45" s="129">
+      <c r="M45" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N45" s="111"/>
     </row>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H46" s="154">
         <f>SynthFra!G9</f>
-        <v>1.9100000000000002E-3</v>
+        <v>1.91E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
@@ -12191,9 +12191,9 @@
       <c r="L46" s="128">
         <v>1.9100000000000002E-3</v>
       </c>
-      <c r="M46" s="129">
+      <c r="M46" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N46" s="111"/>
     </row>
@@ -12236,9 +12236,9 @@
       <c r="L47" s="128">
         <v>1.98E-3</v>
       </c>
-      <c r="M47" s="129">
+      <c r="M47" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N47" s="111"/>
     </row>
@@ -12281,9 +12281,9 @@
       <c r="L48" s="128">
         <v>2.0899999999999998E-3</v>
       </c>
-      <c r="M48" s="129">
+      <c r="M48" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N48" s="111"/>
     </row>
@@ -12326,9 +12326,9 @@
       <c r="L49" s="128">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="M49" s="129">
+      <c r="M49" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N49" s="111"/>
     </row>
@@ -12371,9 +12371,9 @@
       <c r="L50" s="128">
         <v>2.3400000000000001E-3</v>
       </c>
-      <c r="M50" s="129">
+      <c r="M50" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N50" s="111"/>
     </row>
@@ -12416,9 +12416,9 @@
       <c r="L51" s="128">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="M51" s="129">
+      <c r="M51" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N51" s="111"/>
     </row>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="H52" s="154">
         <f>SynthFra!G16</f>
-        <v>2.7673532594459697E-3</v>
+        <v>2.7672289418668936E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
@@ -12461,9 +12461,9 @@
       <c r="L52" s="128">
         <v>2.7673532594459697E-3</v>
       </c>
-      <c r="M52" s="129">
+      <c r="M52" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N52" s="111"/>
     </row>
@@ -12496,7 +12496,7 @@
       </c>
       <c r="H53" s="154">
         <f>SynthFra!G17</f>
-        <v>2.9099434970436097E-3</v>
+        <v>2.9108573123169819E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
@@ -12506,9 +12506,9 @@
       <c r="L53" s="128">
         <v>2.9099434970436097E-3</v>
       </c>
-      <c r="M53" s="129">
+      <c r="M53" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N53" s="111"/>
     </row>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="H54" s="154">
         <f>SynthFra!G18</f>
-        <v>3.0686634324651723E-3</v>
+        <v>3.0737520465707298E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
@@ -12551,9 +12551,9 @@
       <c r="L54" s="128">
         <v>3.0686634324651723E-3</v>
       </c>
-      <c r="M54" s="129">
+      <c r="M54" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N54" s="111"/>
     </row>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="H55" s="154">
         <f>SynthFra!G19</f>
-        <v>3.2237829552436825E-3</v>
+        <v>3.2371793859746595E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
@@ -12596,9 +12596,9 @@
       <c r="L55" s="128">
         <v>3.2237829552436825E-3</v>
       </c>
-      <c r="M55" s="129">
+      <c r="M55" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N55" s="111"/>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H56" s="154">
         <f>SynthFra!G20</f>
-        <v>3.3722916410829258E-3</v>
+        <v>3.3697914446360316E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
@@ -12641,9 +12641,9 @@
       <c r="L56" s="128">
         <v>3.3722916410829258E-3</v>
       </c>
-      <c r="M56" s="129">
+      <c r="M56" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N56" s="111"/>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="H57" s="154">
         <f>SynthFra!G21</f>
-        <v>3.5456249903564859E-3</v>
+        <v>3.5507819611170885E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
@@ -12686,9 +12686,9 @@
       <c r="L57" s="128">
         <v>3.5456249903564859E-3</v>
       </c>
-      <c r="M57" s="129">
+      <c r="M57" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N57" s="111"/>
     </row>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="H58" s="154">
         <f>SynthFra!G22</f>
-        <v>3.6923109546895799E-3</v>
+        <v>3.6993549786190475E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
@@ -12731,9 +12731,9 @@
       <c r="L58" s="128">
         <v>3.6923109546895799E-3</v>
       </c>
-      <c r="M58" s="129">
+      <c r="M58" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N58" s="111"/>
     </row>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="H59" s="154">
         <f>SynthFra!G23</f>
-        <v>3.845302499894961E-3</v>
+        <v>3.8510391246488317E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
@@ -12776,9 +12776,9 @@
       <c r="L59" s="128">
         <v>3.845302499894961E-3</v>
       </c>
-      <c r="M59" s="129">
+      <c r="M59" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N59" s="111"/>
     </row>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="H60" s="154">
         <f>SynthFra!G24</f>
-        <v>4.0070026658950916E-3</v>
+        <v>4.010242967904077E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
@@ -12821,9 +12821,9 @@
       <c r="L60" s="128">
         <v>4.0070026658950916E-3</v>
       </c>
-      <c r="M60" s="129">
+      <c r="M60" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N60" s="111"/>
     </row>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="H61" s="154">
         <f>SynthFra!G25</f>
-        <v>4.1857524867856995E-3</v>
+        <v>4.1872052971943779E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
@@ -12866,9 +12866,9 @@
       <c r="L61" s="128">
         <v>4.1857524867856995E-3</v>
       </c>
-      <c r="M61" s="129">
+      <c r="M61" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N61" s="111"/>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="H62" s="154">
         <f>SynthFra!G26</f>
-        <v>4.3546355645762095E-3</v>
+        <v>4.3552373364713955E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
@@ -12911,9 +12911,9 @@
       <c r="L62" s="128">
         <v>4.3546355645762095E-3</v>
       </c>
-      <c r="M62" s="129">
+      <c r="M62" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N62" s="111"/>
     </row>
@@ -12956,9 +12956,9 @@
       <c r="L63" s="130">
         <v>4.5499999999999994E-3</v>
       </c>
-      <c r="M63" s="131">
+      <c r="M63" s="131" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N63" s="111"/>
     </row>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -2021,6 +2021,7 @@
       <sheetName val="Euribor 3M Time Series"/>
       <sheetName val="Euribor 6M Time Series"/>
       <sheetName val="EuriborSwapIsdaFixA1Y"/>
+      <sheetName val="EUR_Market-20150824_Manual"/>
     </sheetNames>
     <definedNames>
       <definedName name="LastFixingsTrigger" refersTo="='General Settings'!$D$7"/>
@@ -2030,7 +2031,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>25</v>
+            <v>703</v>
           </cell>
         </row>
         <row r="7">
@@ -2039,345 +2040,37 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>EURSTD</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EUR6M#0000</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>EUR6M#0000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>12E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>12E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EURTND_Quote#0000</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>EURSND_Quote#0000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EUR2x5F_Quote</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>EUR3x6F_Quote</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>M5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>N5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Future Code</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>M5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>M5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>N5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>2W</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3W</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>OIS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>OIS</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Z5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>H6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>X1S</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>X1S</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>1E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>1E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="6">
-          <cell r="D6">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>12</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="19">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EUR1F2Y_Quote</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>EUR1F3Y_Quote</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>1E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>1E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="26">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="27">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>12E</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>12E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="28">
-        <row r="6">
-          <cell r="D6">
-            <v>42158</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>42157</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="29">
-        <row r="6">
-          <cell r="D6">
-            <v>42158</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>42157</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="30">
-        <row r="6">
-          <cell r="D6">
-            <v>42159</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>42158</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2692,7 +2385,7 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="44" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun  1 2015 10:45:27</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug 18 2015 11:55:38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2970,7 +2663,7 @@
       </c>
       <c r="D17" s="8">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,EvaluationDate,"f",Trigger),"2D","f")</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="E17" s="212"/>
       <c r="G17" s="225"/>
@@ -2978,7 +2671,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42159.757060185184</v>
+        <v>42244.329699074071</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -2997,7 +2690,7 @@
       </c>
       <c r="I18" s="33">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42159</v>
+        <v>42240</v>
       </c>
       <c r="J18" s="111"/>
     </row>
@@ -3006,9 +2699,9 @@
       <c r="C19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="25" t="e">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_005dd#0024</v>
+        <v>#NUM!</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -3017,7 +2710,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>25</v>
+        <v>703</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -3103,7 +2796,7 @@
       </c>
       <c r="D28" s="36" t="str">
         <f>_xll.qlEuribor(,"1M",D34,,Trigger)</f>
-        <v>obj_005dc#0000</v>
+        <v>obj_0055b#0000</v>
       </c>
       <c r="E28" s="212"/>
     </row>
@@ -3156,7 +2849,7 @@
       </c>
       <c r="D34" s="52" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,2,Calendar,_xll.ohPack('1MSynthDepo'!G13:G21),"actual/365",,,,D31,D32,,Trigger)</f>
-        <v>obj_005db#0000</v>
+        <v>obj_0055a#0000</v>
       </c>
       <c r="E34" s="212"/>
     </row>
@@ -3181,7 +2874,7 @@
       <c r="B37" s="211"/>
       <c r="C37" s="26">
         <f>_xll.qlTermStructureReferenceDate(D34)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="D37" s="37">
         <f>_xll.qlYieldTSDiscount(D34,C37,,Trigger)</f>
@@ -3193,11 +2886,11 @@
       <c r="B38" s="211"/>
       <c r="C38" s="27">
         <f>_xll.qlTermStructureMaxDate(D34)</f>
-        <v>42377</v>
+        <v>42458</v>
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0003746867120111</v>
+        <v>1.0005703250853015</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -3246,7 +2939,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3291,7 +2984,7 @@
       <c r="E1" s="167"/>
       <c r="K1" s="167" t="str">
         <f>_xll.qlEuribor(,S1,,,Trigger)</f>
-        <v>obj_00596#0000</v>
+        <v>obj_00515#0000</v>
       </c>
       <c r="L1" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(K1)</f>
@@ -3397,7 +3090,7 @@
       </c>
       <c r="K3" s="310" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_00536#0000</v>
       </c>
       <c r="L3" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3421,21 +3114,21 @@
       </c>
       <c r="R3" s="331">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="S3" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="T3" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.2000000000139721E-4</v>
+        <v>-9.399999999993758E-4</v>
       </c>
       <c r="U3" s="239"/>
       <c r="V3" s="239"/>
-      <c r="W3" s="190">
-        <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+      <c r="W3" s="190" t="e">
+        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="X3" s="239"/>
       <c r="Y3" s="239"/>
@@ -3443,9 +3136,9 @@
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R3,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="59">
+      <c r="AA3" s="59" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" s="257"/>
       <c r="AD3" s="277" t="s">
@@ -3453,7 +3146,7 @@
       </c>
       <c r="AE3" s="190" t="str">
         <f>_xll.qlIborIndex(,,S1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00592#0000</v>
+        <v>obj_00511#0000</v>
       </c>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -3490,7 +3183,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_0051a#0000</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3514,43 +3207,43 @@
       </c>
       <c r="R4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="S4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="T4" s="190">
         <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>-6.2E-4</v>
-      </c>
-      <c r="U4" s="190">
+        <v>-9.3999999999999997E-4</v>
+      </c>
+      <c r="U4" s="190" t="e">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.1945108966147089E-3</v>
-      </c>
-      <c r="V4" s="258">
+        <v>#NUM!</v>
+      </c>
+      <c r="V4" s="258" t="e">
         <f>T4-U4</f>
-        <v>5.7451089661470888E-4</v>
-      </c>
-      <c r="W4" s="186">
-        <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
-      </c>
-      <c r="X4" s="187">
-        <f>Y4*10000</f>
-        <v>1.3972113396820696E-11</v>
-      </c>
-      <c r="Y4" s="278">
-        <f>V4-W4</f>
-        <v>1.3972113396820696E-15</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="W4" s="186" t="e">
+        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X4" s="187" t="e">
+        <f ca="1">Y4*10000</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y4" s="278" t="e">
+        <f ca="1">V4-W4</f>
+        <v>#NUM!</v>
       </c>
       <c r="Z4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="336">
+      <c r="AA4" s="336" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB4" s="241" t="b">
         <v>0</v>
@@ -3592,7 +3285,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_0051b#0000</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3617,43 +3310,43 @@
       </c>
       <c r="R5" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N5&amp;"M","mf",,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="S5" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="T5" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.2000000000139721E-4</v>
-      </c>
-      <c r="U5" s="62">
+        <v>-9.399999999993758E-4</v>
+      </c>
+      <c r="U5" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.1945108966147089E-3</v>
-      </c>
-      <c r="V5" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="V5" s="265" t="e">
         <f>T5-U5</f>
-        <v>5.7451089661331167E-4</v>
-      </c>
-      <c r="W5" s="67">
-        <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
-      </c>
-      <c r="X5" s="240">
-        <f>Y5*10000</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="234">
-        <f>V5-W5</f>
-        <v>0</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="W5" s="67" t="e">
+        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X5" s="240" t="e">
+        <f ca="1">Y5*10000</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y5" s="234" t="e">
+        <f ca="1">V5-W5</f>
+        <v>#NUM!</v>
       </c>
       <c r="Z5" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R5,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="59">
+      <c r="AA5" s="59" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB5" s="241" t="b">
         <v>1</v>
@@ -3697,7 +3390,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_00516#0000</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3722,43 +3415,43 @@
       </c>
       <c r="R6" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N6&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="S6" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
-        <v>42226</v>
+        <v>42305</v>
       </c>
       <c r="T6" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.1551957077854353E-4</v>
-      </c>
-      <c r="U6" s="62">
+        <v>-9.2501797837618582E-4</v>
+      </c>
+      <c r="U6" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.2585546559221426E-3</v>
-      </c>
-      <c r="V6" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="V6" s="265" t="e">
         <f>T6-U6</f>
-        <v>5.4303508514359907E-4</v>
-      </c>
-      <c r="W6" s="62">
-        <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>5.4303508514359918E-4</v>
-      </c>
-      <c r="X6" s="188">
-        <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="234">
-        <f t="shared" ref="Y6:Y8" si="2">V6-W6</f>
-        <v>0</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="W6" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X6" s="188" t="e">
+        <f t="shared" ref="X6:X8" ca="1" si="1">Y6*10000</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y6" s="234" t="e">
+        <f t="shared" ref="Y6:Y8" ca="1" si="2">V6-W6</f>
+        <v>#NUM!</v>
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="AA6" s="59">
+        <v>9.0410958904109592E-2</v>
+      </c>
+      <c r="AA6" s="59" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3766,9 +3459,9 @@
       <c r="AD6" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="AE6" s="282" t="str">
-        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_005de#0024</v>
+      <c r="AE6" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3805,7 +3498,7 @@
       </c>
       <c r="K7" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_00518#0000</v>
       </c>
       <c r="L7" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3830,43 +3523,43 @@
       </c>
       <c r="R7" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N7&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42303</v>
       </c>
       <c r="S7" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
-        <v>42257</v>
+        <v>42334</v>
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.6112488975690624E-4</v>
-      </c>
-      <c r="U7" s="62">
+        <v>-1.0191928660565547E-3</v>
+      </c>
+      <c r="U7" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-1.3125535425984763E-3</v>
-      </c>
-      <c r="V7" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="V7" s="265" t="e">
         <f>T7-U7</f>
-        <v>5.5142865284157005E-4</v>
-      </c>
-      <c r="W7" s="62">
-        <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>5.5142865284157016E-4</v>
-      </c>
-      <c r="X7" s="188">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="234">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="W7" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X7" s="188" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y7" s="234" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NUM!</v>
       </c>
       <c r="Z7" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R7,,,Trigger)</f>
-        <v>0.17260273972602741</v>
-      </c>
-      <c r="AA7" s="59">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="AA7" s="59" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3874,9 +3567,9 @@
       <c r="AD7" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="AE7" s="282" t="b">
-        <f>_xll.qlPolynomialCalibrationCompute($AE$6,AllTriggers)</f>
-        <v>1</v>
+      <c r="AE7" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationCompute($AE$6,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF7" s="54"/>
       <c r="AG7" s="55"/>
@@ -3913,7 +3606,7 @@
       </c>
       <c r="K8" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_00517#0000</v>
       </c>
       <c r="L8" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3938,43 +3631,43 @@
       </c>
       <c r="R8" s="332">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N8&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42334</v>
       </c>
       <c r="S8" s="332">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
-        <v>42285</v>
+        <v>42366</v>
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.002275399488056E-4</v>
-      </c>
-      <c r="U8" s="65">
+        <v>-9.9899508679265892E-4</v>
+      </c>
+      <c r="U8" s="65" t="e">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-1.2719624587398393E-3</v>
-      </c>
-      <c r="V8" s="260">
+        <v>#NUM!</v>
+      </c>
+      <c r="V8" s="260" t="e">
         <f>T8-U8</f>
-        <v>5.7173491879103366E-4</v>
-      </c>
-      <c r="W8" s="65">
-        <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>5.7173491879103366E-4</v>
-      </c>
-      <c r="X8" s="189">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="235">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="W8" s="65" t="e">
+        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X8" s="189" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y8" s="235" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NUM!</v>
       </c>
       <c r="Z8" s="60">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R8,,,Trigger)</f>
         <v>0.25205479452054796</v>
       </c>
-      <c r="AA8" s="60">
+      <c r="AA8" s="60" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -3982,9 +3675,9 @@
       <c r="AD8" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="AE8" s="282" t="str">
-        <f>_xll.qlPolynomialCalibrationEndCriteria(AE6,)</f>
-        <v>None</v>
+      <c r="AE8" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationEndCriteria(AE6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF8" s="54"/>
       <c r="AG8" s="55"/>
@@ -4020,7 +3713,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_00519#0000</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4032,9 +3725,9 @@
       <c r="AD9" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="AE9" s="190">
-        <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>5.0555231468282793E-5</v>
+      <c r="AE9" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationError(AE6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4059,9 +3752,9 @@
       <c r="AD10" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="AE10" s="190">
-        <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>6.4126947188822346E-5</v>
+      <c r="AE10" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -4084,15 +3777,15 @@
       </c>
       <c r="T11" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="U11" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
-        <v>42164</v>
-      </c>
-      <c r="V11" s="287">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-5.9043666484015489E-4</v>
+        <v>42243</v>
+      </c>
+      <c r="V11" s="287" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4127,15 +3820,15 @@
       </c>
       <c r="T12" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="U12" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
-        <v>42170</v>
-      </c>
-      <c r="V12" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-5.9885151029488118E-4</v>
+        <v>42249</v>
+      </c>
+      <c r="V12" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD12" s="261" t="s">
         <v>111</v>
@@ -4151,7 +3844,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="309" t="str">
         <f t="array" ref="G13:G21">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_00536#0000</v>
       </c>
       <c r="H13" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4159,7 +3852,7 @@
       </c>
       <c r="I13" s="194">
         <f>_xll.qlRateHelperRate(G13,Trigger)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-9.3999999999999997E-4</v>
       </c>
       <c r="J13" s="195" t="str">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G13),"--")</f>
@@ -4167,36 +3860,36 @@
       </c>
       <c r="K13" s="329">
         <f>_xll.qlRateHelperEarliestDate(G13,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="L13" s="329">
         <f>_xll.qlRateHelperLatestDate(G13,Trigger)</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="M13" s="196">
-        <v>1.0000516693362491</v>
+        <v>1.0000861740920008</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="U13" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
-        <v>42177</v>
-      </c>
-      <c r="V13" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-5.8752678013267764E-4</v>
+        <v>42256</v>
+      </c>
+      <c r="V13" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD13" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="AE13" s="190">
-        <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
-        <v>5.7451089661331167E-4</v>
+      <c r="AE13" s="190" t="e">
+        <f t="array" aca="1" ref="AE13:AE17" ca="1">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF13" s="190" t="b">
         <v>1</v>
@@ -4207,7 +3900,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_00598#0000</v>
+        <v>obj_0051a#0000</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4215,7 +3908,7 @@
       </c>
       <c r="I14" s="194">
         <f>_xll.qlRateHelperRate(G14,Trigger)</f>
-        <v>-5.5000000000000003E-4</v>
+        <v>-9.2999999999999995E-4</v>
       </c>
       <c r="J14" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G14),"--")</f>
@@ -4223,35 +3916,36 @@
       </c>
       <c r="K14" s="329">
         <f>_xll.qlRateHelperEarliestDate(G14,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="L14" s="329">
         <f>_xll.qlRateHelperLatestDate(G14,Trigger)</f>
-        <v>42226</v>
+        <v>42303</v>
       </c>
       <c r="M14" s="196">
-        <v>1.0001172663216524</v>
+        <v>1.0001576081697383</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="U14" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
-        <v>42184</v>
-      </c>
-      <c r="V14" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-6.0502935140022932E-4</v>
+        <v>42263</v>
+      </c>
+      <c r="V14" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD14" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="AE14" s="190">
-        <v>-7.1075059440715903E-4</v>
+      <c r="AE14" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AF14" s="190" t="b">
         <v>1</v>
@@ -4262,7 +3956,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_0059c#0000</v>
+        <v>obj_0051b#0000</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4270,7 +3964,7 @@
       </c>
       <c r="I15" s="194">
         <f>_xll.qlRateHelperRate(G15,Trigger)</f>
-        <v>-5.8E-4</v>
+        <v>-9.6000000000000002E-4</v>
       </c>
       <c r="J15" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G15),"--")</f>
@@ -4278,35 +3972,36 @@
       </c>
       <c r="K15" s="329">
         <f>_xll.qlRateHelperEarliestDate(G15,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="L15" s="329">
         <f>_xll.qlRateHelperLatestDate(G15,Trigger)</f>
-        <v>42255</v>
+        <v>42334</v>
       </c>
       <c r="M15" s="196">
-        <v>1.0001789286436884</v>
+        <v>1.0002453935365476</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="276">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="U15" s="337">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
-      </c>
-      <c r="V15" s="338">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-6.2758270029439345E-4</v>
+        <v>42275</v>
+      </c>
+      <c r="V15" s="338" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD15" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="AE15" s="190">
-        <v>4.5746420303168422E-3</v>
+      <c r="AE15" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AF15" s="190" t="b">
         <v>1</v>
@@ -4317,7 +4012,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_00599#0000</v>
+        <v>obj_00516#0000</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4325,7 +4020,7 @@
       </c>
       <c r="I16" s="194">
         <f>_xll.qlRateHelperRate(G16,Trigger)</f>
-        <v>-5.8999999999999992E-4</v>
+        <v>-9.7000000000000005E-4</v>
       </c>
       <c r="J16" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G16),"--")</f>
@@ -4333,20 +4028,21 @@
       </c>
       <c r="K16" s="329">
         <f>_xll.qlRateHelperEarliestDate(G16,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="L16" s="329">
         <f>_xll.qlRateHelperLatestDate(G16,Trigger)</f>
-        <v>42285</v>
+        <v>42366</v>
       </c>
       <c r="M16" s="196">
-        <v>1.0002372947853795</v>
+        <v>1.0003342227786549</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="AE16" s="190">
-        <v>-7.1353958361635916E-3</v>
+      <c r="AE16" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AF16" s="190" t="b">
         <v>1</v>
@@ -4357,7 +4053,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="202" t="str">
-        <v>obj_0059a#0000</v>
+        <v>obj_00518#0000</v>
       </c>
       <c r="H17" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4365,7 +4061,7 @@
       </c>
       <c r="I17" s="194">
         <f>_xll.qlRateHelperRate(G17,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-9.5E-4</v>
       </c>
       <c r="J17" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G17),"--")</f>
@@ -4373,20 +4069,21 @@
       </c>
       <c r="K17" s="329">
         <f>_xll.qlRateHelperEarliestDate(G17,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="L17" s="329">
         <f>_xll.qlRateHelperLatestDate(G17,Trigger)</f>
-        <v>42317</v>
+        <v>42395</v>
       </c>
       <c r="M17" s="196">
-        <v>1.000299563311839</v>
+        <v>1.0004039130800053</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
       </c>
       <c r="AE17" s="190" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AF17" s="190" t="b">
         <v>0</v>
@@ -4397,7 +4094,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="202" t="str">
-        <v>obj_0059b#0000</v>
+        <v>obj_00517#0000</v>
       </c>
       <c r="H18" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4405,7 +4102,7 @@
       </c>
       <c r="I18" s="194">
         <f>_xll.qlRateHelperRate(G18,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-9.5E-4</v>
       </c>
       <c r="J18" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G18),"--")</f>
@@ -4413,28 +4110,28 @@
       </c>
       <c r="K18" s="329">
         <f>_xll.qlRateHelperEarliestDate(G18,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="L18" s="329">
         <f>_xll.qlRateHelperLatestDate(G18,Trigger)</f>
-        <v>42346</v>
+        <v>42426</v>
       </c>
       <c r="M18" s="196">
-        <v>1.000361089009117</v>
+        <v>1.0004857914342891</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="AE18" s="190" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_005e3#0023</v>
+      <c r="AE18" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_00597#0000</v>
+        <v>obj_00519#0000</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4442,7 +4139,7 @@
       </c>
       <c r="I19" s="194">
         <f>_xll.qlRateHelperRate(G19,Trigger)</f>
-        <v>-6.3000000000000003E-4</v>
+        <v>-9.5E-4</v>
       </c>
       <c r="J19" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G19),"--")</f>
@@ -4450,14 +4147,14 @@
       </c>
       <c r="K19" s="329">
         <f>_xll.qlRateHelperEarliestDate(G19,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="L19" s="329">
         <f>_xll.qlRateHelperLatestDate(G19,Trigger)</f>
-        <v>42377</v>
+        <v>42458</v>
       </c>
       <c r="M19" s="196">
-        <v>1.000410394120663</v>
+        <v>1.0005703250853015</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4583,7 +4280,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4680,21 +4377,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42255</v>
-      </c>
-      <c r="G3" s="258">
-        <f>J3+$H$4</f>
-        <v>-1.1736446947011449E-4</v>
+        <v>42334</v>
+      </c>
+      <c r="G3" s="258" t="e">
+        <f ca="1">J3+$H$4</f>
+        <v>#NAME?</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
-      <c r="J3" s="190">
-        <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.1373512016151796E-3</v>
+      <c r="J3" s="190" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -4709,7 +4406,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00595#0000</v>
+        <v>obj_00514#0000</v>
       </c>
       <c r="X3" s="57"/>
     </row>
@@ -4730,43 +4427,43 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42346</v>
+        <v>42426</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>-1.3000000000000002E-4</v>
-      </c>
-      <c r="H4" s="190">
+        <v>-3.2000000000000003E-4</v>
+      </c>
+      <c r="H4" s="190" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.2547156710852941E-3</v>
-      </c>
-      <c r="I4" s="258">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" s="258" t="e">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.1247156710852942E-3</v>
-      </c>
-      <c r="J4" s="186">
-        <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.1373512016151796E-3</v>
-      </c>
-      <c r="K4" s="187">
-        <f>M4*10000</f>
-        <v>-0.12635530529885422</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" s="186" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K4" s="187" t="e">
+        <f ca="1">M4*10000</f>
+        <v>#NUM!</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="278">
-        <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-1.2635530529885421E-5</v>
-      </c>
-      <c r="N4" s="281">
+      <c r="M4" s="278" t="e">
+        <f t="shared" ref="M4:M22" ca="1" si="1">I4-J4</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N4" s="281" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>#NUM!</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -4790,46 +4487,46 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42377</v>
+        <v>42458</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-6.0000000000000002E-5</v>
-      </c>
-      <c r="H5" s="67">
+        <v>-3.0999999999999995E-4</v>
+      </c>
+      <c r="H5" s="67" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-1.2799660304352312E-3</v>
-      </c>
-      <c r="I5" s="280">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" s="280" t="e">
         <f t="shared" si="0"/>
-        <v>1.2199660304352312E-3</v>
-      </c>
-      <c r="J5" s="67">
-        <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.1853752726288034E-3</v>
-      </c>
-      <c r="K5" s="240">
-        <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>0.34590757806427774</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" s="67" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" s="240" t="e">
+        <f t="shared" ref="K5:K22" ca="1" si="4">M5*10000</f>
+        <v>#NUM!</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="M5" s="279">
-        <f t="shared" si="1"/>
-        <v>3.4590757806427777E-5</v>
-      </c>
-      <c r="N5" s="183">
+        <v>9.0410958904109592E-2</v>
+      </c>
+      <c r="M5" s="279" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" s="183" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>#NUM!</v>
       </c>
       <c r="O5" s="241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="261" t="s">
         <v>125</v>
@@ -4855,53 +4552,53 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42303</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42410</v>
+        <v>42486</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>-1.0000000000000009E-5</v>
-      </c>
-      <c r="H6" s="62">
+        <v>-3.2000000000000003E-4</v>
+      </c>
+      <c r="H6" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-1.2992983497784256E-3</v>
-      </c>
-      <c r="I6" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.2892983497784255E-3</v>
-      </c>
-      <c r="J6" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.230172166130715E-3</v>
-      </c>
-      <c r="K6" s="188">
-        <f t="shared" si="4"/>
-        <v>0.59126183647710595</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K6" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
-      </c>
-      <c r="M6" s="234">
-        <f t="shared" si="1"/>
-        <v>5.9126183647710594E-5</v>
-      </c>
-      <c r="N6" s="184">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="M6" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>#NUM!</v>
       </c>
       <c r="O6" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="282" t="str">
-        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00844#0022</v>
+      <c r="R6" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4924,53 +4621,53 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42334</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42437</v>
+        <v>42516</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="62">
+        <v>-2.9000000000000006E-4</v>
+      </c>
+      <c r="H7" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-1.2934759462484332E-3</v>
-      </c>
-      <c r="I7" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.2934759462484332E-3</v>
-      </c>
-      <c r="J7" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.2630991130362958E-3</v>
-      </c>
-      <c r="K7" s="188">
-        <f t="shared" si="4"/>
-        <v>0.3037683321213745</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
         <v>0.25205479452054796</v>
       </c>
-      <c r="M7" s="234">
-        <f t="shared" si="1"/>
-        <v>3.0376833212137451E-5</v>
-      </c>
-      <c r="N7" s="184">
+      <c r="M7" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>#NUM!</v>
       </c>
       <c r="O7" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="282" t="b">
-        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
-        <v>1</v>
+      <c r="R7" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T7" s="55"/>
       <c r="X7" s="57"/>
@@ -4993,53 +4690,53 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42366</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42468</v>
+        <v>42549</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>3.9999999999999983E-5</v>
-      </c>
-      <c r="H8" s="62">
+        <v>-2.7000000000000006E-4</v>
+      </c>
+      <c r="H8" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-1.2428793081029428E-3</v>
-      </c>
-      <c r="I8" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.2828793081029427E-3</v>
-      </c>
-      <c r="J8" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.2913181650166697E-3</v>
-      </c>
-      <c r="K8" s="188">
-        <f t="shared" si="4"/>
-        <v>-8.4388569137269775E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K8" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33424657534246577</v>
-      </c>
-      <c r="M8" s="234">
-        <f t="shared" si="1"/>
-        <v>-8.4388569137269775E-6</v>
-      </c>
-      <c r="N8" s="184">
+        <v>0.33972602739726027</v>
+      </c>
+      <c r="M8" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>#NUM!</v>
       </c>
       <c r="O8" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="282" t="str">
-        <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>None</v>
+      <c r="R8" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T8" s="55"/>
       <c r="X8" s="57"/>
@@ -5062,53 +4759,53 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42395</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42499</v>
+        <v>42577</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>7.9999999999999979E-5</v>
-      </c>
-      <c r="H9" s="62">
+        <v>-2.6000000000000003E-4</v>
+      </c>
+      <c r="H9" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-1.2433280090124142E-3</v>
-      </c>
-      <c r="I9" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.3233280090124142E-3</v>
-      </c>
-      <c r="J9" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.3154190963221551E-3</v>
-      </c>
-      <c r="K9" s="188">
-        <f t="shared" si="4"/>
-        <v>7.9089126902591372E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K9" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
-      </c>
-      <c r="M9" s="234">
-        <f t="shared" si="1"/>
-        <v>7.9089126902591369E-6</v>
-      </c>
-      <c r="N9" s="184">
+        <v>0.41917808219178082</v>
+      </c>
+      <c r="M9" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>#NUM!</v>
       </c>
       <c r="O9" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="190">
-        <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>9.0835833190229179E-5</v>
+      <c r="R9" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationError(R6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5131,53 +4828,53 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42426</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42529</v>
+        <v>42608</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="H10" s="62">
+        <v>-2.5000000000000001E-4</v>
+      </c>
+      <c r="H10" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-1.2012494672821216E-3</v>
-      </c>
-      <c r="I10" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.3212494672821215E-3</v>
-      </c>
-      <c r="J10" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.332402060481094E-3</v>
-      </c>
-      <c r="K10" s="188">
-        <f t="shared" si="4"/>
-        <v>-0.11152593198972532</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
-      </c>
-      <c r="M10" s="234">
-        <f t="shared" si="1"/>
-        <v>-1.1152593198972532E-5</v>
-      </c>
-      <c r="N10" s="184">
+        <v>0.50410958904109593</v>
+      </c>
+      <c r="M10" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>#NUM!</v>
       </c>
       <c r="O10" s="237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="190">
-        <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.1840412657839979E-4</v>
+      <c r="R10" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationMaxError(R6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -5189,51 +4886,51 @@
       <c r="B11" s="292"/>
       <c r="C11" s="252" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate,A12)</f>
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="D11" s="248" t="str">
         <f t="shared" ref="D11:D22" si="6">Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;QuoteSuffix</f>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="E11" s="295">
         <f>_xll.qlIMMdate(C11,SettlementDate,Trigger)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42355</v>
+        <v>42445</v>
       </c>
       <c r="G11" s="67">
         <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>-1.2499999999993072E-4</v>
-      </c>
-      <c r="H11" s="67">
+        <v>-3.249999999999087E-4</v>
+      </c>
+      <c r="H11" s="67" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-1.2660080829982408E-3</v>
-      </c>
-      <c r="I11" s="280">
+        <v>#NUM!</v>
+      </c>
+      <c r="I11" s="280" t="e">
         <f t="shared" si="0"/>
-        <v>1.14100808299831E-3</v>
-      </c>
-      <c r="J11" s="67">
-        <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.1525194985213846E-3</v>
-      </c>
-      <c r="K11" s="240">
-        <f t="shared" si="4"/>
-        <v>-0.11511415523074572</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" s="67" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="240" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>2.4657534246575342E-2</v>
-      </c>
-      <c r="M11" s="279">
-        <f t="shared" si="1"/>
-        <v>-1.1511415523074572E-5</v>
-      </c>
-      <c r="N11" s="183">
+        <v>5.7534246575342465E-2</v>
+      </c>
+      <c r="M11" s="279" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N11" s="183" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0000406402405491</v>
+        <v>#NUM!</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -5248,51 +4945,51 @@
       <c r="B12" s="56"/>
       <c r="C12" s="251" t="str">
         <f>_xll.qlIMMNextCode(C11,A12)</f>
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="D12" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="E12" s="296">
         <f>_xll.qlIMMdate(C12,SettlementDate,Trigger)</f>
-        <v>42200</v>
+        <v>42298</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42384</v>
+        <v>42481</v>
       </c>
       <c r="G12" s="62">
         <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>-7.4999999999825206E-5</v>
-      </c>
-      <c r="H12" s="62">
+        <v>-3.249999999999087E-4</v>
+      </c>
+      <c r="H12" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-1.2794790482033001E-3</v>
-      </c>
-      <c r="I12" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I12" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.2044790482034749E-3</v>
-      </c>
-      <c r="J12" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>1.1955600417313363E-3</v>
-      </c>
-      <c r="K12" s="188">
-        <f t="shared" si="4"/>
-        <v>8.9190064721386075E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.10136986301369863</v>
-      </c>
-      <c r="M12" s="234">
-        <f t="shared" si="1"/>
-        <v>8.9190064721386079E-6</v>
-      </c>
-      <c r="N12" s="184">
+        <v>0.15342465753424658</v>
+      </c>
+      <c r="M12" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N12" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0001359548980997</v>
+        <v>#NUM!</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5316,51 +5013,51 @@
       <c r="B13" s="56"/>
       <c r="C13" s="251" t="str">
         <f>_xll.qlIMMNextCode(C12,A13)</f>
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="D13" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="E13" s="296">
         <f>_xll.qlIMMdate(C13,SettlementDate,Trigger)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="G13" s="62">
         <f>1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
-        <v>-2.4999999999941735E-5</v>
-      </c>
-      <c r="H13" s="62">
+        <v>-2.7500000000002522E-4</v>
+      </c>
+      <c r="H13" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-1.3014906239984724E-3</v>
-      </c>
-      <c r="I13" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I13" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.2764906239985307E-3</v>
-      </c>
-      <c r="J13" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>1.2711853708794602E-3</v>
-      </c>
-      <c r="K13" s="188">
-        <f t="shared" si="4"/>
-        <v>5.3052531190705618E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K13" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.27397260273972601</v>
-      </c>
-      <c r="M13" s="234">
-        <f t="shared" si="1"/>
-        <v>5.3052531190705618E-6</v>
-      </c>
-      <c r="N13" s="184">
+        <v>0.30684931506849317</v>
+      </c>
+      <c r="M13" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N13" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0003606975574753</v>
+        <v>#NUM!</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5368,9 +5065,9 @@
       <c r="Q13" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="190">
-        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.1373512016151796E-3</v>
+      <c r="R13" s="190" t="e">
+        <f t="array" aca="1" ref="R13:R17" ca="1">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -5387,51 +5084,51 @@
       <c r="B14" s="56"/>
       <c r="C14" s="251" t="str">
         <f>_xll.qlIMMNextCode(C13,A14)</f>
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="D14" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="E14" s="296">
         <f>_xll.qlIMMdate(C14,SettlementDate,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42537</v>
+        <v>42629</v>
       </c>
       <c r="G14" s="62">
         <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>1.4999999999998348E-4</v>
-      </c>
-      <c r="H14" s="62">
+        <v>-2.7500000000002522E-4</v>
+      </c>
+      <c r="H14" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-1.2009812777807455E-3</v>
-      </c>
-      <c r="I14" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I14" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.350981277780729E-3</v>
-      </c>
-      <c r="J14" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>1.3363363244019988E-3</v>
-      </c>
-      <c r="K14" s="188">
-        <f t="shared" si="4"/>
-        <v>0.14644953378730199</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K14" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.52328767123287667</v>
-      </c>
-      <c r="M14" s="234">
-        <f t="shared" si="1"/>
-        <v>1.46449533787302E-5</v>
-      </c>
-      <c r="N14" s="184">
+        <v>0.55616438356164388</v>
+      </c>
+      <c r="M14" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N14" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0006899124380577</v>
+        <v>#NUM!</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5439,8 +5136,9 @@
       <c r="Q14" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="190">
-        <v>6.2868735994365502E-4</v>
+      <c r="R14" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -5456,51 +5154,51 @@
       <c r="B15" s="56"/>
       <c r="C15" s="251" t="str">
         <f>_xll.qlIMMNextCode(C14,A15)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D15" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="E15" s="296">
         <f>_xll.qlIMMdate(C15,SettlementDate,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42629</v>
+        <v>42719</v>
       </c>
       <c r="G15" s="62">
         <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>2.7500000000002522E-4</v>
-      </c>
-      <c r="H15" s="62">
+        <v>-1.7500000000003624E-4</v>
+      </c>
+      <c r="H15" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-1.0530182213731925E-3</v>
-      </c>
-      <c r="I15" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I15" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.3280182213732178E-3</v>
-      </c>
-      <c r="J15" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>1.3617560917457393E-3</v>
-      </c>
-      <c r="K15" s="188">
-        <f t="shared" si="4"/>
-        <v>-0.337378703725215</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K15" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.77260273972602744</v>
-      </c>
-      <c r="M15" s="234">
-        <f t="shared" si="1"/>
-        <v>-3.3737870372521498E-5</v>
-      </c>
-      <c r="N15" s="184">
+        <v>0.80547945205479454</v>
+      </c>
+      <c r="M15" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N15" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0009937955144201</v>
+        <v>#NUM!</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5508,8 +5206,9 @@
       <c r="Q15" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="190">
-        <v>-5.5231727265848745E-4</v>
+      <c r="R15" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -5525,51 +5224,51 @@
       <c r="B16" s="56"/>
       <c r="C16" s="251" t="str">
         <f>_xll.qlIMMNextCode(C15,A16)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D16" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="E16" s="296">
         <f>_xll.qlIMMdate(C16,SettlementDate,Trigger)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42719</v>
+        <v>42815</v>
       </c>
       <c r="G16" s="62">
         <f>1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
-        <v>4.750000000000032E-4</v>
-      </c>
-      <c r="H16" s="62">
+        <v>-2.4999999999941735E-5</v>
+      </c>
+      <c r="H16" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-9.028799615529643E-4</v>
-      </c>
-      <c r="I16" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I16" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.3778799615529675E-3</v>
-      </c>
-      <c r="J16" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>1.3612284055674203E-3</v>
-      </c>
-      <c r="K16" s="188">
-        <f t="shared" si="4"/>
-        <v>0.1665155598554722</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J16" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K16" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.021917808219178</v>
-      </c>
-      <c r="M16" s="234">
-        <f t="shared" si="1"/>
-        <v>1.665155598554722E-5</v>
-      </c>
-      <c r="N16" s="184">
+        <v>1.0739726027397261</v>
+      </c>
+      <c r="M16" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N16" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012603889303364</v>
+        <v>#NUM!</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5577,8 +5276,9 @@
       <c r="Q16" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="190">
-        <v>1.4824157043946009E-4</v>
+      <c r="R16" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -5594,51 +5294,51 @@
       <c r="B17" s="56"/>
       <c r="C17" s="251" t="str">
         <f>_xll.qlIMMNextCode(C16,A17)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D17" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="E17" s="296">
         <f>_xll.qlIMMdate(C17,SettlementDate,Trigger)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42815</v>
+        <v>42907</v>
       </c>
       <c r="G17" s="62">
         <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
-        <v>7.7499999999997016E-4</v>
-      </c>
-      <c r="H17" s="62">
+        <v>2.2500000000003073E-4</v>
+      </c>
+      <c r="H17" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-6.3984893502863106E-4</v>
-      </c>
-      <c r="I17" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I17" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.4148489350286012E-3</v>
-      </c>
-      <c r="J17" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>1.3474521686504316E-3</v>
-      </c>
-      <c r="K17" s="188">
-        <f t="shared" si="4"/>
-        <v>0.67396766378169637</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J17" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K17" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.2904109589041095</v>
-      </c>
-      <c r="M17" s="234">
-        <f t="shared" si="1"/>
-        <v>6.7396766378169642E-5</v>
-      </c>
-      <c r="N17" s="184">
+        <v>1.3232876712328767</v>
+      </c>
+      <c r="M17" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N17" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0015040607956092</v>
+        <v>#NUM!</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5647,7 +5347,8 @@
         <v>117</v>
       </c>
       <c r="R17" s="190" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S17" s="190" t="b">
         <v>0</v>
@@ -5663,51 +5364,51 @@
       <c r="B18" s="56"/>
       <c r="C18" s="251" t="str">
         <f>_xll.qlIMMNextCode(C17,A18)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D18" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="E18" s="296">
         <f>_xll.qlIMMdate(C18,SettlementDate,Trigger)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42907</v>
+        <v>42993</v>
       </c>
       <c r="G18" s="62">
         <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>1.2000000000000899E-3</v>
-      </c>
-      <c r="H18" s="62">
+        <v>5.7499999999999218E-4</v>
+      </c>
+      <c r="H18" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-2.2373818386567379E-4</v>
-      </c>
-      <c r="I18" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I18" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.4237381838657637E-3</v>
-      </c>
-      <c r="J18" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>1.3370763135277092E-3</v>
-      </c>
-      <c r="K18" s="188">
-        <f t="shared" si="4"/>
-        <v>0.86661870338054481</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J18" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.5397260273972602</v>
-      </c>
-      <c r="M18" s="234">
-        <f t="shared" si="1"/>
-        <v>8.6661870338054477E-5</v>
-      </c>
-      <c r="N18" s="184">
+        <v>1.5534246575342465</v>
+      </c>
+      <c r="M18" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N18" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0016660698569779</v>
+        <v>#NUM!</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5715,9 +5416,9 @@
       <c r="Q18" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="R18" s="190" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00845#0022</v>
+      <c r="R18" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -5728,51 +5429,51 @@
       <c r="B19" s="56"/>
       <c r="C19" s="251" t="str">
         <f>_xll.qlIMMNextCode(C18,A19)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D19" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="E19" s="296">
         <f>_xll.qlIMMdate(C19,SettlementDate,Trigger)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42993</v>
+        <v>43090</v>
       </c>
       <c r="G19" s="62">
         <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>1.7249999999999766E-3</v>
-      </c>
-      <c r="H19" s="62">
+        <v>9.2500000000006466E-4</v>
+      </c>
+      <c r="H19" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>1.9609339663789993E-4</v>
-      </c>
-      <c r="I19" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I19" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.5289066033620767E-3</v>
-      </c>
-      <c r="J19" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>1.3417979524674895E-3</v>
-      </c>
-      <c r="K19" s="188">
-        <f t="shared" si="4"/>
-        <v>1.8710865089458721</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J19" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K19" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.7698630136986302</v>
-      </c>
-      <c r="M19" s="234">
-        <f t="shared" si="1"/>
-        <v>1.8710865089458721E-4</v>
-      </c>
-      <c r="N19" s="184">
+        <v>1.821917808219178</v>
+      </c>
+      <c r="M19" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N19" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0017206050325747</v>
+        <v>#NUM!</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5786,51 +5487,51 @@
       <c r="B20" s="56"/>
       <c r="C20" s="251" t="str">
         <f>_xll.qlIMMNextCode(C19,A20)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D20" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="E20" s="296">
         <f>_xll.qlIMMdate(C20,SettlementDate,Trigger)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>43090</v>
+        <v>43179</v>
       </c>
       <c r="G20" s="62">
         <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>2.2999999999998577E-3</v>
-      </c>
-      <c r="H20" s="62">
+        <v>1.3249999999999096E-3</v>
+      </c>
+      <c r="H20" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>7.4066595276283027E-4</v>
-      </c>
-      <c r="I20" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.5593340472370276E-3</v>
-      </c>
-      <c r="J20" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>1.3795004306657948E-3</v>
-      </c>
-      <c r="K20" s="188">
-        <f t="shared" si="4"/>
-        <v>1.7983361657123278</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J20" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K20" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>2.0383561643835617</v>
-      </c>
-      <c r="M20" s="234">
-        <f t="shared" si="1"/>
-        <v>1.7983361657123277E-4</v>
-      </c>
-      <c r="N20" s="184">
+        <v>2.0712328767123287</v>
+      </c>
+      <c r="M20" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N20" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0016625220341084</v>
+        <v>#NUM!</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5844,51 +5545,51 @@
       <c r="B21" s="56"/>
       <c r="C21" s="251" t="str">
         <f>_xll.qlIMMNextCode(C20,A21)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D21" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="E21" s="296">
         <f>_xll.qlIMMdate(C21,SettlementDate,Trigger)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>43179</v>
+        <v>43271</v>
       </c>
       <c r="G21" s="62">
         <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>2.9250000000000664E-3</v>
-      </c>
-      <c r="H21" s="62">
+        <v>1.7750000000000821E-3</v>
+      </c>
+      <c r="H21" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>1.3218346333841527E-3</v>
-      </c>
-      <c r="I21" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I21" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.6031653666159138E-3</v>
-      </c>
-      <c r="J21" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>1.4598678682400791E-3</v>
-      </c>
-      <c r="K21" s="188">
-        <f t="shared" si="4"/>
-        <v>1.4329749837583465</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J21" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K21" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>2.2876712328767121</v>
-      </c>
-      <c r="M21" s="234">
-        <f t="shared" si="1"/>
-        <v>1.4329749837583465E-4</v>
-      </c>
-      <c r="N21" s="184">
+        <v>2.3205479452054796</v>
+      </c>
+      <c r="M21" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N21" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0014757769563836</v>
+        <v>#NUM!</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5902,51 +5603,51 @@
       <c r="B22" s="246"/>
       <c r="C22" s="253" t="str">
         <f>_xll.qlIMMNextCode(C21,A22)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D22" s="250" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="E22" s="297">
         <f>_xll.qlIMMdate(C22,SettlementDate,Trigger)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>43271</v>
+        <v>43364</v>
       </c>
       <c r="G22" s="65">
         <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>3.6249999999999893E-3</v>
-      </c>
-      <c r="H22" s="65">
+        <v>2.3250000000000215E-3</v>
+      </c>
+      <c r="H22" s="65" t="e">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>2.027220858942691E-3</v>
-      </c>
-      <c r="I22" s="260">
+        <v>#NUM!</v>
+      </c>
+      <c r="I22" s="260" t="e">
         <f t="shared" si="0"/>
-        <v>1.5977791410572983E-3</v>
-      </c>
-      <c r="J22" s="65">
-        <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>1.5980505353601774E-3</v>
-      </c>
-      <c r="K22" s="189">
-        <f t="shared" si="4"/>
-        <v>-2.7139430287901473E-3</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J22" s="65" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K22" s="189" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>2.536986301369863</v>
-      </c>
-      <c r="M22" s="235">
-        <f t="shared" si="1"/>
-        <v>-2.7139430287901473E-7</v>
-      </c>
-      <c r="N22" s="185">
+        <v>2.56986301369863</v>
+      </c>
+      <c r="M22" s="235" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N22" s="185" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0011412652037437</v>
+        <v>#NUM!</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5990,15 +5691,15 @@
       </c>
       <c r="G25" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H25" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42164</v>
-      </c>
-      <c r="I25" s="287">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>-1.5235886164699508E-4</v>
+        <v>42243</v>
+      </c>
+      <c r="I25" s="287" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,15 +5709,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42170</v>
-      </c>
-      <c r="I26" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>-1.4615060688529167E-4</v>
+        <v>42249</v>
+      </c>
+      <c r="I26" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,15 +5727,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42177</v>
-      </c>
-      <c r="I27" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>-1.1905590967087321E-4</v>
+        <v>42256</v>
+      </c>
+      <c r="I27" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,15 +5745,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42184</v>
-      </c>
-      <c r="I28" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>-1.2210649579267953E-4</v>
+        <v>42263</v>
+      </c>
+      <c r="I28" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6062,15 +5763,15 @@
       </c>
       <c r="G29" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H29" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
-      </c>
-      <c r="I29" s="289">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>-1.2789266630397478E-4</v>
+        <v>42275</v>
+      </c>
+      <c r="I29" s="289" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6080,15 +5781,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H30" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
-      </c>
-      <c r="I30" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>-1.3135129780675724E-4</v>
+        <v>42303</v>
+      </c>
+      <c r="I30" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6098,15 +5799,15 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H31" s="275">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
-      </c>
-      <c r="I31" s="291">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-1.3414978244339639E-4</v>
+        <v>42334</v>
+      </c>
+      <c r="I31" s="291" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6264,7 +5965,7 @@
       <c r="I53" s="57"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O22 S13:S17">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -6374,21 +6075,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42346</v>
-      </c>
-      <c r="G3" s="258">
-        <f>J3+$H$4</f>
-        <v>5.0796159643381458E-4</v>
+        <v>42426</v>
+      </c>
+      <c r="G3" s="258" t="e">
+        <f ca="1">J3+$H$4</f>
+        <v>#NAME?</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
-      <c r="J3" s="190">
-        <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.781745259666332E-3</v>
+      <c r="J3" s="190" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -6403,7 +6104,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00594#0000</v>
+        <v>obj_00513#0000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,43 +6123,43 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42346</v>
+        <v>42426</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>4.8999999999999998E-4</v>
-      </c>
-      <c r="H4" s="190">
+        <v>4.0999999999999994E-4</v>
+      </c>
+      <c r="H4" s="190" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-1.2737836632325174E-3</v>
-      </c>
-      <c r="I4" s="258">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" s="258" t="e">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.7637836632325174E-3</v>
-      </c>
-      <c r="J4" s="186">
-        <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.781745259666332E-3</v>
-      </c>
-      <c r="K4" s="187">
-        <f>M4*10000</f>
-        <v>-0.17961596433814594</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" s="186" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K4" s="187" t="e">
+        <f ca="1">M4*10000</f>
+        <v>#NUM!</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="278">
-        <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-1.7961596433814595E-5</v>
-      </c>
-      <c r="N4" s="281">
+      <c r="M4" s="278" t="e">
+        <f t="shared" ref="M4:M22" ca="1" si="1">I4-J4</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N4" s="281" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>#NUM!</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -6481,43 +6182,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42377</v>
+        <v>42458</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>5.8E-4</v>
-      </c>
-      <c r="H5" s="67">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="H5" s="67" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-1.2612193948480957E-3</v>
-      </c>
-      <c r="I5" s="280">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" s="280" t="e">
         <f t="shared" si="0"/>
-        <v>1.8412193948480957E-3</v>
-      </c>
-      <c r="J5" s="67">
-        <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.8476373915875027E-3</v>
-      </c>
-      <c r="K5" s="240">
-        <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>-6.4179967394070378E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" s="67" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" s="240" t="e">
+        <f t="shared" ref="K5:K22" ca="1" si="4">M5*10000</f>
+        <v>#NUM!</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="M5" s="279">
-        <f t="shared" si="1"/>
-        <v>-6.4179967394070378E-6</v>
-      </c>
-      <c r="N5" s="183">
+        <v>9.0410958904109592E-2</v>
+      </c>
+      <c r="M5" s="279" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" s="183" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>#NUM!</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6544,43 +6245,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42303</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42410</v>
+        <v>42486</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="H6" s="62">
+        <v>4.4000000000000007E-4</v>
+      </c>
+      <c r="H6" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-1.2713463090453128E-3</v>
-      </c>
-      <c r="I6" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.9213463090453128E-3</v>
-      </c>
-      <c r="J6" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.9100868542743217E-3</v>
-      </c>
-      <c r="K6" s="188">
-        <f t="shared" si="4"/>
-        <v>0.11259454770991056</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K6" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
-      </c>
-      <c r="M6" s="234">
-        <f t="shared" si="1"/>
-        <v>1.1259454770991056E-5</v>
-      </c>
-      <c r="N6" s="184">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="M6" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>#NUM!</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6588,9 +6289,9 @@
       <c r="Q6" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="282" t="str">
-        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005e0#0024</v>
+      <c r="R6" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6611,43 +6312,43 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42334</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42437</v>
+        <v>42516</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>7.1000000000000013E-4</v>
-      </c>
-      <c r="H7" s="62">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="H7" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-1.2471663253159333E-3</v>
-      </c>
-      <c r="I7" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.9571663253159337E-3</v>
-      </c>
-      <c r="J7" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.9570716758657287E-3</v>
-      </c>
-      <c r="K7" s="188">
-        <f t="shared" si="4"/>
-        <v>9.4649450204948443E-4</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
         <v>0.25205479452054796</v>
       </c>
-      <c r="M7" s="234">
-        <f t="shared" si="1"/>
-        <v>9.4649450204948443E-8</v>
-      </c>
-      <c r="N7" s="184">
+      <c r="M7" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>#NUM!</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6655,9 +6356,9 @@
       <c r="Q7" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="282" t="b">
-        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
-        <v>1</v>
+      <c r="R7" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6678,43 +6379,43 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42366</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42468</v>
+        <v>42549</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>7.8000000000000009E-4</v>
-      </c>
-      <c r="H8" s="62">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H8" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-1.2188863600502994E-3</v>
-      </c>
-      <c r="I8" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>1.9988863600502995E-3</v>
-      </c>
-      <c r="J8" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.9986733932196312E-3</v>
-      </c>
-      <c r="K8" s="188">
-        <f t="shared" si="4"/>
-        <v>2.1296683066834507E-3</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K8" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33424657534246577</v>
-      </c>
-      <c r="M8" s="234">
-        <f t="shared" si="1"/>
-        <v>2.1296683066834507E-7</v>
-      </c>
-      <c r="N8" s="184">
+        <v>0.33972602739726027</v>
+      </c>
+      <c r="M8" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>#NUM!</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6722,9 +6423,9 @@
       <c r="Q8" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="282" t="str">
-        <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>None</v>
+      <c r="R8" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6745,43 +6446,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42395</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42499</v>
+        <v>42577</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>8.5000000000000006E-4</v>
-      </c>
-      <c r="H9" s="62">
+        <v>5.2000000000000006E-4</v>
+      </c>
+      <c r="H9" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-1.1758696454302951E-3</v>
-      </c>
-      <c r="I9" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.0258696454302952E-3</v>
-      </c>
-      <c r="J9" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.0360509388013428E-3</v>
-      </c>
-      <c r="K9" s="188">
-        <f t="shared" si="4"/>
-        <v>-0.10181293371047673</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K9" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
-      </c>
-      <c r="M9" s="234">
-        <f t="shared" si="1"/>
-        <v>-1.0181293371047673E-5</v>
-      </c>
-      <c r="N9" s="184">
+        <v>0.41917808219178082</v>
+      </c>
+      <c r="M9" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>#NUM!</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6789,9 +6490,9 @@
       <c r="Q9" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="190">
-        <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>5.6448440012852806E-5</v>
+      <c r="R9" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationError(R6,)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,43 +6513,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42426</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42529</v>
+        <v>42608</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>9.2000000000000003E-4</v>
-      </c>
-      <c r="H10" s="62">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H10" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-1.1419431047384435E-3</v>
-      </c>
-      <c r="I10" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.0619431047384437E-3</v>
-      </c>
-      <c r="J10" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>2.064445035325034E-3</v>
-      </c>
-      <c r="K10" s="188">
-        <f t="shared" si="4"/>
-        <v>-2.5019305865902307E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
-      </c>
-      <c r="M10" s="234">
-        <f t="shared" si="1"/>
-        <v>-2.5019305865902307E-6</v>
-      </c>
-      <c r="N10" s="184">
+        <v>0.50410958904109593</v>
+      </c>
+      <c r="M10" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>#NUM!</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6856,9 +6557,9 @@
       <c r="Q10" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="190">
-        <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>7.4152523860773626E-5</v>
+      <c r="R10" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationMaxError(R6,)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6879,43 +6580,43 @@
       </c>
       <c r="E11" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42377</v>
+        <v>42458</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42559</v>
+        <v>42642</v>
       </c>
       <c r="G11" s="67">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="H11" s="67">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="H11" s="67" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-1.1230104452715755E-3</v>
-      </c>
-      <c r="I11" s="280">
+        <v>#NUM!</v>
+      </c>
+      <c r="I11" s="280" t="e">
         <f t="shared" si="0"/>
-        <v>2.1030104452715755E-3</v>
-      </c>
-      <c r="J11" s="67">
-        <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>2.0898440596130085E-3</v>
-      </c>
-      <c r="K11" s="240">
-        <f t="shared" si="4"/>
-        <v>0.13166385658566931</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" s="67" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="240" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58630136986301373</v>
-      </c>
-      <c r="M11" s="279">
-        <f t="shared" si="1"/>
-        <v>1.3166385658566933E-5</v>
-      </c>
-      <c r="N11" s="183">
+        <v>0.59178082191780823</v>
+      </c>
+      <c r="M11" s="279" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N11" s="183" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007557752387322</v>
+        <v>#NUM!</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6939,43 +6640,43 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42408</v>
+        <v>42486</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42590</v>
+        <v>42669</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>1.0500000000000002E-3</v>
-      </c>
-      <c r="H12" s="62">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="H12" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-1.0578451458745394E-3</v>
-      </c>
-      <c r="I12" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I12" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.1078451458745396E-3</v>
-      </c>
-      <c r="J12" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.1109504259014056E-3</v>
-      </c>
-      <c r="K12" s="188">
-        <f t="shared" si="4"/>
-        <v>-3.105280026866053E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.67123287671232879</v>
-      </c>
-      <c r="M12" s="234">
-        <f t="shared" si="1"/>
-        <v>-3.105280026866053E-6</v>
-      </c>
-      <c r="N12" s="184">
+        <v>0.66849315068493154</v>
+      </c>
+      <c r="M12" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N12" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000868725609952</v>
+        <v>#NUM!</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -7009,43 +6710,43 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42437</v>
+        <v>42516</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42621</v>
+        <v>42702</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>1.1200000000000001E-3</v>
-      </c>
-      <c r="H13" s="62">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H13" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-1.0029806753152977E-3</v>
-      </c>
-      <c r="I13" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I13" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.1229806753152976E-3</v>
-      </c>
-      <c r="J13" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.1275564636728762E-3</v>
-      </c>
-      <c r="K13" s="188">
-        <f t="shared" si="4"/>
-        <v>-4.575788357578589E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K13" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
         <v>0.75068493150684934</v>
       </c>
-      <c r="M13" s="234">
-        <f t="shared" si="1"/>
-        <v>-4.575788357578589E-6</v>
-      </c>
-      <c r="N13" s="184">
+      <c r="M13" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N13" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009629862237717</v>
+        <v>#NUM!</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -7053,9 +6754,9 @@
       <c r="Q13" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="190">
-        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.781745259666332E-3</v>
+      <c r="R13" s="190" t="e">
+        <f t="array" aca="1" ref="R13:R17" ca="1">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -7082,43 +6783,43 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42468</v>
+        <v>42548</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42653</v>
+        <v>42731</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="H14" s="62">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="H14" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-9.4007823058665828E-4</v>
-      </c>
-      <c r="I14" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I14" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.1400782305866584E-3</v>
-      </c>
-      <c r="J14" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.1427517615240925E-3</v>
-      </c>
-      <c r="K14" s="188">
-        <f t="shared" si="4"/>
-        <v>-2.6735309374341203E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K14" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83561643835616439</v>
-      </c>
-      <c r="M14" s="234">
-        <f t="shared" si="1"/>
-        <v>-2.6735309374341203E-6</v>
-      </c>
-      <c r="N14" s="184">
+        <v>0.83835616438356164</v>
+      </c>
+      <c r="M14" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N14" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010581666808025</v>
+        <v>#NUM!</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -7126,8 +6827,9 @@
       <c r="Q14" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="190">
-        <v>8.5778196137636063E-4</v>
+      <c r="R14" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -7154,43 +6856,43 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42499</v>
+        <v>42577</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42683</v>
+        <v>42761</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>1.2900000000000001E-3</v>
-      </c>
-      <c r="H15" s="62">
+        <v>8.1000000000000006E-4</v>
+      </c>
+      <c r="H15" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-8.734289927631758E-4</v>
-      </c>
-      <c r="I15" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I15" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.1634289927631757E-3</v>
-      </c>
-      <c r="J15" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.1561316133231322E-3</v>
-      </c>
-      <c r="K15" s="188">
-        <f t="shared" si="4"/>
-        <v>7.2973794400434805E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K15" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.92054794520547945</v>
-      </c>
-      <c r="M15" s="234">
-        <f t="shared" si="1"/>
-        <v>7.2973794400434805E-6</v>
-      </c>
-      <c r="N15" s="184">
+        <v>0.9178082191780822</v>
+      </c>
+      <c r="M15" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N15" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011497106221909</v>
+        <v>#NUM!</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -7198,8 +6900,9 @@
       <c r="Q15" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="190">
-        <v>-7.0135056285013033E-4</v>
+      <c r="R15" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -7226,43 +6929,43 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42529</v>
+        <v>42608</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42712</v>
+        <v>42793</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.3700000000000001E-3</v>
-      </c>
-      <c r="H16" s="62">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="H16" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-7.9569614773001825E-4</v>
-      </c>
-      <c r="I16" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I16" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.1656961477300183E-3</v>
-      </c>
-      <c r="J16" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.1681461621500457E-3</v>
-      </c>
-      <c r="K16" s="188">
-        <f t="shared" si="4"/>
-        <v>-2.4500144200274333E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J16" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K16" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
         <v>1.0027397260273974</v>
       </c>
-      <c r="M16" s="234">
-        <f t="shared" si="1"/>
-        <v>-2.4500144200274333E-6</v>
-      </c>
-      <c r="N16" s="184">
+      <c r="M16" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N16" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012402523390991</v>
+        <v>#NUM!</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -7270,8 +6973,9 @@
       <c r="Q16" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="190">
-        <v>2.2957560046531553E-4</v>
+      <c r="R16" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -7298,43 +7002,43 @@
       </c>
       <c r="E17" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42559</v>
+        <v>42639</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42744</v>
+        <v>42821</v>
       </c>
       <c r="G17" s="62">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>1.5E-3</v>
-      </c>
-      <c r="H17" s="62">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="H17" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-6.5255104623203298E-4</v>
-      </c>
-      <c r="I17" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I17" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.1525510462320329E-3</v>
-      </c>
-      <c r="J17" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.1800156457889002E-3</v>
-      </c>
-      <c r="K17" s="188">
-        <f t="shared" si="4"/>
-        <v>-0.27464599556867308</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J17" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K17" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.0849315068493151</v>
-      </c>
-      <c r="M17" s="234">
-        <f t="shared" si="1"/>
-        <v>-2.7464599556867308E-5</v>
-      </c>
-      <c r="N17" s="184">
+        <v>1.0876712328767124</v>
+      </c>
+      <c r="M17" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N17" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0013242712555703</v>
+        <v>#NUM!</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7343,7 +7047,8 @@
         <v>117</v>
       </c>
       <c r="R17" s="190" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S17" s="190" t="b">
         <v>0</v>
@@ -7370,43 +7075,43 @@
       </c>
       <c r="E18" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A18&amp;"M","mf",,Trigger)</f>
-        <v>42590</v>
+        <v>42669</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42774</v>
+        <v>42851</v>
       </c>
       <c r="G18" s="62">
         <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>1.6099999999999997E-3</v>
-      </c>
-      <c r="H18" s="62">
+        <v>1.0899999999999998E-3</v>
+      </c>
+      <c r="H18" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-5.7142293852804774E-4</v>
-      </c>
-      <c r="I18" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I18" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.1814229385280475E-3</v>
-      </c>
-      <c r="J18" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.1929407988151473E-3</v>
-      </c>
-      <c r="K18" s="188">
-        <f t="shared" si="4"/>
-        <v>-0.11517860287099754</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J18" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
         <v>1.1698630136986301</v>
       </c>
-      <c r="M18" s="234">
-        <f t="shared" si="1"/>
-        <v>-1.1517860287099755E-5</v>
-      </c>
-      <c r="N18" s="184">
+      <c r="M18" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N18" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0014042761065125</v>
+        <v>#NUM!</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7414,9 +7119,9 @@
       <c r="Q18" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="R18" s="190" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e1#0025</v>
+      <c r="R18" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7438,43 +7143,43 @@
       </c>
       <c r="E19" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A19&amp;"M","mf",,Trigger)</f>
-        <v>42621</v>
+        <v>42702</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42802</v>
+        <v>42884</v>
       </c>
       <c r="G19" s="62">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>1.7299999999999998E-3</v>
-      </c>
-      <c r="H19" s="62">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="H19" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-4.7950303744178778E-4</v>
-      </c>
-      <c r="I19" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I19" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.2095030374417873E-3</v>
-      </c>
-      <c r="J19" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.2073716031252933E-3</v>
-      </c>
-      <c r="K19" s="188">
-        <f t="shared" si="4"/>
-        <v>2.1314343164940616E-2</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J19" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K19" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.2547945205479452</v>
-      </c>
-      <c r="M19" s="234">
-        <f t="shared" si="1"/>
-        <v>2.1314343164940616E-6</v>
-      </c>
-      <c r="N19" s="184">
+        <v>1.2602739726027397</v>
+      </c>
+      <c r="M19" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N19" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0014763776333644</v>
+        <v>#NUM!</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7499,43 +7204,43 @@
       </c>
       <c r="E20" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A20&amp;"M","mf",,Trigger)</f>
-        <v>42653</v>
+        <v>42731</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>42835</v>
+        <v>42913</v>
       </c>
       <c r="G20" s="62">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.89E-3</v>
-      </c>
-      <c r="H20" s="62">
+        <v>1.32E-3</v>
+      </c>
+      <c r="H20" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-3.5488975786727859E-4</v>
-      </c>
-      <c r="I20" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.2448897578672784E-3</v>
-      </c>
-      <c r="J20" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.2247418814503182E-3</v>
-      </c>
-      <c r="K20" s="188">
-        <f t="shared" si="4"/>
-        <v>0.20147876416960145</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J20" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K20" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>1.3424657534246576</v>
-      </c>
-      <c r="M20" s="234">
-        <f t="shared" si="1"/>
-        <v>2.0147876416960146E-5</v>
-      </c>
-      <c r="N20" s="184">
+        <v>1.3397260273972602</v>
+      </c>
+      <c r="M20" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N20" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0015420073754082</v>
+        <v>#NUM!</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7560,43 +7265,43 @@
       </c>
       <c r="E21" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A21&amp;"M","mf",,Trigger)</f>
-        <v>42682</v>
+        <v>42761</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>42863</v>
+        <v>42942</v>
       </c>
       <c r="G21" s="62">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>2.0400000000000001E-3</v>
-      </c>
-      <c r="H21" s="62">
+        <v>1.4399999999999999E-3</v>
+      </c>
+      <c r="H21" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-2.252396820272476E-4</v>
-      </c>
-      <c r="I21" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I21" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>2.2652396820272477E-3</v>
-      </c>
-      <c r="J21" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.2434229072262591E-3</v>
-      </c>
-      <c r="K21" s="188">
-        <f t="shared" si="4"/>
-        <v>0.21816774800988581</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J21" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K21" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
         <v>1.4219178082191781</v>
       </c>
-      <c r="M21" s="234">
-        <f t="shared" si="1"/>
-        <v>2.1816774800988582E-5</v>
-      </c>
-      <c r="N21" s="184">
+      <c r="M21" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N21" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0015950999006336</v>
+        <v>#NUM!</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7621,43 +7326,43 @@
       </c>
       <c r="E22" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A22&amp;"M","mf",,Trigger)</f>
-        <v>42712</v>
+        <v>42793</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>42894</v>
+        <v>42975</v>
       </c>
       <c r="G22" s="65">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="H22" s="65">
+        <v>1.58E-3</v>
+      </c>
+      <c r="H22" s="65" t="e">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-6.6324583335551803E-5</v>
-      </c>
-      <c r="I22" s="260">
+        <v>#NUM!</v>
+      </c>
+      <c r="I22" s="260" t="e">
         <f t="shared" si="0"/>
-        <v>2.2663245833355519E-3</v>
-      </c>
-      <c r="J22" s="65">
-        <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.2664494133273877E-3</v>
-      </c>
-      <c r="K22" s="189">
-        <f t="shared" si="4"/>
-        <v>-1.2482999183589458E-3</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J22" s="65" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K22" s="189" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>1.5041095890410958</v>
-      </c>
-      <c r="M22" s="235">
-        <f t="shared" si="1"/>
-        <v>-1.2482999183589458E-7</v>
-      </c>
-      <c r="N22" s="185">
+        <v>1.5095890410958903</v>
+      </c>
+      <c r="M22" s="235" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N22" s="185" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0016453967424186</v>
+        <v>#NUM!</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7698,15 +7403,15 @@
       </c>
       <c r="G25" s="298">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H25" s="295">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42164</v>
-      </c>
-      <c r="I25" s="287">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>3.241783158713929E-4</v>
+        <v>42243</v>
+      </c>
+      <c r="I25" s="287" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7715,15 +7420,15 @@
       </c>
       <c r="G26" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H26" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42170</v>
-      </c>
-      <c r="I26" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>3.3416013810873475E-4</v>
+        <v>42249</v>
+      </c>
+      <c r="I26" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7732,15 +7437,15 @@
       </c>
       <c r="G27" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H27" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42177</v>
-      </c>
-      <c r="I27" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>3.6559869292534283E-4</v>
+        <v>42256</v>
+      </c>
+      <c r="I27" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7749,15 +7454,15 @@
       </c>
       <c r="G28" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H28" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42184</v>
-      </c>
-      <c r="I28" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>3.6682874906799966E-4</v>
+        <v>42263</v>
+      </c>
+      <c r="I28" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7766,15 +7471,15 @@
       </c>
       <c r="G29" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H29" s="301">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
-      </c>
-      <c r="I29" s="289">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>3.6645507358468166E-4</v>
+        <v>42275</v>
+      </c>
+      <c r="I29" s="289" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7783,15 +7488,15 @@
       </c>
       <c r="G30" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H30" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
-      </c>
-      <c r="I30" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>3.81994436043444E-4</v>
+        <v>42303</v>
+      </c>
+      <c r="I30" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,15 +7505,15 @@
       </c>
       <c r="G31" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H31" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
-      </c>
-      <c r="I31" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>3.9484329466596776E-4</v>
+        <v>42334</v>
+      </c>
+      <c r="I31" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,15 +7522,15 @@
       </c>
       <c r="G32" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H32" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42285</v>
-      </c>
-      <c r="I32" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>4.2839036714768179E-4</v>
+        <v>42366</v>
+      </c>
+      <c r="I32" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7834,15 +7539,15 @@
       </c>
       <c r="G33" s="302">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H33" s="297">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42317</v>
-      </c>
-      <c r="I33" s="290">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>4.5430778824257596E-4</v>
+        <v>42395</v>
+      </c>
+      <c r="I33" s="290" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7851,15 +7556,15 @@
       </c>
       <c r="G34" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42346</v>
-      </c>
-      <c r="I34" s="291">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>4.8065290598658667E-4</v>
+        <v>42426</v>
+      </c>
+      <c r="I34" s="291" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8054,21 +7759,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42529</v>
-      </c>
-      <c r="G3" s="258">
-        <f>J3+$H$4</f>
-        <v>1.6784772997037419E-3</v>
+        <v>42608</v>
+      </c>
+      <c r="G3" s="258" t="e">
+        <f ca="1">J3+$H$4</f>
+        <v>#NAME?</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
-      <c r="J3" s="190">
-        <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>2.8859709757861327E-3</v>
+      <c r="J3" s="190" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="239"/>
@@ -8083,7 +7788,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00593#0000</v>
+        <v>obj_00512#0000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8103,43 +7808,43 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
-        <v>42529</v>
+        <v>42608</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>1.6200000000000001E-3</v>
-      </c>
-      <c r="H4" s="190">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H4" s="190" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-1.2074936760823908E-3</v>
-      </c>
-      <c r="I4" s="258">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" s="258" t="e">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>2.827493676082391E-3</v>
-      </c>
-      <c r="J4" s="186">
-        <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>2.8859709757861327E-3</v>
-      </c>
-      <c r="K4" s="187">
-        <f>L4*10000</f>
-        <v>-0.58477299703741781</v>
-      </c>
-      <c r="L4" s="278">
-        <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>-5.847729970374178E-5</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" s="186" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K4" s="187" t="e">
+        <f ca="1">L4*10000</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L4" s="278" t="e">
+        <f t="shared" ref="L4:L16" ca="1" si="1">I4-J4</f>
+        <v>#NUM!</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="281">
+      <c r="N4" s="281" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>#NUM!</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>1</v>
@@ -8162,43 +7867,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
-        <v>42559</v>
+        <v>42641</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
-      </c>
-      <c r="H5" s="67">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H5" s="67" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-1.1921325587408748E-3</v>
-      </c>
-      <c r="I5" s="280">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" s="280" t="e">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>2.9421325587408748E-3</v>
-      </c>
-      <c r="J5" s="67">
-        <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>2.9021147022755562E-3</v>
-      </c>
-      <c r="K5" s="240">
-        <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>0.40017856465318635</v>
-      </c>
-      <c r="L5" s="279">
-        <f t="shared" si="1"/>
-        <v>4.0017856465318635E-5</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" s="67" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" s="240" t="e">
+        <f t="shared" ref="K5:K16" ca="1" si="4">L5*10000</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L5" s="279" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="N5" s="183">
+        <v>9.0410958904109592E-2</v>
+      </c>
+      <c r="N5" s="183" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>#NUM!</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -8226,43 +7931,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42303</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
-        <v>42592</v>
+        <v>42669</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.8E-3</v>
-      </c>
-      <c r="H6" s="62">
+        <v>1.64E-3</v>
+      </c>
+      <c r="H6" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-1.1620855295020765E-3</v>
-      </c>
-      <c r="I6" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6" s="265" t="e">
         <f t="shared" si="3"/>
-        <v>2.9620855295020765E-3</v>
-      </c>
-      <c r="J6" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>2.9233449638555054E-3</v>
-      </c>
-      <c r="K6" s="188">
-        <f t="shared" si="4"/>
-        <v>0.38740565646571029</v>
-      </c>
-      <c r="L6" s="234">
-        <f t="shared" si="1"/>
-        <v>3.874056564657103E-5</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K6" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L6" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
-      </c>
-      <c r="N6" s="184">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="N6" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>#NUM!</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -8270,9 +7975,9 @@
       <c r="Q6" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="282" t="str">
-        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005df#0024</v>
+      <c r="R6" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8294,43 +7999,43 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42334</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
-        <v>42621</v>
+        <v>42702</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="H7" s="62">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H7" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-1.1240884029558094E-3</v>
-      </c>
-      <c r="I7" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" s="265" t="e">
         <f t="shared" si="3"/>
-        <v>2.9640884029558095E-3</v>
-      </c>
-      <c r="J7" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>2.9447108336345439E-3</v>
-      </c>
-      <c r="K7" s="188">
-        <f t="shared" si="4"/>
-        <v>0.19377569321265586</v>
-      </c>
-      <c r="L7" s="234">
-        <f t="shared" si="1"/>
-        <v>1.9377569321265588E-5</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L7" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
         <v>0.25205479452054796</v>
       </c>
-      <c r="N7" s="184">
+      <c r="N7" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>#NUM!</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8338,9 +8043,9 @@
       <c r="Q7" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="282" t="b">
-        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
-        <v>1</v>
+      <c r="R7" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T7" s="55"/>
     </row>
@@ -8362,43 +8067,43 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42366</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E8)</f>
-        <v>42653</v>
+        <v>42732</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>1.9E-3</v>
-      </c>
-      <c r="H8" s="62">
+        <v>1.7599999999999998E-3</v>
+      </c>
+      <c r="H8" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-1.0784318452227667E-3</v>
-      </c>
-      <c r="I8" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" s="265" t="e">
         <f t="shared" si="3"/>
-        <v>2.9784318452227669E-3</v>
-      </c>
-      <c r="J8" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>2.9691909332129509E-3</v>
-      </c>
-      <c r="K8" s="188">
-        <f t="shared" si="4"/>
-        <v>9.2409120098159603E-2</v>
-      </c>
-      <c r="L8" s="234">
-        <f t="shared" si="1"/>
-        <v>9.240912009815961E-6</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K8" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33424657534246577</v>
-      </c>
-      <c r="N8" s="184">
+        <v>0.33972602739726027</v>
+      </c>
+      <c r="N8" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>#NUM!</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8406,9 +8111,9 @@
       <c r="Q8" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="282" t="str">
-        <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>None</v>
+      <c r="R8" s="282" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T8" s="55"/>
     </row>
@@ -8430,43 +8135,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42395</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
-        <v>42683</v>
+        <v>42761</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>1.97E-3</v>
-      </c>
-      <c r="H9" s="62">
+        <v>1.83E-3</v>
+      </c>
+      <c r="H9" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-1.0235619473227329E-3</v>
-      </c>
-      <c r="I9" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" s="265" t="e">
         <f t="shared" si="3"/>
-        <v>2.9935619473227329E-3</v>
-      </c>
-      <c r="J9" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.9976471962306589E-3</v>
-      </c>
-      <c r="K9" s="188">
-        <f t="shared" si="4"/>
-        <v>-4.0852489079259806E-2</v>
-      </c>
-      <c r="L9" s="234">
-        <f t="shared" si="1"/>
-        <v>-4.0852489079259806E-6</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K9" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L9" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
-      </c>
-      <c r="N9" s="184">
+        <v>0.41917808219178082</v>
+      </c>
+      <c r="N9" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>#NUM!</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8474,9 +8179,9 @@
       <c r="Q9" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="190">
-        <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.2836471234633424E-4</v>
+      <c r="R9" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationError(R6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8498,43 +8203,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42426</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
-        <v>42712</v>
+        <v>42793</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>2.0299999999999997E-3</v>
-      </c>
-      <c r="H10" s="62">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H10" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-9.6858868030299953E-4</v>
-      </c>
-      <c r="I10" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" s="265" t="e">
         <f t="shared" si="3"/>
-        <v>2.9985886803029992E-3</v>
-      </c>
-      <c r="J10" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.0252398075518937E-3</v>
-      </c>
-      <c r="K10" s="188">
-        <f t="shared" si="4"/>
-        <v>-0.26651127248894513</v>
-      </c>
-      <c r="L10" s="234">
-        <f t="shared" si="1"/>
-        <v>-2.6651127248894513E-5</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L10" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
-      </c>
-      <c r="N10" s="184">
+        <v>0.50410958904109593</v>
+      </c>
+      <c r="N10" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>#NUM!</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8542,9 +8247,9 @@
       <c r="Q10" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="190">
-        <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.7883636286524906E-4</v>
+      <c r="R10" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialCalibrationMaxError(R6,)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8566,43 +8271,43 @@
       </c>
       <c r="E11" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42377</v>
+        <v>42458</v>
       </c>
       <c r="F11" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
-        <v>42744</v>
+        <v>42823</v>
       </c>
       <c r="G11" s="62">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>2.1400000000000004E-3</v>
-      </c>
-      <c r="H11" s="62">
+        <v>1.99E-3</v>
+      </c>
+      <c r="H11" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-8.8567113191482573E-4</v>
-      </c>
-      <c r="I11" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I11" s="265" t="e">
         <f t="shared" si="3"/>
-        <v>3.025671131914826E-3</v>
-      </c>
-      <c r="J11" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.0563282654769283E-3</v>
-      </c>
-      <c r="K11" s="188">
-        <f t="shared" si="4"/>
-        <v>-0.30657133562102257</v>
-      </c>
-      <c r="L11" s="234">
-        <f t="shared" si="1"/>
-        <v>-3.0657133562102257E-5</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L11" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58630136986301373</v>
-      </c>
-      <c r="N11" s="184">
+        <v>0.59178082191780823</v>
+      </c>
+      <c r="N11" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007557752387322</v>
+        <v>#NUM!</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8627,43 +8332,43 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42408</v>
+        <v>42486</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
-        <v>42774</v>
+        <v>42851</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>2.2599999999999999E-3</v>
-      </c>
-      <c r="H12" s="62">
+        <v>2.0800000000000003E-3</v>
+      </c>
+      <c r="H12" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-8.1315138646498493E-4</v>
-      </c>
-      <c r="I12" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I12" s="265" t="e">
         <f t="shared" si="3"/>
-        <v>3.0731513864649847E-3</v>
-      </c>
-      <c r="J12" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.0887519870532588E-3</v>
-      </c>
-      <c r="K12" s="188">
-        <f t="shared" si="4"/>
-        <v>-0.15600600588274155</v>
-      </c>
-      <c r="L12" s="234">
-        <f t="shared" si="1"/>
-        <v>-1.5600600588274154E-5</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L12" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.67123287671232879</v>
-      </c>
-      <c r="N12" s="184">
+        <v>0.66849315068493154</v>
+      </c>
+      <c r="N12" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000868725609952</v>
+        <v>#NUM!</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8697,43 +8402,43 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42437</v>
+        <v>42516</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
-        <v>42802</v>
+        <v>42881</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="H13" s="62">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="H13" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-7.432712396037201E-4</v>
-      </c>
-      <c r="I13" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I13" s="265" t="e">
         <f t="shared" si="3"/>
-        <v>3.1132712396037205E-3</v>
-      </c>
-      <c r="J13" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.1200113629694672E-3</v>
-      </c>
-      <c r="K13" s="188">
-        <f t="shared" si="4"/>
-        <v>-6.7401233657467419E-2</v>
-      </c>
-      <c r="L13" s="234">
-        <f t="shared" si="1"/>
-        <v>-6.7401233657467426E-6</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K13" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L13" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
         <v>0.75068493150684934</v>
       </c>
-      <c r="N13" s="184">
+      <c r="N13" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009629862237717</v>
+        <v>#NUM!</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8741,9 +8446,9 @@
       <c r="Q13" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="190">
-        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>2.8859709757861327E-3</v>
+      <c r="R13" s="190" t="e">
+        <f t="array" aca="1" ref="R13:R17" ca="1">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -8770,43 +8475,43 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42468</v>
+        <v>42548</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
-        <v>42835</v>
+        <v>42913</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.5100000000000001E-3</v>
-      </c>
-      <c r="H14" s="62">
+        <v>2.3E-3</v>
+      </c>
+      <c r="H14" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-6.4979075058956915E-4</v>
-      </c>
-      <c r="I14" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I14" s="265" t="e">
         <f t="shared" si="0"/>
-        <v>3.1597907505895692E-3</v>
-      </c>
-      <c r="J14" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.154117314021257E-3</v>
-      </c>
-      <c r="K14" s="188">
-        <f t="shared" si="4"/>
-        <v>5.6734365683121929E-2</v>
-      </c>
-      <c r="L14" s="234">
-        <f t="shared" si="1"/>
-        <v>5.6734365683121929E-6</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K14" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L14" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83561643835616439</v>
-      </c>
-      <c r="N14" s="184">
+        <v>0.83835616438356164</v>
+      </c>
+      <c r="N14" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010581666808025</v>
+        <v>#NUM!</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8814,8 +8519,9 @@
       <c r="Q14" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="190">
-        <v>1.7690198664969817E-4</v>
+      <c r="R14" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -8842,43 +8548,43 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42499</v>
+        <v>42577</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
-        <v>42864</v>
+        <v>42942</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>2.66E-3</v>
-      </c>
-      <c r="H15" s="62">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="H15" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-5.4952239367591098E-4</v>
-      </c>
-      <c r="I15" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I15" s="265" t="e">
         <f>G15-H15</f>
-        <v>3.2095223936759111E-3</v>
-      </c>
-      <c r="J15" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.1886263052130592E-3</v>
-      </c>
-      <c r="K15" s="188">
-        <f t="shared" si="4"/>
-        <v>0.20896088462851908</v>
-      </c>
-      <c r="L15" s="234">
-        <f t="shared" si="1"/>
-        <v>2.089608846285191E-5</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K15" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L15" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.92054794520547945</v>
-      </c>
-      <c r="N15" s="184">
+        <v>0.9178082191780822</v>
+      </c>
+      <c r="N15" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011497106221909</v>
+        <v>#NUM!</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8886,8 +8592,9 @@
       <c r="Q15" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="190">
-        <v>2.4451331394233434E-4</v>
+      <c r="R15" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -8914,43 +8621,43 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42529</v>
+        <v>42608</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
-        <v>42894</v>
+        <v>42975</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="H16" s="62">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="H16" s="62" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-4.3199612796486318E-4</v>
-      </c>
-      <c r="I16" s="265">
+        <v>#NUM!</v>
+      </c>
+      <c r="I16" s="265" t="e">
         <f>G16-H16</f>
-        <v>3.2319961279648635E-3</v>
-      </c>
-      <c r="J16" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.2221067327678449E-3</v>
-      </c>
-      <c r="K16" s="188">
-        <f t="shared" si="4"/>
-        <v>9.8893951970186772E-2</v>
-      </c>
-      <c r="L16" s="234">
-        <f t="shared" si="1"/>
-        <v>9.8893951970186779E-6</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J16" s="62" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K16" s="188" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L16" s="234" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
         <v>1.0027397260273974</v>
       </c>
-      <c r="N16" s="184">
+      <c r="N16" s="184" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012402523390991</v>
+        <v>#NUM!</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8958,8 +8665,9 @@
       <c r="Q16" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="190">
-        <v>-8.6393807601144336E-5</v>
+      <c r="R16" s="190" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -8984,43 +8692,43 @@
       </c>
       <c r="E17" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42894</v>
+        <v>42975</v>
       </c>
       <c r="F17" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E17)</f>
-        <v>43259</v>
+        <v>43340</v>
       </c>
       <c r="G17" s="65">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>5.1700000000000001E-3</v>
-      </c>
-      <c r="H17" s="65">
+        <v>4.3399999999999992E-3</v>
+      </c>
+      <c r="H17" s="65" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>1.6446242247501973E-3</v>
-      </c>
-      <c r="I17" s="260">
+        <v>#NUM!</v>
+      </c>
+      <c r="I17" s="260" t="e">
         <f>G17-H17</f>
-        <v>3.5253757752498026E-3</v>
-      </c>
-      <c r="J17" s="65">
-        <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>3.526999603306082E-3</v>
-      </c>
-      <c r="K17" s="189">
-        <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>-1.6238280562794367E-2</v>
-      </c>
-      <c r="L17" s="235">
-        <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>-1.6238280562794367E-6</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="J17" s="65" t="e">
+        <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K17" s="189" t="e">
+        <f t="shared" ref="K17" ca="1" si="7">L17*10000</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L17" s="235" t="e">
+        <f t="shared" ref="L17" ca="1" si="8">I17-J17</f>
+        <v>#NUM!</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>2.0027397260273974</v>
-      </c>
-      <c r="N17" s="185">
+        <v>2.0082191780821916</v>
+      </c>
+      <c r="N17" s="185" t="e">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0016789838015994</v>
+        <v>#NUM!</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -9029,7 +8737,8 @@
         <v>117</v>
       </c>
       <c r="R17" s="190" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S17" s="190" t="b">
         <v>0</v>
@@ -9053,9 +8762,9 @@
       <c r="Q18" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="R18" s="190" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e2#0024</v>
+      <c r="R18" s="190" t="e">
+        <f ca="1">_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9087,15 +8796,15 @@
       </c>
       <c r="G20" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H20" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
-        <v>42164</v>
-      </c>
-      <c r="I20" s="287">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>1.609122302923538E-3</v>
+        <v>42243</v>
+      </c>
+      <c r="I20" s="287" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9105,15 +8814,15 @@
       </c>
       <c r="G21" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H21" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
-        <v>42170</v>
-      </c>
-      <c r="I21" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>1.6082451892161587E-3</v>
+        <v>42249</v>
+      </c>
+      <c r="I21" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9122,15 +8831,15 @@
       </c>
       <c r="G22" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H22" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
-        <v>42177</v>
-      </c>
-      <c r="I22" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>1.6272938688897754E-3</v>
+        <v>42256</v>
+      </c>
+      <c r="I22" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9139,15 +8848,15 @@
       </c>
       <c r="G23" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H23" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
-        <v>42184</v>
-      </c>
-      <c r="I23" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>1.6164289598753964E-3</v>
+        <v>42263</v>
+      </c>
+      <c r="I23" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,15 +8865,15 @@
       </c>
       <c r="G24" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H24" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
-      </c>
-      <c r="I24" s="289">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>1.6009335986062467E-3</v>
+        <v>42275</v>
+      </c>
+      <c r="I24" s="289" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9173,15 +8882,15 @@
       </c>
       <c r="G25" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H25" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
-      </c>
-      <c r="I25" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>1.5650524683749217E-3</v>
+        <v>42303</v>
+      </c>
+      <c r="I25" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9190,15 +8899,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
-      </c>
-      <c r="I26" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.5377312623009118E-3</v>
+        <v>42334</v>
+      </c>
+      <c r="I26" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9207,15 +8916,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
-        <v>42285</v>
-      </c>
-      <c r="I27" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.5344112658990528E-3</v>
+        <v>42366</v>
+      </c>
+      <c r="I27" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,15 +8933,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
-        <v>42317</v>
-      </c>
-      <c r="I28" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.5259618386373067E-3</v>
+        <v>42395</v>
+      </c>
+      <c r="I28" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9241,15 +8950,15 @@
       </c>
       <c r="G29" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H29" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42346</v>
-      </c>
-      <c r="I29" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.5253302475532371E-3</v>
+        <v>42426</v>
+      </c>
+      <c r="I29" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9258,15 +8967,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42377</v>
-      </c>
-      <c r="I30" s="288">
-        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>42458</v>
+      </c>
+      <c r="I30" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,15 +8984,15 @@
       </c>
       <c r="G31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42408</v>
-      </c>
-      <c r="I31" s="288">
-        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>42486</v>
+      </c>
+      <c r="I31" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9292,15 +9001,15 @@
       </c>
       <c r="G32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42437</v>
-      </c>
-      <c r="I32" s="288">
-        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>42516</v>
+      </c>
+      <c r="I32" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9309,15 +9018,15 @@
       </c>
       <c r="G33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42468</v>
-      </c>
-      <c r="I33" s="288">
-        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>42548</v>
+      </c>
+      <c r="I33" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9326,15 +9035,15 @@
       </c>
       <c r="G34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42499</v>
-      </c>
-      <c r="I34" s="288">
-        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>42577</v>
+      </c>
+      <c r="I34" s="288" t="e">
+        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9343,15 +9052,15 @@
       </c>
       <c r="G35" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="H35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
-        <v>42529</v>
-      </c>
-      <c r="I35" s="291">
-        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>42608</v>
+      </c>
+      <c r="I35" s="291" t="e">
+        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9504,27 +9213,27 @@
       </c>
       <c r="B3" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C3)</f>
-        <v>42159</v>
+        <v>42240</v>
       </c>
       <c r="C3" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A3&amp;"M","mf")</f>
-        <v>42163</v>
+        <v>42242</v>
       </c>
       <c r="D3" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
-        <v>42529</v>
-      </c>
-      <c r="E3" s="75">
+        <v>42608</v>
+      </c>
+      <c r="E3" s="75" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-1.2074936760823908E-3</v>
-      </c>
-      <c r="F3" s="76">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" s="76" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>2.9249878924715112E-3</v>
-      </c>
-      <c r="G3" s="75">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G3" s="75" t="e">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.7174942163891203E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9536,27 +9245,27 @@
       </c>
       <c r="B4" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C4)</f>
-        <v>42191</v>
+        <v>42271</v>
       </c>
       <c r="C4" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A4&amp;"M","mf")</f>
-        <v>42193</v>
+        <v>42275</v>
       </c>
       <c r="D4" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
-        <v>42559</v>
-      </c>
-      <c r="E4" s="79">
+        <v>42641</v>
+      </c>
+      <c r="E4" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-1.1921325587408748E-3</v>
-      </c>
-      <c r="F4" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>2.9421325587408748E-3</v>
-      </c>
-      <c r="G4" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>1.75E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9568,27 +9277,27 @@
       </c>
       <c r="B5" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C5)</f>
-        <v>42222</v>
+        <v>42299</v>
       </c>
       <c r="C5" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A5&amp;"M","mf")</f>
-        <v>42226</v>
+        <v>42303</v>
       </c>
       <c r="D5" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
-        <v>42592</v>
-      </c>
-      <c r="E5" s="79">
+        <v>42669</v>
+      </c>
+      <c r="E5" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-1.1620855295020765E-3</v>
-      </c>
-      <c r="F5" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>2.9620855295020765E-3</v>
-      </c>
-      <c r="G5" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>1.8E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9600,27 +9309,27 @@
       </c>
       <c r="B6" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C6)</f>
-        <v>42251</v>
+        <v>42332</v>
       </c>
       <c r="C6" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A6&amp;"M","mf")</f>
-        <v>42255</v>
+        <v>42334</v>
       </c>
       <c r="D6" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
-        <v>42621</v>
-      </c>
-      <c r="E6" s="79">
+        <v>42702</v>
+      </c>
+      <c r="E6" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-1.1240884029558094E-3</v>
-      </c>
-      <c r="F6" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>2.9640884029558095E-3</v>
-      </c>
-      <c r="G6" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>1.8400000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9632,27 +9341,27 @@
       </c>
       <c r="B7" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C7)</f>
-        <v>42283</v>
+        <v>42361</v>
       </c>
       <c r="C7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A7&amp;"M","mf")</f>
-        <v>42285</v>
+        <v>42366</v>
       </c>
       <c r="D7" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C7)</f>
-        <v>42653</v>
-      </c>
-      <c r="E7" s="79">
+        <v>42732</v>
+      </c>
+      <c r="E7" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-1.0784318452227667E-3</v>
-      </c>
-      <c r="F7" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>2.9784318452227669E-3</v>
-      </c>
-      <c r="G7" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>1.9000000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9664,27 +9373,27 @@
       </c>
       <c r="B8" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C8)</f>
-        <v>42313</v>
+        <v>42391</v>
       </c>
       <c r="C8" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A8&amp;"M","mf")</f>
-        <v>42317</v>
+        <v>42395</v>
       </c>
       <c r="D8" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
-        <v>42683</v>
-      </c>
-      <c r="E8" s="79">
+        <v>42761</v>
+      </c>
+      <c r="E8" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-1.0235619473227329E-3</v>
-      </c>
-      <c r="F8" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>2.9935619473227329E-3</v>
-      </c>
-      <c r="G8" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>1.97E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9696,27 +9405,27 @@
       </c>
       <c r="B9" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C9)</f>
-        <v>42342</v>
+        <v>42424</v>
       </c>
       <c r="C9" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A9&amp;"M","mf")</f>
-        <v>42346</v>
+        <v>42426</v>
       </c>
       <c r="D9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
-        <v>42712</v>
-      </c>
-      <c r="E9" s="79">
+        <v>42793</v>
+      </c>
+      <c r="E9" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-9.6858868030299953E-4</v>
-      </c>
-      <c r="F9" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>2.9985886803029992E-3</v>
-      </c>
-      <c r="G9" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>2.0299999999999997E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9728,27 +9437,27 @@
       </c>
       <c r="B10" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C10)</f>
-        <v>42375</v>
+        <v>42452</v>
       </c>
       <c r="C10" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A10&amp;"M","mf")</f>
-        <v>42377</v>
+        <v>42458</v>
       </c>
       <c r="D10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
-        <v>42744</v>
-      </c>
-      <c r="E10" s="79">
+        <v>42823</v>
+      </c>
+      <c r="E10" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-8.8567113191482573E-4</v>
-      </c>
-      <c r="F10" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.025671131914826E-3</v>
-      </c>
-      <c r="G10" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>2.1400000000000004E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H10" s="72"/>
       <c r="Z10" s="71"/>
@@ -9761,27 +9470,27 @@
       </c>
       <c r="B11" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C11)</f>
-        <v>42404</v>
+        <v>42482</v>
       </c>
       <c r="C11" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A11&amp;"M","mf")</f>
-        <v>42408</v>
+        <v>42486</v>
       </c>
       <c r="D11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
-        <v>42774</v>
-      </c>
-      <c r="E11" s="79">
+        <v>42851</v>
+      </c>
+      <c r="E11" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-8.1315138646498493E-4</v>
-      </c>
-      <c r="F11" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.0731513864649847E-3</v>
-      </c>
-      <c r="G11" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>2.2599999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H11" s="72"/>
       <c r="Z11" s="71"/>
@@ -9794,27 +9503,27 @@
       </c>
       <c r="B12" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C12)</f>
-        <v>42433</v>
+        <v>42514</v>
       </c>
       <c r="C12" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>42437</v>
+        <v>42516</v>
       </c>
       <c r="D12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
-        <v>42802</v>
-      </c>
-      <c r="E12" s="79">
+        <v>42881</v>
+      </c>
+      <c r="E12" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-7.432712396037201E-4</v>
-      </c>
-      <c r="F12" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F12" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.1132712396037205E-3</v>
-      </c>
-      <c r="G12" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>2.3700000000000006E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9827,27 +9536,27 @@
       </c>
       <c r="B13" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C13)</f>
-        <v>42466</v>
+        <v>42544</v>
       </c>
       <c r="C13" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>42468</v>
+        <v>42548</v>
       </c>
       <c r="D13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
-        <v>42835</v>
-      </c>
-      <c r="E13" s="79">
+        <v>42913</v>
+      </c>
+      <c r="E13" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-6.4979075058956915E-4</v>
-      </c>
-      <c r="F13" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F13" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.1597907505895692E-3</v>
-      </c>
-      <c r="G13" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>2.5100000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9860,27 +9569,27 @@
       </c>
       <c r="B14" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C14)</f>
-        <v>42495</v>
+        <v>42573</v>
       </c>
       <c r="C14" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>42499</v>
+        <v>42577</v>
       </c>
       <c r="D14" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
-        <v>42864</v>
-      </c>
-      <c r="E14" s="83">
+        <v>42942</v>
+      </c>
+      <c r="E14" s="83" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-5.4952239367591098E-4</v>
-      </c>
-      <c r="F14" s="84">
+        <v>#NUM!</v>
+      </c>
+      <c r="F14" s="84" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.2095223936759111E-3</v>
-      </c>
-      <c r="G14" s="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="83" t="e">
         <f t="shared" si="0"/>
-        <v>2.66E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9893,27 +9602,27 @@
       </c>
       <c r="B15" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C15)</f>
-        <v>42527</v>
+        <v>42606</v>
       </c>
       <c r="C15" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A15&amp;"M","mf")</f>
-        <v>42529</v>
+        <v>42608</v>
       </c>
       <c r="D15" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
-        <v>42894</v>
-      </c>
-      <c r="E15" s="75">
+        <v>42975</v>
+      </c>
+      <c r="E15" s="75" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-4.3199612796486318E-4</v>
-      </c>
-      <c r="F15" s="76">
+        <v>#NUM!</v>
+      </c>
+      <c r="F15" s="76" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.2319961279648635E-3</v>
-      </c>
-      <c r="G15" s="75">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="75" t="e">
         <f t="shared" si="0"/>
-        <v>2.8000000000000004E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9926,27 +9635,27 @@
       </c>
       <c r="B16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C16)</f>
-        <v>42557</v>
+        <v>42635</v>
       </c>
       <c r="C16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A16&amp;"M","mf")</f>
-        <v>42559</v>
+        <v>42639</v>
       </c>
       <c r="D16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
-        <v>42926</v>
-      </c>
-      <c r="E16" s="79">
+        <v>43004</v>
+      </c>
+      <c r="E16" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-3.034970565257806E-4</v>
-      </c>
-      <c r="F16" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F16" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.2491099821507236E-3</v>
-      </c>
-      <c r="G16" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>2.9456129256249432E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9959,27 +9668,27 @@
       </c>
       <c r="B17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C17)</f>
-        <v>42586</v>
+        <v>42667</v>
       </c>
       <c r="C17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A17&amp;"M","mf")</f>
-        <v>42590</v>
+        <v>42669</v>
       </c>
       <c r="D17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
-        <v>42955</v>
-      </c>
-      <c r="E17" s="79">
+        <v>43034</v>
+      </c>
+      <c r="E17" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-1.7353360523490223E-4</v>
-      </c>
-      <c r="F17" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.2686832928084629E-3</v>
-      </c>
-      <c r="G17" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>3.0951496875735608E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -9992,27 +9701,27 @@
       </c>
       <c r="B18" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C18)</f>
-        <v>42619</v>
+        <v>42698</v>
       </c>
       <c r="C18" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A18&amp;"M","mf")</f>
-        <v>42621</v>
+        <v>42702</v>
       </c>
       <c r="D18" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C18)</f>
-        <v>42986</v>
-      </c>
-      <c r="E18" s="79">
+        <v>43067</v>
+      </c>
+      <c r="E18" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-3.1316881745381079E-5</v>
-      </c>
-      <c r="F18" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.2900006325037633E-3</v>
-      </c>
-      <c r="G18" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>3.2586837507583822E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -10025,27 +9734,27 @@
       </c>
       <c r="B19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C19)</f>
-        <v>42649</v>
+        <v>42726</v>
       </c>
       <c r="C19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>42653</v>
+        <v>42731</v>
       </c>
       <c r="D19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
-        <v>43018</v>
-      </c>
-      <c r="E19" s="79">
+        <v>43096</v>
+      </c>
+      <c r="E19" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>1.2407591610514126E-4</v>
-      </c>
-      <c r="F19" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F19" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.3136464044181205E-3</v>
-      </c>
-      <c r="G19" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>3.4377223205232618E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -10058,27 +9767,27 @@
       </c>
       <c r="B20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C20)</f>
-        <v>42678</v>
+        <v>42759</v>
       </c>
       <c r="C20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>42682</v>
+        <v>42761</v>
       </c>
       <c r="D20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
-        <v>43047</v>
-      </c>
-      <c r="E20" s="79">
+        <v>43126</v>
+      </c>
+      <c r="E20" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>2.7488306561570971E-4</v>
-      </c>
-      <c r="F20" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.336353205986979E-3</v>
-      </c>
-      <c r="G20" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>3.6112362716026886E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10091,27 +9800,27 @@
       </c>
       <c r="B21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C21)</f>
-        <v>42710</v>
+        <v>42789</v>
       </c>
       <c r="C21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>42712</v>
+        <v>42793</v>
       </c>
       <c r="D21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C21)</f>
-        <v>43077</v>
-      </c>
-      <c r="E21" s="79">
+        <v>43158</v>
+      </c>
+      <c r="E21" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>4.4373441001084954E-4</v>
-      </c>
-      <c r="F21" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F21" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.3609612856669046E-3</v>
-      </c>
-      <c r="G21" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>3.804695695677754E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10124,27 +9833,27 @@
       </c>
       <c r="B22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C22)</f>
-        <v>42740</v>
+        <v>42817</v>
       </c>
       <c r="C22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>42744</v>
+        <v>42821</v>
       </c>
       <c r="D22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
-        <v>43109</v>
-      </c>
-      <c r="E22" s="79">
+        <v>43186</v>
+      </c>
+      <c r="E22" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>6.0629936131333356E-4</v>
-      </c>
-      <c r="F22" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F22" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>3.3882837600152861E-3</v>
-      </c>
-      <c r="G22" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>3.9945831213286194E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10157,27 +9866,27 @@
       </c>
       <c r="B23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C23)</f>
-        <v>42772</v>
+        <v>42849</v>
       </c>
       <c r="C23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>42774</v>
+        <v>42851</v>
       </c>
       <c r="D23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
-        <v>43139</v>
-      </c>
-      <c r="E23" s="79">
+        <v>43216</v>
+      </c>
+      <c r="E23" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>8.018408858130869E-4</v>
-      </c>
-      <c r="F23" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F23" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>3.4147350622349094E-3</v>
-      </c>
-      <c r="G23" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>4.2165759480479962E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10190,27 +9899,27 @@
       </c>
       <c r="B24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C24)</f>
-        <v>42800</v>
+        <v>42879</v>
       </c>
       <c r="C24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42802</v>
+        <v>42881</v>
       </c>
       <c r="D24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
-        <v>43167</v>
-      </c>
-      <c r="E24" s="79">
+        <v>43248</v>
+      </c>
+      <c r="E24" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>9.9041708585097775E-4</v>
-      </c>
-      <c r="F24" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F24" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>3.4400078691739938E-3</v>
-      </c>
-      <c r="G24" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>4.4304249550249711E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10223,27 +9932,27 @@
       </c>
       <c r="B25" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C25)</f>
-        <v>42831</v>
+        <v>42908</v>
       </c>
       <c r="C25" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A25&amp;"M","mf")</f>
-        <v>42835</v>
+        <v>42912</v>
       </c>
       <c r="D25" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
-        <v>43200</v>
-      </c>
-      <c r="E25" s="79">
+        <v>43277</v>
+      </c>
+      <c r="E25" s="79" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>1.216924080933587E-3</v>
-      </c>
-      <c r="F25" s="80">
+        <v>#NUM!</v>
+      </c>
+      <c r="F25" s="80" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>3.4703364507519953E-3</v>
-      </c>
-      <c r="G25" s="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" s="79" t="e">
         <f t="shared" si="0"/>
-        <v>4.6872605316855822E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10256,27 +9965,27 @@
       </c>
       <c r="B26" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C26)</f>
-        <v>42859</v>
+        <v>42940</v>
       </c>
       <c r="C26" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A26&amp;"M","mf")</f>
-        <v>42863</v>
+        <v>42942</v>
       </c>
       <c r="D26" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
-        <v>43228</v>
-      </c>
-      <c r="E26" s="83">
+        <v>43307</v>
+      </c>
+      <c r="E26" s="83" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>1.4150636088540642E-3</v>
-      </c>
-      <c r="F26" s="84">
+        <v>#NUM!</v>
+      </c>
+      <c r="F26" s="84" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>3.4963790818891114E-3</v>
-      </c>
-      <c r="G26" s="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" s="83" t="e">
         <f t="shared" si="0"/>
-        <v>4.9114426907431756E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10289,27 +9998,27 @@
       </c>
       <c r="B27" s="340">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C27)</f>
-        <v>42892</v>
+        <v>42971</v>
       </c>
       <c r="C27" s="340">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A27&amp;"M","mf")</f>
-        <v>42894</v>
+        <v>42975</v>
       </c>
       <c r="D27" s="340">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C27)</f>
-        <v>43259</v>
-      </c>
-      <c r="E27" s="341">
+        <v>43340</v>
+      </c>
+      <c r="E27" s="341" t="e">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>1.6446242247501973E-3</v>
-      </c>
-      <c r="F27" s="342">
+        <v>#NUM!</v>
+      </c>
+      <c r="F27" s="342" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>3.5253757752498026E-3</v>
-      </c>
-      <c r="G27" s="341">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" s="341" t="e">
         <f t="shared" si="0"/>
-        <v>5.1700000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10350,7 +10059,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J3" sqref="J3:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10419,8 +10128,8 @@
         <v>54</v>
       </c>
       <c r="N2" s="102">
-        <f>_xll.ohTrigger(M3:M7)</f>
-        <v>1</v>
+        <f ca="1">_xll.ohTrigger(M3:M7)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10446,23 +10155,23 @@
       <c r="G3" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="139">
-        <f>'1MSynthDepo'!V11</f>
-        <v>-5.9043666484015489E-4</v>
+      <c r="H3" s="139" t="e">
+        <f ca="1">'1MSynthDepo'!V11</f>
+        <v>#NAME?</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="132">
-        <v>-5.3379496031347173E-4</v>
+        <v>-9.8429979826786251E-4</v>
       </c>
       <c r="K3" s="14"/>
-      <c r="L3" s="120">
-        <f t="array" ref="L3:L63">QuoteLive</f>
-        <v>-5.9043666484015489E-4</v>
+      <c r="L3" s="120" t="e">
+        <f t="array" ref="L3:L63" ca="1">QuoteLive</f>
+        <v>#NAME?</v>
       </c>
       <c r="M3" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="N3" s="104"/>
@@ -10491,22 +10200,23 @@
       <c r="G4" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="139">
-        <f>'1MSynthDepo'!V12</f>
-        <v>-5.9885151029488118E-4</v>
+      <c r="H4" s="139" t="e">
+        <f ca="1">'1MSynthDepo'!V12</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="132">
-        <v>-3.9059723107914834E-4</v>
+        <v>-9.5880917084186933E-4</v>
       </c>
       <c r="K4" s="14"/>
-      <c r="L4" s="120">
-        <v>-5.9885151029488118E-4</v>
+      <c r="L4" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M4" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="N4" s="104"/>
@@ -10532,22 +10242,23 @@
       <c r="G5" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="139">
-        <f>'1MSynthDepo'!V13</f>
-        <v>-5.8752678013267764E-4</v>
+      <c r="H5" s="139" t="e">
+        <f ca="1">'1MSynthDepo'!V13</f>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="132">
-        <v>-2.022527404326497E-4</v>
+        <v>-9.541268486290555E-4</v>
       </c>
       <c r="K5" s="14"/>
-      <c r="L5" s="120">
-        <v>-5.8752678013267764E-4</v>
+      <c r="L5" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M5" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="N5" s="104"/>
@@ -10573,22 +10284,23 @@
       <c r="G6" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="139">
-        <f>'1MSynthDepo'!V14</f>
-        <v>-6.0502935140022932E-4</v>
+      <c r="H6" s="139" t="e">
+        <f ca="1">'1MSynthDepo'!V14</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="133">
-        <v>-2.8647777488328377E-4</v>
+        <v>-9.5437681977093652E-4</v>
       </c>
       <c r="K6" s="14"/>
-      <c r="L6" s="122">
-        <v>-6.0502935140022932E-4</v>
+      <c r="L6" s="122" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="123">
-        <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="N6" s="104"/>
@@ -10614,22 +10326,23 @@
       <c r="G7" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="142">
-        <f>'1MSynthDepo'!V15</f>
-        <v>-6.2758270029439345E-4</v>
+      <c r="H7" s="142" t="e">
+        <f ca="1">'1MSynthDepo'!V15</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="134">
-        <v>-3.3999999999956287E-4</v>
+        <v>-9.4503161439723538E-4</v>
       </c>
       <c r="K7" s="14"/>
-      <c r="L7" s="124">
-        <v>-6.2758270029439345E-4</v>
+      <c r="L7" s="124" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M7" s="125">
-        <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="N7" s="107"/>
@@ -10654,25 +10367,26 @@
       <c r="G8" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="144">
-        <f>'3MSynthDepo'!I25</f>
-        <v>-1.5235886164699508E-4</v>
+      <c r="H8" s="144" t="e">
+        <f ca="1">'3MSynthDepo'!I25</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
-        <v>-6.5904013166750985E-5</v>
+        <v>-2.8656234821067272E-4</v>
       </c>
       <c r="K8" s="16"/>
-      <c r="L8" s="120">
-        <v>-1.5235886164699508E-4</v>
+      <c r="L8" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M8" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>6.9999999999999804E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N8" s="108">
-        <f>_xll.ohTrigger(M8:M14)</f>
-        <v>1</v>
+        <f ca="1">_xll.ohTrigger(M8:M14)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10696,21 +10410,22 @@
       <c r="G9" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="139">
-        <f>'3MSynthDepo'!I26</f>
-        <v>-1.4615060688529167E-4</v>
+      <c r="H9" s="139" t="e">
+        <f ca="1">'3MSynthDepo'!I26</f>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
-        <v>6.7527620855045711E-5</v>
+        <v>-2.8343102198949817E-4</v>
       </c>
       <c r="K9" s="16"/>
-      <c r="L9" s="120">
-        <v>-1.4615060688529167E-4</v>
+      <c r="L9" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>6.0000000000000103E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10732,21 +10447,22 @@
       <c r="G10" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="139">
-        <f>'3MSynthDepo'!I27</f>
-        <v>-1.1905590967087321E-4</v>
+      <c r="H10" s="139" t="e">
+        <f ca="1">'3MSynthDepo'!I27</f>
+        <v>#NAME?</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
-        <v>2.4652230037336409E-4</v>
+        <v>-2.9978663405705319E-4</v>
       </c>
       <c r="K10" s="16"/>
-      <c r="L10" s="120">
-        <v>-1.1905590967087321E-4</v>
+      <c r="L10" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M10" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>5.9999999999999968E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10768,21 +10484,22 @@
       <c r="G11" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="147">
-        <f>'3MSynthDepo'!I28</f>
-        <v>-1.2210649579267953E-4</v>
+      <c r="H11" s="147" t="e">
+        <f ca="1">'3MSynthDepo'!I28</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
-        <v>1.5514146245010352E-4</v>
+        <v>-3.1613685863986414E-4</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="122">
-        <v>-1.2210649579267953E-4</v>
+      <c r="L11" s="122" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M11" s="123">
-        <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>5.9999999999999968E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10804,21 +10521,22 @@
       <c r="G12" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="139">
-        <f>'3MSynthDepo'!I29</f>
-        <v>-1.2789266630397478E-4</v>
+      <c r="H12" s="139" t="e">
+        <f ca="1">'3MSynthDepo'!I29</f>
+        <v>#NAME?</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
-        <v>9.5648429845773819E-5</v>
+        <v>-3.2441112299769713E-4</v>
       </c>
       <c r="K12" s="16"/>
-      <c r="L12" s="120">
-        <v>-1.2789266630397478E-4</v>
+      <c r="L12" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M12" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>5.0000000000000131E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10840,21 +10558,22 @@
       <c r="G13" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="139">
-        <f>'3MSynthDepo'!I30</f>
-        <v>-1.3135129780675724E-4</v>
+      <c r="H13" s="139" t="e">
+        <f ca="1">'3MSynthDepo'!I30</f>
+        <v>#NAME?</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
-        <v>5.4506305091701146E-5</v>
+        <v>-3.2136197636945516E-4</v>
       </c>
       <c r="K13" s="16"/>
-      <c r="L13" s="120">
-        <v>-1.3135129780675724E-4</v>
+      <c r="L13" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M13" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>3.9999999999999888E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10876,21 +10595,22 @@
       <c r="G14" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="147">
-        <f>'3MSynthDepo'!I31</f>
-        <v>-1.3414978244339639E-4</v>
+      <c r="H14" s="147" t="e">
+        <f ca="1">'3MSynthDepo'!I31</f>
+        <v>#NAME?</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
-        <v>2.1169088631484696E-5</v>
+        <v>-3.3165240040658104E-4</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="122">
-        <v>-1.3414978244339639E-4</v>
+      <c r="L14" s="122" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M14" s="123">
-        <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>2.9999999999999916E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10917,25 +10637,26 @@
       <c r="G15" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="144">
-        <f>'6MSynthDepo'!I25</f>
-        <v>3.241783158713929E-4</v>
+      <c r="H15" s="144" t="e">
+        <f ca="1">'6MSynthDepo'!I25</f>
+        <v>#NAME?</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
-        <v>9.1273369742239652E-4</v>
+        <v>3.88836095961409E-4</v>
       </c>
       <c r="K15" s="16"/>
-      <c r="L15" s="120">
-        <v>3.241783158713929E-4</v>
+      <c r="L15" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M15" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>2.6000000000000036E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N15" s="110">
-        <f>_xll.ohTrigger(M15:M24)</f>
-        <v>1</v>
+        <f ca="1">_xll.ohTrigger(M15:M24)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10962,21 +10683,22 @@
       <c r="G16" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="139">
-        <f>'6MSynthDepo'!I26</f>
-        <v>3.3416013810873475E-4</v>
+      <c r="H16" s="139" t="e">
+        <f ca="1">'6MSynthDepo'!I26</f>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
-        <v>1.0323016171362046E-3</v>
+        <v>3.9315690679053716E-4</v>
       </c>
       <c r="K16" s="16"/>
-      <c r="L16" s="120">
-        <v>3.3416013810873475E-4</v>
+      <c r="L16" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M16" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>2.5000000000000011E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -11001,21 +10723,22 @@
       <c r="G17" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="139">
-        <f>'6MSynthDepo'!I27</f>
-        <v>3.6559869292534283E-4</v>
+      <c r="H17" s="139" t="e">
+        <f ca="1">'6MSynthDepo'!I27</f>
+        <v>#NAME?</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
-        <v>1.1954497369843459E-3</v>
+        <v>3.7817018280872361E-4</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="120">
-        <v>3.6559869292534283E-4</v>
+      <c r="L17" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M17" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>2.5000000000000011E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -11040,21 +10763,22 @@
       <c r="G18" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="139">
-        <f>'6MSynthDepo'!I28</f>
-        <v>3.6682874906799966E-4</v>
+      <c r="H18" s="139" t="e">
+        <f ca="1">'6MSynthDepo'!I28</f>
+        <v>#NAME?</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
-        <v>1.0885602616905743E-3</v>
+        <v>3.6316907893154033E-4</v>
       </c>
       <c r="K18" s="16"/>
-      <c r="L18" s="120">
-        <v>3.6682874906799966E-4</v>
+      <c r="L18" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M18" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>2.2999999999999963E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -11079,21 +10803,22 @@
       <c r="G19" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="144">
-        <f>'6MSynthDepo'!I29</f>
-        <v>3.6645507358468166E-4</v>
+      <c r="H19" s="144" t="e">
+        <f ca="1">'6MSynthDepo'!I29</f>
+        <v>#NAME?</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
-        <v>1.0096362776810253E-3</v>
+        <v>3.5716430636802767E-4</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="126">
-        <v>3.6645507358468166E-4</v>
+      <c r="L19" s="126" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M19" s="127">
-        <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>2.1000000000000023E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -11118,21 +10843,22 @@
       <c r="G20" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="139">
-        <f>'6MSynthDepo'!I30</f>
-        <v>3.81994436043444E-4</v>
+      <c r="H20" s="139" t="e">
+        <f ca="1">'6MSynthDepo'!I30</f>
+        <v>#NAME?</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
-        <v>9.0595425058635152E-4</v>
+        <v>3.6530943021666228E-4</v>
       </c>
       <c r="K20" s="16"/>
-      <c r="L20" s="120">
-        <v>3.81994436043444E-4</v>
+      <c r="L20" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M20" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>1.7000000000000034E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -11157,21 +10883,22 @@
       <c r="G21" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="139">
-        <f>'6MSynthDepo'!I31</f>
-        <v>3.9484329466596776E-4</v>
+      <c r="H21" s="139" t="e">
+        <f ca="1">'6MSynthDepo'!I31</f>
+        <v>#NAME?</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
-        <v>8.1856251305365826E-4</v>
+        <v>3.6036366468090335E-4</v>
       </c>
       <c r="K21" s="16"/>
-      <c r="L21" s="120">
-        <v>3.9484329466596776E-4</v>
+      <c r="L21" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>1.4000000000000015E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -11196,21 +10923,22 @@
       <c r="G22" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="139">
-        <f>'6MSynthDepo'!I32</f>
-        <v>4.2839036714768179E-4</v>
+      <c r="H22" s="139" t="e">
+        <f ca="1">'6MSynthDepo'!I32</f>
+        <v>#NAME?</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
-        <v>7.7358926811860727E-4</v>
+        <v>3.5513293690168522E-4</v>
       </c>
       <c r="K22" s="16"/>
-      <c r="L22" s="120">
-        <v>4.2839036714768179E-4</v>
+      <c r="L22" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>1.0999999999999996E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -11235,21 +10963,22 @@
       <c r="G23" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="139">
-        <f>'6MSynthDepo'!I33</f>
-        <v>4.5430778824257596E-4</v>
+      <c r="H23" s="139" t="e">
+        <f ca="1">'6MSynthDepo'!I33</f>
+        <v>#NAME?</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
-        <v>7.535141655863201E-4</v>
+        <v>3.7987198757720198E-4</v>
       </c>
       <c r="K23" s="16"/>
-      <c r="L23" s="120">
-        <v>4.5430778824257596E-4</v>
+      <c r="L23" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M23" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>7.9999999999999776E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11274,21 +11003,22 @@
       <c r="G24" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="147">
-        <f>'6MSynthDepo'!I34</f>
-        <v>4.8065290598658667E-4</v>
+      <c r="H24" s="147" t="e">
+        <f ca="1">'6MSynthDepo'!I34</f>
+        <v>#NAME?</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
-        <v>7.1336998314508644E-4</v>
+        <v>3.8690292310309456E-4</v>
       </c>
       <c r="K24" s="16"/>
-      <c r="L24" s="122">
-        <v>4.8065290598658667E-4</v>
+      <c r="L24" s="122" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M24" s="123">
-        <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>7.0000000000000075E-6</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11315,25 +11045,26 @@
       <c r="G25" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="144">
-        <f>'1YSynthDepo'!I20</f>
-        <v>1.609122302923538E-3</v>
+      <c r="H25" s="144" t="e">
+        <f ca="1">'1YSynthDepo'!I20</f>
+        <v>#NAME?</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
-        <v>1.9786760234286049E-3</v>
+        <v>1.5816599052076441E-3</v>
       </c>
       <c r="K25" s="16"/>
-      <c r="L25" s="120">
-        <v>1.609122302923538E-3</v>
+      <c r="L25" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M25" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>-3.6000000000000008E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N25" s="110">
-        <f>_xll.ohTrigger(M25:M40)</f>
-        <v>1</v>
+        <f ca="1">_xll.ohTrigger(M25:M40)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11360,21 +11091,22 @@
       <c r="G26" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="139">
-        <f>'1YSynthDepo'!I21</f>
-        <v>1.6082451892161587E-3</v>
+      <c r="H26" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I21</f>
+        <v>#NAME?</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
-        <v>2.0973449061261512E-3</v>
+        <v>1.5808427483397581E-3</v>
       </c>
       <c r="K26" s="16"/>
-      <c r="L26" s="120">
-        <v>1.6082451892161587E-3</v>
+      <c r="L26" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M26" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>-3.4999999999999875E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11399,21 +11131,22 @@
       <c r="G27" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="139">
-        <f>'1YSynthDepo'!I22</f>
-        <v>1.6272938688897754E-3</v>
+      <c r="H27" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I22</f>
+        <v>#NAME?</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
-        <v>2.2594679994477774E-3</v>
+        <v>1.5600487339322605E-3</v>
       </c>
       <c r="K27" s="16"/>
-      <c r="L27" s="120">
-        <v>1.6272938688897754E-3</v>
+      <c r="L27" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M27" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>-3.3999999999999959E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11438,21 +11171,22 @@
       <c r="G28" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="139">
-        <f>'1YSynthDepo'!I23</f>
-        <v>1.6164289598753964E-3</v>
+      <c r="H28" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I23</f>
+        <v>#NAME?</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
-        <v>2.1515623467774753E-3</v>
+        <v>1.5394394510005935E-3</v>
       </c>
       <c r="K28" s="16"/>
-      <c r="L28" s="120">
-        <v>1.6164289598753964E-3</v>
+      <c r="L28" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M28" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>-3.3000000000000043E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11477,21 +11211,22 @@
       <c r="G29" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="147">
-        <f>'1YSynthDepo'!I24</f>
-        <v>1.6009335986062467E-3</v>
+      <c r="H29" s="147" t="e">
+        <f ca="1">'1YSynthDepo'!I24</f>
+        <v>#NAME?</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
-        <v>2.0713582690561338E-3</v>
+        <v>1.5242788958018268E-3</v>
       </c>
       <c r="K29" s="16"/>
-      <c r="L29" s="122">
-        <v>1.6009335986062467E-3</v>
+      <c r="L29" s="122" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M29" s="123">
-        <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>-3.0999999999999995E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11516,21 +11251,22 @@
       <c r="G30" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="139">
-        <f>'1YSynthDepo'!I25</f>
-        <v>1.5650524683749217E-3</v>
+      <c r="H30" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I25</f>
+        <v>#NAME?</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
-        <v>1.9635040805632822E-3</v>
+        <v>1.5132480327534428E-3</v>
       </c>
       <c r="K30" s="16"/>
-      <c r="L30" s="120">
-        <v>1.5650524683749217E-3</v>
+      <c r="L30" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M30" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>-2.5999999999999981E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11555,21 +11291,22 @@
       <c r="G31" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="139">
-        <f>'1YSynthDepo'!I26</f>
-        <v>1.5377312623009118E-3</v>
+      <c r="H31" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I26</f>
+        <v>#NAME?</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
-        <v>1.8724129563418969E-3</v>
+        <v>1.4904809255924234E-3</v>
       </c>
       <c r="K31" s="16"/>
-      <c r="L31" s="120">
-        <v>1.5377312623009118E-3</v>
+      <c r="L31" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M31" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>-2.1999999999999884E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11594,21 +11331,22 @@
       <c r="G32" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="139">
-        <f>'1YSynthDepo'!I27</f>
-        <v>1.5344112658990528E-3</v>
+      <c r="H32" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I27</f>
+        <v>#NAME?</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
-        <v>1.8237721684577848E-3</v>
+        <v>1.4703921682609226E-3</v>
       </c>
       <c r="K32" s="16"/>
-      <c r="L32" s="120">
-        <v>1.5344112658990528E-3</v>
+      <c r="L32" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M32" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>-1.899999999999992E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11633,21 +11371,22 @@
       <c r="G33" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="139">
-        <f>'1YSynthDepo'!I28</f>
-        <v>1.5259618386373067E-3</v>
+      <c r="H33" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I28</f>
+        <v>#NAME?</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
-        <v>1.8008225006785829E-3</v>
+        <v>1.4845883170146752E-3</v>
       </c>
       <c r="K33" s="16"/>
-      <c r="L33" s="120">
-        <v>1.5259618386373067E-3</v>
+      <c r="L33" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M33" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>-1.5000000000000039E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11672,21 +11411,22 @@
       <c r="G34" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="139">
-        <f>'1YSynthDepo'!I29</f>
-        <v>1.5253302475532371E-3</v>
+      <c r="H34" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I29</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
-        <v>1.7580324292638017E-3</v>
+        <v>1.4831952589819759E-3</v>
       </c>
       <c r="K34" s="16"/>
-      <c r="L34" s="120">
-        <v>1.5253302475532371E-3</v>
+      <c r="L34" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M34" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>-1.1999999999999858E-5</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11711,21 +11451,22 @@
       <c r="G35" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="139">
-        <f>'1YSynthDepo'!I30</f>
-        <v>1.6784772998424289E-3</v>
+      <c r="H35" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I30</f>
+        <v>#NAME?</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
-        <v>1.7605253080593816E-3</v>
+        <v>1.5874468964928651E-3</v>
       </c>
       <c r="K35" s="16"/>
-      <c r="L35" s="120">
-        <v>1.6784772998424289E-3</v>
+      <c r="L35" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M35" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11750,21 +11491,22 @@
       <c r="G36" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="139">
-        <f>'1YSynthDepo'!I31</f>
-        <v>1.6784772998424289E-3</v>
+      <c r="H36" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I31</f>
+        <v>#NAME?</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
-        <v>1.7377762759480189E-3</v>
+        <v>1.5874468964928651E-3</v>
       </c>
       <c r="K36" s="16"/>
-      <c r="L36" s="120">
-        <v>1.6784772998424289E-3</v>
+      <c r="L36" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M36" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11789,21 +11531,22 @@
       <c r="G37" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="139">
-        <f>'1YSynthDepo'!I32</f>
-        <v>1.6784772998424289E-3</v>
+      <c r="H37" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I32</f>
+        <v>#NAME?</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
-        <v>1.7481493380464806E-3</v>
+        <v>1.5874468964928651E-3</v>
       </c>
       <c r="K37" s="16"/>
-      <c r="L37" s="120">
-        <v>1.6784772998424289E-3</v>
+      <c r="L37" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M37" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11828,21 +11571,22 @@
       <c r="G38" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="139">
-        <f>'1YSynthDepo'!I33</f>
-        <v>1.6784772998424289E-3</v>
+      <c r="H38" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I33</f>
+        <v>#NAME?</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
-        <v>1.7372768337085925E-3</v>
+        <v>1.5874468964928651E-3</v>
       </c>
       <c r="K38" s="16"/>
-      <c r="L38" s="120">
-        <v>1.6784772998424289E-3</v>
+      <c r="L38" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M38" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11867,21 +11611,22 @@
       <c r="G39" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="139">
-        <f>'1YSynthDepo'!I34</f>
-        <v>1.6784772998424289E-3</v>
+      <c r="H39" s="139" t="e">
+        <f ca="1">'1YSynthDepo'!I34</f>
+        <v>#NAME?</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
-        <v>1.7247550505565812E-3</v>
+        <v>1.5874468964928651E-3</v>
       </c>
       <c r="K39" s="16"/>
-      <c r="L39" s="120">
-        <v>1.6784772998424289E-3</v>
+      <c r="L39" s="120" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M39" s="121">
-        <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11906,21 +11651,22 @@
       <c r="G40" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="147">
-        <f>'1YSynthDepo'!I35</f>
-        <v>1.6784772998424289E-3</v>
+      <c r="H40" s="147" t="e">
+        <f ca="1">'1YSynthDepo'!I35</f>
+        <v>#NAME?</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
-        <v>1.7100000000000858E-3</v>
+        <v>1.5874468964928651E-3</v>
       </c>
       <c r="K40" s="16"/>
-      <c r="L40" s="122">
-        <v>1.6784772998424289E-3</v>
+      <c r="L40" s="122" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M40" s="123">
-        <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
+        <v>0</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11951,21 +11697,21 @@
         <f t="shared" ref="G41:G62" si="7">F41&amp;"x"&amp;(F41+Months12M)&amp;"F"</f>
         <v>1x13F</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="152" t="e">
         <f>SynthFra!G4</f>
-        <v>1.75E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
-        <v>1.6605416176082449E-3</v>
+        <v>1.5999999999999999E-3</v>
       </c>
       <c r="K41" s="19"/>
-      <c r="L41" s="128">
-        <v>1.75E-3</v>
+      <c r="L41" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M41" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N41" s="110">
         <f>_xll.ohTrigger(M41:M63)</f>
@@ -11999,17 +11745,17 @@
         <f t="shared" si="7"/>
         <v>2x14F</v>
       </c>
-      <c r="H42" s="154">
+      <c r="H42" s="154" t="e">
         <f>SynthFra!G5</f>
-        <v>1.8E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
-        <v>1.6383825167237793E-3</v>
+        <v>1.6400000000000002E-3</v>
       </c>
       <c r="K42" s="19"/>
-      <c r="L42" s="128">
-        <v>1.8E-3</v>
+      <c r="L42" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M42" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
@@ -12044,17 +11790,17 @@
         <f t="shared" si="7"/>
         <v>3x15F</v>
       </c>
-      <c r="H43" s="154">
+      <c r="H43" s="154" t="e">
         <f>SynthFra!G6</f>
-        <v>1.8400000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="136">
-        <v>1.6315359165180374E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="K43" s="19"/>
-      <c r="L43" s="128">
-        <v>1.8400000000000001E-3</v>
+      <c r="L43" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M43" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
@@ -12089,17 +11835,17 @@
         <f t="shared" si="7"/>
         <v>4x16F</v>
       </c>
-      <c r="H44" s="154">
+      <c r="H44" s="154" t="e">
         <f>SynthFra!G7</f>
-        <v>1.9000000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
-        <v>1.6217354128587164E-3</v>
+        <v>1.7599999999999996E-3</v>
       </c>
       <c r="K44" s="19"/>
-      <c r="L44" s="128">
-        <v>1.9000000000000002E-3</v>
+      <c r="L44" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M44" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
@@ -12134,17 +11880,17 @@
         <f t="shared" si="7"/>
         <v>5x17F</v>
       </c>
-      <c r="H45" s="154">
+      <c r="H45" s="154" t="e">
         <f>SynthFra!G8</f>
-        <v>1.97E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="136">
-        <v>1.611490590887736E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="K45" s="19"/>
-      <c r="L45" s="128">
-        <v>1.97E-3</v>
+      <c r="L45" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M45" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
@@ -12179,17 +11925,17 @@
         <f t="shared" si="7"/>
         <v>6x18F</v>
       </c>
-      <c r="H46" s="154">
+      <c r="H46" s="154" t="e">
         <f>SynthFra!G9</f>
-        <v>2.0299999999999997E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
-        <v>1.6152355880216236E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="K46" s="19"/>
-      <c r="L46" s="128">
-        <v>2.0299999999999997E-3</v>
+      <c r="L46" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M46" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
@@ -12224,17 +11970,17 @@
         <f t="shared" si="7"/>
         <v>7x19F</v>
       </c>
-      <c r="H47" s="154">
+      <c r="H47" s="154" t="e">
         <f>SynthFra!G10</f>
-        <v>2.1400000000000004E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="136">
-        <v>1.6027837766431675E-3</v>
+        <v>1.9899999999999996E-3</v>
       </c>
       <c r="K47" s="19"/>
-      <c r="L47" s="128">
-        <v>2.1400000000000004E-3</v>
+      <c r="L47" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M47" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
@@ -12269,21 +12015,21 @@
         <f t="shared" si="7"/>
         <v>8x20F</v>
       </c>
-      <c r="H48" s="154">
+      <c r="H48" s="154" t="e">
         <f>SynthFra!G11</f>
-        <v>2.2599999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="136">
-        <v>1.6116373612167782E-3</v>
+        <v>2.0800000000000003E-3</v>
       </c>
       <c r="K48" s="19"/>
-      <c r="L48" s="128">
-        <v>2.2599999999999999E-3</v>
+      <c r="L48" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M48" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N48" s="111"/>
     </row>
@@ -12314,21 +12060,21 @@
         <f t="shared" si="7"/>
         <v>9x21F</v>
       </c>
-      <c r="H49" s="154">
+      <c r="H49" s="154" t="e">
         <f>SynthFra!G12</f>
-        <v>2.3700000000000006E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="136">
-        <v>1.6110335582855382E-3</v>
+        <v>2.1800000000000005E-3</v>
       </c>
       <c r="K49" s="19"/>
-      <c r="L49" s="128">
-        <v>2.3700000000000006E-3</v>
+      <c r="L49" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M49" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N49" s="111"/>
     </row>
@@ -12359,17 +12105,17 @@
         <f t="shared" si="7"/>
         <v>10x22F</v>
       </c>
-      <c r="H50" s="154">
+      <c r="H50" s="154" t="e">
         <f>SynthFra!G13</f>
-        <v>2.5100000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="136">
-        <v>1.6260050614706461E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="K50" s="19"/>
-      <c r="L50" s="128">
-        <v>2.5100000000000001E-3</v>
+      <c r="L50" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M50" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
@@ -12404,21 +12150,21 @@
         <f t="shared" si="7"/>
         <v>11x23F</v>
       </c>
-      <c r="H51" s="154">
+      <c r="H51" s="154" t="e">
         <f>SynthFra!G14</f>
-        <v>2.66E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="136">
-        <v>1.6510956425379811E-3</v>
+        <v>2.4199999999999994E-3</v>
       </c>
       <c r="K51" s="19"/>
-      <c r="L51" s="128">
-        <v>2.66E-3</v>
+      <c r="L51" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M51" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="N51" s="111"/>
     </row>
@@ -12449,21 +12195,21 @@
         <f t="shared" si="7"/>
         <v>13x25F</v>
       </c>
-      <c r="H52" s="154">
+      <c r="H52" s="154" t="e">
         <f>SynthFra!G16</f>
-        <v>2.9456129256249432E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
-        <v>1.7293198715218703E-3</v>
+        <v>2.6755033417360102E-3</v>
       </c>
       <c r="K52" s="19"/>
-      <c r="L52" s="128">
-        <v>2.9456129256249432E-3</v>
+      <c r="L52" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M52" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
-        <v>-1.2000000000000292E-5</v>
+        <v>0</v>
       </c>
       <c r="N52" s="111"/>
     </row>
@@ -12494,21 +12240,21 @@
         <f t="shared" si="7"/>
         <v>14x26F</v>
       </c>
-      <c r="H53" s="154">
+      <c r="H53" s="154" t="e">
         <f>SynthFra!G17</f>
-        <v>3.0951496875735608E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
-        <v>1.7685177753047356E-3</v>
+        <v>2.8025747947071434E-3</v>
       </c>
       <c r="K53" s="19"/>
-      <c r="L53" s="128">
-        <v>3.0951496875735608E-3</v>
+      <c r="L53" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M53" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>-2.1999999999999884E-5</v>
+        <v>0</v>
       </c>
       <c r="N53" s="111"/>
     </row>
@@ -12539,21 +12285,21 @@
         <f t="shared" si="7"/>
         <v>15x27F</v>
       </c>
-      <c r="H54" s="154">
+      <c r="H54" s="154" t="e">
         <f>SynthFra!G18</f>
-        <v>3.2586837507583822E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
-        <v>1.8203716252033035E-3</v>
+        <v>2.9460691140573148E-3</v>
       </c>
       <c r="K54" s="19"/>
-      <c r="L54" s="128">
-        <v>3.2586837507583822E-3</v>
+      <c r="L54" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M54" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>-2.6999999999999681E-5</v>
+        <v>0</v>
       </c>
       <c r="N54" s="111"/>
     </row>
@@ -12584,21 +12330,21 @@
         <f t="shared" si="7"/>
         <v>16x28F</v>
       </c>
-      <c r="H55" s="154">
+      <c r="H55" s="154" t="e">
         <f>SynthFra!G19</f>
-        <v>3.4377223205232618E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
-        <v>1.8842824044602055E-3</v>
+        <v>3.0757696569019221E-3</v>
       </c>
       <c r="K55" s="19"/>
-      <c r="L55" s="128">
-        <v>3.4377223205232618E-3</v>
+      <c r="L55" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M55" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>-3.0999999999999778E-5</v>
+        <v>0</v>
       </c>
       <c r="N55" s="111"/>
     </row>
@@ -12629,21 +12375,21 @@
         <f t="shared" si="7"/>
         <v>17x29F</v>
       </c>
-      <c r="H56" s="154">
+      <c r="H56" s="154" t="e">
         <f>SynthFra!G20</f>
-        <v>3.6112362716026886E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
-        <v>1.9620591824041763E-3</v>
+        <v>3.2072036539506745E-3</v>
       </c>
       <c r="K56" s="19"/>
-      <c r="L56" s="128">
-        <v>3.6112362716026886E-3</v>
+      <c r="L56" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M56" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>-3.199999999999991E-5</v>
+        <v>0</v>
       </c>
       <c r="N56" s="111"/>
     </row>
@@ -12674,21 +12420,21 @@
         <f t="shared" si="7"/>
         <v>18x30F</v>
       </c>
-      <c r="H57" s="154">
+      <c r="H57" s="154" t="e">
         <f>SynthFra!G21</f>
-        <v>3.804695695677754E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
-        <v>2.0525920677748541E-3</v>
+        <v>3.3591120494643892E-3</v>
       </c>
       <c r="K57" s="19"/>
-      <c r="L57" s="128">
-        <v>3.804695695677754E-3</v>
+      <c r="L57" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M57" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>-3.0000000000000079E-5</v>
+        <v>0</v>
       </c>
       <c r="N57" s="111"/>
     </row>
@@ -12719,21 +12465,21 @@
         <f t="shared" si="7"/>
         <v>19x31F</v>
       </c>
-      <c r="H58" s="154">
+      <c r="H58" s="154" t="e">
         <f>SynthFra!G22</f>
-        <v>3.9945831213286194E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
-        <v>2.1415420157302706E-3</v>
+        <v>3.4962892288041571E-3</v>
       </c>
       <c r="K58" s="19"/>
-      <c r="L58" s="128">
-        <v>3.9945831213286194E-3</v>
+      <c r="L58" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M58" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>-2.3999999999999716E-5</v>
+        <v>0</v>
       </c>
       <c r="N58" s="111"/>
     </row>
@@ -12764,21 +12510,21 @@
         <f t="shared" si="7"/>
         <v>20x32F</v>
       </c>
-      <c r="H59" s="154">
+      <c r="H59" s="154" t="e">
         <f>SynthFra!G23</f>
-        <v>4.2165759480479962E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
-        <v>2.239062995801116E-3</v>
+        <v>3.6480886989262162E-3</v>
       </c>
       <c r="K59" s="19"/>
-      <c r="L59" s="128">
-        <v>4.2165759480479962E-3</v>
+      <c r="L59" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M59" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>-1.7999999999999787E-5</v>
+        <v>0</v>
       </c>
       <c r="N59" s="111"/>
     </row>
@@ -12809,21 +12555,21 @@
         <f t="shared" si="7"/>
         <v>21x33F</v>
       </c>
-      <c r="H60" s="154">
+      <c r="H60" s="154" t="e">
         <f>SynthFra!G24</f>
-        <v>4.4304249550249711E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
-        <v>2.3413834432000026E-3</v>
+        <v>3.8105022960257984E-3</v>
       </c>
       <c r="K60" s="19"/>
-      <c r="L60" s="128">
-        <v>4.4304249550249711E-3</v>
+      <c r="L60" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M60" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>-1.2999999999999991E-5</v>
+        <v>0</v>
       </c>
       <c r="N60" s="111"/>
     </row>
@@ -12854,21 +12600,21 @@
         <f t="shared" si="7"/>
         <v>22x34F</v>
       </c>
-      <c r="H61" s="154">
+      <c r="H61" s="154" t="e">
         <f>SynthFra!G25</f>
-        <v>4.6872605316855822E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
-        <v>2.4430084796921575E-3</v>
+        <v>3.9740673338003645E-3</v>
       </c>
       <c r="K61" s="19"/>
-      <c r="L61" s="128">
-        <v>4.6872605316855822E-3</v>
+      <c r="L61" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M61" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>-8.0000000000001945E-6</v>
+        <v>0</v>
       </c>
       <c r="N61" s="111"/>
     </row>
@@ -12899,21 +12645,21 @@
         <f t="shared" si="7"/>
         <v>23x35F</v>
       </c>
-      <c r="H62" s="154">
+      <c r="H62" s="154" t="e">
         <f>SynthFra!G26</f>
-        <v>4.9114426907431756E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
-        <v>2.5460698839072883E-3</v>
+        <v>4.144180312678279E-3</v>
       </c>
       <c r="K62" s="19"/>
-      <c r="L62" s="128">
-        <v>4.9114426907431756E-3</v>
+      <c r="L62" s="128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M62" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>-5.0000000000006636E-6</v>
+        <v>0</v>
       </c>
       <c r="N62" s="111"/>
     </row>
@@ -12944,17 +12690,17 @@
         <f t="shared" ref="G63" si="8">F63&amp;"x"&amp;(F63+Months12M)&amp;"F"</f>
         <v>24x36F</v>
       </c>
-      <c r="H63" s="156">
+      <c r="H63" s="156" t="e">
         <f>SynthFra!G27</f>
-        <v>5.1700000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="137">
-        <v>2.5460698839072883E-3</v>
+        <v>4.3399999999999992E-3</v>
       </c>
       <c r="K63" s="19"/>
-      <c r="L63" s="130">
-        <v>5.1700000000000001E-3</v>
+      <c r="L63" s="130" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M63" s="131">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="18600" windowHeight="13635" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="18600" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="29" r:id="rId1"/>
@@ -626,23 +626,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="16">
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0;#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="167" formatCode="General_)"/>
-    <numFmt numFmtId="168" formatCode="ddd\,\ dd\-mmm\-yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy"/>
-    <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="172" formatCode="0.0000%"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ h:mm:ss"/>
-    <numFmt numFmtId="175" formatCode="0.000000000"/>
-    <numFmt numFmtId="176" formatCode="ddd\,\ d\-mmm\-yy"/>
-    <numFmt numFmtId="177" formatCode="0.E+00"/>
-    <numFmt numFmtId="178" formatCode="0.0E+00"/>
-    <numFmt numFmtId="179" formatCode="dd\-mmm\-yy"/>
+  <numFmts count="15">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0;#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="ddd\,\ dd\-mmm\-yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ h:mm:ss"/>
+    <numFmt numFmtId="174" formatCode="0.000000000"/>
+    <numFmt numFmtId="175" formatCode="ddd\,\ d\-mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="0.E+00"/>
+    <numFmt numFmtId="177" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1247,15 +1246,15 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1278,7 +1277,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1302,18 +1301,18 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="3" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="3" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1343,7 +1342,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="5" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="5" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,10 +1357,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,13 +1372,13 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="16" fillId="3" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="16" fillId="3" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="15" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="3" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,10 +1390,10 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
@@ -1407,28 +1406,28 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="5" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="9" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="14" fillId="9" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="9" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="11" fillId="9" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,46 +1436,46 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="11" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="11" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="11" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,16 +1501,16 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="8" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="17" fillId="8" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="17" fillId="8" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="17" fillId="8" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="8" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="17" fillId="8" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="8" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="17" fillId="8" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1556,40 +1555,40 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="5" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="5" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="3" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="3" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="10" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="10" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="8" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1602,15 +1601,15 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="10" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="10" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="5" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="8" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1652,40 +1651,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="11" fillId="7" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -1729,11 +1728,11 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="11" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1743,7 +1742,7 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1768,11 +1767,11 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
@@ -1785,7 +1784,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1804,40 +1803,40 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="11" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1861,7 +1860,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,7 +1875,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1894,7 +1893,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1903,20 +1902,20 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="21" fillId="10" borderId="4" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="21" fillId="10" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="21" fillId="10" borderId="4" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="21" fillId="10" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="11" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
@@ -2021,7 +2020,7 @@
       <sheetName val="Euribor 3M Time Series"/>
       <sheetName val="Euribor 6M Time Series"/>
       <sheetName val="EuriborSwapIsdaFixA1Y"/>
-      <sheetName val="EUR_Market-20150824_Manual"/>
+      <sheetName val="EUR_Market20150828-171500_Manua"/>
     </sheetNames>
     <definedNames>
       <definedName name="LastFixingsTrigger" refersTo="='General Settings'!$D$7"/>
@@ -2031,7 +2030,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>703</v>
+            <v>101</v>
           </cell>
         </row>
         <row r="7">
@@ -2366,7 +2365,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2385,7 +2384,7 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="44" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug 18 2015 11:55:38</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug 27 2015 09:05:58</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2663,7 +2662,7 @@
       </c>
       <c r="D17" s="8">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,EvaluationDate,"f",Trigger),"2D","f")</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="E17" s="212"/>
       <c r="G17" s="225"/>
@@ -2671,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42244.329699074071</v>
+        <v>42244.715138888889</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -2690,7 +2689,7 @@
       </c>
       <c r="I18" s="33">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42240</v>
+        <v>42244</v>
       </c>
       <c r="J18" s="111"/>
     </row>
@@ -2700,8 +2699,8 @@
         <v>86</v>
       </c>
       <c r="D19" s="25" t="e">
-        <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -2710,7 +2709,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>703</v>
+        <v>101</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -2796,7 +2795,7 @@
       </c>
       <c r="D28" s="36" t="str">
         <f>_xll.qlEuribor(,"1M",D34,,Trigger)</f>
-        <v>obj_0055b#0000</v>
+        <v>obj_005d4#0000</v>
       </c>
       <c r="E28" s="212"/>
     </row>
@@ -2849,7 +2848,7 @@
       </c>
       <c r="D34" s="52" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,2,Calendar,_xll.ohPack('1MSynthDepo'!G13:G21),"actual/365",,,,D31,D32,,Trigger)</f>
-        <v>obj_0055a#0000</v>
+        <v>obj_005d3#0000</v>
       </c>
       <c r="E34" s="212"/>
     </row>
@@ -2874,7 +2873,7 @@
       <c r="B37" s="211"/>
       <c r="C37" s="26">
         <f>_xll.qlTermStructureReferenceDate(D34)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="D37" s="37">
         <f>_xll.qlYieldTSDiscount(D34,C37,,Trigger)</f>
@@ -2886,11 +2885,11 @@
       <c r="B38" s="211"/>
       <c r="C38" s="27">
         <f>_xll.qlTermStructureMaxDate(D34)</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0005703250853015</v>
+        <v>1.0003729351458266</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -2939,7 +2938,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2984,7 +2983,7 @@
       <c r="E1" s="167"/>
       <c r="K1" s="167" t="str">
         <f>_xll.qlEuribor(,S1,,,Trigger)</f>
-        <v>obj_00515#0000</v>
+        <v>obj_0058e#0000</v>
       </c>
       <c r="L1" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(K1)</f>
@@ -3090,7 +3089,7 @@
       </c>
       <c r="K3" s="310" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_00536#0000</v>
+        <v>obj_005b3#0000</v>
       </c>
       <c r="L3" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3114,15 +3113,15 @@
       </c>
       <c r="R3" s="331">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="S3" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
-        <v>42275</v>
-      </c>
-      <c r="T3" s="62">
-        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>-9.399999999993758E-4</v>
+        <v>42278</v>
+      </c>
+      <c r="T3" s="62" t="e">
+        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U3" s="239"/>
       <c r="V3" s="239"/>
@@ -3137,8 +3136,8 @@
         <v>0</v>
       </c>
       <c r="AA3" s="59" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AB3" s="257"/>
       <c r="AD3" s="277" t="s">
@@ -3146,7 +3145,7 @@
       </c>
       <c r="AE3" s="190" t="str">
         <f>_xll.qlIborIndex(,,S1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00511#0000</v>
+        <v>obj_0058a#0000</v>
       </c>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -3183,7 +3182,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051a#0000</v>
+        <v>obj_0058f#0000</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3207,23 +3206,23 @@
       </c>
       <c r="R4" s="294">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="S4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
-        <v>42275</v>
-      </c>
-      <c r="T4" s="190">
-        <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>-9.3999999999999997E-4</v>
+        <v>42278</v>
+      </c>
+      <c r="T4" s="190" t="e">
+        <f ca="1">_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U4" s="190" t="e">
-        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V4" s="258" t="e">
-        <f>T4-U4</f>
-        <v>#NUM!</v>
+        <f ca="1">T4-U4</f>
+        <v>#NAME?</v>
       </c>
       <c r="W4" s="186" t="e">
         <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
@@ -3231,19 +3230,19 @@
       </c>
       <c r="X4" s="187" t="e">
         <f ca="1">Y4*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Y4" s="278" t="e">
         <f ca="1">V4-W4</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Z4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="336" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AB4" s="241" t="b">
         <v>0</v>
@@ -3285,7 +3284,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0051b#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3310,23 +3309,23 @@
       </c>
       <c r="R5" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N5&amp;"M","mf",,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="S5" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
-        <v>42275</v>
-      </c>
-      <c r="T5" s="62">
-        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>-9.399999999993758E-4</v>
+        <v>42278</v>
+      </c>
+      <c r="T5" s="62" t="e">
+        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U5" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V5" s="265" t="e">
-        <f>T5-U5</f>
-        <v>#NUM!</v>
+        <f ca="1">T5-U5</f>
+        <v>#NAME?</v>
       </c>
       <c r="W5" s="67" t="e">
         <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
@@ -3334,19 +3333,19 @@
       </c>
       <c r="X5" s="240" t="e">
         <f ca="1">Y5*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Y5" s="234" t="e">
         <f ca="1">V5-W5</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Z5" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R5,,,Trigger)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="59" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AB5" s="241" t="b">
         <v>1</v>
@@ -3390,7 +3389,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00516#0000</v>
+        <v>obj_00592#0000</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3415,23 +3414,23 @@
       </c>
       <c r="R6" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N6&amp;"M","mf",,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="S6" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
-        <v>42305</v>
-      </c>
-      <c r="T6" s="62">
-        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-9.2501797837618582E-4</v>
+        <v>42310</v>
+      </c>
+      <c r="T6" s="62" t="e">
+        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U6" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V6" s="265" t="e">
-        <f>T6-U6</f>
-        <v>#NUM!</v>
+        <f ca="1">T6-U6</f>
+        <v>#NAME?</v>
       </c>
       <c r="W6" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
@@ -3439,19 +3438,19 @@
       </c>
       <c r="X6" s="188" t="e">
         <f t="shared" ref="X6:X8" ca="1" si="1">Y6*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Y6" s="234" t="e">
         <f t="shared" ref="Y6:Y8" ca="1" si="2">V6-W6</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
-        <v>9.0410958904109592E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="AA6" s="59" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3498,7 +3497,7 @@
       </c>
       <c r="K7" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00518#0000</v>
+        <v>obj_00593#0000</v>
       </c>
       <c r="L7" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3523,23 +3522,23 @@
       </c>
       <c r="R7" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N7&amp;"M","mf",,Trigger)</f>
-        <v>42303</v>
+        <v>42310</v>
       </c>
       <c r="S7" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
-        <v>42334</v>
-      </c>
-      <c r="T7" s="62">
-        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-1.0191928660565547E-3</v>
+        <v>42340</v>
+      </c>
+      <c r="T7" s="62" t="e">
+        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U7" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V7" s="265" t="e">
-        <f>T7-U7</f>
-        <v>#NUM!</v>
+        <f ca="1">T7-U7</f>
+        <v>#NAME?</v>
       </c>
       <c r="W7" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
@@ -3547,19 +3546,19 @@
       </c>
       <c r="X7" s="188" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Y7" s="234" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Z7" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R7,,,Trigger)</f>
-        <v>0.16712328767123288</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="AA7" s="59" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3606,7 +3605,7 @@
       </c>
       <c r="K8" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00517#0000</v>
+        <v>obj_00590#0000</v>
       </c>
       <c r="L8" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3631,23 +3630,23 @@
       </c>
       <c r="R8" s="332">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N8&amp;"M","mf",,Trigger)</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="S8" s="332">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
-        <v>42366</v>
-      </c>
-      <c r="T8" s="65">
-        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-9.9899508679265892E-4</v>
+        <v>42373</v>
+      </c>
+      <c r="T8" s="65" t="e">
+        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U8" s="65" t="e">
-        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V8" s="260" t="e">
-        <f>T8-U8</f>
-        <v>#NUM!</v>
+        <f ca="1">T8-U8</f>
+        <v>#NAME?</v>
       </c>
       <c r="W8" s="65" t="e">
         <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
@@ -3655,19 +3654,19 @@
       </c>
       <c r="X8" s="189" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Y8" s="235" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="Z8" s="60">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R8,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="AA8" s="60" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -3713,7 +3712,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00519#0000</v>
+        <v>obj_00591#0000</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -3777,11 +3776,11 @@
       </c>
       <c r="T11" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="U11" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
-        <v>42243</v>
+        <v>42249</v>
       </c>
       <c r="V11" s="287" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
@@ -3811,20 +3810,20 @@
       <c r="L12" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="201">
-        <f t="array" ref="M12:M21">_xll.qlPiecewiseYieldCurveData('General Settings'!D34,InterestRatesTrigger)</f>
-        <v>1</v>
+      <c r="M12" s="201" t="e">
+        <f t="array" aca="1" ref="M12:M21" ca="1">_xll.qlPiecewiseYieldCurveData('General Settings'!D34,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S12" s="63" t="s">
         <v>39</v>
       </c>
       <c r="T12" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="U12" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
-        <v>42249</v>
+        <v>42255</v>
       </c>
       <c r="V12" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
@@ -3844,7 +3843,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="309" t="str">
         <f t="array" ref="G13:G21">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_00536#0000</v>
+        <v>obj_005b3#0000</v>
       </c>
       <c r="H13" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -3852,7 +3851,7 @@
       </c>
       <c r="I13" s="194">
         <f>_xll.qlRateHelperRate(G13,Trigger)</f>
-        <v>-9.3999999999999997E-4</v>
+        <v>-4.8000000000000001E-4</v>
       </c>
       <c r="J13" s="195" t="str">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G13),"--")</f>
@@ -3860,25 +3859,26 @@
       </c>
       <c r="K13" s="329">
         <f>_xll.qlRateHelperEarliestDate(G13,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="L13" s="329">
         <f>_xll.qlRateHelperLatestDate(G13,Trigger)</f>
-        <v>42275</v>
-      </c>
-      <c r="M13" s="196">
-        <v>1.0000861740920008</v>
+        <v>42278</v>
+      </c>
+      <c r="M13" s="196" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="U13" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
-        <v>42256</v>
+        <v>42262</v>
       </c>
       <c r="V13" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_0051a#0000</v>
+        <v>obj_0058f#0000</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="I14" s="194">
         <f>_xll.qlRateHelperRate(G14,Trigger)</f>
-        <v>-9.2999999999999995E-4</v>
+        <v>-5.5000000000000003E-4</v>
       </c>
       <c r="J14" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G14),"--")</f>
@@ -3916,25 +3916,26 @@
       </c>
       <c r="K14" s="329">
         <f>_xll.qlRateHelperEarliestDate(G14,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="L14" s="329">
         <f>_xll.qlRateHelperLatestDate(G14,Trigger)</f>
-        <v>42303</v>
-      </c>
-      <c r="M14" s="196">
-        <v>1.0001576081697383</v>
+        <v>42310</v>
+      </c>
+      <c r="M14" s="196" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="U14" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
-        <v>42263</v>
+        <v>42269</v>
       </c>
       <c r="V14" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
@@ -3956,7 +3957,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_0051b#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -3964,7 +3965,7 @@
       </c>
       <c r="I15" s="194">
         <f>_xll.qlRateHelperRate(G15,Trigger)</f>
-        <v>-9.6000000000000002E-4</v>
+        <v>-5.8E-4</v>
       </c>
       <c r="J15" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G15),"--")</f>
@@ -3972,25 +3973,26 @@
       </c>
       <c r="K15" s="329">
         <f>_xll.qlRateHelperEarliestDate(G15,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="L15" s="329">
         <f>_xll.qlRateHelperLatestDate(G15,Trigger)</f>
-        <v>42334</v>
-      </c>
-      <c r="M15" s="196">
-        <v>1.0002453935365476</v>
+        <v>42339</v>
+      </c>
+      <c r="M15" s="196" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="276">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="U15" s="337">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="V15" s="338" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
@@ -4012,7 +4014,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_00516#0000</v>
+        <v>obj_00592#0000</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4020,7 +4022,7 @@
       </c>
       <c r="I16" s="194">
         <f>_xll.qlRateHelperRate(G16,Trigger)</f>
-        <v>-9.7000000000000005E-4</v>
+        <v>-5.8999999999999992E-4</v>
       </c>
       <c r="J16" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G16),"--")</f>
@@ -4028,14 +4030,15 @@
       </c>
       <c r="K16" s="329">
         <f>_xll.qlRateHelperEarliestDate(G16,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="L16" s="329">
         <f>_xll.qlRateHelperLatestDate(G16,Trigger)</f>
-        <v>42366</v>
-      </c>
-      <c r="M16" s="196">
-        <v>1.0003342227786549</v>
+        <v>42373</v>
+      </c>
+      <c r="M16" s="196" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
@@ -4053,7 +4056,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="202" t="str">
-        <v>obj_00518#0000</v>
+        <v>obj_00593#0000</v>
       </c>
       <c r="H17" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4061,7 +4064,7 @@
       </c>
       <c r="I17" s="194">
         <f>_xll.qlRateHelperRate(G17,Trigger)</f>
-        <v>-9.5E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="J17" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G17),"--")</f>
@@ -4069,14 +4072,15 @@
       </c>
       <c r="K17" s="329">
         <f>_xll.qlRateHelperEarliestDate(G17,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="L17" s="329">
         <f>_xll.qlRateHelperLatestDate(G17,Trigger)</f>
-        <v>42395</v>
-      </c>
-      <c r="M17" s="196">
-        <v>1.0004039130800053</v>
+        <v>42401</v>
+      </c>
+      <c r="M17" s="196" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
@@ -4094,7 +4098,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="202" t="str">
-        <v>obj_00517#0000</v>
+        <v>obj_00590#0000</v>
       </c>
       <c r="H18" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4102,7 +4106,7 @@
       </c>
       <c r="I18" s="194">
         <f>_xll.qlRateHelperRate(G18,Trigger)</f>
-        <v>-9.5E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="J18" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G18),"--")</f>
@@ -4110,14 +4114,15 @@
       </c>
       <c r="K18" s="329">
         <f>_xll.qlRateHelperEarliestDate(G18,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="L18" s="329">
         <f>_xll.qlRateHelperLatestDate(G18,Trigger)</f>
-        <v>42426</v>
-      </c>
-      <c r="M18" s="196">
-        <v>1.0004857914342891</v>
+        <v>42430</v>
+      </c>
+      <c r="M18" s="196" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
@@ -4131,7 +4136,7 @@
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_00519#0000</v>
+        <v>obj_00591#0000</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4139,7 +4144,7 @@
       </c>
       <c r="I19" s="194">
         <f>_xll.qlRateHelperRate(G19,Trigger)</f>
-        <v>-9.5E-4</v>
+        <v>-6.3000000000000003E-4</v>
       </c>
       <c r="J19" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G19),"--")</f>
@@ -4147,14 +4152,15 @@
       </c>
       <c r="K19" s="329">
         <f>_xll.qlRateHelperEarliestDate(G19,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="L19" s="329">
         <f>_xll.qlRateHelperLatestDate(G19,Trigger)</f>
-        <v>42458</v>
-      </c>
-      <c r="M19" s="196">
-        <v>1.0005703250853015</v>
+        <v>42461</v>
+      </c>
+      <c r="M19" s="196" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4189,7 +4195,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="M20" s="196" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="X20" s="54"/>
       <c r="Y20" s="54"/>
@@ -4222,7 +4229,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="M21" s="200" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="X21" s="54"/>
       <c r="Y21" s="54"/>
@@ -4280,7 +4288,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4377,11 +4385,11 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="G3" s="258" t="e">
         <f ca="1">J3+$H$4</f>
@@ -4406,7 +4414,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00514#0000</v>
+        <v>obj_0058d#0000</v>
       </c>
       <c r="X3" s="57"/>
     </row>
@@ -4427,23 +4435,23 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42426</v>
-      </c>
-      <c r="G4" s="190">
-        <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>-3.2000000000000003E-4</v>
+        <v>42430</v>
+      </c>
+      <c r="G4" s="190" t="e">
+        <f ca="1">_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H4" s="190" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="258" t="e">
-        <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="I4:I22" ca="1" si="0">G4-H4</f>
+        <v>#NAME?</v>
       </c>
       <c r="J4" s="186" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
@@ -4451,7 +4459,7 @@
       </c>
       <c r="K4" s="187" t="e">
         <f ca="1">M4*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -4459,11 +4467,11 @@
       </c>
       <c r="M4" s="278" t="e">
         <f t="shared" ref="M4:M22" ca="1" si="1">I4-J4</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="281" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -4487,23 +4495,23 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42458</v>
-      </c>
-      <c r="G5" s="67">
-        <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-3.0999999999999995E-4</v>
+        <v>42461</v>
+      </c>
+      <c r="G5" s="67" t="e">
+        <f ca="1">_xll.qlQuoteValue(D5,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H5" s="67" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="280" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J5" s="67" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
@@ -4511,22 +4519,22 @@
       </c>
       <c r="K5" s="240" t="e">
         <f t="shared" ref="K5:K22" ca="1" si="4">M5*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>9.0410958904109592E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="M5" s="279" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N5" s="183" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O5" s="241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="261" t="s">
         <v>125</v>
@@ -4552,23 +4560,23 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42303</v>
+        <v>42310</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42486</v>
-      </c>
-      <c r="G6" s="62">
-        <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>-3.2000000000000003E-4</v>
+        <v>42492</v>
+      </c>
+      <c r="G6" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D6,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J6" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
@@ -4576,22 +4584,22 @@
       </c>
       <c r="K6" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16712328767123288</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="M6" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O6" s="237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="277" t="s">
         <v>126</v>
@@ -4621,23 +4629,23 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42516</v>
-      </c>
-      <c r="G7" s="62">
-        <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>-2.9000000000000006E-4</v>
+        <v>42522</v>
+      </c>
+      <c r="G7" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D7,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H7" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J7" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
@@ -4645,22 +4653,22 @@
       </c>
       <c r="K7" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M7" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N7" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O7" s="237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="277" t="s">
         <v>127</v>
@@ -4690,23 +4698,23 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42366</v>
+        <v>42373</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42549</v>
-      </c>
-      <c r="G8" s="62">
-        <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>-2.7000000000000006E-4</v>
+        <v>42555</v>
+      </c>
+      <c r="G8" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D8,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H8" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J8" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
@@ -4714,22 +4722,22 @@
       </c>
       <c r="K8" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33972602739726027</v>
+        <v>0.34246575342465752</v>
       </c>
       <c r="M8" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O8" s="237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="277" t="s">
         <v>128</v>
@@ -4759,23 +4767,23 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42395</v>
+        <v>42401</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42577</v>
-      </c>
-      <c r="G9" s="62">
-        <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>-2.6000000000000003E-4</v>
+        <v>42583</v>
+      </c>
+      <c r="G9" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D9,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H9" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J9" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
@@ -4783,7 +4791,7 @@
       </c>
       <c r="K9" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -4791,14 +4799,14 @@
       </c>
       <c r="M9" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O9" s="237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="277" t="s">
         <v>89</v>
@@ -4828,23 +4836,23 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42426</v>
+        <v>42430</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42608</v>
-      </c>
-      <c r="G10" s="62">
-        <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>-2.5000000000000001E-4</v>
+        <v>42614</v>
+      </c>
+      <c r="G10" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D10,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H10" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I10" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J10" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
@@ -4852,22 +4860,22 @@
       </c>
       <c r="K10" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50410958904109593</v>
+        <v>0.49863013698630138</v>
       </c>
       <c r="M10" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O10" s="237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="277" t="s">
         <v>124</v>
@@ -4900,17 +4908,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
         <v>42445</v>
       </c>
-      <c r="G11" s="67">
-        <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>-3.249999999999087E-4</v>
+      <c r="G11" s="67" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H11" s="67" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" s="280" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J11" s="67" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
@@ -4918,19 +4926,19 @@
       </c>
       <c r="K11" s="240" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>5.7534246575342465E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="M11" s="279" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="183" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -4959,17 +4967,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
         <v>42481</v>
       </c>
-      <c r="G12" s="62">
-        <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>-3.249999999999087E-4</v>
+      <c r="G12" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H12" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I12" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J12" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
@@ -4977,19 +4985,19 @@
       </c>
       <c r="K12" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.15342465753424658</v>
+        <v>0.13698630136986301</v>
       </c>
       <c r="M12" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5027,17 +5035,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
         <v>42537</v>
       </c>
-      <c r="G13" s="62">
-        <f>1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
-        <v>-2.7500000000002522E-4</v>
+      <c r="G13" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H13" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I13" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J13" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
@@ -5045,19 +5053,19 @@
       </c>
       <c r="K13" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.30684931506849317</v>
+        <v>0.29041095890410956</v>
       </c>
       <c r="M13" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5098,17 +5106,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
         <v>42629</v>
       </c>
-      <c r="G14" s="62">
-        <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>-2.7500000000002522E-4</v>
+      <c r="G14" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H14" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I14" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J14" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
@@ -5116,19 +5124,19 @@
       </c>
       <c r="K14" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.55616438356164388</v>
+        <v>0.53972602739726028</v>
       </c>
       <c r="M14" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5168,17 +5176,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
         <v>42719</v>
       </c>
-      <c r="G15" s="62">
-        <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>-1.7500000000003624E-4</v>
+      <c r="G15" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H15" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I15" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J15" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
@@ -5186,19 +5194,19 @@
       </c>
       <c r="K15" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.80547945205479454</v>
+        <v>0.78904109589041094</v>
       </c>
       <c r="M15" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5238,17 +5246,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
         <v>42815</v>
       </c>
-      <c r="G16" s="62">
-        <f>1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
-        <v>-2.4999999999941735E-5</v>
+      <c r="G16" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H16" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J16" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
@@ -5256,19 +5264,19 @@
       </c>
       <c r="K16" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0739726027397261</v>
+        <v>1.0575342465753426</v>
       </c>
       <c r="M16" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5308,17 +5316,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
         <v>42907</v>
       </c>
-      <c r="G17" s="62">
-        <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
-        <v>2.2500000000003073E-4</v>
+      <c r="G17" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H17" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I17" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J17" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
@@ -5326,19 +5334,19 @@
       </c>
       <c r="K17" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.3232876712328767</v>
+        <v>1.3068493150684932</v>
       </c>
       <c r="M17" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5378,17 +5386,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
         <v>42993</v>
       </c>
-      <c r="G18" s="62">
-        <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>5.7499999999999218E-4</v>
+      <c r="G18" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H18" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I18" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J18" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
@@ -5396,19 +5404,19 @@
       </c>
       <c r="K18" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.5534246575342465</v>
+        <v>1.536986301369863</v>
       </c>
       <c r="M18" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5443,17 +5451,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
         <v>43090</v>
       </c>
-      <c r="G19" s="62">
-        <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>9.2500000000006466E-4</v>
+      <c r="G19" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H19" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I19" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J19" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
@@ -5461,19 +5469,19 @@
       </c>
       <c r="K19" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.821917808219178</v>
+        <v>1.8054794520547945</v>
       </c>
       <c r="M19" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5501,17 +5509,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
         <v>43179</v>
       </c>
-      <c r="G20" s="62">
-        <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>1.3249999999999096E-3</v>
+      <c r="G20" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H20" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I20" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J20" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
@@ -5519,19 +5527,19 @@
       </c>
       <c r="K20" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>2.0712328767123287</v>
+        <v>2.0547945205479454</v>
       </c>
       <c r="M20" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5559,17 +5567,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
         <v>43271</v>
       </c>
-      <c r="G21" s="62">
-        <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>1.7750000000000821E-3</v>
+      <c r="G21" s="62" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H21" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I21" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J21" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
@@ -5577,19 +5585,19 @@
       </c>
       <c r="K21" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>2.3205479452054796</v>
+        <v>2.3041095890410959</v>
       </c>
       <c r="M21" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5617,17 +5625,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
         <v>43364</v>
       </c>
-      <c r="G22" s="65">
-        <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>2.3250000000000215E-3</v>
+      <c r="G22" s="65" t="e">
+        <f ca="1">1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H22" s="65" t="e">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I22" s="260" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J22" s="65" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
@@ -5635,19 +5643,19 @@
       </c>
       <c r="K22" s="189" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>2.56986301369863</v>
+        <v>2.5534246575342467</v>
       </c>
       <c r="M22" s="235" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="185" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5691,11 +5699,11 @@
       </c>
       <c r="G25" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H25" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42243</v>
+        <v>42249</v>
       </c>
       <c r="I25" s="287" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
@@ -5709,11 +5717,11 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42249</v>
+        <v>42255</v>
       </c>
       <c r="I26" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
@@ -5727,11 +5735,11 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42256</v>
+        <v>42262</v>
       </c>
       <c r="I27" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
@@ -5745,11 +5753,11 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42263</v>
+        <v>42269</v>
       </c>
       <c r="I28" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
@@ -5763,11 +5771,11 @@
       </c>
       <c r="G29" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H29" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="I29" s="289" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
@@ -5781,11 +5789,11 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H30" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42303</v>
+        <v>42310</v>
       </c>
       <c r="I30" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
@@ -5799,11 +5807,11 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H31" s="275">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="I31" s="291" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
@@ -5965,7 +5973,7 @@
       <c r="I53" s="57"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O22 S13:S17">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -6075,11 +6083,11 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42426</v>
+        <v>42430</v>
       </c>
       <c r="G3" s="258" t="e">
         <f ca="1">J3+$H$4</f>
@@ -6104,7 +6112,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00513#0000</v>
+        <v>obj_0058c#0000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6123,23 +6131,23 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42426</v>
-      </c>
-      <c r="G4" s="190">
-        <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>4.0999999999999994E-4</v>
+        <v>42430</v>
+      </c>
+      <c r="G4" s="190" t="e">
+        <f ca="1">_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H4" s="190" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="258" t="e">
-        <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="I4:I22" ca="1" si="0">G4-H4</f>
+        <v>#NAME?</v>
       </c>
       <c r="J4" s="186" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
@@ -6147,7 +6155,7 @@
       </c>
       <c r="K4" s="187" t="e">
         <f ca="1">M4*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6155,11 +6163,11 @@
       </c>
       <c r="M4" s="278" t="e">
         <f t="shared" ref="M4:M22" ca="1" si="1">I4-J4</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="281" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -6182,23 +6190,23 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42458</v>
-      </c>
-      <c r="G5" s="67">
-        <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>4.2999999999999999E-4</v>
+        <v>42461</v>
+      </c>
+      <c r="G5" s="67" t="e">
+        <f ca="1">_xll.qlQuoteValue(D5,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H5" s="67" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="280" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J5" s="67" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
@@ -6206,19 +6214,19 @@
       </c>
       <c r="K5" s="240" t="e">
         <f t="shared" ref="K5:K22" ca="1" si="4">M5*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>9.0410958904109592E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="M5" s="279" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N5" s="183" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6245,23 +6253,23 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42303</v>
+        <v>42310</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42486</v>
-      </c>
-      <c r="G6" s="62">
-        <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>4.4000000000000007E-4</v>
+        <v>42492</v>
+      </c>
+      <c r="G6" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D6,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J6" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
@@ -6269,19 +6277,19 @@
       </c>
       <c r="K6" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16712328767123288</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="M6" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6312,23 +6320,23 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42516</v>
-      </c>
-      <c r="G7" s="62">
-        <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>4.6999999999999999E-4</v>
+        <v>42522</v>
+      </c>
+      <c r="G7" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D7,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H7" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J7" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
@@ -6336,19 +6344,19 @@
       </c>
       <c r="K7" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M7" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N7" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6379,23 +6387,23 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42366</v>
+        <v>42373</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42549</v>
-      </c>
-      <c r="G8" s="62">
-        <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>42555</v>
+      </c>
+      <c r="G8" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D8,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H8" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J8" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
@@ -6403,19 +6411,19 @@
       </c>
       <c r="K8" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33972602739726027</v>
+        <v>0.34246575342465752</v>
       </c>
       <c r="M8" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6446,23 +6454,23 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42395</v>
+        <v>42401</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42577</v>
-      </c>
-      <c r="G9" s="62">
-        <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>5.2000000000000006E-4</v>
+        <v>42583</v>
+      </c>
+      <c r="G9" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D9,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H9" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J9" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
@@ -6470,7 +6478,7 @@
       </c>
       <c r="K9" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -6478,11 +6486,11 @@
       </c>
       <c r="M9" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6513,23 +6521,23 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42426</v>
+        <v>42430</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42608</v>
-      </c>
-      <c r="G10" s="62">
-        <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>5.4000000000000001E-4</v>
+        <v>42614</v>
+      </c>
+      <c r="G10" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D10,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H10" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I10" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J10" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
@@ -6537,19 +6545,19 @@
       </c>
       <c r="K10" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50410958904109593</v>
+        <v>0.49863013698630138</v>
       </c>
       <c r="M10" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6580,23 +6588,23 @@
       </c>
       <c r="E11" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42642</v>
-      </c>
-      <c r="G11" s="67">
-        <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>5.6999999999999998E-4</v>
+        <v>42646</v>
+      </c>
+      <c r="G11" s="67" t="e">
+        <f ca="1">_xll.qlQuoteValue(D11,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H11" s="67" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" s="280" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J11" s="67" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
@@ -6604,19 +6612,19 @@
       </c>
       <c r="K11" s="240" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.59178082191780823</v>
+        <v>0.58356164383561648</v>
       </c>
       <c r="M11" s="279" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="183" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6640,23 +6648,23 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42486</v>
+        <v>42492</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42669</v>
-      </c>
-      <c r="G12" s="62">
-        <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>6.0999999999999997E-4</v>
+        <v>42676</v>
+      </c>
+      <c r="G12" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D12,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H12" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I12" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J12" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
@@ -6664,7 +6672,7 @@
       </c>
       <c r="K12" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -6672,11 +6680,11 @@
       </c>
       <c r="M12" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -6710,23 +6718,23 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42516</v>
+        <v>42522</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42702</v>
-      </c>
-      <c r="G13" s="62">
-        <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>6.6E-4</v>
+        <v>42705</v>
+      </c>
+      <c r="G13" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D13,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H13" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I13" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J13" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
@@ -6734,7 +6742,7 @@
       </c>
       <c r="K13" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -6742,11 +6750,11 @@
       </c>
       <c r="M13" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -6783,23 +6791,23 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42548</v>
+        <v>42552</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42731</v>
-      </c>
-      <c r="G14" s="62">
-        <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>7.2000000000000005E-4</v>
+        <v>42737</v>
+      </c>
+      <c r="G14" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D14,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H14" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I14" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J14" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
@@ -6807,19 +6815,19 @@
       </c>
       <c r="K14" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83835616438356164</v>
+        <v>0.83287671232876714</v>
       </c>
       <c r="M14" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -6856,23 +6864,23 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42577</v>
+        <v>42583</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42761</v>
-      </c>
-      <c r="G15" s="62">
-        <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>8.1000000000000006E-4</v>
+        <v>42767</v>
+      </c>
+      <c r="G15" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D15,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H15" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I15" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J15" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
@@ -6880,7 +6888,7 @@
       </c>
       <c r="K15" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -6888,11 +6896,11 @@
       </c>
       <c r="M15" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -6929,23 +6937,23 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42608</v>
+        <v>42614</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42793</v>
-      </c>
-      <c r="G16" s="62">
-        <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>8.8999999999999995E-4</v>
+        <v>42795</v>
+      </c>
+      <c r="G16" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D16,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H16" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J16" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
@@ -6953,7 +6961,7 @@
       </c>
       <c r="K16" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -6961,11 +6969,11 @@
       </c>
       <c r="M16" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -7002,23 +7010,23 @@
       </c>
       <c r="E17" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42639</v>
+        <v>42646</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42821</v>
-      </c>
-      <c r="G17" s="62">
-        <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>42828</v>
+      </c>
+      <c r="G17" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D17,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H17" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I17" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J17" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
@@ -7026,19 +7034,19 @@
       </c>
       <c r="K17" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.0876712328767124</v>
+        <v>1.0904109589041096</v>
       </c>
       <c r="M17" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7075,23 +7083,23 @@
       </c>
       <c r="E18" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A18&amp;"M","mf",,Trigger)</f>
-        <v>42669</v>
+        <v>42675</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42851</v>
-      </c>
-      <c r="G18" s="62">
-        <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>1.0899999999999998E-3</v>
+        <v>42857</v>
+      </c>
+      <c r="G18" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D18,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H18" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I18" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J18" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
@@ -7099,7 +7107,7 @@
       </c>
       <c r="K18" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -7107,11 +7115,11 @@
       </c>
       <c r="M18" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7143,23 +7151,23 @@
       </c>
       <c r="E19" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A19&amp;"M","mf",,Trigger)</f>
-        <v>42702</v>
+        <v>42705</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42884</v>
-      </c>
-      <c r="G19" s="62">
-        <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>1.2099999999999999E-3</v>
+        <v>42887</v>
+      </c>
+      <c r="G19" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D19,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H19" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I19" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J19" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
@@ -7167,19 +7175,19 @@
       </c>
       <c r="K19" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.2602739726027397</v>
+        <v>1.252054794520548</v>
       </c>
       <c r="M19" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7204,23 +7212,23 @@
       </c>
       <c r="E20" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A20&amp;"M","mf",,Trigger)</f>
-        <v>42731</v>
+        <v>42737</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>42913</v>
-      </c>
-      <c r="G20" s="62">
-        <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.32E-3</v>
+        <v>42919</v>
+      </c>
+      <c r="G20" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D20,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H20" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I20" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J20" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
@@ -7228,7 +7236,7 @@
       </c>
       <c r="K20" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
@@ -7236,11 +7244,11 @@
       </c>
       <c r="M20" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7265,23 +7273,23 @@
       </c>
       <c r="E21" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A21&amp;"M","mf",,Trigger)</f>
-        <v>42761</v>
+        <v>42767</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>42942</v>
-      </c>
-      <c r="G21" s="62">
-        <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>1.4399999999999999E-3</v>
+        <v>42948</v>
+      </c>
+      <c r="G21" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D21,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H21" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I21" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J21" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
@@ -7289,7 +7297,7 @@
       </c>
       <c r="K21" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -7297,11 +7305,11 @@
       </c>
       <c r="M21" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7326,23 +7334,23 @@
       </c>
       <c r="E22" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A22&amp;"M","mf",,Trigger)</f>
-        <v>42793</v>
+        <v>42795</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>42975</v>
-      </c>
-      <c r="G22" s="65">
-        <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>1.58E-3</v>
+        <v>42979</v>
+      </c>
+      <c r="G22" s="65" t="e">
+        <f ca="1">_xll.qlQuoteValue(D22,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H22" s="65" t="e">
-        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I22" s="260" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J22" s="65" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
@@ -7350,19 +7358,19 @@
       </c>
       <c r="K22" s="189" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>1.5095890410958903</v>
+        <v>1.4986301369863013</v>
       </c>
       <c r="M22" s="235" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="185" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7403,11 +7411,11 @@
       </c>
       <c r="G25" s="298">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H25" s="295">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42243</v>
+        <v>42249</v>
       </c>
       <c r="I25" s="287" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
@@ -7420,11 +7428,11 @@
       </c>
       <c r="G26" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H26" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42249</v>
+        <v>42255</v>
       </c>
       <c r="I26" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
@@ -7437,11 +7445,11 @@
       </c>
       <c r="G27" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H27" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42256</v>
+        <v>42262</v>
       </c>
       <c r="I27" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
@@ -7454,11 +7462,11 @@
       </c>
       <c r="G28" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H28" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42263</v>
+        <v>42269</v>
       </c>
       <c r="I28" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
@@ -7471,11 +7479,11 @@
       </c>
       <c r="G29" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H29" s="301">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="I29" s="289" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
@@ -7488,11 +7496,11 @@
       </c>
       <c r="G30" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H30" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42303</v>
+        <v>42310</v>
       </c>
       <c r="I30" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
@@ -7505,11 +7513,11 @@
       </c>
       <c r="G31" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H31" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="I31" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
@@ -7522,11 +7530,11 @@
       </c>
       <c r="G32" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H32" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42366</v>
+        <v>42373</v>
       </c>
       <c r="I32" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
@@ -7539,11 +7547,11 @@
       </c>
       <c r="G33" s="302">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H33" s="297">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42395</v>
+        <v>42401</v>
       </c>
       <c r="I33" s="290" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
@@ -7556,11 +7564,11 @@
       </c>
       <c r="G34" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42426</v>
+        <v>42430</v>
       </c>
       <c r="I34" s="291" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
@@ -7759,11 +7767,11 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42608</v>
+        <v>42614</v>
       </c>
       <c r="G3" s="258" t="e">
         <f ca="1">J3+$H$4</f>
@@ -7788,7 +7796,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00512#0000</v>
+        <v>obj_0058b#0000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7808,23 +7816,23 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
-        <v>42608</v>
-      </c>
-      <c r="G4" s="190">
-        <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>42614</v>
+      </c>
+      <c r="G4" s="190" t="e">
+        <f ca="1">_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H4" s="190" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="258" t="e">
-        <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="I4:I14" ca="1" si="0">G4-H4</f>
+        <v>#NAME?</v>
       </c>
       <c r="J4" s="186" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
@@ -7832,19 +7840,19 @@
       </c>
       <c r="K4" s="187" t="e">
         <f ca="1">L4*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L4" s="278" t="e">
         <f t="shared" ref="L4:L16" ca="1" si="1">I4-J4</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
         <v>0</v>
       </c>
       <c r="N4" s="281" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>1</v>
@@ -7867,23 +7875,23 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
-        <v>42641</v>
-      </c>
-      <c r="G5" s="67">
-        <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>42646</v>
+      </c>
+      <c r="G5" s="67" t="e">
+        <f ca="1">_xll.qlQuoteValue(D5,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H5" s="67" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="280" t="e">
-        <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="I5:I13" ca="1" si="3">G5-H5</f>
+        <v>#NAME?</v>
       </c>
       <c r="J5" s="67" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
@@ -7891,19 +7899,19 @@
       </c>
       <c r="K5" s="240" t="e">
         <f t="shared" ref="K5:K16" ca="1" si="4">L5*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L5" s="279" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>9.0410958904109592E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="N5" s="183" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -7931,23 +7939,23 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42303</v>
+        <v>42310</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
-        <v>42669</v>
-      </c>
-      <c r="G6" s="62">
-        <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.64E-3</v>
+        <v>42676</v>
+      </c>
+      <c r="G6" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D6,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="265" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="J6" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
@@ -7955,19 +7963,19 @@
       </c>
       <c r="K6" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L6" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16712328767123288</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="N6" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -7999,23 +8007,23 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
-        <v>42702</v>
-      </c>
-      <c r="G7" s="62">
-        <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.6999999999999999E-3</v>
+        <v>42705</v>
+      </c>
+      <c r="G7" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D7,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H7" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="265" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="J7" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
@@ -8023,19 +8031,19 @@
       </c>
       <c r="K7" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L7" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="N7" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8067,23 +8075,23 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42366</v>
+        <v>42373</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E8)</f>
-        <v>42732</v>
-      </c>
-      <c r="G8" s="62">
-        <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>1.7599999999999998E-3</v>
+        <v>42739</v>
+      </c>
+      <c r="G8" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D8,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H8" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="265" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="J8" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
@@ -8091,19 +8099,19 @@
       </c>
       <c r="K8" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L8" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33972602739726027</v>
+        <v>0.34246575342465752</v>
       </c>
       <c r="N8" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8135,23 +8143,23 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42395</v>
+        <v>42401</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
-        <v>42761</v>
-      </c>
-      <c r="G9" s="62">
-        <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>1.83E-3</v>
+        <v>42767</v>
+      </c>
+      <c r="G9" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D9,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H9" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="265" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="J9" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
@@ -8159,19 +8167,19 @@
       </c>
       <c r="K9" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L9" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
         <v>0.41917808219178082</v>
       </c>
       <c r="N9" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8203,23 +8211,23 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42426</v>
+        <v>42430</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
-        <v>42793</v>
-      </c>
-      <c r="G10" s="62">
-        <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>1.9E-3</v>
+        <v>42795</v>
+      </c>
+      <c r="G10" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D10,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H10" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I10" s="265" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="J10" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
@@ -8227,19 +8235,19 @@
       </c>
       <c r="K10" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L10" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50410958904109593</v>
+        <v>0.49863013698630138</v>
       </c>
       <c r="N10" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8271,23 +8279,23 @@
       </c>
       <c r="E11" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="F11" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
-        <v>42823</v>
-      </c>
-      <c r="G11" s="62">
-        <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>1.99E-3</v>
+        <v>42828</v>
+      </c>
+      <c r="G11" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D11,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H11" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" s="265" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="J11" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
@@ -8295,19 +8303,19 @@
       </c>
       <c r="K11" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L11" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.59178082191780823</v>
+        <v>0.58356164383561648</v>
       </c>
       <c r="N11" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8332,23 +8340,23 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42486</v>
+        <v>42492</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
-        <v>42851</v>
-      </c>
-      <c r="G12" s="62">
-        <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>2.0800000000000003E-3</v>
+        <v>42857</v>
+      </c>
+      <c r="G12" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D12,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H12" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I12" s="265" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="J12" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
@@ -8356,19 +8364,19 @@
       </c>
       <c r="K12" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L12" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
         <v>0.66849315068493154</v>
       </c>
       <c r="N12" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8402,23 +8410,23 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42516</v>
+        <v>42522</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
-        <v>42881</v>
-      </c>
-      <c r="G13" s="62">
-        <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.1800000000000001E-3</v>
+        <v>42887</v>
+      </c>
+      <c r="G13" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D13,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H13" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I13" s="265" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="J13" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
@@ -8426,19 +8434,19 @@
       </c>
       <c r="K13" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L13" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
         <v>0.75068493150684934</v>
       </c>
       <c r="N13" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8475,23 +8483,23 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42548</v>
+        <v>42552</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
-        <v>42913</v>
-      </c>
-      <c r="G14" s="62">
-        <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.3E-3</v>
+        <v>42919</v>
+      </c>
+      <c r="G14" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D14,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H14" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I14" s="265" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J14" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
@@ -8499,19 +8507,19 @@
       </c>
       <c r="K14" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L14" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83835616438356164</v>
+        <v>0.83287671232876714</v>
       </c>
       <c r="N14" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8548,23 +8556,23 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42577</v>
+        <v>42583</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
-        <v>42942</v>
-      </c>
-      <c r="G15" s="62">
-        <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>2.4199999999999998E-3</v>
+        <v>42948</v>
+      </c>
+      <c r="G15" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D15,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H15" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I15" s="265" t="e">
-        <f>G15-H15</f>
-        <v>#NUM!</v>
+        <f ca="1">G15-H15</f>
+        <v>#NAME?</v>
       </c>
       <c r="J15" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
@@ -8572,19 +8580,19 @@
       </c>
       <c r="K15" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L15" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
         <v>0.9178082191780822</v>
       </c>
       <c r="N15" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8621,23 +8629,23 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42608</v>
+        <v>42614</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
-        <v>42975</v>
-      </c>
-      <c r="G16" s="62">
-        <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>2.5500000000000002E-3</v>
+        <v>42979</v>
+      </c>
+      <c r="G16" s="62" t="e">
+        <f ca="1">_xll.qlQuoteValue(D16,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H16" s="62" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="265" t="e">
-        <f>G16-H16</f>
-        <v>#NUM!</v>
+        <f ca="1">G16-H16</f>
+        <v>#NAME?</v>
       </c>
       <c r="J16" s="62" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
@@ -8645,19 +8653,19 @@
       </c>
       <c r="K16" s="188" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L16" s="234" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
         <v>1.0027397260273974</v>
       </c>
       <c r="N16" s="184" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8692,23 +8700,23 @@
       </c>
       <c r="E17" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42975</v>
+        <v>42979</v>
       </c>
       <c r="F17" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E17)</f>
-        <v>43340</v>
-      </c>
-      <c r="G17" s="65">
-        <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>4.3399999999999992E-3</v>
+        <v>43346</v>
+      </c>
+      <c r="G17" s="65" t="e">
+        <f ca="1">_xll.qlQuoteValue(D17,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H17" s="65" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I17" s="260" t="e">
-        <f>G17-H17</f>
-        <v>#NUM!</v>
+        <f ca="1">G17-H17</f>
+        <v>#NAME?</v>
       </c>
       <c r="J17" s="65" t="e">
         <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
@@ -8716,19 +8724,19 @@
       </c>
       <c r="K17" s="189" t="e">
         <f t="shared" ref="K17" ca="1" si="7">L17*10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L17" s="235" t="e">
         <f t="shared" ref="L17" ca="1" si="8">I17-J17</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>2.0082191780821916</v>
+        <v>2.0027397260273974</v>
       </c>
       <c r="N17" s="185" t="e">
-        <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -8796,11 +8804,11 @@
       </c>
       <c r="G20" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H20" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
-        <v>42243</v>
+        <v>42249</v>
       </c>
       <c r="I20" s="287" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
@@ -8814,11 +8822,11 @@
       </c>
       <c r="G21" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H21" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
-        <v>42249</v>
+        <v>42255</v>
       </c>
       <c r="I21" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
@@ -8831,11 +8839,11 @@
       </c>
       <c r="G22" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H22" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
-        <v>42256</v>
+        <v>42262</v>
       </c>
       <c r="I22" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
@@ -8848,11 +8856,11 @@
       </c>
       <c r="G23" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H23" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
-        <v>42263</v>
+        <v>42269</v>
       </c>
       <c r="I23" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
@@ -8865,11 +8873,11 @@
       </c>
       <c r="G24" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H24" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="I24" s="289" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
@@ -8882,11 +8890,11 @@
       </c>
       <c r="G25" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H25" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
-        <v>42303</v>
+        <v>42310</v>
       </c>
       <c r="I25" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
@@ -8899,11 +8907,11 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="I26" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
@@ -8916,11 +8924,11 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
-        <v>42366</v>
+        <v>42373</v>
       </c>
       <c r="I27" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
@@ -8933,11 +8941,11 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
-        <v>42395</v>
+        <v>42401</v>
       </c>
       <c r="I28" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
@@ -8950,11 +8958,11 @@
       </c>
       <c r="G29" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H29" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42426</v>
+        <v>42430</v>
       </c>
       <c r="I29" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
@@ -8967,11 +8975,11 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="I30" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
@@ -8984,11 +8992,11 @@
       </c>
       <c r="G31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42486</v>
+        <v>42492</v>
       </c>
       <c r="I31" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
@@ -9001,11 +9009,11 @@
       </c>
       <c r="G32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42516</v>
+        <v>42522</v>
       </c>
       <c r="I32" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
@@ -9018,11 +9026,11 @@
       </c>
       <c r="G33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42548</v>
+        <v>42552</v>
       </c>
       <c r="I33" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
@@ -9035,11 +9043,11 @@
       </c>
       <c r="G34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42577</v>
+        <v>42583</v>
       </c>
       <c r="I34" s="288" t="e">
         <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
@@ -9052,11 +9060,11 @@
       </c>
       <c r="G35" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="H35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
-        <v>42608</v>
+        <v>42614</v>
       </c>
       <c r="I35" s="291" t="e">
         <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
@@ -9213,27 +9221,27 @@
       </c>
       <c r="B3" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C3)</f>
-        <v>42240</v>
+        <v>42244</v>
       </c>
       <c r="C3" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A3&amp;"M","mf")</f>
-        <v>42242</v>
+        <v>42248</v>
       </c>
       <c r="D3" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
-        <v>42608</v>
+        <v>42614</v>
       </c>
       <c r="E3" s="75" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F3" s="76" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G3" s="75" t="e">
-        <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="G3:G27" ca="1" si="0">E3+F3</f>
+        <v>#NAME?</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9245,27 +9253,27 @@
       </c>
       <c r="B4" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C4)</f>
-        <v>42271</v>
+        <v>42276</v>
       </c>
       <c r="C4" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A4&amp;"M","mf")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="D4" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
-        <v>42641</v>
+        <v>42646</v>
       </c>
       <c r="E4" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F4" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G4" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9277,27 +9285,27 @@
       </c>
       <c r="B5" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C5)</f>
-        <v>42299</v>
+        <v>42306</v>
       </c>
       <c r="C5" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A5&amp;"M","mf")</f>
-        <v>42303</v>
+        <v>42310</v>
       </c>
       <c r="D5" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
-        <v>42669</v>
+        <v>42676</v>
       </c>
       <c r="E5" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F5" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9309,27 +9317,27 @@
       </c>
       <c r="B6" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C6)</f>
-        <v>42332</v>
+        <v>42335</v>
       </c>
       <c r="C6" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A6&amp;"M","mf")</f>
-        <v>42334</v>
+        <v>42339</v>
       </c>
       <c r="D6" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
-        <v>42702</v>
+        <v>42705</v>
       </c>
       <c r="E6" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G6" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9341,27 +9349,27 @@
       </c>
       <c r="B7" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C7)</f>
-        <v>42361</v>
+        <v>42368</v>
       </c>
       <c r="C7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A7&amp;"M","mf")</f>
-        <v>42366</v>
+        <v>42373</v>
       </c>
       <c r="D7" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C7)</f>
-        <v>42732</v>
+        <v>42739</v>
       </c>
       <c r="E7" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F7" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G7" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9373,27 +9381,27 @@
       </c>
       <c r="B8" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C8)</f>
-        <v>42391</v>
+        <v>42397</v>
       </c>
       <c r="C8" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A8&amp;"M","mf")</f>
-        <v>42395</v>
+        <v>42401</v>
       </c>
       <c r="D8" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
-        <v>42761</v>
+        <v>42767</v>
       </c>
       <c r="E8" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F8" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G8" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9405,27 +9413,27 @@
       </c>
       <c r="B9" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C9)</f>
-        <v>42424</v>
+        <v>42426</v>
       </c>
       <c r="C9" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A9&amp;"M","mf")</f>
-        <v>42426</v>
+        <v>42430</v>
       </c>
       <c r="D9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
-        <v>42793</v>
+        <v>42795</v>
       </c>
       <c r="E9" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F9" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G9" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9437,27 +9445,27 @@
       </c>
       <c r="B10" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C10)</f>
-        <v>42452</v>
+        <v>42459</v>
       </c>
       <c r="C10" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A10&amp;"M","mf")</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="D10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
-        <v>42823</v>
+        <v>42828</v>
       </c>
       <c r="E10" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F10" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G10" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H10" s="72"/>
       <c r="Z10" s="71"/>
@@ -9470,27 +9478,27 @@
       </c>
       <c r="B11" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C11)</f>
-        <v>42482</v>
+        <v>42488</v>
       </c>
       <c r="C11" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A11&amp;"M","mf")</f>
-        <v>42486</v>
+        <v>42492</v>
       </c>
       <c r="D11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
-        <v>42851</v>
+        <v>42857</v>
       </c>
       <c r="E11" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F11" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G11" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H11" s="72"/>
       <c r="Z11" s="71"/>
@@ -9503,27 +9511,27 @@
       </c>
       <c r="B12" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C12)</f>
-        <v>42514</v>
+        <v>42520</v>
       </c>
       <c r="C12" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>42516</v>
+        <v>42522</v>
       </c>
       <c r="D12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
-        <v>42881</v>
+        <v>42887</v>
       </c>
       <c r="E12" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F12" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G12" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9536,27 +9544,27 @@
       </c>
       <c r="B13" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C13)</f>
-        <v>42544</v>
+        <v>42550</v>
       </c>
       <c r="C13" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>42548</v>
+        <v>42552</v>
       </c>
       <c r="D13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
-        <v>42913</v>
+        <v>42919</v>
       </c>
       <c r="E13" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F13" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G13" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9569,27 +9577,27 @@
       </c>
       <c r="B14" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C14)</f>
-        <v>42573</v>
+        <v>42579</v>
       </c>
       <c r="C14" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>42577</v>
+        <v>42583</v>
       </c>
       <c r="D14" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
-        <v>42942</v>
+        <v>42948</v>
       </c>
       <c r="E14" s="83" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F14" s="84" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G14" s="83" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9602,27 +9610,27 @@
       </c>
       <c r="B15" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C15)</f>
-        <v>42606</v>
+        <v>42612</v>
       </c>
       <c r="C15" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A15&amp;"M","mf")</f>
-        <v>42608</v>
+        <v>42614</v>
       </c>
       <c r="D15" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
-        <v>42975</v>
+        <v>42979</v>
       </c>
       <c r="E15" s="75" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F15" s="76" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G15" s="75" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9635,27 +9643,27 @@
       </c>
       <c r="B16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C16)</f>
-        <v>42635</v>
+        <v>42642</v>
       </c>
       <c r="C16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A16&amp;"M","mf")</f>
-        <v>42639</v>
+        <v>42646</v>
       </c>
       <c r="D16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
-        <v>43004</v>
+        <v>43011</v>
       </c>
       <c r="E16" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F16" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G16" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9668,27 +9676,27 @@
       </c>
       <c r="B17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C17)</f>
-        <v>42667</v>
+        <v>42671</v>
       </c>
       <c r="C17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A17&amp;"M","mf")</f>
-        <v>42669</v>
+        <v>42675</v>
       </c>
       <c r="D17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
-        <v>43034</v>
+        <v>43040</v>
       </c>
       <c r="E17" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F17" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G17" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -9701,27 +9709,27 @@
       </c>
       <c r="B18" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C18)</f>
-        <v>42698</v>
+        <v>42703</v>
       </c>
       <c r="C18" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A18&amp;"M","mf")</f>
-        <v>42702</v>
+        <v>42705</v>
       </c>
       <c r="D18" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C18)</f>
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="E18" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F18" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G18" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -9734,27 +9742,27 @@
       </c>
       <c r="B19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C19)</f>
-        <v>42726</v>
+        <v>42733</v>
       </c>
       <c r="C19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>42731</v>
+        <v>42737</v>
       </c>
       <c r="D19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
-        <v>43096</v>
+        <v>43102</v>
       </c>
       <c r="E19" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F19" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G19" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -9767,27 +9775,27 @@
       </c>
       <c r="B20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C20)</f>
-        <v>42759</v>
+        <v>42765</v>
       </c>
       <c r="C20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>42761</v>
+        <v>42767</v>
       </c>
       <c r="D20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
-        <v>43126</v>
+        <v>43132</v>
       </c>
       <c r="E20" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F20" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G20" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -9800,27 +9808,27 @@
       </c>
       <c r="B21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C21)</f>
-        <v>42789</v>
+        <v>42793</v>
       </c>
       <c r="C21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>42793</v>
+        <v>42795</v>
       </c>
       <c r="D21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C21)</f>
-        <v>43158</v>
+        <v>43160</v>
       </c>
       <c r="E21" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F21" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G21" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -9833,27 +9841,27 @@
       </c>
       <c r="B22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C22)</f>
-        <v>42817</v>
+        <v>42824</v>
       </c>
       <c r="C22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>42821</v>
+        <v>42828</v>
       </c>
       <c r="D22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
-        <v>43186</v>
+        <v>43193</v>
       </c>
       <c r="E22" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F22" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G22" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -9866,27 +9874,27 @@
       </c>
       <c r="B23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C23)</f>
-        <v>42849</v>
+        <v>42852</v>
       </c>
       <c r="C23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>42851</v>
+        <v>42857</v>
       </c>
       <c r="D23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
-        <v>43216</v>
+        <v>43222</v>
       </c>
       <c r="E23" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F23" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G23" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -9899,27 +9907,27 @@
       </c>
       <c r="B24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C24)</f>
-        <v>42879</v>
+        <v>42885</v>
       </c>
       <c r="C24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42881</v>
+        <v>42887</v>
       </c>
       <c r="D24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
-        <v>43248</v>
+        <v>43252</v>
       </c>
       <c r="E24" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F24" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G24" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -9932,27 +9940,27 @@
       </c>
       <c r="B25" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C25)</f>
-        <v>42908</v>
+        <v>42915</v>
       </c>
       <c r="C25" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A25&amp;"M","mf")</f>
-        <v>42912</v>
+        <v>42919</v>
       </c>
       <c r="D25" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
-        <v>43277</v>
+        <v>43284</v>
       </c>
       <c r="E25" s="79" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F25" s="80" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G25" s="79" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -9965,27 +9973,27 @@
       </c>
       <c r="B26" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C26)</f>
-        <v>42940</v>
+        <v>42944</v>
       </c>
       <c r="C26" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A26&amp;"M","mf")</f>
-        <v>42942</v>
+        <v>42948</v>
       </c>
       <c r="D26" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
-        <v>43307</v>
+        <v>43313</v>
       </c>
       <c r="E26" s="83" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F26" s="84" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G26" s="83" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -9998,27 +10006,27 @@
       </c>
       <c r="B27" s="340">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C27)</f>
-        <v>42971</v>
+        <v>42977</v>
       </c>
       <c r="C27" s="340">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A27&amp;"M","mf")</f>
-        <v>42975</v>
+        <v>42979</v>
       </c>
       <c r="D27" s="340">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C27)</f>
-        <v>43340</v>
+        <v>43346</v>
       </c>
       <c r="E27" s="341" t="e">
-        <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F27" s="342" t="e">
-        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G27" s="341" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10058,8 +10066,8 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10127,9 +10135,9 @@
       <c r="M2" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="102">
+      <c r="N2" s="102" t="e">
         <f ca="1">_xll.ohTrigger(M3:M7)</f>
-        <v>2</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10163,16 +10171,16 @@
         <v>56</v>
       </c>
       <c r="J3" s="132">
-        <v>-9.8429979826786251E-4</v>
+        <v>-1.316477993937859E-3</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="120" t="e">
         <f t="array" ref="L3:L63" ca="1">QuoteLive</f>
         <v>#NAME?</v>
       </c>
-      <c r="M3" s="121">
+      <c r="M3" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="104"/>
     </row>
@@ -10208,16 +10216,16 @@
         <v>56</v>
       </c>
       <c r="J4" s="132">
-        <v>-9.5880917084186933E-4</v>
+        <v>-1.2209335795405301E-3</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M4" s="121">
+      <c r="M4" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="104"/>
     </row>
@@ -10250,16 +10258,16 @@
         <v>56</v>
       </c>
       <c r="J5" s="132">
-        <v>-9.541268486290555E-4</v>
+        <v>-1.1410782631239766E-3</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M5" s="121">
+      <c r="M5" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N5" s="104"/>
     </row>
@@ -10292,16 +10300,16 @@
         <v>56</v>
       </c>
       <c r="J6" s="133">
-        <v>-9.5437681977093652E-4</v>
+        <v>-1.0821725298689902E-3</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="122" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M6" s="123">
+      <c r="M6" s="123" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="104"/>
     </row>
@@ -10334,16 +10342,16 @@
         <v>56</v>
       </c>
       <c r="J7" s="134">
-        <v>-9.4503161439723538E-4</v>
+        <v>-9.8600069793430833E-4</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="124" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M7" s="125">
+      <c r="M7" s="125" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N7" s="107"/>
     </row>
@@ -10373,20 +10381,20 @@
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
-        <v>-2.8656234821067272E-4</v>
+        <v>-3.3860769632187981E-4</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M8" s="121">
+      <c r="M8" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="108">
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="108" t="e">
         <f ca="1">_xll.ohTrigger(M8:M14)</f>
-        <v>2</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10416,16 +10424,16 @@
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
-        <v>-2.8343102198949817E-4</v>
+        <v>-3.360562792899456E-4</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M9" s="121">
+      <c r="M9" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10453,16 +10461,16 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
-        <v>-2.9978663405705319E-4</v>
+        <v>-3.4306991797405928E-4</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10490,16 +10498,16 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
-        <v>-3.1613685863986414E-4</v>
+        <v>-3.5005666844270929E-4</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="122" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="123">
+      <c r="M11" s="123" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10527,16 +10535,16 @@
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
-        <v>-3.2441112299769713E-4</v>
+        <v>-3.1168070535292358E-4</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M12" s="121">
+      <c r="M12" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10564,16 +10572,16 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
-        <v>-3.2136197636945516E-4</v>
+        <v>-3.4856932392404098E-4</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M13" s="121">
+      <c r="M13" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10601,16 +10609,16 @@
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
-        <v>-3.3165240040658104E-4</v>
+        <v>-3.2849599587920461E-4</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="122" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="123">
+      <c r="M14" s="123" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10643,20 +10651,20 @@
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
-        <v>3.88836095961409E-4</v>
+        <v>3.8811684514250544E-4</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M15" s="121">
+      <c r="M15" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="110">
+        <v>#NAME?</v>
+      </c>
+      <c r="N15" s="110" t="e">
         <f ca="1">_xll.ohTrigger(M15:M24)</f>
-        <v>2</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10689,16 +10697,16 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
-        <v>3.9315690679053716E-4</v>
+        <v>3.900531099823975E-4</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -10729,16 +10737,16 @@
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
-        <v>3.7817018280872361E-4</v>
+        <v>3.8237034142391782E-4</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M17" s="121">
+      <c r="M17" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -10769,16 +10777,16 @@
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
-        <v>3.6316907893154033E-4</v>
+        <v>3.7476605910009245E-4</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M18" s="121">
+      <c r="M18" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -10809,16 +10817,16 @@
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
-        <v>3.5716430636802767E-4</v>
+        <v>4.124255326827253E-4</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="126" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M19" s="127">
+      <c r="M19" s="127" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -10849,16 +10857,16 @@
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
-        <v>3.6530943021666228E-4</v>
+        <v>3.7363881997795525E-4</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M20" s="121">
+      <c r="M20" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -10889,16 +10897,16 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
-        <v>3.6036366468090335E-4</v>
+        <v>3.9284258309291777E-4</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M21" s="121">
+      <c r="M21" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -10929,16 +10937,16 @@
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
-        <v>3.5513293690168522E-4</v>
+        <v>3.7577283564729671E-4</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M22" s="121">
+      <c r="M22" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -10969,16 +10977,16 @@
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
-        <v>3.7987198757720198E-4</v>
+        <v>3.7978627978653342E-4</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M23" s="121">
+      <c r="M23" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11009,16 +11017,16 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
-        <v>3.8690292310309456E-4</v>
+        <v>3.7343250152188157E-4</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="122" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M24" s="123">
+      <c r="M24" s="123" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11051,20 +11059,20 @@
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
-        <v>1.5816599052076441E-3</v>
+        <v>1.5304876962574099E-3</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M25" s="121">
+      <c r="M25" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="110">
+        <v>#NAME?</v>
+      </c>
+      <c r="N25" s="110" t="e">
         <f ca="1">_xll.ohTrigger(M25:M40)</f>
-        <v>2</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11097,16 +11105,16 @@
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
-        <v>1.5808427483397581E-3</v>
+        <v>1.5299868322899662E-3</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M26" s="121">
+      <c r="M26" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11137,16 +11145,16 @@
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
-        <v>1.5600487339322605E-3</v>
+        <v>1.5195489405104923E-3</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M27" s="121">
+      <c r="M27" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11177,16 +11185,16 @@
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
-        <v>1.5394394510005935E-3</v>
+        <v>1.5092837959989375E-3</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M28" s="121">
+      <c r="M28" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11217,16 +11225,16 @@
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
-        <v>1.5242788958018268E-3</v>
+        <v>1.5436638581656226E-3</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="122" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M29" s="123">
+      <c r="M29" s="123" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11257,16 +11265,16 @@
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
-        <v>1.5132480327534428E-3</v>
+        <v>1.4944309809768051E-3</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M30" s="121">
+      <c r="M30" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11297,16 +11305,16 @@
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
-        <v>1.4904809255924234E-3</v>
+        <v>1.5057875805543112E-3</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M31" s="121">
+      <c r="M31" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11337,16 +11345,16 @@
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
-        <v>1.4703921682609226E-3</v>
+        <v>1.4813785667117684E-3</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11377,16 +11385,16 @@
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
-        <v>1.4845883170146752E-3</v>
+        <v>1.4808094695501909E-3</v>
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M33" s="121">
+      <c r="M33" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11417,16 +11425,16 @@
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
-        <v>1.4831952589819759E-3</v>
+        <v>1.4710321275872768E-3</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M34" s="121">
+      <c r="M34" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11457,16 +11465,16 @@
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
-        <v>1.5874468964928651E-3</v>
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M35" s="121">
+      <c r="M35" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11497,16 +11505,16 @@
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
-        <v>1.5874468964928651E-3</v>
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M36" s="121">
+      <c r="M36" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11537,16 +11545,16 @@
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
-        <v>1.5874468964928651E-3</v>
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M37" s="121">
+      <c r="M37" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11577,16 +11585,16 @@
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
-        <v>1.5874468964928651E-3</v>
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M38" s="121">
+      <c r="M38" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11617,16 +11625,16 @@
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
-        <v>1.5874468964928651E-3</v>
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="120" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M39" s="121">
+      <c r="M39" s="121" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11657,16 +11665,16 @@
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
-        <v>1.5874468964928651E-3</v>
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="122" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="M40" s="123">
+      <c r="M40" s="123" t="e">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11698,24 +11706,25 @@
         <v>1x13F</v>
       </c>
       <c r="H41" s="152" t="e">
-        <f>SynthFra!G4</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G4</f>
+        <v>#NAME?</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
-        <v>1.5999999999999999E-3</v>
+        <v>1.5700000000000002E-3</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M41" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="110">
-        <f>_xll.ohTrigger(M41:M63)</f>
-        <v>1</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M41" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N41" s="110" t="e">
+        <f ca="1">_xll.ohTrigger(M41:M63)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -11746,20 +11755,21 @@
         <v>2x14F</v>
       </c>
       <c r="H42" s="154" t="e">
-        <f>SynthFra!G5</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G5</f>
+        <v>#NAME?</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
-        <v>1.6400000000000002E-3</v>
+        <v>1.6299999999999999E-3</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M42" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M42" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="111"/>
     </row>
@@ -11791,20 +11801,21 @@
         <v>3x15F</v>
       </c>
       <c r="H43" s="154" t="e">
-        <f>SynthFra!G6</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G6</f>
+        <v>#NAME?</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="136">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6799999999999996E-3</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M43" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M43" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N43" s="111"/>
     </row>
@@ -11836,20 +11847,21 @@
         <v>4x16F</v>
       </c>
       <c r="H44" s="154" t="e">
-        <f>SynthFra!G7</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G7</f>
+        <v>#NAME?</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
-        <v>1.7599999999999996E-3</v>
+        <v>1.7599999999999998E-3</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M44" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M44" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N44" s="111"/>
     </row>
@@ -11881,20 +11893,21 @@
         <v>5x17F</v>
       </c>
       <c r="H45" s="154" t="e">
-        <f>SynthFra!G8</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G8</f>
+        <v>#NAME?</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="136">
-        <v>1.83E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M45" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M45" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N45" s="111"/>
     </row>
@@ -11926,20 +11939,21 @@
         <v>6x18F</v>
       </c>
       <c r="H46" s="154" t="e">
-        <f>SynthFra!G9</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G9</f>
+        <v>#NAME?</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
-        <v>1.9E-3</v>
+        <v>1.9099999999999998E-3</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M46" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M46" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N46" s="111"/>
     </row>
@@ -11971,20 +11985,21 @@
         <v>7x19F</v>
       </c>
       <c r="H47" s="154" t="e">
-        <f>SynthFra!G10</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G10</f>
+        <v>#NAME?</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="136">
-        <v>1.9899999999999996E-3</v>
+        <v>2.0200000000000001E-3</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M47" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M47" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N47" s="111"/>
     </row>
@@ -12016,20 +12031,21 @@
         <v>8x20F</v>
       </c>
       <c r="H48" s="154" t="e">
-        <f>SynthFra!G11</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G11</f>
+        <v>#NAME?</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="136">
-        <v>2.0800000000000003E-3</v>
+        <v>2.1299999999999999E-3</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M48" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M48" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N48" s="111"/>
     </row>
@@ -12061,20 +12077,21 @@
         <v>9x21F</v>
       </c>
       <c r="H49" s="154" t="e">
-        <f>SynthFra!G12</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G12</f>
+        <v>#NAME?</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="136">
-        <v>2.1800000000000005E-3</v>
+        <v>2.2400000000000002E-3</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M49" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M49" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N49" s="111"/>
     </row>
@@ -12106,20 +12123,21 @@
         <v>10x22F</v>
       </c>
       <c r="H50" s="154" t="e">
-        <f>SynthFra!G13</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G13</f>
+        <v>#NAME?</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="136">
-        <v>2.3E-3</v>
+        <v>2.3700000000000001E-3</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M50" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M50" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N50" s="111"/>
     </row>
@@ -12151,20 +12169,21 @@
         <v>11x23F</v>
       </c>
       <c r="H51" s="154" t="e">
-        <f>SynthFra!G14</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G14</f>
+        <v>#NAME?</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="136">
-        <v>2.4199999999999994E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M51" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M51" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N51" s="111"/>
     </row>
@@ -12196,20 +12215,21 @@
         <v>13x25F</v>
       </c>
       <c r="H52" s="154" t="e">
-        <f>SynthFra!G16</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G16</f>
+        <v>#NAME?</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
-        <v>2.6755033417360102E-3</v>
+        <v>2.8190718310976731E-3</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M52" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M52" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N52" s="111"/>
     </row>
@@ -12241,20 +12261,21 @@
         <v>14x26F</v>
       </c>
       <c r="H53" s="154" t="e">
-        <f>SynthFra!G17</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G17</f>
+        <v>#NAME?</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
-        <v>2.8025747947071434E-3</v>
+        <v>2.9672873658795093E-3</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M53" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M53" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N53" s="111"/>
     </row>
@@ -12286,20 +12307,21 @@
         <v>15x27F</v>
       </c>
       <c r="H54" s="154" t="e">
-        <f>SynthFra!G18</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G18</f>
+        <v>#NAME?</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
-        <v>2.9460691140573148E-3</v>
+        <v>3.1261417308532692E-3</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M54" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M54" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N54" s="111"/>
     </row>
@@ -12331,20 +12353,21 @@
         <v>16x28F</v>
       </c>
       <c r="H55" s="154" t="e">
-        <f>SynthFra!G19</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G19</f>
+        <v>#NAME?</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
-        <v>3.0757696569019221E-3</v>
+        <v>3.2819703487922854E-3</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M55" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M55" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N55" s="111"/>
     </row>
@@ -12376,20 +12399,21 @@
         <v>17x29F</v>
       </c>
       <c r="H56" s="154" t="e">
-        <f>SynthFra!G20</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G20</f>
+        <v>#NAME?</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
-        <v>3.2072036539506745E-3</v>
+        <v>3.451083383114617E-3</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M56" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M56" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N56" s="111"/>
     </row>
@@ -12421,20 +12445,21 @@
         <v>18x30F</v>
       </c>
       <c r="H57" s="154" t="e">
-        <f>SynthFra!G21</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G21</f>
+        <v>#NAME?</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
-        <v>3.3591120494643892E-3</v>
+        <v>3.6093059062306636E-3</v>
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M57" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M57" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N57" s="111"/>
     </row>
@@ -12466,20 +12491,21 @@
         <v>19x31F</v>
       </c>
       <c r="H58" s="154" t="e">
-        <f>SynthFra!G22</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G22</f>
+        <v>#NAME?</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
-        <v>3.4962892288041571E-3</v>
+        <v>3.7943510668206281E-3</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M58" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M58" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N58" s="111"/>
     </row>
@@ -12511,20 +12537,21 @@
         <v>20x32F</v>
       </c>
       <c r="H59" s="154" t="e">
-        <f>SynthFra!G23</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G23</f>
+        <v>#NAME?</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
-        <v>3.6480886989262162E-3</v>
+        <v>3.9592973152967302E-3</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M59" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M59" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N59" s="111"/>
     </row>
@@ -12556,20 +12583,21 @@
         <v>21x33F</v>
       </c>
       <c r="H60" s="154" t="e">
-        <f>SynthFra!G24</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G24</f>
+        <v>#NAME?</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
-        <v>3.8105022960257984E-3</v>
+        <v>4.1370111496454908E-3</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M60" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M60" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N60" s="111"/>
     </row>
@@ -12601,20 +12629,21 @@
         <v>22x34F</v>
       </c>
       <c r="H61" s="154" t="e">
-        <f>SynthFra!G25</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G25</f>
+        <v>#NAME?</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
-        <v>3.9740673338003645E-3</v>
+        <v>4.3387994579556256E-3</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M61" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M61" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N61" s="111"/>
     </row>
@@ -12646,20 +12675,21 @@
         <v>23x35F</v>
       </c>
       <c r="H62" s="154" t="e">
-        <f>SynthFra!G26</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G26</f>
+        <v>#NAME?</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
-        <v>4.144180312678279E-3</v>
+        <v>4.5331055202903845E-3</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M62" s="129">
-        <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M62" s="129" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N62" s="111"/>
     </row>
@@ -12691,20 +12721,21 @@
         <v>24x36F</v>
       </c>
       <c r="H63" s="156" t="e">
-        <f>SynthFra!G27</f>
-        <v>#NUM!</v>
+        <f ca="1">SynthFra!G27</f>
+        <v>#NAME?</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="137">
-        <v>4.3399999999999992E-3</v>
+        <v>4.7599999999999995E-3</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="130" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M63" s="131">
-        <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>
-        <v>0</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M63" s="131" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="111"/>
     </row>
